--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>144427500</v>
+        <v>138709100</v>
       </c>
       <c r="E8" s="3">
-        <v>139632800</v>
+        <v>147605300</v>
       </c>
       <c r="F8" s="3">
-        <v>127252700</v>
+        <v>142705000</v>
       </c>
       <c r="G8" s="3">
-        <v>132724500</v>
+        <v>130052600</v>
       </c>
       <c r="H8" s="3">
-        <v>121152400</v>
+        <v>135644700</v>
       </c>
       <c r="I8" s="3">
-        <v>113680400</v>
+        <v>123818000</v>
       </c>
       <c r="J8" s="3">
+        <v>116181600</v>
+      </c>
+      <c r="K8" s="3">
         <v>89790500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71850800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>114360800</v>
+        <v>110101900</v>
       </c>
       <c r="E9" s="3">
-        <v>109085300</v>
+        <v>116877000</v>
       </c>
       <c r="F9" s="3">
-        <v>98770600</v>
+        <v>111485400</v>
       </c>
       <c r="G9" s="3">
-        <v>103011500</v>
+        <v>100943700</v>
       </c>
       <c r="H9" s="3">
-        <v>93906800</v>
+        <v>105278000</v>
       </c>
       <c r="I9" s="3">
-        <v>87178200</v>
+        <v>95973000</v>
       </c>
       <c r="J9" s="3">
+        <v>89096300</v>
+      </c>
+      <c r="K9" s="3">
         <v>66767500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53513500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30066700</v>
+        <v>28607200</v>
       </c>
       <c r="E10" s="3">
-        <v>30547500</v>
+        <v>30728200</v>
       </c>
       <c r="F10" s="3">
-        <v>28482200</v>
+        <v>31219600</v>
       </c>
       <c r="G10" s="3">
-        <v>29713000</v>
+        <v>29108800</v>
       </c>
       <c r="H10" s="3">
-        <v>27245600</v>
+        <v>30366700</v>
       </c>
       <c r="I10" s="3">
-        <v>26502200</v>
+        <v>27845100</v>
       </c>
       <c r="J10" s="3">
+        <v>27085300</v>
+      </c>
+      <c r="K10" s="3">
         <v>23023000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18337300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7334800</v>
+        <v>7470300</v>
       </c>
       <c r="E12" s="3">
-        <v>6834400</v>
+        <v>7496100</v>
       </c>
       <c r="F12" s="3">
-        <v>6285100</v>
+        <v>6984700</v>
       </c>
       <c r="G12" s="3">
-        <v>5967600</v>
+        <v>6423400</v>
       </c>
       <c r="H12" s="3">
-        <v>5510000</v>
+        <v>6098900</v>
       </c>
       <c r="I12" s="3">
-        <v>5439200</v>
+        <v>5631200</v>
       </c>
       <c r="J12" s="3">
+        <v>5558900</v>
+      </c>
+      <c r="K12" s="3">
         <v>5092900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4699200</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -901,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>137824800</v>
+        <v>132822600</v>
       </c>
       <c r="E17" s="3">
-        <v>132055800</v>
+        <v>140857300</v>
       </c>
       <c r="F17" s="3">
-        <v>119610700</v>
+        <v>134961300</v>
       </c>
       <c r="G17" s="3">
-        <v>128148800</v>
+        <v>122242400</v>
       </c>
       <c r="H17" s="3">
-        <v>115056600</v>
+        <v>130968300</v>
       </c>
       <c r="I17" s="3">
-        <v>106191400</v>
+        <v>117588100</v>
       </c>
       <c r="J17" s="3">
+        <v>108527900</v>
+      </c>
+      <c r="K17" s="3">
         <v>84838200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69759200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6602700</v>
+        <v>5886500</v>
       </c>
       <c r="E18" s="3">
-        <v>7577000</v>
+        <v>6748000</v>
       </c>
       <c r="F18" s="3">
-        <v>7642100</v>
+        <v>7743800</v>
       </c>
       <c r="G18" s="3">
-        <v>4575700</v>
+        <v>7810200</v>
       </c>
       <c r="H18" s="3">
-        <v>6095800</v>
+        <v>4676400</v>
       </c>
       <c r="I18" s="3">
-        <v>7488900</v>
+        <v>6229900</v>
       </c>
       <c r="J18" s="3">
+        <v>7653700</v>
+      </c>
+      <c r="K18" s="3">
         <v>4952300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2091500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2420000</v>
+        <v>1681200</v>
       </c>
       <c r="E20" s="3">
-        <v>2676000</v>
+        <v>2473200</v>
       </c>
       <c r="F20" s="3">
-        <v>1624800</v>
+        <v>2734800</v>
       </c>
       <c r="G20" s="3">
-        <v>1365500</v>
+        <v>1660600</v>
       </c>
       <c r="H20" s="3">
-        <v>1398300</v>
+        <v>1395500</v>
       </c>
       <c r="I20" s="3">
-        <v>1116600</v>
+        <v>1429100</v>
       </c>
       <c r="J20" s="3">
+        <v>1141200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-397800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>329200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>15597300</v>
+        <v>14062600</v>
       </c>
       <c r="E21" s="3">
-        <v>16749300</v>
+        <v>15918500</v>
       </c>
       <c r="F21" s="3">
-        <v>15410000</v>
+        <v>17096100</v>
       </c>
       <c r="G21" s="3">
-        <v>11960300</v>
+        <v>15728500</v>
       </c>
       <c r="H21" s="3">
-        <v>13189900</v>
+        <v>12203300</v>
       </c>
       <c r="I21" s="3">
-        <v>13963400</v>
+        <v>13461100</v>
       </c>
       <c r="J21" s="3">
+        <v>14252800</v>
+      </c>
+      <c r="K21" s="3">
         <v>9933700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7442300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>120100</v>
+        <v>229400</v>
       </c>
       <c r="E22" s="3">
-        <v>117900</v>
+        <v>122800</v>
       </c>
       <c r="F22" s="3">
-        <v>113400</v>
+        <v>120500</v>
       </c>
       <c r="G22" s="3">
-        <v>164900</v>
+        <v>115900</v>
       </c>
       <c r="H22" s="3">
-        <v>165400</v>
+        <v>168600</v>
       </c>
       <c r="I22" s="3">
-        <v>116400</v>
+        <v>169000</v>
       </c>
       <c r="J22" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K22" s="3">
         <v>110500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>93800</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>8902500</v>
+        <v>7338300</v>
       </c>
       <c r="E23" s="3">
-        <v>10135100</v>
+        <v>9098400</v>
       </c>
       <c r="F23" s="3">
-        <v>9153500</v>
+        <v>10358100</v>
       </c>
       <c r="G23" s="3">
-        <v>5776200</v>
+        <v>9354900</v>
       </c>
       <c r="H23" s="3">
-        <v>7328700</v>
+        <v>5903300</v>
       </c>
       <c r="I23" s="3">
-        <v>8489200</v>
+        <v>7489900</v>
       </c>
       <c r="J23" s="3">
+        <v>8676000</v>
+      </c>
+      <c r="K23" s="3">
         <v>4444000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2326900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2755100</v>
+        <v>2601100</v>
       </c>
       <c r="E24" s="3">
-        <v>-124200</v>
+        <v>2815700</v>
       </c>
       <c r="F24" s="3">
-        <v>2977800</v>
+        <v>-127000</v>
       </c>
       <c r="G24" s="3">
-        <v>2082400</v>
+        <v>3043300</v>
       </c>
       <c r="H24" s="3">
-        <v>2228300</v>
+        <v>2128300</v>
       </c>
       <c r="I24" s="3">
-        <v>2436000</v>
+        <v>2277300</v>
       </c>
       <c r="J24" s="3">
+        <v>2489600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1626900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1227000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6147400</v>
+        <v>4737300</v>
       </c>
       <c r="E26" s="3">
-        <v>10259300</v>
+        <v>6282700</v>
       </c>
       <c r="F26" s="3">
-        <v>6175700</v>
+        <v>10485100</v>
       </c>
       <c r="G26" s="3">
-        <v>3693800</v>
+        <v>6311600</v>
       </c>
       <c r="H26" s="3">
-        <v>5100400</v>
+        <v>3775100</v>
       </c>
       <c r="I26" s="3">
-        <v>6053100</v>
+        <v>5212600</v>
       </c>
       <c r="J26" s="3">
+        <v>6186300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2817100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1099900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5547800</v>
+        <v>4233900</v>
       </c>
       <c r="E27" s="3">
-        <v>9629400</v>
+        <v>5669800</v>
       </c>
       <c r="F27" s="3">
-        <v>5604600</v>
+        <v>9841200</v>
       </c>
       <c r="G27" s="3">
-        <v>3131800</v>
+        <v>5727900</v>
       </c>
       <c r="H27" s="3">
-        <v>4630800</v>
+        <v>3200700</v>
       </c>
       <c r="I27" s="3">
-        <v>6882700</v>
+        <v>4732700</v>
       </c>
       <c r="J27" s="3">
+        <v>7034100</v>
+      </c>
+      <c r="K27" s="3">
         <v>3337400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1911800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2420000</v>
+        <v>-1681200</v>
       </c>
       <c r="E32" s="3">
-        <v>-2676000</v>
+        <v>-2473200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1624800</v>
+        <v>-2734800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1365500</v>
+        <v>-1660600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1398300</v>
+        <v>-1395500</v>
       </c>
       <c r="I32" s="3">
-        <v>-1116600</v>
+        <v>-1429100</v>
       </c>
       <c r="J32" s="3">
+        <v>-1141200</v>
+      </c>
+      <c r="K32" s="3">
         <v>397800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-329200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5547800</v>
+        <v>4233900</v>
       </c>
       <c r="E33" s="3">
-        <v>9629400</v>
+        <v>5669800</v>
       </c>
       <c r="F33" s="3">
-        <v>5604600</v>
+        <v>9841200</v>
       </c>
       <c r="G33" s="3">
-        <v>3131800</v>
+        <v>5727900</v>
       </c>
       <c r="H33" s="3">
-        <v>4630800</v>
+        <v>3200700</v>
       </c>
       <c r="I33" s="3">
-        <v>6882700</v>
+        <v>4732700</v>
       </c>
       <c r="J33" s="3">
+        <v>7034100</v>
+      </c>
+      <c r="K33" s="3">
         <v>3337400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1911800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5547800</v>
+        <v>4233900</v>
       </c>
       <c r="E35" s="3">
-        <v>9629400</v>
+        <v>5669800</v>
       </c>
       <c r="F35" s="3">
-        <v>5604600</v>
+        <v>9841200</v>
       </c>
       <c r="G35" s="3">
-        <v>3131800</v>
+        <v>5727900</v>
       </c>
       <c r="H35" s="3">
-        <v>4630800</v>
+        <v>3200700</v>
       </c>
       <c r="I35" s="3">
-        <v>6882700</v>
+        <v>4732700</v>
       </c>
       <c r="J35" s="3">
+        <v>7034100</v>
+      </c>
+      <c r="K35" s="3">
         <v>3337400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1911800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>22671600</v>
+        <v>24799400</v>
       </c>
       <c r="E41" s="3">
-        <v>20511500</v>
+        <v>23145400</v>
       </c>
       <c r="F41" s="3">
-        <v>19143300</v>
+        <v>20940200</v>
       </c>
       <c r="G41" s="3">
-        <v>15975300</v>
+        <v>19543500</v>
       </c>
       <c r="H41" s="3">
-        <v>13378000</v>
+        <v>16309200</v>
       </c>
       <c r="I41" s="3">
-        <v>10849700</v>
+        <v>13657700</v>
       </c>
       <c r="J41" s="3">
+        <v>11076500</v>
+      </c>
+      <c r="K41" s="3">
         <v>10963700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22547800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1484200</v>
+        <v>1763700</v>
       </c>
       <c r="E42" s="3">
-        <v>1937800</v>
+        <v>1515200</v>
       </c>
       <c r="F42" s="3">
-        <v>1358300</v>
+        <v>1978300</v>
       </c>
       <c r="G42" s="3">
-        <v>936600</v>
+        <v>1386700</v>
       </c>
       <c r="H42" s="3">
-        <v>842700</v>
+        <v>956200</v>
       </c>
       <c r="I42" s="3">
-        <v>927400</v>
+        <v>860300</v>
       </c>
       <c r="J42" s="3">
+        <v>946700</v>
+      </c>
+      <c r="K42" s="3">
         <v>3803700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3377000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>24950900</v>
+        <v>23313800</v>
       </c>
       <c r="E43" s="3">
-        <v>24008200</v>
+        <v>25472500</v>
       </c>
       <c r="F43" s="3">
-        <v>24024500</v>
+        <v>24510000</v>
       </c>
       <c r="G43" s="3">
-        <v>25022300</v>
+        <v>24526700</v>
       </c>
       <c r="H43" s="3">
-        <v>26539500</v>
+        <v>25545300</v>
       </c>
       <c r="I43" s="3">
-        <v>34820900</v>
+        <v>27094200</v>
       </c>
       <c r="J43" s="3">
+        <v>35548700</v>
+      </c>
+      <c r="K43" s="3">
         <v>20443300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34241300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14423900</v>
+        <v>14482100</v>
       </c>
       <c r="E44" s="3">
-        <v>13848200</v>
+        <v>14725400</v>
       </c>
       <c r="F44" s="3">
-        <v>12399900</v>
+        <v>14137700</v>
       </c>
       <c r="G44" s="3">
-        <v>11937800</v>
+        <v>12659100</v>
       </c>
       <c r="H44" s="3">
-        <v>13619700</v>
+        <v>12187300</v>
       </c>
       <c r="I44" s="3">
-        <v>16442400</v>
+        <v>13904300</v>
       </c>
       <c r="J44" s="3">
+        <v>16786000</v>
+      </c>
+      <c r="K44" s="3">
         <v>11048200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18726900</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3256300</v>
+        <v>3394300</v>
       </c>
       <c r="E45" s="3">
-        <v>2645200</v>
+        <v>3324400</v>
       </c>
       <c r="F45" s="3">
-        <v>2663100</v>
+        <v>2700500</v>
       </c>
       <c r="G45" s="3">
-        <v>2864400</v>
+        <v>2718800</v>
       </c>
       <c r="H45" s="3">
-        <v>2852100</v>
+        <v>2924300</v>
       </c>
       <c r="I45" s="3">
-        <v>4080400</v>
+        <v>2911700</v>
       </c>
       <c r="J45" s="3">
+        <v>4165700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2127700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6789700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>66786900</v>
+        <v>67753400</v>
       </c>
       <c r="E46" s="3">
-        <v>62950900</v>
+        <v>68182900</v>
       </c>
       <c r="F46" s="3">
-        <v>59589200</v>
+        <v>64266700</v>
       </c>
       <c r="G46" s="3">
-        <v>56736400</v>
+        <v>60834700</v>
       </c>
       <c r="H46" s="3">
-        <v>57231900</v>
+        <v>57922300</v>
       </c>
       <c r="I46" s="3">
-        <v>50441800</v>
+        <v>58428200</v>
       </c>
       <c r="J46" s="3">
+        <v>51496200</v>
+      </c>
+      <c r="K46" s="3">
         <v>48386600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42841300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>41666800</v>
+        <v>40646500</v>
       </c>
       <c r="E47" s="3">
-        <v>38481900</v>
+        <v>42537700</v>
       </c>
       <c r="F47" s="3">
-        <v>36655300</v>
+        <v>39286300</v>
       </c>
       <c r="G47" s="3">
-        <v>36453300</v>
+        <v>37421500</v>
       </c>
       <c r="H47" s="3">
-        <v>41361400</v>
+        <v>37215200</v>
       </c>
       <c r="I47" s="3">
-        <v>43906700</v>
+        <v>42225900</v>
       </c>
       <c r="J47" s="3">
+        <v>44824500</v>
+      </c>
+      <c r="K47" s="3">
         <v>29517500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50608400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>67545000</v>
+        <v>71249700</v>
       </c>
       <c r="E48" s="3">
-        <v>64998600</v>
+        <v>68956800</v>
       </c>
       <c r="F48" s="3">
-        <v>66402800</v>
+        <v>66357300</v>
       </c>
       <c r="G48" s="3">
-        <v>61972700</v>
+        <v>67790800</v>
       </c>
       <c r="H48" s="3">
-        <v>59311100</v>
+        <v>63268000</v>
       </c>
       <c r="I48" s="3">
-        <v>93664300</v>
+        <v>60550900</v>
       </c>
       <c r="J48" s="3">
+        <v>95622100</v>
+      </c>
+      <c r="K48" s="3">
         <v>38565800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65025200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6766300</v>
+        <v>7056800</v>
       </c>
       <c r="E49" s="3">
-        <v>6740400</v>
+        <v>6907700</v>
       </c>
       <c r="F49" s="3">
-        <v>7073800</v>
+        <v>6881200</v>
       </c>
       <c r="G49" s="3">
-        <v>7498700</v>
+        <v>7221600</v>
       </c>
       <c r="H49" s="3">
-        <v>6904200</v>
+        <v>7655400</v>
       </c>
       <c r="I49" s="3">
-        <v>6088300</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>42</v>
+        <v>7048500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6215600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2844900</v>
+        <v>3176100</v>
       </c>
       <c r="E52" s="3">
-        <v>2712100</v>
+        <v>2904300</v>
       </c>
       <c r="F52" s="3">
-        <v>2608200</v>
+        <v>2768800</v>
       </c>
       <c r="G52" s="3">
-        <v>3043300</v>
+        <v>2662700</v>
       </c>
       <c r="H52" s="3">
-        <v>2682200</v>
+        <v>3106900</v>
       </c>
       <c r="I52" s="3">
-        <v>11166000</v>
+        <v>2738300</v>
       </c>
       <c r="J52" s="3">
+        <v>11399400</v>
+      </c>
+      <c r="K52" s="3">
         <v>7475600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8759700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>185610000</v>
+        <v>189882000</v>
       </c>
       <c r="E54" s="3">
-        <v>175884000</v>
+        <v>189490000</v>
       </c>
       <c r="F54" s="3">
-        <v>172329000</v>
+        <v>179560000</v>
       </c>
       <c r="G54" s="3">
-        <v>165704000</v>
+        <v>175931000</v>
       </c>
       <c r="H54" s="3">
-        <v>167491000</v>
+        <v>169168000</v>
       </c>
       <c r="I54" s="3">
-        <v>145880000</v>
+        <v>170992000</v>
       </c>
       <c r="J54" s="3">
+        <v>148930000</v>
+      </c>
+      <c r="K54" s="3">
         <v>123945000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>106560000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9599600</v>
+        <v>8894600</v>
       </c>
       <c r="E57" s="3">
-        <v>9776700</v>
+        <v>9800300</v>
       </c>
       <c r="F57" s="3">
-        <v>9211000</v>
+        <v>9981100</v>
       </c>
       <c r="G57" s="3">
-        <v>8741000</v>
+        <v>9403500</v>
       </c>
       <c r="H57" s="3">
-        <v>9086200</v>
+        <v>8923700</v>
       </c>
       <c r="I57" s="3">
-        <v>18226700</v>
+        <v>9276200</v>
       </c>
       <c r="J57" s="3">
+        <v>18607700</v>
+      </c>
+      <c r="K57" s="3">
         <v>8981000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17518500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28986000</v>
+        <v>32085800</v>
       </c>
       <c r="E58" s="3">
-        <v>26517900</v>
+        <v>29591900</v>
       </c>
       <c r="F58" s="3">
-        <v>25333200</v>
+        <v>27072200</v>
       </c>
       <c r="G58" s="3">
-        <v>25357600</v>
+        <v>25862700</v>
       </c>
       <c r="H58" s="3">
-        <v>25757100</v>
+        <v>25887700</v>
       </c>
       <c r="I58" s="3">
-        <v>47679300</v>
+        <v>26295500</v>
       </c>
       <c r="J58" s="3">
+        <v>48675900</v>
+      </c>
+      <c r="K58" s="3">
         <v>19846600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33922500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15782800</v>
+        <v>12751600</v>
       </c>
       <c r="E59" s="3">
-        <v>14828500</v>
+        <v>16112700</v>
       </c>
       <c r="F59" s="3">
-        <v>14804000</v>
+        <v>15138400</v>
       </c>
       <c r="G59" s="3">
-        <v>15626800</v>
+        <v>15113500</v>
       </c>
       <c r="H59" s="3">
-        <v>13343300</v>
+        <v>15953500</v>
       </c>
       <c r="I59" s="3">
-        <v>11517000</v>
+        <v>13622200</v>
       </c>
       <c r="J59" s="3">
+        <v>11757700</v>
+      </c>
+      <c r="K59" s="3">
         <v>8341400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13281100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54368400</v>
+        <v>53732000</v>
       </c>
       <c r="E60" s="3">
-        <v>51123100</v>
+        <v>55504800</v>
       </c>
       <c r="F60" s="3">
-        <v>49348200</v>
+        <v>52191600</v>
       </c>
       <c r="G60" s="3">
-        <v>49725500</v>
+        <v>50379700</v>
       </c>
       <c r="H60" s="3">
-        <v>48186600</v>
+        <v>50764900</v>
       </c>
       <c r="I60" s="3">
-        <v>43193900</v>
+        <v>49193800</v>
       </c>
       <c r="J60" s="3">
+        <v>44096700</v>
+      </c>
+      <c r="K60" s="3">
         <v>37169000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32361000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38232800</v>
+        <v>41990100</v>
       </c>
       <c r="E61" s="3">
-        <v>35830500</v>
+        <v>39031900</v>
       </c>
       <c r="F61" s="3">
-        <v>36991100</v>
+        <v>36579500</v>
       </c>
       <c r="G61" s="3">
-        <v>34400000</v>
+        <v>37764300</v>
       </c>
       <c r="H61" s="3">
-        <v>36245700</v>
+        <v>35119100</v>
       </c>
       <c r="I61" s="3">
-        <v>29974300</v>
+        <v>37003300</v>
       </c>
       <c r="J61" s="3">
+        <v>30600800</v>
+      </c>
+      <c r="K61" s="3">
         <v>24641600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20204400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15145600</v>
+        <v>17266000</v>
       </c>
       <c r="E62" s="3">
-        <v>14082400</v>
+        <v>15462200</v>
       </c>
       <c r="F62" s="3">
-        <v>17182100</v>
+        <v>14376700</v>
       </c>
       <c r="G62" s="3">
-        <v>17659800</v>
+        <v>17541300</v>
       </c>
       <c r="H62" s="3">
-        <v>15948800</v>
+        <v>18028900</v>
       </c>
       <c r="I62" s="3">
-        <v>27301300</v>
+        <v>16282100</v>
       </c>
       <c r="J62" s="3">
+        <v>27872000</v>
+      </c>
+      <c r="K62" s="3">
         <v>14817500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26149500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>110456000</v>
+        <v>115529000</v>
       </c>
       <c r="E66" s="3">
-        <v>103768000</v>
+        <v>112765000</v>
       </c>
       <c r="F66" s="3">
-        <v>106015000</v>
+        <v>105937000</v>
       </c>
       <c r="G66" s="3">
-        <v>104243000</v>
+        <v>108231000</v>
       </c>
       <c r="H66" s="3">
-        <v>102873000</v>
+        <v>106422000</v>
       </c>
       <c r="I66" s="3">
-        <v>88290300</v>
+        <v>105024000</v>
       </c>
       <c r="J66" s="3">
+        <v>90135700</v>
+      </c>
+      <c r="K66" s="3">
         <v>78100000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66854200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>72480400</v>
+        <v>75566600</v>
       </c>
       <c r="E72" s="3">
-        <v>69187000</v>
+        <v>73995400</v>
       </c>
       <c r="F72" s="3">
-        <v>61020200</v>
+        <v>70633200</v>
       </c>
       <c r="G72" s="3">
-        <v>56306300</v>
+        <v>62295700</v>
       </c>
       <c r="H72" s="3">
-        <v>55299700</v>
+        <v>57483200</v>
       </c>
       <c r="I72" s="3">
-        <v>111917000</v>
+        <v>56455600</v>
       </c>
       <c r="J72" s="3">
+        <v>114256000</v>
+      </c>
+      <c r="K72" s="3">
         <v>54987500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>104637000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>75153600</v>
+        <v>74353800</v>
       </c>
       <c r="E76" s="3">
-        <v>72115900</v>
+        <v>76724400</v>
       </c>
       <c r="F76" s="3">
-        <v>66314200</v>
+        <v>73623200</v>
       </c>
       <c r="G76" s="3">
-        <v>61461400</v>
+        <v>67700300</v>
       </c>
       <c r="H76" s="3">
-        <v>64617400</v>
+        <v>62746100</v>
       </c>
       <c r="I76" s="3">
-        <v>57590000</v>
+        <v>65968100</v>
       </c>
       <c r="J76" s="3">
+        <v>58793800</v>
+      </c>
+      <c r="K76" s="3">
         <v>45845400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39705700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5547800</v>
+        <v>4233900</v>
       </c>
       <c r="E81" s="3">
-        <v>9629400</v>
+        <v>5669800</v>
       </c>
       <c r="F81" s="3">
-        <v>5604600</v>
+        <v>9841200</v>
       </c>
       <c r="G81" s="3">
-        <v>3131800</v>
+        <v>5727900</v>
       </c>
       <c r="H81" s="3">
-        <v>4630800</v>
+        <v>3200700</v>
       </c>
       <c r="I81" s="3">
-        <v>6882700</v>
+        <v>4732700</v>
       </c>
       <c r="J81" s="3">
+        <v>7034100</v>
+      </c>
+      <c r="K81" s="3">
         <v>3337400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1911800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6560200</v>
+        <v>6501900</v>
       </c>
       <c r="E83" s="3">
-        <v>6482000</v>
+        <v>6704500</v>
       </c>
       <c r="F83" s="3">
-        <v>6129700</v>
+        <v>6624600</v>
       </c>
       <c r="G83" s="3">
-        <v>6005900</v>
+        <v>6264500</v>
       </c>
       <c r="H83" s="3">
-        <v>5683300</v>
+        <v>6138000</v>
       </c>
       <c r="I83" s="3">
-        <v>5346100</v>
+        <v>5808400</v>
       </c>
       <c r="J83" s="3">
+        <v>5463700</v>
+      </c>
+      <c r="K83" s="3">
         <v>5367400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5016000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7053700</v>
+        <v>9098800</v>
       </c>
       <c r="E89" s="3">
-        <v>8977900</v>
+        <v>7208900</v>
       </c>
       <c r="F89" s="3">
-        <v>8045300</v>
+        <v>9175500</v>
       </c>
       <c r="G89" s="3">
-        <v>12644100</v>
+        <v>8222300</v>
       </c>
       <c r="H89" s="3">
-        <v>9275500</v>
+        <v>12922300</v>
       </c>
       <c r="I89" s="3">
-        <v>4082400</v>
+        <v>9479600</v>
       </c>
       <c r="J89" s="3">
+        <v>4172200</v>
+      </c>
+      <c r="K89" s="3">
         <v>7278800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6884300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3824800</v>
+        <v>-3439100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3777500</v>
+        <v>-3908900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4491700</v>
+        <v>-3860600</v>
       </c>
       <c r="G91" s="3">
-        <v>-5773700</v>
+        <v>-4590500</v>
       </c>
       <c r="H91" s="3">
-        <v>-5892200</v>
+        <v>-5900800</v>
       </c>
       <c r="I91" s="3">
-        <v>-23818300</v>
+        <v>-6021800</v>
       </c>
       <c r="J91" s="3">
+        <v>-24342400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12907800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9772100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5250000</v>
+        <v>-5755000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5591400</v>
+        <v>-5365500</v>
       </c>
       <c r="F94" s="3">
-        <v>-5914100</v>
+        <v>-5714400</v>
       </c>
       <c r="G94" s="3">
-        <v>-7954400</v>
+        <v>-6044200</v>
       </c>
       <c r="H94" s="3">
-        <v>-7640100</v>
+        <v>-8129500</v>
       </c>
       <c r="I94" s="3">
-        <v>-8372100</v>
+        <v>-7808200</v>
       </c>
       <c r="J94" s="3">
+        <v>-8556300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9724100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1765900</v>
+        <v>-1828200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1583700</v>
+        <v>-1804800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1474400</v>
+        <v>-1618500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1441700</v>
+        <v>-1506900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1441700</v>
+        <v>-1473400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1294200</v>
+        <v>-1473400</v>
       </c>
       <c r="J96" s="3">
+        <v>-1322700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1179600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-977600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>208400</v>
+        <v>-812000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1584700</v>
+        <v>213000</v>
       </c>
       <c r="F100" s="3">
-        <v>1049200</v>
+        <v>-1619600</v>
       </c>
       <c r="G100" s="3">
-        <v>-866300</v>
+        <v>1072300</v>
       </c>
       <c r="H100" s="3">
-        <v>113500</v>
+        <v>-885300</v>
       </c>
       <c r="I100" s="3">
-        <v>3231100</v>
+        <v>116000</v>
       </c>
       <c r="J100" s="3">
+        <v>3302200</v>
+      </c>
+      <c r="K100" s="3">
         <v>1086900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-616800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>147900</v>
+        <v>-876000</v>
       </c>
       <c r="E101" s="3">
-        <v>-433700</v>
+        <v>151200</v>
       </c>
       <c r="F101" s="3">
-        <v>-12300</v>
+        <v>-443200</v>
       </c>
       <c r="G101" s="3">
-        <v>-1226200</v>
+        <v>-12600</v>
       </c>
       <c r="H101" s="3">
-        <v>779500</v>
+        <v>-1253200</v>
       </c>
       <c r="I101" s="3">
-        <v>358400</v>
+        <v>796600</v>
       </c>
       <c r="J101" s="3">
+        <v>366300</v>
+      </c>
+      <c r="K101" s="3">
         <v>985900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-471400</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2160100</v>
+        <v>1655800</v>
       </c>
       <c r="E102" s="3">
-        <v>1368200</v>
+        <v>2207600</v>
       </c>
       <c r="F102" s="3">
-        <v>3168000</v>
+        <v>1398300</v>
       </c>
       <c r="G102" s="3">
-        <v>2597200</v>
+        <v>3237800</v>
       </c>
       <c r="H102" s="3">
-        <v>2528300</v>
+        <v>2654400</v>
       </c>
       <c r="I102" s="3">
-        <v>-700200</v>
+        <v>2584000</v>
       </c>
       <c r="J102" s="3">
+        <v>-715600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-372600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-288500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>138709100</v>
+        <v>140948700</v>
       </c>
       <c r="E8" s="3">
-        <v>147605300</v>
+        <v>149988500</v>
       </c>
       <c r="F8" s="3">
-        <v>142705000</v>
+        <v>145009200</v>
       </c>
       <c r="G8" s="3">
-        <v>130052600</v>
+        <v>132152400</v>
       </c>
       <c r="H8" s="3">
-        <v>135644700</v>
+        <v>137834900</v>
       </c>
       <c r="I8" s="3">
-        <v>123818000</v>
+        <v>125817300</v>
       </c>
       <c r="J8" s="3">
-        <v>116181600</v>
+        <v>118057500</v>
       </c>
       <c r="K8" s="3">
         <v>89790500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>110101900</v>
+        <v>111879700</v>
       </c>
       <c r="E9" s="3">
-        <v>116877000</v>
+        <v>118764200</v>
       </c>
       <c r="F9" s="3">
-        <v>111485400</v>
+        <v>113285500</v>
       </c>
       <c r="G9" s="3">
-        <v>100943700</v>
+        <v>102573600</v>
       </c>
       <c r="H9" s="3">
-        <v>105278000</v>
+        <v>106977800</v>
       </c>
       <c r="I9" s="3">
-        <v>95973000</v>
+        <v>97522600</v>
       </c>
       <c r="J9" s="3">
-        <v>89096300</v>
+        <v>90534900</v>
       </c>
       <c r="K9" s="3">
         <v>66767500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28607200</v>
+        <v>29069100</v>
       </c>
       <c r="E10" s="3">
-        <v>30728200</v>
+        <v>31224400</v>
       </c>
       <c r="F10" s="3">
-        <v>31219600</v>
+        <v>31723700</v>
       </c>
       <c r="G10" s="3">
-        <v>29108800</v>
+        <v>29578800</v>
       </c>
       <c r="H10" s="3">
-        <v>30366700</v>
+        <v>30857000</v>
       </c>
       <c r="I10" s="3">
-        <v>27845100</v>
+        <v>28294700</v>
       </c>
       <c r="J10" s="3">
-        <v>27085300</v>
+        <v>27522600</v>
       </c>
       <c r="K10" s="3">
         <v>23023000</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7470300</v>
+        <v>7590900</v>
       </c>
       <c r="E12" s="3">
-        <v>7496100</v>
+        <v>7617200</v>
       </c>
       <c r="F12" s="3">
-        <v>6984700</v>
+        <v>7097500</v>
       </c>
       <c r="G12" s="3">
-        <v>6423400</v>
+        <v>6527100</v>
       </c>
       <c r="H12" s="3">
-        <v>6098900</v>
+        <v>6197400</v>
       </c>
       <c r="I12" s="3">
-        <v>5631200</v>
+        <v>5722200</v>
       </c>
       <c r="J12" s="3">
-        <v>5558900</v>
+        <v>5648600</v>
       </c>
       <c r="K12" s="3">
         <v>5092900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>132822600</v>
+        <v>134967200</v>
       </c>
       <c r="E17" s="3">
-        <v>140857300</v>
+        <v>143131600</v>
       </c>
       <c r="F17" s="3">
-        <v>134961300</v>
+        <v>137140400</v>
       </c>
       <c r="G17" s="3">
-        <v>122242400</v>
+        <v>124216100</v>
       </c>
       <c r="H17" s="3">
-        <v>130968300</v>
+        <v>133083000</v>
       </c>
       <c r="I17" s="3">
-        <v>117588100</v>
+        <v>119486800</v>
       </c>
       <c r="J17" s="3">
-        <v>108527900</v>
+        <v>110280200</v>
       </c>
       <c r="K17" s="3">
         <v>84838200</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5886500</v>
+        <v>5981500</v>
       </c>
       <c r="E18" s="3">
-        <v>6748000</v>
+        <v>6856900</v>
       </c>
       <c r="F18" s="3">
-        <v>7743800</v>
+        <v>7868800</v>
       </c>
       <c r="G18" s="3">
-        <v>7810200</v>
+        <v>7936300</v>
       </c>
       <c r="H18" s="3">
-        <v>4676400</v>
+        <v>4751900</v>
       </c>
       <c r="I18" s="3">
-        <v>6229900</v>
+        <v>6330500</v>
       </c>
       <c r="J18" s="3">
-        <v>7653700</v>
+        <v>7777300</v>
       </c>
       <c r="K18" s="3">
         <v>4952300</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1681200</v>
+        <v>1708400</v>
       </c>
       <c r="E20" s="3">
-        <v>2473200</v>
+        <v>2513100</v>
       </c>
       <c r="F20" s="3">
-        <v>2734800</v>
+        <v>2779000</v>
       </c>
       <c r="G20" s="3">
-        <v>1660600</v>
+        <v>1687400</v>
       </c>
       <c r="H20" s="3">
-        <v>1395500</v>
+        <v>1418100</v>
       </c>
       <c r="I20" s="3">
-        <v>1429100</v>
+        <v>1452100</v>
       </c>
       <c r="J20" s="3">
-        <v>1141200</v>
+        <v>1159600</v>
       </c>
       <c r="K20" s="3">
         <v>-397800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>14062600</v>
+        <v>14268700</v>
       </c>
       <c r="E21" s="3">
-        <v>15918500</v>
+        <v>16154000</v>
       </c>
       <c r="F21" s="3">
-        <v>17096100</v>
+        <v>17350900</v>
       </c>
       <c r="G21" s="3">
-        <v>15728500</v>
+        <v>15962400</v>
       </c>
       <c r="H21" s="3">
-        <v>12203300</v>
+        <v>12380700</v>
       </c>
       <c r="I21" s="3">
-        <v>13461100</v>
+        <v>13659800</v>
       </c>
       <c r="J21" s="3">
-        <v>14252800</v>
+        <v>14465300</v>
       </c>
       <c r="K21" s="3">
         <v>9933700</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>229400</v>
+        <v>233100</v>
       </c>
       <c r="E22" s="3">
-        <v>122800</v>
+        <v>124800</v>
       </c>
       <c r="F22" s="3">
-        <v>120500</v>
+        <v>122400</v>
       </c>
       <c r="G22" s="3">
-        <v>115900</v>
+        <v>117700</v>
       </c>
       <c r="H22" s="3">
-        <v>168600</v>
+        <v>171300</v>
       </c>
       <c r="I22" s="3">
-        <v>169000</v>
+        <v>171800</v>
       </c>
       <c r="J22" s="3">
-        <v>118900</v>
+        <v>120900</v>
       </c>
       <c r="K22" s="3">
         <v>110500</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7338300</v>
+        <v>7456800</v>
       </c>
       <c r="E23" s="3">
-        <v>9098400</v>
+        <v>9245300</v>
       </c>
       <c r="F23" s="3">
-        <v>10358100</v>
+        <v>10525300</v>
       </c>
       <c r="G23" s="3">
-        <v>9354900</v>
+        <v>9505900</v>
       </c>
       <c r="H23" s="3">
-        <v>5903300</v>
+        <v>5998600</v>
       </c>
       <c r="I23" s="3">
-        <v>7489900</v>
+        <v>7610900</v>
       </c>
       <c r="J23" s="3">
-        <v>8676000</v>
+        <v>8816000</v>
       </c>
       <c r="K23" s="3">
         <v>4444000</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2601100</v>
+        <v>2643100</v>
       </c>
       <c r="E24" s="3">
-        <v>2815700</v>
+        <v>2861200</v>
       </c>
       <c r="F24" s="3">
-        <v>-127000</v>
+        <v>-129000</v>
       </c>
       <c r="G24" s="3">
-        <v>3043300</v>
+        <v>3092500</v>
       </c>
       <c r="H24" s="3">
-        <v>2128300</v>
+        <v>2162600</v>
       </c>
       <c r="I24" s="3">
-        <v>2277300</v>
+        <v>2314100</v>
       </c>
       <c r="J24" s="3">
-        <v>2489600</v>
+        <v>2529800</v>
       </c>
       <c r="K24" s="3">
         <v>1626900</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4737300</v>
+        <v>4813800</v>
       </c>
       <c r="E26" s="3">
-        <v>6282700</v>
+        <v>6384100</v>
       </c>
       <c r="F26" s="3">
-        <v>10485100</v>
+        <v>10654400</v>
       </c>
       <c r="G26" s="3">
-        <v>6311600</v>
+        <v>6413500</v>
       </c>
       <c r="H26" s="3">
-        <v>3775100</v>
+        <v>3836000</v>
       </c>
       <c r="I26" s="3">
-        <v>5212600</v>
+        <v>5296800</v>
       </c>
       <c r="J26" s="3">
-        <v>6186300</v>
+        <v>6286200</v>
       </c>
       <c r="K26" s="3">
         <v>2817100</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4233900</v>
+        <v>4302200</v>
       </c>
       <c r="E27" s="3">
-        <v>5669800</v>
+        <v>5761400</v>
       </c>
       <c r="F27" s="3">
-        <v>9841200</v>
+        <v>10000100</v>
       </c>
       <c r="G27" s="3">
-        <v>5727900</v>
+        <v>5820400</v>
       </c>
       <c r="H27" s="3">
-        <v>3200700</v>
+        <v>3252400</v>
       </c>
       <c r="I27" s="3">
-        <v>4732700</v>
+        <v>4809100</v>
       </c>
       <c r="J27" s="3">
-        <v>7034100</v>
+        <v>7147700</v>
       </c>
       <c r="K27" s="3">
         <v>3337400</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1681200</v>
+        <v>-1708400</v>
       </c>
       <c r="E32" s="3">
-        <v>-2473200</v>
+        <v>-2513100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2734800</v>
+        <v>-2779000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1660600</v>
+        <v>-1687400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1395500</v>
+        <v>-1418100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1429100</v>
+        <v>-1452100</v>
       </c>
       <c r="J32" s="3">
-        <v>-1141200</v>
+        <v>-1159600</v>
       </c>
       <c r="K32" s="3">
         <v>397800</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4233900</v>
+        <v>4302200</v>
       </c>
       <c r="E33" s="3">
-        <v>5669800</v>
+        <v>5761400</v>
       </c>
       <c r="F33" s="3">
-        <v>9841200</v>
+        <v>10000100</v>
       </c>
       <c r="G33" s="3">
-        <v>5727900</v>
+        <v>5820400</v>
       </c>
       <c r="H33" s="3">
-        <v>3200700</v>
+        <v>3252400</v>
       </c>
       <c r="I33" s="3">
-        <v>4732700</v>
+        <v>4809100</v>
       </c>
       <c r="J33" s="3">
-        <v>7034100</v>
+        <v>7147700</v>
       </c>
       <c r="K33" s="3">
         <v>3337400</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4233900</v>
+        <v>4302200</v>
       </c>
       <c r="E35" s="3">
-        <v>5669800</v>
+        <v>5761400</v>
       </c>
       <c r="F35" s="3">
-        <v>9841200</v>
+        <v>10000100</v>
       </c>
       <c r="G35" s="3">
-        <v>5727900</v>
+        <v>5820400</v>
       </c>
       <c r="H35" s="3">
-        <v>3200700</v>
+        <v>3252400</v>
       </c>
       <c r="I35" s="3">
-        <v>4732700</v>
+        <v>4809100</v>
       </c>
       <c r="J35" s="3">
-        <v>7034100</v>
+        <v>7147700</v>
       </c>
       <c r="K35" s="3">
         <v>3337400</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>24799400</v>
+        <v>25227000</v>
       </c>
       <c r="E41" s="3">
-        <v>23145400</v>
+        <v>23544500</v>
       </c>
       <c r="F41" s="3">
-        <v>20940200</v>
+        <v>21301200</v>
       </c>
       <c r="G41" s="3">
-        <v>19543500</v>
+        <v>19880400</v>
       </c>
       <c r="H41" s="3">
-        <v>16309200</v>
+        <v>16590400</v>
       </c>
       <c r="I41" s="3">
-        <v>13657700</v>
+        <v>13893100</v>
       </c>
       <c r="J41" s="3">
-        <v>11076500</v>
+        <v>11267400</v>
       </c>
       <c r="K41" s="3">
         <v>10963700</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1763700</v>
+        <v>1794100</v>
       </c>
       <c r="E42" s="3">
-        <v>1515200</v>
+        <v>1541300</v>
       </c>
       <c r="F42" s="3">
-        <v>1978300</v>
+        <v>2012400</v>
       </c>
       <c r="G42" s="3">
-        <v>1386700</v>
+        <v>1410600</v>
       </c>
       <c r="H42" s="3">
-        <v>956200</v>
+        <v>972700</v>
       </c>
       <c r="I42" s="3">
-        <v>860300</v>
+        <v>875200</v>
       </c>
       <c r="J42" s="3">
-        <v>946700</v>
+        <v>963100</v>
       </c>
       <c r="K42" s="3">
         <v>3803700</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>23313800</v>
+        <v>23715800</v>
       </c>
       <c r="E43" s="3">
-        <v>25472500</v>
+        <v>25911600</v>
       </c>
       <c r="F43" s="3">
-        <v>24510000</v>
+        <v>24932600</v>
       </c>
       <c r="G43" s="3">
-        <v>24526700</v>
+        <v>24949600</v>
       </c>
       <c r="H43" s="3">
-        <v>25545300</v>
+        <v>25985800</v>
       </c>
       <c r="I43" s="3">
-        <v>27094200</v>
+        <v>27561300</v>
       </c>
       <c r="J43" s="3">
-        <v>35548700</v>
+        <v>49983800</v>
       </c>
       <c r="K43" s="3">
         <v>20443300</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14482100</v>
+        <v>14731800</v>
       </c>
       <c r="E44" s="3">
-        <v>14725400</v>
+        <v>14979300</v>
       </c>
       <c r="F44" s="3">
-        <v>14137700</v>
+        <v>14381400</v>
       </c>
       <c r="G44" s="3">
-        <v>12659100</v>
+        <v>12877400</v>
       </c>
       <c r="H44" s="3">
-        <v>12187300</v>
+        <v>12397500</v>
       </c>
       <c r="I44" s="3">
-        <v>13904300</v>
+        <v>14144100</v>
       </c>
       <c r="J44" s="3">
-        <v>16786000</v>
+        <v>17075400</v>
       </c>
       <c r="K44" s="3">
         <v>11048200</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3394300</v>
+        <v>3452900</v>
       </c>
       <c r="E45" s="3">
-        <v>3324400</v>
+        <v>3381700</v>
       </c>
       <c r="F45" s="3">
-        <v>2700500</v>
+        <v>2747100</v>
       </c>
       <c r="G45" s="3">
-        <v>2718800</v>
+        <v>2765600</v>
       </c>
       <c r="H45" s="3">
-        <v>2924300</v>
+        <v>2974700</v>
       </c>
       <c r="I45" s="3">
-        <v>2911700</v>
+        <v>2961900</v>
       </c>
       <c r="J45" s="3">
-        <v>4165700</v>
+        <v>4237500</v>
       </c>
       <c r="K45" s="3">
         <v>2127700</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>67753400</v>
+        <v>68921500</v>
       </c>
       <c r="E46" s="3">
-        <v>68182900</v>
+        <v>69358500</v>
       </c>
       <c r="F46" s="3">
-        <v>64266700</v>
+        <v>65374700</v>
       </c>
       <c r="G46" s="3">
-        <v>60834700</v>
+        <v>61883600</v>
       </c>
       <c r="H46" s="3">
-        <v>57922300</v>
+        <v>58920900</v>
       </c>
       <c r="I46" s="3">
-        <v>58428200</v>
+        <v>59435600</v>
       </c>
       <c r="J46" s="3">
-        <v>51496200</v>
+        <v>52384100</v>
       </c>
       <c r="K46" s="3">
         <v>48386600</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>40646500</v>
+        <v>41347300</v>
       </c>
       <c r="E47" s="3">
-        <v>42537700</v>
+        <v>43271100</v>
       </c>
       <c r="F47" s="3">
-        <v>39286300</v>
+        <v>39963600</v>
       </c>
       <c r="G47" s="3">
-        <v>37421500</v>
+        <v>38066700</v>
       </c>
       <c r="H47" s="3">
-        <v>37215200</v>
+        <v>37856800</v>
       </c>
       <c r="I47" s="3">
-        <v>42225900</v>
+        <v>42954000</v>
       </c>
       <c r="J47" s="3">
-        <v>44824500</v>
+        <v>76915000</v>
       </c>
       <c r="K47" s="3">
         <v>29517500</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>71249700</v>
+        <v>72478100</v>
       </c>
       <c r="E48" s="3">
-        <v>68956800</v>
+        <v>70145700</v>
       </c>
       <c r="F48" s="3">
-        <v>66357300</v>
+        <v>67501300</v>
       </c>
       <c r="G48" s="3">
-        <v>67790800</v>
+        <v>68959600</v>
       </c>
       <c r="H48" s="3">
-        <v>63268000</v>
+        <v>64358900</v>
       </c>
       <c r="I48" s="3">
-        <v>60550900</v>
+        <v>61594800</v>
       </c>
       <c r="J48" s="3">
-        <v>95622100</v>
+        <v>97270700</v>
       </c>
       <c r="K48" s="3">
         <v>38565800</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>7056800</v>
+        <v>7178500</v>
       </c>
       <c r="E49" s="3">
-        <v>6907700</v>
+        <v>7026800</v>
       </c>
       <c r="F49" s="3">
-        <v>6881200</v>
+        <v>6999900</v>
       </c>
       <c r="G49" s="3">
-        <v>7221600</v>
+        <v>7346100</v>
       </c>
       <c r="H49" s="3">
-        <v>7655400</v>
+        <v>7787400</v>
       </c>
       <c r="I49" s="3">
-        <v>7048500</v>
+        <v>7170000</v>
       </c>
       <c r="J49" s="3">
-        <v>6215600</v>
+        <v>6322800</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>42</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3176100</v>
+        <v>3230800</v>
       </c>
       <c r="E52" s="3">
-        <v>2904300</v>
+        <v>2954400</v>
       </c>
       <c r="F52" s="3">
-        <v>2768800</v>
+        <v>2816500</v>
       </c>
       <c r="G52" s="3">
-        <v>2662700</v>
+        <v>2708700</v>
       </c>
       <c r="H52" s="3">
-        <v>3106900</v>
+        <v>3160500</v>
       </c>
       <c r="I52" s="3">
-        <v>2738300</v>
+        <v>2785500</v>
       </c>
       <c r="J52" s="3">
-        <v>11399400</v>
+        <v>11595900</v>
       </c>
       <c r="K52" s="3">
         <v>7475600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189882000</v>
+        <v>193156000</v>
       </c>
       <c r="E54" s="3">
-        <v>189490000</v>
+        <v>192757000</v>
       </c>
       <c r="F54" s="3">
-        <v>179560000</v>
+        <v>182656000</v>
       </c>
       <c r="G54" s="3">
-        <v>175931000</v>
+        <v>178965000</v>
       </c>
       <c r="H54" s="3">
-        <v>169168000</v>
+        <v>172085000</v>
       </c>
       <c r="I54" s="3">
-        <v>170992000</v>
+        <v>173940000</v>
       </c>
       <c r="J54" s="3">
-        <v>148930000</v>
+        <v>151497000</v>
       </c>
       <c r="K54" s="3">
         <v>123945000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8894600</v>
+        <v>7969100</v>
       </c>
       <c r="E57" s="3">
-        <v>9800300</v>
+        <v>9969300</v>
       </c>
       <c r="F57" s="3">
-        <v>9981100</v>
+        <v>10153100</v>
       </c>
       <c r="G57" s="3">
-        <v>9403500</v>
+        <v>9565600</v>
       </c>
       <c r="H57" s="3">
-        <v>8923700</v>
+        <v>9077600</v>
       </c>
       <c r="I57" s="3">
-        <v>9276200</v>
+        <v>9436100</v>
       </c>
       <c r="J57" s="3">
-        <v>18607700</v>
+        <v>18928500</v>
       </c>
       <c r="K57" s="3">
         <v>8981000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32085800</v>
+        <v>30665400</v>
       </c>
       <c r="E58" s="3">
-        <v>29591900</v>
+        <v>30102100</v>
       </c>
       <c r="F58" s="3">
-        <v>27072200</v>
+        <v>27538900</v>
       </c>
       <c r="G58" s="3">
-        <v>25862700</v>
+        <v>26308600</v>
       </c>
       <c r="H58" s="3">
-        <v>25887700</v>
+        <v>26334000</v>
       </c>
       <c r="I58" s="3">
-        <v>26295500</v>
+        <v>26748800</v>
       </c>
       <c r="J58" s="3">
-        <v>48675900</v>
+        <v>49515100</v>
       </c>
       <c r="K58" s="3">
         <v>19846600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12751600</v>
+        <v>16023900</v>
       </c>
       <c r="E59" s="3">
-        <v>16112700</v>
+        <v>16390500</v>
       </c>
       <c r="F59" s="3">
-        <v>15138400</v>
+        <v>15399400</v>
       </c>
       <c r="G59" s="3">
-        <v>15113500</v>
+        <v>15374100</v>
       </c>
       <c r="H59" s="3">
-        <v>15953500</v>
+        <v>16228500</v>
       </c>
       <c r="I59" s="3">
-        <v>13622200</v>
+        <v>13857000</v>
       </c>
       <c r="J59" s="3">
-        <v>11757700</v>
+        <v>11960400</v>
       </c>
       <c r="K59" s="3">
         <v>8341400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>53732000</v>
+        <v>54658400</v>
       </c>
       <c r="E60" s="3">
-        <v>55504800</v>
+        <v>56461800</v>
       </c>
       <c r="F60" s="3">
-        <v>52191600</v>
+        <v>53091500</v>
       </c>
       <c r="G60" s="3">
-        <v>50379700</v>
+        <v>51248300</v>
       </c>
       <c r="H60" s="3">
-        <v>50764900</v>
+        <v>51640100</v>
       </c>
       <c r="I60" s="3">
-        <v>49193800</v>
+        <v>50041900</v>
       </c>
       <c r="J60" s="3">
-        <v>44096700</v>
+        <v>44857000</v>
       </c>
       <c r="K60" s="3">
         <v>37169000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41990100</v>
+        <v>42714100</v>
       </c>
       <c r="E61" s="3">
-        <v>39031900</v>
+        <v>39704900</v>
       </c>
       <c r="F61" s="3">
-        <v>36579500</v>
+        <v>37210200</v>
       </c>
       <c r="G61" s="3">
-        <v>37764300</v>
+        <v>38415400</v>
       </c>
       <c r="H61" s="3">
-        <v>35119100</v>
+        <v>35724600</v>
       </c>
       <c r="I61" s="3">
-        <v>37003300</v>
+        <v>37641300</v>
       </c>
       <c r="J61" s="3">
-        <v>30600800</v>
+        <v>31128400</v>
       </c>
       <c r="K61" s="3">
         <v>24641600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17266000</v>
+        <v>17563600</v>
       </c>
       <c r="E62" s="3">
-        <v>15462200</v>
+        <v>15728700</v>
       </c>
       <c r="F62" s="3">
-        <v>14376700</v>
+        <v>14624600</v>
       </c>
       <c r="G62" s="3">
-        <v>17541300</v>
+        <v>17843700</v>
       </c>
       <c r="H62" s="3">
-        <v>18028900</v>
+        <v>18339800</v>
       </c>
       <c r="I62" s="3">
-        <v>16282100</v>
+        <v>16562800</v>
       </c>
       <c r="J62" s="3">
-        <v>27872000</v>
+        <v>28352500</v>
       </c>
       <c r="K62" s="3">
         <v>14817500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>115529000</v>
+        <v>117521000</v>
       </c>
       <c r="E66" s="3">
-        <v>112765000</v>
+        <v>114709000</v>
       </c>
       <c r="F66" s="3">
-        <v>105937000</v>
+        <v>107764000</v>
       </c>
       <c r="G66" s="3">
-        <v>108231000</v>
+        <v>110097000</v>
       </c>
       <c r="H66" s="3">
-        <v>106422000</v>
+        <v>108257000</v>
       </c>
       <c r="I66" s="3">
-        <v>105024000</v>
+        <v>106835000</v>
       </c>
       <c r="J66" s="3">
-        <v>90135700</v>
+        <v>91689800</v>
       </c>
       <c r="K66" s="3">
         <v>78100000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>75566600</v>
+        <v>76869400</v>
       </c>
       <c r="E72" s="3">
-        <v>73995400</v>
+        <v>75271100</v>
       </c>
       <c r="F72" s="3">
-        <v>70633200</v>
+        <v>71851000</v>
       </c>
       <c r="G72" s="3">
-        <v>62295700</v>
+        <v>63369700</v>
       </c>
       <c r="H72" s="3">
-        <v>57483200</v>
+        <v>58474300</v>
       </c>
       <c r="I72" s="3">
-        <v>56455600</v>
+        <v>57428900</v>
       </c>
       <c r="J72" s="3">
-        <v>114256000</v>
+        <v>116226000</v>
       </c>
       <c r="K72" s="3">
         <v>54987500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>74353800</v>
+        <v>75635700</v>
       </c>
       <c r="E76" s="3">
-        <v>76724400</v>
+        <v>78047300</v>
       </c>
       <c r="F76" s="3">
-        <v>73623200</v>
+        <v>74892600</v>
       </c>
       <c r="G76" s="3">
-        <v>67700300</v>
+        <v>68867600</v>
       </c>
       <c r="H76" s="3">
-        <v>62746100</v>
+        <v>63827900</v>
       </c>
       <c r="I76" s="3">
-        <v>65968100</v>
+        <v>67105400</v>
       </c>
       <c r="J76" s="3">
-        <v>58793800</v>
+        <v>59807400</v>
       </c>
       <c r="K76" s="3">
         <v>45845400</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4233900</v>
+        <v>4302200</v>
       </c>
       <c r="E81" s="3">
-        <v>5669800</v>
+        <v>5761400</v>
       </c>
       <c r="F81" s="3">
-        <v>9841200</v>
+        <v>10000100</v>
       </c>
       <c r="G81" s="3">
-        <v>5727900</v>
+        <v>5820400</v>
       </c>
       <c r="H81" s="3">
-        <v>3200700</v>
+        <v>3252400</v>
       </c>
       <c r="I81" s="3">
-        <v>4732700</v>
+        <v>4809100</v>
       </c>
       <c r="J81" s="3">
-        <v>7034100</v>
+        <v>7147700</v>
       </c>
       <c r="K81" s="3">
         <v>3337400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6501900</v>
+        <v>6606800</v>
       </c>
       <c r="E83" s="3">
-        <v>6704500</v>
+        <v>6812800</v>
       </c>
       <c r="F83" s="3">
-        <v>6624600</v>
+        <v>6731600</v>
       </c>
       <c r="G83" s="3">
-        <v>6264500</v>
+        <v>6365700</v>
       </c>
       <c r="H83" s="3">
-        <v>6138000</v>
+        <v>6237100</v>
       </c>
       <c r="I83" s="3">
-        <v>5808400</v>
+        <v>5902200</v>
       </c>
       <c r="J83" s="3">
-        <v>5463700</v>
+        <v>5552000</v>
       </c>
       <c r="K83" s="3">
         <v>5367400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9098800</v>
+        <v>9245700</v>
       </c>
       <c r="E89" s="3">
-        <v>7208900</v>
+        <v>7325300</v>
       </c>
       <c r="F89" s="3">
-        <v>9175500</v>
+        <v>9323600</v>
       </c>
       <c r="G89" s="3">
-        <v>8222300</v>
+        <v>8355100</v>
       </c>
       <c r="H89" s="3">
-        <v>12922300</v>
+        <v>13131000</v>
       </c>
       <c r="I89" s="3">
-        <v>9479600</v>
+        <v>9632600</v>
       </c>
       <c r="J89" s="3">
-        <v>4172200</v>
+        <v>4239600</v>
       </c>
       <c r="K89" s="3">
         <v>7278800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3439100</v>
+        <v>-3494600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3908900</v>
+        <v>-3972000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3860600</v>
+        <v>-3922900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4590500</v>
+        <v>-4664600</v>
       </c>
       <c r="H91" s="3">
-        <v>-5900800</v>
+        <v>-5996100</v>
       </c>
       <c r="I91" s="3">
-        <v>-6021800</v>
+        <v>-6119100</v>
       </c>
       <c r="J91" s="3">
-        <v>-24342400</v>
+        <v>-24735400</v>
       </c>
       <c r="K91" s="3">
         <v>-12907800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5755000</v>
+        <v>-5847900</v>
       </c>
       <c r="E94" s="3">
-        <v>-5365500</v>
+        <v>-5452100</v>
       </c>
       <c r="F94" s="3">
-        <v>-5714400</v>
+        <v>-5806700</v>
       </c>
       <c r="G94" s="3">
-        <v>-6044200</v>
+        <v>-6141800</v>
       </c>
       <c r="H94" s="3">
-        <v>-8129500</v>
+        <v>-8260700</v>
       </c>
       <c r="I94" s="3">
-        <v>-7808200</v>
+        <v>-7934300</v>
       </c>
       <c r="J94" s="3">
-        <v>-8556300</v>
+        <v>-8694500</v>
       </c>
       <c r="K94" s="3">
         <v>-9724100</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1828200</v>
+        <v>-1857700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1804800</v>
+        <v>-1833900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1618500</v>
+        <v>-1644600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1506900</v>
+        <v>-1531200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1473400</v>
+        <v>-1497200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1473400</v>
+        <v>-1497200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1322700</v>
+        <v>-1344100</v>
       </c>
       <c r="K96" s="3">
         <v>-1179600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-812000</v>
+        <v>-825200</v>
       </c>
       <c r="E100" s="3">
-        <v>213000</v>
+        <v>216400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1619600</v>
+        <v>-1645700</v>
       </c>
       <c r="G100" s="3">
-        <v>1072300</v>
+        <v>1089600</v>
       </c>
       <c r="H100" s="3">
-        <v>-885300</v>
+        <v>-899600</v>
       </c>
       <c r="I100" s="3">
-        <v>116000</v>
+        <v>117900</v>
       </c>
       <c r="J100" s="3">
-        <v>3302200</v>
+        <v>3355500</v>
       </c>
       <c r="K100" s="3">
         <v>1086900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-876000</v>
+        <v>-890100</v>
       </c>
       <c r="E101" s="3">
-        <v>151200</v>
+        <v>153600</v>
       </c>
       <c r="F101" s="3">
-        <v>-443200</v>
+        <v>-450400</v>
       </c>
       <c r="G101" s="3">
-        <v>-12600</v>
+        <v>-12800</v>
       </c>
       <c r="H101" s="3">
-        <v>-1253200</v>
+        <v>-1273400</v>
       </c>
       <c r="I101" s="3">
-        <v>796600</v>
+        <v>809500</v>
       </c>
       <c r="J101" s="3">
-        <v>366300</v>
+        <v>372200</v>
       </c>
       <c r="K101" s="3">
         <v>985900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1655800</v>
+        <v>1682500</v>
       </c>
       <c r="E102" s="3">
-        <v>2207600</v>
+        <v>2243300</v>
       </c>
       <c r="F102" s="3">
-        <v>1398300</v>
+        <v>1420800</v>
       </c>
       <c r="G102" s="3">
-        <v>3237800</v>
+        <v>3290000</v>
       </c>
       <c r="H102" s="3">
-        <v>2654400</v>
+        <v>2697300</v>
       </c>
       <c r="I102" s="3">
-        <v>2584000</v>
+        <v>2625700</v>
       </c>
       <c r="J102" s="3">
-        <v>-715600</v>
+        <v>-727100</v>
       </c>
       <c r="K102" s="3">
         <v>-372600</v>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>140948700</v>
+        <v>143487000</v>
       </c>
       <c r="E8" s="3">
-        <v>149988500</v>
+        <v>152689600</v>
       </c>
       <c r="F8" s="3">
-        <v>145009200</v>
+        <v>147620600</v>
       </c>
       <c r="G8" s="3">
-        <v>132152400</v>
+        <v>134532300</v>
       </c>
       <c r="H8" s="3">
-        <v>137834900</v>
+        <v>140317100</v>
       </c>
       <c r="I8" s="3">
-        <v>125817300</v>
+        <v>128083000</v>
       </c>
       <c r="J8" s="3">
-        <v>118057500</v>
+        <v>120183500</v>
       </c>
       <c r="K8" s="3">
         <v>89790500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>111879700</v>
+        <v>113894400</v>
       </c>
       <c r="E9" s="3">
-        <v>118764200</v>
+        <v>120902900</v>
       </c>
       <c r="F9" s="3">
-        <v>113285500</v>
+        <v>115325600</v>
       </c>
       <c r="G9" s="3">
-        <v>102573600</v>
+        <v>104420800</v>
       </c>
       <c r="H9" s="3">
-        <v>106977800</v>
+        <v>108904400</v>
       </c>
       <c r="I9" s="3">
-        <v>97522600</v>
+        <v>99278800</v>
       </c>
       <c r="J9" s="3">
-        <v>90534900</v>
+        <v>92165300</v>
       </c>
       <c r="K9" s="3">
         <v>66767500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29069100</v>
+        <v>29592600</v>
       </c>
       <c r="E10" s="3">
-        <v>31224400</v>
+        <v>31786700</v>
       </c>
       <c r="F10" s="3">
-        <v>31723700</v>
+        <v>32295000</v>
       </c>
       <c r="G10" s="3">
-        <v>29578800</v>
+        <v>30111500</v>
       </c>
       <c r="H10" s="3">
-        <v>30857000</v>
+        <v>31412700</v>
       </c>
       <c r="I10" s="3">
-        <v>28294700</v>
+        <v>28804200</v>
       </c>
       <c r="J10" s="3">
-        <v>27522600</v>
+        <v>28018300</v>
       </c>
       <c r="K10" s="3">
         <v>23023000</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7590900</v>
+        <v>7727600</v>
       </c>
       <c r="E12" s="3">
-        <v>7617200</v>
+        <v>7754400</v>
       </c>
       <c r="F12" s="3">
-        <v>7097500</v>
+        <v>7225300</v>
       </c>
       <c r="G12" s="3">
-        <v>6527100</v>
+        <v>6644600</v>
       </c>
       <c r="H12" s="3">
-        <v>6197400</v>
+        <v>6309000</v>
       </c>
       <c r="I12" s="3">
-        <v>5722200</v>
+        <v>5825200</v>
       </c>
       <c r="J12" s="3">
-        <v>5648600</v>
+        <v>5750400</v>
       </c>
       <c r="K12" s="3">
         <v>5092900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>134967200</v>
+        <v>137397700</v>
       </c>
       <c r="E17" s="3">
-        <v>143131600</v>
+        <v>145709200</v>
       </c>
       <c r="F17" s="3">
-        <v>137140400</v>
+        <v>139610100</v>
       </c>
       <c r="G17" s="3">
-        <v>124216100</v>
+        <v>126453100</v>
       </c>
       <c r="H17" s="3">
-        <v>133083000</v>
+        <v>135479600</v>
       </c>
       <c r="I17" s="3">
-        <v>119486800</v>
+        <v>121638500</v>
       </c>
       <c r="J17" s="3">
-        <v>110280200</v>
+        <v>112266200</v>
       </c>
       <c r="K17" s="3">
         <v>84838200</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5981500</v>
+        <v>6089300</v>
       </c>
       <c r="E18" s="3">
-        <v>6856900</v>
+        <v>6980400</v>
       </c>
       <c r="F18" s="3">
-        <v>7868800</v>
+        <v>8010500</v>
       </c>
       <c r="G18" s="3">
-        <v>7936300</v>
+        <v>8079200</v>
       </c>
       <c r="H18" s="3">
-        <v>4751900</v>
+        <v>4837400</v>
       </c>
       <c r="I18" s="3">
-        <v>6330500</v>
+        <v>6444500</v>
       </c>
       <c r="J18" s="3">
-        <v>7777300</v>
+        <v>7917300</v>
       </c>
       <c r="K18" s="3">
         <v>4952300</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1708400</v>
+        <v>1739100</v>
       </c>
       <c r="E20" s="3">
-        <v>2513100</v>
+        <v>2558400</v>
       </c>
       <c r="F20" s="3">
-        <v>2779000</v>
+        <v>2829000</v>
       </c>
       <c r="G20" s="3">
-        <v>1687400</v>
+        <v>1717700</v>
       </c>
       <c r="H20" s="3">
-        <v>1418100</v>
+        <v>1443600</v>
       </c>
       <c r="I20" s="3">
-        <v>1452100</v>
+        <v>1478300</v>
       </c>
       <c r="J20" s="3">
-        <v>1159600</v>
+        <v>1180500</v>
       </c>
       <c r="K20" s="3">
         <v>-397800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>14268700</v>
+        <v>14540200</v>
       </c>
       <c r="E21" s="3">
-        <v>16154000</v>
+        <v>16459900</v>
       </c>
       <c r="F21" s="3">
-        <v>17350900</v>
+        <v>17678100</v>
       </c>
       <c r="G21" s="3">
-        <v>15962400</v>
+        <v>16263800</v>
       </c>
       <c r="H21" s="3">
-        <v>12380700</v>
+        <v>12617300</v>
       </c>
       <c r="I21" s="3">
-        <v>13659800</v>
+        <v>13918700</v>
       </c>
       <c r="J21" s="3">
-        <v>14465300</v>
+        <v>14738000</v>
       </c>
       <c r="K21" s="3">
         <v>9933700</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>233100</v>
+        <v>237300</v>
       </c>
       <c r="E22" s="3">
-        <v>124800</v>
+        <v>127000</v>
       </c>
       <c r="F22" s="3">
-        <v>122400</v>
+        <v>124600</v>
       </c>
       <c r="G22" s="3">
-        <v>117700</v>
+        <v>119800</v>
       </c>
       <c r="H22" s="3">
-        <v>171300</v>
+        <v>174400</v>
       </c>
       <c r="I22" s="3">
-        <v>171800</v>
+        <v>174800</v>
       </c>
       <c r="J22" s="3">
-        <v>120900</v>
+        <v>123000</v>
       </c>
       <c r="K22" s="3">
         <v>110500</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7456800</v>
+        <v>7591100</v>
       </c>
       <c r="E23" s="3">
-        <v>9245300</v>
+        <v>9411800</v>
       </c>
       <c r="F23" s="3">
-        <v>10525300</v>
+        <v>10714900</v>
       </c>
       <c r="G23" s="3">
-        <v>9505900</v>
+        <v>9677100</v>
       </c>
       <c r="H23" s="3">
-        <v>5998600</v>
+        <v>6106700</v>
       </c>
       <c r="I23" s="3">
-        <v>7610900</v>
+        <v>7747900</v>
       </c>
       <c r="J23" s="3">
-        <v>8816000</v>
+        <v>8974800</v>
       </c>
       <c r="K23" s="3">
         <v>4444000</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2643100</v>
+        <v>2690700</v>
       </c>
       <c r="E24" s="3">
-        <v>2861200</v>
+        <v>2912700</v>
       </c>
       <c r="F24" s="3">
-        <v>-129000</v>
+        <v>-131300</v>
       </c>
       <c r="G24" s="3">
-        <v>3092500</v>
+        <v>3148200</v>
       </c>
       <c r="H24" s="3">
-        <v>2162600</v>
+        <v>2201600</v>
       </c>
       <c r="I24" s="3">
-        <v>2314100</v>
+        <v>2355800</v>
       </c>
       <c r="J24" s="3">
-        <v>2529800</v>
+        <v>2575400</v>
       </c>
       <c r="K24" s="3">
         <v>1626900</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4813800</v>
+        <v>4900400</v>
       </c>
       <c r="E26" s="3">
-        <v>6384100</v>
+        <v>6499100</v>
       </c>
       <c r="F26" s="3">
-        <v>10654400</v>
+        <v>10846200</v>
       </c>
       <c r="G26" s="3">
-        <v>6413500</v>
+        <v>6529000</v>
       </c>
       <c r="H26" s="3">
-        <v>3836000</v>
+        <v>3905100</v>
       </c>
       <c r="I26" s="3">
-        <v>5296800</v>
+        <v>5392200</v>
       </c>
       <c r="J26" s="3">
-        <v>6286200</v>
+        <v>6399400</v>
       </c>
       <c r="K26" s="3">
         <v>2817100</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4302200</v>
+        <v>4379700</v>
       </c>
       <c r="E27" s="3">
-        <v>5761400</v>
+        <v>5865100</v>
       </c>
       <c r="F27" s="3">
-        <v>10000100</v>
+        <v>10180200</v>
       </c>
       <c r="G27" s="3">
-        <v>5820400</v>
+        <v>5925200</v>
       </c>
       <c r="H27" s="3">
-        <v>3252400</v>
+        <v>3310900</v>
       </c>
       <c r="I27" s="3">
-        <v>4809100</v>
+        <v>4895700</v>
       </c>
       <c r="J27" s="3">
-        <v>7147700</v>
+        <v>7276400</v>
       </c>
       <c r="K27" s="3">
         <v>3337400</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1708400</v>
+        <v>-1739100</v>
       </c>
       <c r="E32" s="3">
-        <v>-2513100</v>
+        <v>-2558400</v>
       </c>
       <c r="F32" s="3">
-        <v>-2779000</v>
+        <v>-2829000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1687400</v>
+        <v>-1717700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1418100</v>
+        <v>-1443600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1452100</v>
+        <v>-1478300</v>
       </c>
       <c r="J32" s="3">
-        <v>-1159600</v>
+        <v>-1180500</v>
       </c>
       <c r="K32" s="3">
         <v>397800</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4302200</v>
+        <v>4379700</v>
       </c>
       <c r="E33" s="3">
-        <v>5761400</v>
+        <v>5865100</v>
       </c>
       <c r="F33" s="3">
-        <v>10000100</v>
+        <v>10180200</v>
       </c>
       <c r="G33" s="3">
-        <v>5820400</v>
+        <v>5925200</v>
       </c>
       <c r="H33" s="3">
-        <v>3252400</v>
+        <v>3310900</v>
       </c>
       <c r="I33" s="3">
-        <v>4809100</v>
+        <v>4895700</v>
       </c>
       <c r="J33" s="3">
-        <v>7147700</v>
+        <v>7276400</v>
       </c>
       <c r="K33" s="3">
         <v>3337400</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4302200</v>
+        <v>4379700</v>
       </c>
       <c r="E35" s="3">
-        <v>5761400</v>
+        <v>5865100</v>
       </c>
       <c r="F35" s="3">
-        <v>10000100</v>
+        <v>10180200</v>
       </c>
       <c r="G35" s="3">
-        <v>5820400</v>
+        <v>5925200</v>
       </c>
       <c r="H35" s="3">
-        <v>3252400</v>
+        <v>3310900</v>
       </c>
       <c r="I35" s="3">
-        <v>4809100</v>
+        <v>4895700</v>
       </c>
       <c r="J35" s="3">
-        <v>7147700</v>
+        <v>7276400</v>
       </c>
       <c r="K35" s="3">
         <v>3337400</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>25227000</v>
+        <v>25681300</v>
       </c>
       <c r="E41" s="3">
-        <v>23544500</v>
+        <v>23968500</v>
       </c>
       <c r="F41" s="3">
-        <v>21301200</v>
+        <v>21684800</v>
       </c>
       <c r="G41" s="3">
-        <v>19880400</v>
+        <v>20238400</v>
       </c>
       <c r="H41" s="3">
-        <v>16590400</v>
+        <v>16889200</v>
       </c>
       <c r="I41" s="3">
-        <v>13893100</v>
+        <v>14143300</v>
       </c>
       <c r="J41" s="3">
-        <v>11267400</v>
+        <v>11470300</v>
       </c>
       <c r="K41" s="3">
         <v>10963700</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1794100</v>
+        <v>1826400</v>
       </c>
       <c r="E42" s="3">
-        <v>1541300</v>
+        <v>1569100</v>
       </c>
       <c r="F42" s="3">
-        <v>2012400</v>
+        <v>2048600</v>
       </c>
       <c r="G42" s="3">
-        <v>1410600</v>
+        <v>1436000</v>
       </c>
       <c r="H42" s="3">
-        <v>972700</v>
+        <v>990200</v>
       </c>
       <c r="I42" s="3">
-        <v>875200</v>
+        <v>890900</v>
       </c>
       <c r="J42" s="3">
-        <v>963100</v>
+        <v>980400</v>
       </c>
       <c r="K42" s="3">
         <v>3803700</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>23715800</v>
+        <v>24142900</v>
       </c>
       <c r="E43" s="3">
-        <v>25911600</v>
+        <v>26378300</v>
       </c>
       <c r="F43" s="3">
-        <v>24932600</v>
+        <v>25381600</v>
       </c>
       <c r="G43" s="3">
-        <v>24949600</v>
+        <v>25398900</v>
       </c>
       <c r="H43" s="3">
-        <v>25985800</v>
+        <v>26453700</v>
       </c>
       <c r="I43" s="3">
-        <v>27561300</v>
+        <v>28057700</v>
       </c>
       <c r="J43" s="3">
-        <v>49983800</v>
+        <v>50884000</v>
       </c>
       <c r="K43" s="3">
         <v>20443300</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14731800</v>
+        <v>14997100</v>
       </c>
       <c r="E44" s="3">
-        <v>14979300</v>
+        <v>15249000</v>
       </c>
       <c r="F44" s="3">
-        <v>14381400</v>
+        <v>14640400</v>
       </c>
       <c r="G44" s="3">
-        <v>12877400</v>
+        <v>13109300</v>
       </c>
       <c r="H44" s="3">
-        <v>12397500</v>
+        <v>12620700</v>
       </c>
       <c r="I44" s="3">
-        <v>14144100</v>
+        <v>14398800</v>
       </c>
       <c r="J44" s="3">
-        <v>17075400</v>
+        <v>17383000</v>
       </c>
       <c r="K44" s="3">
         <v>11048200</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3452900</v>
+        <v>3515000</v>
       </c>
       <c r="E45" s="3">
-        <v>3381700</v>
+        <v>3442600</v>
       </c>
       <c r="F45" s="3">
-        <v>2747100</v>
+        <v>2796600</v>
       </c>
       <c r="G45" s="3">
-        <v>2765600</v>
+        <v>2815400</v>
       </c>
       <c r="H45" s="3">
-        <v>2974700</v>
+        <v>3028300</v>
       </c>
       <c r="I45" s="3">
-        <v>2961900</v>
+        <v>3015200</v>
       </c>
       <c r="J45" s="3">
-        <v>4237500</v>
+        <v>4313800</v>
       </c>
       <c r="K45" s="3">
         <v>2127700</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>68921500</v>
+        <v>70162700</v>
       </c>
       <c r="E46" s="3">
-        <v>69358500</v>
+        <v>70607500</v>
       </c>
       <c r="F46" s="3">
-        <v>65374700</v>
+        <v>66552000</v>
       </c>
       <c r="G46" s="3">
-        <v>61883600</v>
+        <v>62998000</v>
       </c>
       <c r="H46" s="3">
-        <v>58920900</v>
+        <v>59982000</v>
       </c>
       <c r="I46" s="3">
-        <v>59435600</v>
+        <v>60505900</v>
       </c>
       <c r="J46" s="3">
-        <v>52384100</v>
+        <v>53327400</v>
       </c>
       <c r="K46" s="3">
         <v>48386600</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>41347300</v>
+        <v>42091900</v>
       </c>
       <c r="E47" s="3">
-        <v>43271100</v>
+        <v>44050400</v>
       </c>
       <c r="F47" s="3">
-        <v>39963600</v>
+        <v>40683300</v>
       </c>
       <c r="G47" s="3">
-        <v>38066700</v>
+        <v>38752200</v>
       </c>
       <c r="H47" s="3">
-        <v>37856800</v>
+        <v>38538600</v>
       </c>
       <c r="I47" s="3">
-        <v>42954000</v>
+        <v>43727500</v>
       </c>
       <c r="J47" s="3">
-        <v>76915000</v>
+        <v>78300100</v>
       </c>
       <c r="K47" s="3">
         <v>29517500</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>72478100</v>
+        <v>73783300</v>
       </c>
       <c r="E48" s="3">
-        <v>70145700</v>
+        <v>71408900</v>
       </c>
       <c r="F48" s="3">
-        <v>67501300</v>
+        <v>68716900</v>
       </c>
       <c r="G48" s="3">
-        <v>68959600</v>
+        <v>70201400</v>
       </c>
       <c r="H48" s="3">
-        <v>64358900</v>
+        <v>65517900</v>
       </c>
       <c r="I48" s="3">
-        <v>61594800</v>
+        <v>62704100</v>
       </c>
       <c r="J48" s="3">
-        <v>97270700</v>
+        <v>99022400</v>
       </c>
       <c r="K48" s="3">
         <v>38565800</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>7178500</v>
+        <v>7307800</v>
       </c>
       <c r="E49" s="3">
-        <v>7026800</v>
+        <v>7153400</v>
       </c>
       <c r="F49" s="3">
-        <v>6999900</v>
+        <v>7125900</v>
       </c>
       <c r="G49" s="3">
-        <v>7346100</v>
+        <v>7478400</v>
       </c>
       <c r="H49" s="3">
-        <v>7787400</v>
+        <v>7927700</v>
       </c>
       <c r="I49" s="3">
-        <v>7170000</v>
+        <v>7299100</v>
       </c>
       <c r="J49" s="3">
-        <v>6322800</v>
+        <v>6436600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>42</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3230800</v>
+        <v>3289000</v>
       </c>
       <c r="E52" s="3">
-        <v>2954400</v>
+        <v>3007600</v>
       </c>
       <c r="F52" s="3">
-        <v>2816500</v>
+        <v>2867200</v>
       </c>
       <c r="G52" s="3">
-        <v>2708700</v>
+        <v>2757400</v>
       </c>
       <c r="H52" s="3">
-        <v>3160500</v>
+        <v>3217400</v>
       </c>
       <c r="I52" s="3">
-        <v>2785500</v>
+        <v>2835700</v>
       </c>
       <c r="J52" s="3">
-        <v>11595900</v>
+        <v>11804800</v>
       </c>
       <c r="K52" s="3">
         <v>7475600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>193156000</v>
+        <v>196635000</v>
       </c>
       <c r="E54" s="3">
-        <v>192757000</v>
+        <v>196228000</v>
       </c>
       <c r="F54" s="3">
-        <v>182656000</v>
+        <v>185946000</v>
       </c>
       <c r="G54" s="3">
-        <v>178965000</v>
+        <v>182188000</v>
       </c>
       <c r="H54" s="3">
-        <v>172085000</v>
+        <v>175184000</v>
       </c>
       <c r="I54" s="3">
-        <v>173940000</v>
+        <v>177072000</v>
       </c>
       <c r="J54" s="3">
-        <v>151497000</v>
+        <v>154226000</v>
       </c>
       <c r="K54" s="3">
         <v>123945000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7969100</v>
+        <v>8112600</v>
       </c>
       <c r="E57" s="3">
-        <v>9969300</v>
+        <v>10148800</v>
       </c>
       <c r="F57" s="3">
-        <v>10153100</v>
+        <v>10336000</v>
       </c>
       <c r="G57" s="3">
-        <v>9565600</v>
+        <v>9737900</v>
       </c>
       <c r="H57" s="3">
-        <v>9077600</v>
+        <v>9241000</v>
       </c>
       <c r="I57" s="3">
-        <v>9436100</v>
+        <v>9606000</v>
       </c>
       <c r="J57" s="3">
-        <v>18928500</v>
+        <v>19269300</v>
       </c>
       <c r="K57" s="3">
         <v>8981000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30665400</v>
+        <v>31217700</v>
       </c>
       <c r="E58" s="3">
-        <v>30102100</v>
+        <v>30644200</v>
       </c>
       <c r="F58" s="3">
-        <v>27538900</v>
+        <v>28034900</v>
       </c>
       <c r="G58" s="3">
-        <v>26308600</v>
+        <v>26782400</v>
       </c>
       <c r="H58" s="3">
-        <v>26334000</v>
+        <v>26808200</v>
       </c>
       <c r="I58" s="3">
-        <v>26748800</v>
+        <v>27230500</v>
       </c>
       <c r="J58" s="3">
-        <v>49515100</v>
+        <v>50406800</v>
       </c>
       <c r="K58" s="3">
         <v>19846600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16023900</v>
+        <v>16312500</v>
       </c>
       <c r="E59" s="3">
-        <v>16390500</v>
+        <v>16685600</v>
       </c>
       <c r="F59" s="3">
-        <v>15399400</v>
+        <v>15676700</v>
       </c>
       <c r="G59" s="3">
-        <v>15374100</v>
+        <v>15650900</v>
       </c>
       <c r="H59" s="3">
-        <v>16228500</v>
+        <v>16520800</v>
       </c>
       <c r="I59" s="3">
-        <v>13857000</v>
+        <v>14106600</v>
       </c>
       <c r="J59" s="3">
-        <v>11960400</v>
+        <v>12175800</v>
       </c>
       <c r="K59" s="3">
         <v>8341400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54658400</v>
+        <v>55642700</v>
       </c>
       <c r="E60" s="3">
-        <v>56461800</v>
+        <v>57478600</v>
       </c>
       <c r="F60" s="3">
-        <v>53091500</v>
+        <v>54047600</v>
       </c>
       <c r="G60" s="3">
-        <v>51248300</v>
+        <v>52171200</v>
       </c>
       <c r="H60" s="3">
-        <v>51640100</v>
+        <v>52570100</v>
       </c>
       <c r="I60" s="3">
-        <v>50041900</v>
+        <v>50943100</v>
       </c>
       <c r="J60" s="3">
-        <v>44857000</v>
+        <v>45664800</v>
       </c>
       <c r="K60" s="3">
         <v>37169000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42714100</v>
+        <v>43483300</v>
       </c>
       <c r="E61" s="3">
-        <v>39704900</v>
+        <v>40419900</v>
       </c>
       <c r="F61" s="3">
-        <v>37210200</v>
+        <v>37880300</v>
       </c>
       <c r="G61" s="3">
-        <v>38415400</v>
+        <v>39107200</v>
       </c>
       <c r="H61" s="3">
-        <v>35724600</v>
+        <v>36367900</v>
       </c>
       <c r="I61" s="3">
-        <v>37641300</v>
+        <v>38319100</v>
       </c>
       <c r="J61" s="3">
-        <v>31128400</v>
+        <v>31689000</v>
       </c>
       <c r="K61" s="3">
         <v>24641600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17563600</v>
+        <v>17879900</v>
       </c>
       <c r="E62" s="3">
-        <v>15728700</v>
+        <v>16012000</v>
       </c>
       <c r="F62" s="3">
-        <v>14624600</v>
+        <v>14888000</v>
       </c>
       <c r="G62" s="3">
-        <v>17843700</v>
+        <v>18165100</v>
       </c>
       <c r="H62" s="3">
-        <v>18339800</v>
+        <v>18670000</v>
       </c>
       <c r="I62" s="3">
-        <v>16562800</v>
+        <v>16861100</v>
       </c>
       <c r="J62" s="3">
-        <v>28352500</v>
+        <v>28863100</v>
       </c>
       <c r="K62" s="3">
         <v>14817500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>117521000</v>
+        <v>119637000</v>
       </c>
       <c r="E66" s="3">
-        <v>114709000</v>
+        <v>116775000</v>
       </c>
       <c r="F66" s="3">
-        <v>107764000</v>
+        <v>109704000</v>
       </c>
       <c r="G66" s="3">
-        <v>110097000</v>
+        <v>112080000</v>
       </c>
       <c r="H66" s="3">
-        <v>108257000</v>
+        <v>110206000</v>
       </c>
       <c r="I66" s="3">
-        <v>106835000</v>
+        <v>108758000</v>
       </c>
       <c r="J66" s="3">
-        <v>91689800</v>
+        <v>93341000</v>
       </c>
       <c r="K66" s="3">
         <v>78100000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>76869400</v>
+        <v>78253700</v>
       </c>
       <c r="E72" s="3">
-        <v>75271100</v>
+        <v>76626700</v>
       </c>
       <c r="F72" s="3">
-        <v>71851000</v>
+        <v>73144900</v>
       </c>
       <c r="G72" s="3">
-        <v>63369700</v>
+        <v>64510900</v>
       </c>
       <c r="H72" s="3">
-        <v>58474300</v>
+        <v>59527300</v>
       </c>
       <c r="I72" s="3">
-        <v>57428900</v>
+        <v>58463100</v>
       </c>
       <c r="J72" s="3">
-        <v>116226000</v>
+        <v>118319000</v>
       </c>
       <c r="K72" s="3">
         <v>54987500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>75635700</v>
+        <v>76997800</v>
       </c>
       <c r="E76" s="3">
-        <v>78047300</v>
+        <v>79452800</v>
       </c>
       <c r="F76" s="3">
-        <v>74892600</v>
+        <v>76241300</v>
       </c>
       <c r="G76" s="3">
-        <v>68867600</v>
+        <v>70107800</v>
       </c>
       <c r="H76" s="3">
-        <v>63827900</v>
+        <v>64977400</v>
       </c>
       <c r="I76" s="3">
-        <v>67105400</v>
+        <v>68313900</v>
       </c>
       <c r="J76" s="3">
-        <v>59807400</v>
+        <v>60884500</v>
       </c>
       <c r="K76" s="3">
         <v>45845400</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4302200</v>
+        <v>4379700</v>
       </c>
       <c r="E81" s="3">
-        <v>5761400</v>
+        <v>5865100</v>
       </c>
       <c r="F81" s="3">
-        <v>10000100</v>
+        <v>10180200</v>
       </c>
       <c r="G81" s="3">
-        <v>5820400</v>
+        <v>5925200</v>
       </c>
       <c r="H81" s="3">
-        <v>3252400</v>
+        <v>3310900</v>
       </c>
       <c r="I81" s="3">
-        <v>4809100</v>
+        <v>4895700</v>
       </c>
       <c r="J81" s="3">
-        <v>7147700</v>
+        <v>7276400</v>
       </c>
       <c r="K81" s="3">
         <v>3337400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6606800</v>
+        <v>6725800</v>
       </c>
       <c r="E83" s="3">
-        <v>6812800</v>
+        <v>6935500</v>
       </c>
       <c r="F83" s="3">
-        <v>6731600</v>
+        <v>6852800</v>
       </c>
       <c r="G83" s="3">
-        <v>6365700</v>
+        <v>6480300</v>
       </c>
       <c r="H83" s="3">
-        <v>6237100</v>
+        <v>6349500</v>
       </c>
       <c r="I83" s="3">
-        <v>5902200</v>
+        <v>6008500</v>
       </c>
       <c r="J83" s="3">
-        <v>5552000</v>
+        <v>5651900</v>
       </c>
       <c r="K83" s="3">
         <v>5367400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9245700</v>
+        <v>9412200</v>
       </c>
       <c r="E89" s="3">
-        <v>7325300</v>
+        <v>7457200</v>
       </c>
       <c r="F89" s="3">
-        <v>9323600</v>
+        <v>9491500</v>
       </c>
       <c r="G89" s="3">
-        <v>8355100</v>
+        <v>8505600</v>
       </c>
       <c r="H89" s="3">
-        <v>13131000</v>
+        <v>13367500</v>
       </c>
       <c r="I89" s="3">
-        <v>9632600</v>
+        <v>9806100</v>
       </c>
       <c r="J89" s="3">
-        <v>4239600</v>
+        <v>4315900</v>
       </c>
       <c r="K89" s="3">
         <v>7278800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3494600</v>
+        <v>-3557600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3972000</v>
+        <v>-4043600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3922900</v>
+        <v>-3993600</v>
       </c>
       <c r="G91" s="3">
-        <v>-4664600</v>
+        <v>-4748600</v>
       </c>
       <c r="H91" s="3">
-        <v>-5996100</v>
+        <v>-6104000</v>
       </c>
       <c r="I91" s="3">
-        <v>-6119100</v>
+        <v>-6229300</v>
       </c>
       <c r="J91" s="3">
-        <v>-24735400</v>
+        <v>-25180900</v>
       </c>
       <c r="K91" s="3">
         <v>-12907800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5847900</v>
+        <v>-5953200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5452100</v>
+        <v>-5550300</v>
       </c>
       <c r="F94" s="3">
-        <v>-5806700</v>
+        <v>-5911200</v>
       </c>
       <c r="G94" s="3">
-        <v>-6141800</v>
+        <v>-6252400</v>
       </c>
       <c r="H94" s="3">
-        <v>-8260700</v>
+        <v>-8409500</v>
       </c>
       <c r="I94" s="3">
-        <v>-7934300</v>
+        <v>-8077200</v>
       </c>
       <c r="J94" s="3">
-        <v>-8694500</v>
+        <v>-8851000</v>
       </c>
       <c r="K94" s="3">
         <v>-9724100</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1857700</v>
+        <v>-1891200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1833900</v>
+        <v>-1866900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1644600</v>
+        <v>-1674300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1531200</v>
+        <v>-1558800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1497200</v>
+        <v>-1524200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1497200</v>
+        <v>-1524200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1344100</v>
+        <v>-1368300</v>
       </c>
       <c r="K96" s="3">
         <v>-1179600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-825200</v>
+        <v>-840000</v>
       </c>
       <c r="E100" s="3">
-        <v>216400</v>
+        <v>220300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1645700</v>
+        <v>-1675300</v>
       </c>
       <c r="G100" s="3">
-        <v>1089600</v>
+        <v>1109200</v>
       </c>
       <c r="H100" s="3">
-        <v>-899600</v>
+        <v>-915800</v>
       </c>
       <c r="I100" s="3">
-        <v>117900</v>
+        <v>120000</v>
       </c>
       <c r="J100" s="3">
-        <v>3355500</v>
+        <v>3416000</v>
       </c>
       <c r="K100" s="3">
         <v>1086900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-890100</v>
+        <v>-906100</v>
       </c>
       <c r="E101" s="3">
-        <v>153600</v>
+        <v>156400</v>
       </c>
       <c r="F101" s="3">
-        <v>-450400</v>
+        <v>-458500</v>
       </c>
       <c r="G101" s="3">
-        <v>-12800</v>
+        <v>-13100</v>
       </c>
       <c r="H101" s="3">
-        <v>-1273400</v>
+        <v>-1296300</v>
       </c>
       <c r="I101" s="3">
-        <v>809500</v>
+        <v>824100</v>
       </c>
       <c r="J101" s="3">
-        <v>372200</v>
+        <v>378900</v>
       </c>
       <c r="K101" s="3">
         <v>985900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1682500</v>
+        <v>1712800</v>
       </c>
       <c r="E102" s="3">
-        <v>2243300</v>
+        <v>2283700</v>
       </c>
       <c r="F102" s="3">
-        <v>1420800</v>
+        <v>1446400</v>
       </c>
       <c r="G102" s="3">
-        <v>3290000</v>
+        <v>3349300</v>
       </c>
       <c r="H102" s="3">
-        <v>2697300</v>
+        <v>2745800</v>
       </c>
       <c r="I102" s="3">
-        <v>2625700</v>
+        <v>2673000</v>
       </c>
       <c r="J102" s="3">
-        <v>-727100</v>
+        <v>-740200</v>
       </c>
       <c r="K102" s="3">
         <v>-372600</v>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>143487000</v>
+        <v>136768000</v>
       </c>
       <c r="E8" s="3">
-        <v>152689600</v>
+        <v>145539700</v>
       </c>
       <c r="F8" s="3">
-        <v>147620600</v>
+        <v>140708100</v>
       </c>
       <c r="G8" s="3">
-        <v>134532300</v>
+        <v>128232700</v>
       </c>
       <c r="H8" s="3">
-        <v>140317100</v>
+        <v>133746500</v>
       </c>
       <c r="I8" s="3">
-        <v>128083000</v>
+        <v>122085400</v>
       </c>
       <c r="J8" s="3">
-        <v>120183500</v>
+        <v>114555800</v>
       </c>
       <c r="K8" s="3">
         <v>89790500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>113894400</v>
+        <v>108561200</v>
       </c>
       <c r="E9" s="3">
-        <v>120902900</v>
+        <v>115241500</v>
       </c>
       <c r="F9" s="3">
-        <v>115325600</v>
+        <v>109925300</v>
       </c>
       <c r="G9" s="3">
-        <v>104420800</v>
+        <v>99531200</v>
       </c>
       <c r="H9" s="3">
-        <v>108904400</v>
+        <v>103804800</v>
       </c>
       <c r="I9" s="3">
-        <v>99278800</v>
+        <v>94630000</v>
       </c>
       <c r="J9" s="3">
-        <v>92165300</v>
+        <v>87849500</v>
       </c>
       <c r="K9" s="3">
         <v>66767500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29592600</v>
+        <v>28206800</v>
       </c>
       <c r="E10" s="3">
-        <v>31786700</v>
+        <v>30298200</v>
       </c>
       <c r="F10" s="3">
-        <v>32295000</v>
+        <v>30782800</v>
       </c>
       <c r="G10" s="3">
-        <v>30111500</v>
+        <v>28701500</v>
       </c>
       <c r="H10" s="3">
-        <v>31412700</v>
+        <v>29941800</v>
       </c>
       <c r="I10" s="3">
-        <v>28804200</v>
+        <v>27455400</v>
       </c>
       <c r="J10" s="3">
-        <v>28018300</v>
+        <v>26706300</v>
       </c>
       <c r="K10" s="3">
         <v>23023000</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7727600</v>
+        <v>7365800</v>
       </c>
       <c r="E12" s="3">
-        <v>7754400</v>
+        <v>7391200</v>
       </c>
       <c r="F12" s="3">
-        <v>7225300</v>
+        <v>6887000</v>
       </c>
       <c r="G12" s="3">
-        <v>6644600</v>
+        <v>6333500</v>
       </c>
       <c r="H12" s="3">
-        <v>6309000</v>
+        <v>6013600</v>
       </c>
       <c r="I12" s="3">
-        <v>5825200</v>
+        <v>5552400</v>
       </c>
       <c r="J12" s="3">
-        <v>5750400</v>
+        <v>5481100</v>
       </c>
       <c r="K12" s="3">
         <v>5092900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>137397700</v>
+        <v>130963900</v>
       </c>
       <c r="E17" s="3">
-        <v>145709200</v>
+        <v>138886200</v>
       </c>
       <c r="F17" s="3">
-        <v>139610100</v>
+        <v>133072700</v>
       </c>
       <c r="G17" s="3">
-        <v>126453100</v>
+        <v>120531800</v>
       </c>
       <c r="H17" s="3">
-        <v>135479600</v>
+        <v>129135600</v>
       </c>
       <c r="I17" s="3">
-        <v>121638500</v>
+        <v>115942700</v>
       </c>
       <c r="J17" s="3">
-        <v>112266200</v>
+        <v>107009200</v>
       </c>
       <c r="K17" s="3">
         <v>84838200</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6089300</v>
+        <v>5804100</v>
       </c>
       <c r="E18" s="3">
-        <v>6980400</v>
+        <v>6653500</v>
       </c>
       <c r="F18" s="3">
-        <v>8010500</v>
+        <v>7635400</v>
       </c>
       <c r="G18" s="3">
-        <v>8079200</v>
+        <v>7700900</v>
       </c>
       <c r="H18" s="3">
-        <v>4837400</v>
+        <v>4610900</v>
       </c>
       <c r="I18" s="3">
-        <v>6444500</v>
+        <v>6142700</v>
       </c>
       <c r="J18" s="3">
-        <v>7917300</v>
+        <v>7546600</v>
       </c>
       <c r="K18" s="3">
         <v>4952300</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1739100</v>
+        <v>1657700</v>
       </c>
       <c r="E20" s="3">
-        <v>2558400</v>
+        <v>2438600</v>
       </c>
       <c r="F20" s="3">
-        <v>2829000</v>
+        <v>2696600</v>
       </c>
       <c r="G20" s="3">
-        <v>1717700</v>
+        <v>1637300</v>
       </c>
       <c r="H20" s="3">
-        <v>1443600</v>
+        <v>1376000</v>
       </c>
       <c r="I20" s="3">
-        <v>1478300</v>
+        <v>1409100</v>
       </c>
       <c r="J20" s="3">
-        <v>1180500</v>
+        <v>1125200</v>
       </c>
       <c r="K20" s="3">
         <v>-397800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>14540200</v>
+        <v>13900700</v>
       </c>
       <c r="E21" s="3">
-        <v>16459900</v>
+        <v>15731700</v>
       </c>
       <c r="F21" s="3">
-        <v>17678100</v>
+        <v>16892400</v>
       </c>
       <c r="G21" s="3">
-        <v>16263800</v>
+        <v>15542100</v>
       </c>
       <c r="H21" s="3">
-        <v>12617300</v>
+        <v>12065500</v>
       </c>
       <c r="I21" s="3">
-        <v>13918700</v>
+        <v>13303900</v>
       </c>
       <c r="J21" s="3">
-        <v>14738000</v>
+        <v>14082600</v>
       </c>
       <c r="K21" s="3">
         <v>9933700</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>237300</v>
+        <v>226200</v>
       </c>
       <c r="E22" s="3">
-        <v>127000</v>
+        <v>121100</v>
       </c>
       <c r="F22" s="3">
-        <v>124600</v>
+        <v>118800</v>
       </c>
       <c r="G22" s="3">
-        <v>119800</v>
+        <v>114200</v>
       </c>
       <c r="H22" s="3">
-        <v>174400</v>
+        <v>166200</v>
       </c>
       <c r="I22" s="3">
-        <v>174800</v>
+        <v>166700</v>
       </c>
       <c r="J22" s="3">
-        <v>123000</v>
+        <v>117300</v>
       </c>
       <c r="K22" s="3">
         <v>110500</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7591100</v>
+        <v>7235600</v>
       </c>
       <c r="E23" s="3">
-        <v>9411800</v>
+        <v>8971100</v>
       </c>
       <c r="F23" s="3">
-        <v>10714900</v>
+        <v>10213200</v>
       </c>
       <c r="G23" s="3">
-        <v>9677100</v>
+        <v>9224000</v>
       </c>
       <c r="H23" s="3">
-        <v>6106700</v>
+        <v>5820700</v>
       </c>
       <c r="I23" s="3">
-        <v>7747900</v>
+        <v>7385100</v>
       </c>
       <c r="J23" s="3">
-        <v>8974800</v>
+        <v>8554600</v>
       </c>
       <c r="K23" s="3">
         <v>4444000</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2690700</v>
+        <v>2564700</v>
       </c>
       <c r="E24" s="3">
-        <v>2912700</v>
+        <v>2776300</v>
       </c>
       <c r="F24" s="3">
-        <v>-131300</v>
+        <v>-125200</v>
       </c>
       <c r="G24" s="3">
-        <v>3148200</v>
+        <v>3000700</v>
       </c>
       <c r="H24" s="3">
-        <v>2201600</v>
+        <v>2098500</v>
       </c>
       <c r="I24" s="3">
-        <v>2355800</v>
+        <v>2245500</v>
       </c>
       <c r="J24" s="3">
-        <v>2575400</v>
+        <v>2454800</v>
       </c>
       <c r="K24" s="3">
         <v>1626900</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4900400</v>
+        <v>4671000</v>
       </c>
       <c r="E26" s="3">
-        <v>6499100</v>
+        <v>6194800</v>
       </c>
       <c r="F26" s="3">
-        <v>10846200</v>
+        <v>10338300</v>
       </c>
       <c r="G26" s="3">
-        <v>6529000</v>
+        <v>6223200</v>
       </c>
       <c r="H26" s="3">
-        <v>3905100</v>
+        <v>3722200</v>
       </c>
       <c r="I26" s="3">
-        <v>5392200</v>
+        <v>5139700</v>
       </c>
       <c r="J26" s="3">
-        <v>6399400</v>
+        <v>6099700</v>
       </c>
       <c r="K26" s="3">
         <v>2817100</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4379700</v>
+        <v>4174600</v>
       </c>
       <c r="E27" s="3">
-        <v>5865100</v>
+        <v>5590500</v>
       </c>
       <c r="F27" s="3">
-        <v>10180200</v>
+        <v>9703500</v>
       </c>
       <c r="G27" s="3">
-        <v>5925200</v>
+        <v>5647800</v>
       </c>
       <c r="H27" s="3">
-        <v>3310900</v>
+        <v>3155900</v>
       </c>
       <c r="I27" s="3">
-        <v>4895700</v>
+        <v>4666400</v>
       </c>
       <c r="J27" s="3">
-        <v>7276400</v>
+        <v>6935700</v>
       </c>
       <c r="K27" s="3">
         <v>3337400</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1739100</v>
+        <v>-1657700</v>
       </c>
       <c r="E32" s="3">
-        <v>-2558400</v>
+        <v>-2438600</v>
       </c>
       <c r="F32" s="3">
-        <v>-2829000</v>
+        <v>-2696600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1717700</v>
+        <v>-1637300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1443600</v>
+        <v>-1376000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1478300</v>
+        <v>-1409100</v>
       </c>
       <c r="J32" s="3">
-        <v>-1180500</v>
+        <v>-1125200</v>
       </c>
       <c r="K32" s="3">
         <v>397800</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4379700</v>
+        <v>4174600</v>
       </c>
       <c r="E33" s="3">
-        <v>5865100</v>
+        <v>5590500</v>
       </c>
       <c r="F33" s="3">
-        <v>10180200</v>
+        <v>9703500</v>
       </c>
       <c r="G33" s="3">
-        <v>5925200</v>
+        <v>5647800</v>
       </c>
       <c r="H33" s="3">
-        <v>3310900</v>
+        <v>3155900</v>
       </c>
       <c r="I33" s="3">
-        <v>4895700</v>
+        <v>4666400</v>
       </c>
       <c r="J33" s="3">
-        <v>7276400</v>
+        <v>6935700</v>
       </c>
       <c r="K33" s="3">
         <v>3337400</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4379700</v>
+        <v>4174600</v>
       </c>
       <c r="E35" s="3">
-        <v>5865100</v>
+        <v>5590500</v>
       </c>
       <c r="F35" s="3">
-        <v>10180200</v>
+        <v>9703500</v>
       </c>
       <c r="G35" s="3">
-        <v>5925200</v>
+        <v>5647800</v>
       </c>
       <c r="H35" s="3">
-        <v>3310900</v>
+        <v>3155900</v>
       </c>
       <c r="I35" s="3">
-        <v>4895700</v>
+        <v>4666400</v>
       </c>
       <c r="J35" s="3">
-        <v>7276400</v>
+        <v>6935700</v>
       </c>
       <c r="K35" s="3">
         <v>3337400</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>25681300</v>
+        <v>24478800</v>
       </c>
       <c r="E41" s="3">
-        <v>23968500</v>
+        <v>22846100</v>
       </c>
       <c r="F41" s="3">
-        <v>21684800</v>
+        <v>20669400</v>
       </c>
       <c r="G41" s="3">
-        <v>20238400</v>
+        <v>19290700</v>
       </c>
       <c r="H41" s="3">
-        <v>16889200</v>
+        <v>16098300</v>
       </c>
       <c r="I41" s="3">
-        <v>14143300</v>
+        <v>13481000</v>
       </c>
       <c r="J41" s="3">
-        <v>11470300</v>
+        <v>10933200</v>
       </c>
       <c r="K41" s="3">
         <v>10963700</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1826400</v>
+        <v>1740900</v>
       </c>
       <c r="E42" s="3">
-        <v>1569100</v>
+        <v>1495600</v>
       </c>
       <c r="F42" s="3">
-        <v>2048600</v>
+        <v>1952700</v>
       </c>
       <c r="G42" s="3">
-        <v>1436000</v>
+        <v>1368800</v>
       </c>
       <c r="H42" s="3">
-        <v>990200</v>
+        <v>943800</v>
       </c>
       <c r="I42" s="3">
-        <v>890900</v>
+        <v>849200</v>
       </c>
       <c r="J42" s="3">
-        <v>980400</v>
+        <v>934500</v>
       </c>
       <c r="K42" s="3">
         <v>3803700</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>24142900</v>
+        <v>23012400</v>
       </c>
       <c r="E43" s="3">
-        <v>26378300</v>
+        <v>25143100</v>
       </c>
       <c r="F43" s="3">
-        <v>25381600</v>
+        <v>24193000</v>
       </c>
       <c r="G43" s="3">
-        <v>25398900</v>
+        <v>24209600</v>
       </c>
       <c r="H43" s="3">
-        <v>26453700</v>
+        <v>25215000</v>
       </c>
       <c r="I43" s="3">
-        <v>28057700</v>
+        <v>26743800</v>
       </c>
       <c r="J43" s="3">
-        <v>50884000</v>
+        <v>48501300</v>
       </c>
       <c r="K43" s="3">
         <v>20443300</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14997100</v>
+        <v>14294800</v>
       </c>
       <c r="E44" s="3">
-        <v>15249000</v>
+        <v>14535000</v>
       </c>
       <c r="F44" s="3">
-        <v>14640400</v>
+        <v>13954800</v>
       </c>
       <c r="G44" s="3">
-        <v>13109300</v>
+        <v>12495400</v>
       </c>
       <c r="H44" s="3">
-        <v>12620700</v>
+        <v>12029800</v>
       </c>
       <c r="I44" s="3">
-        <v>14398800</v>
+        <v>13724500</v>
       </c>
       <c r="J44" s="3">
-        <v>17383000</v>
+        <v>16569000</v>
       </c>
       <c r="K44" s="3">
         <v>11048200</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3515000</v>
+        <v>3350400</v>
       </c>
       <c r="E45" s="3">
-        <v>3442600</v>
+        <v>3281400</v>
       </c>
       <c r="F45" s="3">
-        <v>2796600</v>
+        <v>2665600</v>
       </c>
       <c r="G45" s="3">
-        <v>2815400</v>
+        <v>2683600</v>
       </c>
       <c r="H45" s="3">
-        <v>3028300</v>
+        <v>2886500</v>
       </c>
       <c r="I45" s="3">
-        <v>3015200</v>
+        <v>2874000</v>
       </c>
       <c r="J45" s="3">
-        <v>4313800</v>
+        <v>4111800</v>
       </c>
       <c r="K45" s="3">
         <v>2127700</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>70162700</v>
+        <v>66877300</v>
       </c>
       <c r="E46" s="3">
-        <v>70607500</v>
+        <v>67301200</v>
       </c>
       <c r="F46" s="3">
-        <v>66552000</v>
+        <v>63435600</v>
       </c>
       <c r="G46" s="3">
-        <v>62998000</v>
+        <v>60048100</v>
       </c>
       <c r="H46" s="3">
-        <v>59982000</v>
+        <v>57173300</v>
       </c>
       <c r="I46" s="3">
-        <v>60505900</v>
+        <v>57672600</v>
       </c>
       <c r="J46" s="3">
-        <v>53327400</v>
+        <v>50830300</v>
       </c>
       <c r="K46" s="3">
         <v>48386600</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>42091900</v>
+        <v>40120900</v>
       </c>
       <c r="E47" s="3">
-        <v>44050400</v>
+        <v>41987700</v>
       </c>
       <c r="F47" s="3">
-        <v>40683300</v>
+        <v>38778300</v>
       </c>
       <c r="G47" s="3">
-        <v>38752200</v>
+        <v>36937600</v>
       </c>
       <c r="H47" s="3">
-        <v>38538600</v>
+        <v>36734000</v>
       </c>
       <c r="I47" s="3">
-        <v>43727500</v>
+        <v>41679900</v>
       </c>
       <c r="J47" s="3">
-        <v>78300100</v>
+        <v>74633600</v>
       </c>
       <c r="K47" s="3">
         <v>29517500</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>73783300</v>
+        <v>70328300</v>
       </c>
       <c r="E48" s="3">
-        <v>71408900</v>
+        <v>68065100</v>
       </c>
       <c r="F48" s="3">
-        <v>68716900</v>
+        <v>65499200</v>
       </c>
       <c r="G48" s="3">
-        <v>70201400</v>
+        <v>66914200</v>
       </c>
       <c r="H48" s="3">
-        <v>65517900</v>
+        <v>62449900</v>
       </c>
       <c r="I48" s="3">
-        <v>62704100</v>
+        <v>59767900</v>
       </c>
       <c r="J48" s="3">
-        <v>99022400</v>
+        <v>94385600</v>
       </c>
       <c r="K48" s="3">
         <v>38565800</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>7307800</v>
+        <v>6965600</v>
       </c>
       <c r="E49" s="3">
-        <v>7153400</v>
+        <v>6818400</v>
       </c>
       <c r="F49" s="3">
-        <v>7125900</v>
+        <v>6792300</v>
       </c>
       <c r="G49" s="3">
-        <v>7478400</v>
+        <v>7128200</v>
       </c>
       <c r="H49" s="3">
-        <v>7927700</v>
+        <v>7556400</v>
       </c>
       <c r="I49" s="3">
-        <v>7299100</v>
+        <v>6957300</v>
       </c>
       <c r="J49" s="3">
-        <v>6436600</v>
+        <v>6135200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>42</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3289000</v>
+        <v>3135000</v>
       </c>
       <c r="E52" s="3">
-        <v>3007600</v>
+        <v>2866800</v>
       </c>
       <c r="F52" s="3">
-        <v>2867200</v>
+        <v>2733000</v>
       </c>
       <c r="G52" s="3">
-        <v>2757400</v>
+        <v>2628300</v>
       </c>
       <c r="H52" s="3">
-        <v>3217400</v>
+        <v>3066700</v>
       </c>
       <c r="I52" s="3">
-        <v>2835700</v>
+        <v>2702900</v>
       </c>
       <c r="J52" s="3">
-        <v>11804800</v>
+        <v>11252000</v>
       </c>
       <c r="K52" s="3">
         <v>7475600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>196635000</v>
+        <v>187427000</v>
       </c>
       <c r="E54" s="3">
-        <v>196228000</v>
+        <v>187039000</v>
       </c>
       <c r="F54" s="3">
-        <v>185946000</v>
+        <v>177238000</v>
       </c>
       <c r="G54" s="3">
-        <v>182188000</v>
+        <v>173656000</v>
       </c>
       <c r="H54" s="3">
-        <v>175184000</v>
+        <v>166980000</v>
       </c>
       <c r="I54" s="3">
-        <v>177072000</v>
+        <v>168781000</v>
       </c>
       <c r="J54" s="3">
-        <v>154226000</v>
+        <v>147004000</v>
       </c>
       <c r="K54" s="3">
         <v>123945000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8112600</v>
+        <v>7732700</v>
       </c>
       <c r="E57" s="3">
-        <v>10148800</v>
+        <v>9673600</v>
       </c>
       <c r="F57" s="3">
-        <v>10336000</v>
+        <v>9852000</v>
       </c>
       <c r="G57" s="3">
-        <v>9737900</v>
+        <v>9281900</v>
       </c>
       <c r="H57" s="3">
-        <v>9241000</v>
+        <v>8808300</v>
       </c>
       <c r="I57" s="3">
-        <v>9606000</v>
+        <v>9156200</v>
       </c>
       <c r="J57" s="3">
-        <v>19269300</v>
+        <v>18367000</v>
       </c>
       <c r="K57" s="3">
         <v>8981000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31217700</v>
+        <v>29755900</v>
       </c>
       <c r="E58" s="3">
-        <v>30644200</v>
+        <v>29209200</v>
       </c>
       <c r="F58" s="3">
-        <v>28034900</v>
+        <v>26722100</v>
       </c>
       <c r="G58" s="3">
-        <v>26782400</v>
+        <v>25528300</v>
       </c>
       <c r="H58" s="3">
-        <v>26808200</v>
+        <v>25552900</v>
       </c>
       <c r="I58" s="3">
-        <v>27230500</v>
+        <v>25955400</v>
       </c>
       <c r="J58" s="3">
-        <v>50406800</v>
+        <v>48046400</v>
       </c>
       <c r="K58" s="3">
         <v>19846600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16312500</v>
+        <v>15548600</v>
       </c>
       <c r="E59" s="3">
-        <v>16685600</v>
+        <v>15904300</v>
       </c>
       <c r="F59" s="3">
-        <v>15676700</v>
+        <v>14942600</v>
       </c>
       <c r="G59" s="3">
-        <v>15650900</v>
+        <v>14918000</v>
       </c>
       <c r="H59" s="3">
-        <v>16520800</v>
+        <v>15747200</v>
       </c>
       <c r="I59" s="3">
-        <v>14106600</v>
+        <v>13446000</v>
       </c>
       <c r="J59" s="3">
-        <v>12175800</v>
+        <v>11605700</v>
       </c>
       <c r="K59" s="3">
         <v>8341400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>55642700</v>
+        <v>53037200</v>
       </c>
       <c r="E60" s="3">
-        <v>57478600</v>
+        <v>54787100</v>
       </c>
       <c r="F60" s="3">
-        <v>54047600</v>
+        <v>51516700</v>
       </c>
       <c r="G60" s="3">
-        <v>52171200</v>
+        <v>49728200</v>
       </c>
       <c r="H60" s="3">
-        <v>52570100</v>
+        <v>50108400</v>
       </c>
       <c r="I60" s="3">
-        <v>50943100</v>
+        <v>48557700</v>
       </c>
       <c r="J60" s="3">
-        <v>45664800</v>
+        <v>43526500</v>
       </c>
       <c r="K60" s="3">
         <v>37169000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43483300</v>
+        <v>41447200</v>
       </c>
       <c r="E61" s="3">
-        <v>40419900</v>
+        <v>38527200</v>
       </c>
       <c r="F61" s="3">
-        <v>37880300</v>
+        <v>36106500</v>
       </c>
       <c r="G61" s="3">
-        <v>39107200</v>
+        <v>37276000</v>
       </c>
       <c r="H61" s="3">
-        <v>36367900</v>
+        <v>34664900</v>
       </c>
       <c r="I61" s="3">
-        <v>38319100</v>
+        <v>36524800</v>
       </c>
       <c r="J61" s="3">
-        <v>31689000</v>
+        <v>30205100</v>
       </c>
       <c r="K61" s="3">
         <v>24641600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17879900</v>
+        <v>17042700</v>
       </c>
       <c r="E62" s="3">
-        <v>16012000</v>
+        <v>15262200</v>
       </c>
       <c r="F62" s="3">
-        <v>14888000</v>
+        <v>14190800</v>
       </c>
       <c r="G62" s="3">
-        <v>18165100</v>
+        <v>17314500</v>
       </c>
       <c r="H62" s="3">
-        <v>18670000</v>
+        <v>17795800</v>
       </c>
       <c r="I62" s="3">
-        <v>16861100</v>
+        <v>16071600</v>
       </c>
       <c r="J62" s="3">
-        <v>28863100</v>
+        <v>27511500</v>
       </c>
       <c r="K62" s="3">
         <v>14817500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>119637000</v>
+        <v>114035000</v>
       </c>
       <c r="E66" s="3">
-        <v>116775000</v>
+        <v>111307000</v>
       </c>
       <c r="F66" s="3">
-        <v>109704000</v>
+        <v>104567000</v>
       </c>
       <c r="G66" s="3">
-        <v>112080000</v>
+        <v>106832000</v>
       </c>
       <c r="H66" s="3">
-        <v>110206000</v>
+        <v>105046000</v>
       </c>
       <c r="I66" s="3">
-        <v>108758000</v>
+        <v>103666000</v>
       </c>
       <c r="J66" s="3">
-        <v>93341000</v>
+        <v>88970200</v>
       </c>
       <c r="K66" s="3">
         <v>78100000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>78253700</v>
+        <v>74589400</v>
       </c>
       <c r="E72" s="3">
-        <v>76626700</v>
+        <v>73038500</v>
       </c>
       <c r="F72" s="3">
-        <v>73144900</v>
+        <v>69719800</v>
       </c>
       <c r="G72" s="3">
-        <v>64510900</v>
+        <v>61490100</v>
       </c>
       <c r="H72" s="3">
-        <v>59527300</v>
+        <v>56739900</v>
       </c>
       <c r="I72" s="3">
-        <v>58463100</v>
+        <v>55725500</v>
       </c>
       <c r="J72" s="3">
-        <v>118319000</v>
+        <v>112779000</v>
       </c>
       <c r="K72" s="3">
         <v>54987500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>76997800</v>
+        <v>73392300</v>
       </c>
       <c r="E76" s="3">
-        <v>79452800</v>
+        <v>75732300</v>
       </c>
       <c r="F76" s="3">
-        <v>76241300</v>
+        <v>72671200</v>
       </c>
       <c r="G76" s="3">
-        <v>70107800</v>
+        <v>66824900</v>
       </c>
       <c r="H76" s="3">
-        <v>64977400</v>
+        <v>61934700</v>
       </c>
       <c r="I76" s="3">
-        <v>68313900</v>
+        <v>65115000</v>
       </c>
       <c r="J76" s="3">
-        <v>60884500</v>
+        <v>58033500</v>
       </c>
       <c r="K76" s="3">
         <v>45845400</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4379700</v>
+        <v>4174600</v>
       </c>
       <c r="E81" s="3">
-        <v>5865100</v>
+        <v>5590500</v>
       </c>
       <c r="F81" s="3">
-        <v>10180200</v>
+        <v>9703500</v>
       </c>
       <c r="G81" s="3">
-        <v>5925200</v>
+        <v>5647800</v>
       </c>
       <c r="H81" s="3">
-        <v>3310900</v>
+        <v>3155900</v>
       </c>
       <c r="I81" s="3">
-        <v>4895700</v>
+        <v>4666400</v>
       </c>
       <c r="J81" s="3">
-        <v>7276400</v>
+        <v>6935700</v>
       </c>
       <c r="K81" s="3">
         <v>3337400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6725800</v>
+        <v>6410900</v>
       </c>
       <c r="E83" s="3">
-        <v>6935500</v>
+        <v>6610700</v>
       </c>
       <c r="F83" s="3">
-        <v>6852800</v>
+        <v>6531900</v>
       </c>
       <c r="G83" s="3">
-        <v>6480300</v>
+        <v>6176900</v>
       </c>
       <c r="H83" s="3">
-        <v>6349500</v>
+        <v>6052100</v>
       </c>
       <c r="I83" s="3">
-        <v>6008500</v>
+        <v>5727100</v>
       </c>
       <c r="J83" s="3">
-        <v>5651900</v>
+        <v>5387300</v>
       </c>
       <c r="K83" s="3">
         <v>5367400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9412200</v>
+        <v>8971400</v>
       </c>
       <c r="E89" s="3">
-        <v>7457200</v>
+        <v>7108100</v>
       </c>
       <c r="F89" s="3">
-        <v>9491500</v>
+        <v>9047100</v>
       </c>
       <c r="G89" s="3">
-        <v>8505600</v>
+        <v>8107300</v>
       </c>
       <c r="H89" s="3">
-        <v>13367500</v>
+        <v>12741500</v>
       </c>
       <c r="I89" s="3">
-        <v>9806100</v>
+        <v>9346900</v>
       </c>
       <c r="J89" s="3">
-        <v>4315900</v>
+        <v>4113800</v>
       </c>
       <c r="K89" s="3">
         <v>7278800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3557600</v>
+        <v>-3391000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4043600</v>
+        <v>-3854200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3993600</v>
+        <v>-3806600</v>
       </c>
       <c r="G91" s="3">
-        <v>-4748600</v>
+        <v>-4526200</v>
       </c>
       <c r="H91" s="3">
-        <v>-6104000</v>
+        <v>-5818200</v>
       </c>
       <c r="I91" s="3">
-        <v>-6229300</v>
+        <v>-5937600</v>
       </c>
       <c r="J91" s="3">
-        <v>-25180900</v>
+        <v>-24001700</v>
       </c>
       <c r="K91" s="3">
         <v>-12907800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5953200</v>
+        <v>-5674400</v>
       </c>
       <c r="E94" s="3">
-        <v>-5550300</v>
+        <v>-5290400</v>
       </c>
       <c r="F94" s="3">
-        <v>-5911200</v>
+        <v>-5634400</v>
       </c>
       <c r="G94" s="3">
-        <v>-6252400</v>
+        <v>-5959700</v>
       </c>
       <c r="H94" s="3">
-        <v>-8409500</v>
+        <v>-8015700</v>
       </c>
       <c r="I94" s="3">
-        <v>-8077200</v>
+        <v>-7698900</v>
       </c>
       <c r="J94" s="3">
-        <v>-8851000</v>
+        <v>-8436600</v>
       </c>
       <c r="K94" s="3">
         <v>-9724100</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1891200</v>
+        <v>-1802600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1866900</v>
+        <v>-1779500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1674300</v>
+        <v>-1595900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1558800</v>
+        <v>-1485800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1524200</v>
+        <v>-1452800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1524200</v>
+        <v>-1452800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1368300</v>
+        <v>-1304200</v>
       </c>
       <c r="K96" s="3">
         <v>-1179600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-840000</v>
+        <v>-800700</v>
       </c>
       <c r="E100" s="3">
-        <v>220300</v>
+        <v>210000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1675300</v>
+        <v>-1596900</v>
       </c>
       <c r="G100" s="3">
-        <v>1109200</v>
+        <v>1057300</v>
       </c>
       <c r="H100" s="3">
-        <v>-915800</v>
+        <v>-872900</v>
       </c>
       <c r="I100" s="3">
-        <v>120000</v>
+        <v>114400</v>
       </c>
       <c r="J100" s="3">
-        <v>3416000</v>
+        <v>3256000</v>
       </c>
       <c r="K100" s="3">
         <v>1086900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-906100</v>
+        <v>-863700</v>
       </c>
       <c r="E101" s="3">
-        <v>156400</v>
+        <v>149100</v>
       </c>
       <c r="F101" s="3">
-        <v>-458500</v>
+        <v>-437000</v>
       </c>
       <c r="G101" s="3">
-        <v>-13100</v>
+        <v>-12400</v>
       </c>
       <c r="H101" s="3">
-        <v>-1296300</v>
+        <v>-1235600</v>
       </c>
       <c r="I101" s="3">
-        <v>824100</v>
+        <v>785500</v>
       </c>
       <c r="J101" s="3">
-        <v>378900</v>
+        <v>361200</v>
       </c>
       <c r="K101" s="3">
         <v>985900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1712800</v>
+        <v>1632600</v>
       </c>
       <c r="E102" s="3">
-        <v>2283700</v>
+        <v>2176700</v>
       </c>
       <c r="F102" s="3">
-        <v>1446400</v>
+        <v>1378700</v>
       </c>
       <c r="G102" s="3">
-        <v>3349300</v>
+        <v>3192400</v>
       </c>
       <c r="H102" s="3">
-        <v>2745800</v>
+        <v>2617300</v>
       </c>
       <c r="I102" s="3">
-        <v>2673000</v>
+        <v>2547800</v>
       </c>
       <c r="J102" s="3">
-        <v>-740200</v>
+        <v>-705600</v>
       </c>
       <c r="K102" s="3">
         <v>-372600</v>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>136768000</v>
+        <v>121037100</v>
       </c>
       <c r="E8" s="3">
-        <v>145539700</v>
+        <v>137216000</v>
       </c>
       <c r="F8" s="3">
-        <v>140708100</v>
+        <v>146016400</v>
       </c>
       <c r="G8" s="3">
-        <v>128232700</v>
+        <v>141168900</v>
       </c>
       <c r="H8" s="3">
-        <v>133746500</v>
+        <v>128652600</v>
       </c>
       <c r="I8" s="3">
-        <v>122085400</v>
+        <v>134184600</v>
       </c>
       <c r="J8" s="3">
+        <v>122485200</v>
+      </c>
+      <c r="K8" s="3">
         <v>114555800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>89790500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71850800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>108561200</v>
+        <v>95940700</v>
       </c>
       <c r="E9" s="3">
-        <v>115241500</v>
+        <v>108916700</v>
       </c>
       <c r="F9" s="3">
-        <v>109925300</v>
+        <v>115618900</v>
       </c>
       <c r="G9" s="3">
-        <v>99531200</v>
+        <v>110285300</v>
       </c>
       <c r="H9" s="3">
-        <v>103804800</v>
+        <v>99857100</v>
       </c>
       <c r="I9" s="3">
-        <v>94630000</v>
+        <v>104144700</v>
       </c>
       <c r="J9" s="3">
+        <v>94939900</v>
+      </c>
+      <c r="K9" s="3">
         <v>87849500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>66767500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53513500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28206800</v>
+        <v>25096300</v>
       </c>
       <c r="E10" s="3">
-        <v>30298200</v>
+        <v>28299200</v>
       </c>
       <c r="F10" s="3">
-        <v>30782800</v>
+        <v>30397500</v>
       </c>
       <c r="G10" s="3">
-        <v>28701500</v>
+        <v>30883600</v>
       </c>
       <c r="H10" s="3">
-        <v>29941800</v>
+        <v>28795500</v>
       </c>
       <c r="I10" s="3">
-        <v>27455400</v>
+        <v>30039800</v>
       </c>
       <c r="J10" s="3">
+        <v>27545300</v>
+      </c>
+      <c r="K10" s="3">
         <v>26706300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23023000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18337300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7365800</v>
+        <v>6790400</v>
       </c>
       <c r="E12" s="3">
-        <v>7391200</v>
+        <v>7389900</v>
       </c>
       <c r="F12" s="3">
-        <v>6887000</v>
+        <v>7415500</v>
       </c>
       <c r="G12" s="3">
-        <v>6333500</v>
+        <v>6909600</v>
       </c>
       <c r="H12" s="3">
-        <v>6013600</v>
+        <v>6354200</v>
       </c>
       <c r="I12" s="3">
-        <v>5552400</v>
+        <v>6033300</v>
       </c>
       <c r="J12" s="3">
+        <v>5570600</v>
+      </c>
+      <c r="K12" s="3">
         <v>5481100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5092900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4699200</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -923,9 +942,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>130963900</v>
+        <v>114969800</v>
       </c>
       <c r="E17" s="3">
-        <v>138886200</v>
+        <v>131392800</v>
       </c>
       <c r="F17" s="3">
-        <v>133072700</v>
+        <v>139341000</v>
       </c>
       <c r="G17" s="3">
-        <v>120531800</v>
+        <v>133508500</v>
       </c>
       <c r="H17" s="3">
-        <v>129135600</v>
+        <v>120926500</v>
       </c>
       <c r="I17" s="3">
-        <v>115942700</v>
+        <v>129558600</v>
       </c>
       <c r="J17" s="3">
+        <v>116322400</v>
+      </c>
+      <c r="K17" s="3">
         <v>107009200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>84838200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>69759200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5804100</v>
+        <v>6067300</v>
       </c>
       <c r="E18" s="3">
-        <v>6653500</v>
+        <v>5823100</v>
       </c>
       <c r="F18" s="3">
-        <v>7635400</v>
+        <v>6675300</v>
       </c>
       <c r="G18" s="3">
-        <v>7700900</v>
+        <v>7660400</v>
       </c>
       <c r="H18" s="3">
-        <v>4610900</v>
+        <v>7726100</v>
       </c>
       <c r="I18" s="3">
-        <v>6142700</v>
+        <v>4626000</v>
       </c>
       <c r="J18" s="3">
+        <v>6162800</v>
+      </c>
+      <c r="K18" s="3">
         <v>7546600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4952300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2091500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1657700</v>
+        <v>2460400</v>
       </c>
       <c r="E20" s="3">
-        <v>2438600</v>
+        <v>1663100</v>
       </c>
       <c r="F20" s="3">
-        <v>2696600</v>
+        <v>2446600</v>
       </c>
       <c r="G20" s="3">
-        <v>1637300</v>
+        <v>2705400</v>
       </c>
       <c r="H20" s="3">
-        <v>1376000</v>
+        <v>1642700</v>
       </c>
       <c r="I20" s="3">
-        <v>1409100</v>
+        <v>1380500</v>
       </c>
       <c r="J20" s="3">
+        <v>1413700</v>
+      </c>
+      <c r="K20" s="3">
         <v>1125200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-397800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>329200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>13900700</v>
+        <v>14270700</v>
       </c>
       <c r="E21" s="3">
-        <v>15731700</v>
+        <v>13925100</v>
       </c>
       <c r="F21" s="3">
-        <v>16892400</v>
+        <v>15761500</v>
       </c>
       <c r="G21" s="3">
-        <v>15542100</v>
+        <v>16926300</v>
       </c>
       <c r="H21" s="3">
-        <v>12065500</v>
+        <v>15572600</v>
       </c>
       <c r="I21" s="3">
-        <v>13303900</v>
+        <v>12085100</v>
       </c>
       <c r="J21" s="3">
+        <v>13328600</v>
+      </c>
+      <c r="K21" s="3">
         <v>14082600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9933700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7442300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>226200</v>
+        <v>127500</v>
       </c>
       <c r="E22" s="3">
-        <v>121100</v>
+        <v>226900</v>
       </c>
       <c r="F22" s="3">
-        <v>118800</v>
+        <v>121500</v>
       </c>
       <c r="G22" s="3">
-        <v>114200</v>
+        <v>119200</v>
       </c>
       <c r="H22" s="3">
-        <v>166200</v>
+        <v>114600</v>
       </c>
       <c r="I22" s="3">
-        <v>166700</v>
+        <v>166800</v>
       </c>
       <c r="J22" s="3">
+        <v>167200</v>
+      </c>
+      <c r="K22" s="3">
         <v>117300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>110500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>93800</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7235600</v>
+        <v>8400100</v>
       </c>
       <c r="E23" s="3">
-        <v>8971100</v>
+        <v>7259300</v>
       </c>
       <c r="F23" s="3">
-        <v>10213200</v>
+        <v>9000500</v>
       </c>
       <c r="G23" s="3">
-        <v>9224000</v>
+        <v>10246600</v>
       </c>
       <c r="H23" s="3">
-        <v>5820700</v>
+        <v>9254200</v>
       </c>
       <c r="I23" s="3">
-        <v>7385100</v>
+        <v>5839800</v>
       </c>
       <c r="J23" s="3">
+        <v>7409300</v>
+      </c>
+      <c r="K23" s="3">
         <v>8554600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4444000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2326900</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2564700</v>
+        <v>2009000</v>
       </c>
       <c r="E24" s="3">
-        <v>2776300</v>
+        <v>2573100</v>
       </c>
       <c r="F24" s="3">
-        <v>-125200</v>
+        <v>2785400</v>
       </c>
       <c r="G24" s="3">
-        <v>3000700</v>
+        <v>-125600</v>
       </c>
       <c r="H24" s="3">
-        <v>2098500</v>
+        <v>3010600</v>
       </c>
       <c r="I24" s="3">
-        <v>2245500</v>
+        <v>2105400</v>
       </c>
       <c r="J24" s="3">
+        <v>2252800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2454800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1626900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1227000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4671000</v>
+        <v>6391100</v>
       </c>
       <c r="E26" s="3">
-        <v>6194800</v>
+        <v>4686300</v>
       </c>
       <c r="F26" s="3">
-        <v>10338300</v>
+        <v>6215100</v>
       </c>
       <c r="G26" s="3">
-        <v>6223200</v>
+        <v>10372200</v>
       </c>
       <c r="H26" s="3">
-        <v>3722200</v>
+        <v>6243600</v>
       </c>
       <c r="I26" s="3">
-        <v>5139700</v>
+        <v>3734400</v>
       </c>
       <c r="J26" s="3">
+        <v>5156500</v>
+      </c>
+      <c r="K26" s="3">
         <v>6099700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2817100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1099900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4174600</v>
+        <v>6041700</v>
       </c>
       <c r="E27" s="3">
-        <v>5590500</v>
+        <v>4188300</v>
       </c>
       <c r="F27" s="3">
-        <v>9703500</v>
+        <v>5608800</v>
       </c>
       <c r="G27" s="3">
-        <v>5647800</v>
+        <v>9735300</v>
       </c>
       <c r="H27" s="3">
-        <v>3155900</v>
+        <v>5666300</v>
       </c>
       <c r="I27" s="3">
-        <v>4666400</v>
+        <v>3166200</v>
       </c>
       <c r="J27" s="3">
+        <v>4681700</v>
+      </c>
+      <c r="K27" s="3">
         <v>6935700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3337400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1911800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1657700</v>
+        <v>-2460400</v>
       </c>
       <c r="E32" s="3">
-        <v>-2438600</v>
+        <v>-1663100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2696600</v>
+        <v>-2446600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1637300</v>
+        <v>-2705400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1376000</v>
+        <v>-1642700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1409100</v>
+        <v>-1380500</v>
       </c>
       <c r="J32" s="3">
+        <v>-1413700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1125200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>397800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-329200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4174600</v>
+        <v>6041700</v>
       </c>
       <c r="E33" s="3">
-        <v>5590500</v>
+        <v>4188300</v>
       </c>
       <c r="F33" s="3">
-        <v>9703500</v>
+        <v>5608800</v>
       </c>
       <c r="G33" s="3">
-        <v>5647800</v>
+        <v>9735300</v>
       </c>
       <c r="H33" s="3">
-        <v>3155900</v>
+        <v>5666300</v>
       </c>
       <c r="I33" s="3">
-        <v>4666400</v>
+        <v>3166200</v>
       </c>
       <c r="J33" s="3">
+        <v>4681700</v>
+      </c>
+      <c r="K33" s="3">
         <v>6935700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3337400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1911800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4174600</v>
+        <v>6041700</v>
       </c>
       <c r="E35" s="3">
-        <v>5590500</v>
+        <v>4188300</v>
       </c>
       <c r="F35" s="3">
-        <v>9703500</v>
+        <v>5608800</v>
       </c>
       <c r="G35" s="3">
-        <v>5647800</v>
+        <v>9735300</v>
       </c>
       <c r="H35" s="3">
-        <v>3155900</v>
+        <v>5666300</v>
       </c>
       <c r="I35" s="3">
-        <v>4666400</v>
+        <v>3166200</v>
       </c>
       <c r="J35" s="3">
+        <v>4681700</v>
+      </c>
+      <c r="K35" s="3">
         <v>6935700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3337400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1911800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>24478800</v>
+        <v>25346200</v>
       </c>
       <c r="E41" s="3">
-        <v>22846100</v>
+        <v>24558900</v>
       </c>
       <c r="F41" s="3">
-        <v>20669400</v>
+        <v>22921000</v>
       </c>
       <c r="G41" s="3">
-        <v>19290700</v>
+        <v>20737100</v>
       </c>
       <c r="H41" s="3">
-        <v>16098300</v>
+        <v>19353900</v>
       </c>
       <c r="I41" s="3">
-        <v>13481000</v>
+        <v>16151000</v>
       </c>
       <c r="J41" s="3">
+        <v>13525200</v>
+      </c>
+      <c r="K41" s="3">
         <v>10933200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10963700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22547800</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1740900</v>
+        <v>2713900</v>
       </c>
       <c r="E42" s="3">
-        <v>1495600</v>
+        <v>1746600</v>
       </c>
       <c r="F42" s="3">
-        <v>1952700</v>
+        <v>1500500</v>
       </c>
       <c r="G42" s="3">
-        <v>1368800</v>
+        <v>1959100</v>
       </c>
       <c r="H42" s="3">
-        <v>943800</v>
+        <v>1373200</v>
       </c>
       <c r="I42" s="3">
-        <v>849200</v>
+        <v>946900</v>
       </c>
       <c r="J42" s="3">
+        <v>852000</v>
+      </c>
+      <c r="K42" s="3">
         <v>934500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3803700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3377000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>23012400</v>
+        <v>23861500</v>
       </c>
       <c r="E43" s="3">
-        <v>25143100</v>
+        <v>23087700</v>
       </c>
       <c r="F43" s="3">
-        <v>24193000</v>
+        <v>25225400</v>
       </c>
       <c r="G43" s="3">
-        <v>24209600</v>
+        <v>24272300</v>
       </c>
       <c r="H43" s="3">
-        <v>25215000</v>
+        <v>24288800</v>
       </c>
       <c r="I43" s="3">
-        <v>26743800</v>
+        <v>25297600</v>
       </c>
       <c r="J43" s="3">
+        <v>26831400</v>
+      </c>
+      <c r="K43" s="3">
         <v>48501300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20443300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34241300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14294800</v>
+        <v>14204100</v>
       </c>
       <c r="E44" s="3">
-        <v>14535000</v>
+        <v>14341600</v>
       </c>
       <c r="F44" s="3">
-        <v>13954800</v>
+        <v>14582600</v>
       </c>
       <c r="G44" s="3">
-        <v>12495400</v>
+        <v>14000600</v>
       </c>
       <c r="H44" s="3">
-        <v>12029800</v>
+        <v>12536400</v>
       </c>
       <c r="I44" s="3">
-        <v>13724500</v>
+        <v>12069200</v>
       </c>
       <c r="J44" s="3">
+        <v>13769500</v>
+      </c>
+      <c r="K44" s="3">
         <v>16569000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11048200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18726900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3350400</v>
+        <v>3526200</v>
       </c>
       <c r="E45" s="3">
-        <v>3281400</v>
+        <v>3361400</v>
       </c>
       <c r="F45" s="3">
-        <v>2665600</v>
+        <v>3292200</v>
       </c>
       <c r="G45" s="3">
-        <v>2683600</v>
+        <v>2674300</v>
       </c>
       <c r="H45" s="3">
-        <v>2886500</v>
+        <v>2692400</v>
       </c>
       <c r="I45" s="3">
-        <v>2874000</v>
+        <v>2895900</v>
       </c>
       <c r="J45" s="3">
+        <v>2883400</v>
+      </c>
+      <c r="K45" s="3">
         <v>4111800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2127700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6789700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>66877300</v>
+        <v>69651800</v>
       </c>
       <c r="E46" s="3">
-        <v>67301200</v>
+        <v>67096300</v>
       </c>
       <c r="F46" s="3">
-        <v>63435600</v>
+        <v>67521600</v>
       </c>
       <c r="G46" s="3">
-        <v>60048100</v>
+        <v>63643400</v>
       </c>
       <c r="H46" s="3">
-        <v>57173300</v>
+        <v>60244700</v>
       </c>
       <c r="I46" s="3">
-        <v>57672600</v>
+        <v>57360500</v>
       </c>
       <c r="J46" s="3">
+        <v>57861500</v>
+      </c>
+      <c r="K46" s="3">
         <v>50830300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>48386600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42841300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>40120900</v>
+        <v>47231400</v>
       </c>
       <c r="E47" s="3">
-        <v>41987700</v>
+        <v>40252300</v>
       </c>
       <c r="F47" s="3">
-        <v>38778300</v>
+        <v>42125200</v>
       </c>
       <c r="G47" s="3">
-        <v>36937600</v>
+        <v>38905300</v>
       </c>
       <c r="H47" s="3">
-        <v>36734000</v>
+        <v>37058600</v>
       </c>
       <c r="I47" s="3">
-        <v>41679900</v>
+        <v>36854300</v>
       </c>
       <c r="J47" s="3">
+        <v>41816400</v>
+      </c>
+      <c r="K47" s="3">
         <v>74633600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29517500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50608400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>70328300</v>
+        <v>72981700</v>
       </c>
       <c r="E48" s="3">
-        <v>68065100</v>
+        <v>70558700</v>
       </c>
       <c r="F48" s="3">
-        <v>65499200</v>
+        <v>68288000</v>
       </c>
       <c r="G48" s="3">
-        <v>66914200</v>
+        <v>65713700</v>
       </c>
       <c r="H48" s="3">
-        <v>62449900</v>
+        <v>67133300</v>
       </c>
       <c r="I48" s="3">
-        <v>59767900</v>
+        <v>62654400</v>
       </c>
       <c r="J48" s="3">
+        <v>59963600</v>
+      </c>
+      <c r="K48" s="3">
         <v>94385600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38565800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>65025200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6965600</v>
+        <v>7524400</v>
       </c>
       <c r="E49" s="3">
-        <v>6818400</v>
+        <v>6988400</v>
       </c>
       <c r="F49" s="3">
-        <v>6792300</v>
+        <v>6840700</v>
       </c>
       <c r="G49" s="3">
-        <v>7128200</v>
+        <v>6814500</v>
       </c>
       <c r="H49" s="3">
-        <v>7556400</v>
+        <v>7151600</v>
       </c>
       <c r="I49" s="3">
-        <v>6957300</v>
+        <v>7581200</v>
       </c>
       <c r="J49" s="3">
+        <v>6980100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6135200</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3135000</v>
+        <v>4064900</v>
       </c>
       <c r="E52" s="3">
-        <v>2866800</v>
+        <v>3145300</v>
       </c>
       <c r="F52" s="3">
-        <v>2733000</v>
+        <v>2876200</v>
       </c>
       <c r="G52" s="3">
-        <v>2628300</v>
+        <v>2741900</v>
       </c>
       <c r="H52" s="3">
-        <v>3066700</v>
+        <v>2636900</v>
       </c>
       <c r="I52" s="3">
-        <v>2702900</v>
+        <v>3076800</v>
       </c>
       <c r="J52" s="3">
+        <v>2711700</v>
+      </c>
+      <c r="K52" s="3">
         <v>11252000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7475600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8759700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>187427000</v>
+        <v>201454000</v>
       </c>
       <c r="E54" s="3">
-        <v>187039000</v>
+        <v>188041000</v>
       </c>
       <c r="F54" s="3">
-        <v>177238000</v>
+        <v>187652000</v>
       </c>
       <c r="G54" s="3">
-        <v>173656000</v>
+        <v>177819000</v>
       </c>
       <c r="H54" s="3">
-        <v>166980000</v>
+        <v>174225000</v>
       </c>
       <c r="I54" s="3">
-        <v>168781000</v>
+        <v>167527000</v>
       </c>
       <c r="J54" s="3">
+        <v>169333000</v>
+      </c>
+      <c r="K54" s="3">
         <v>147004000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>123945000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>106560000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7732700</v>
+        <v>9999300</v>
       </c>
       <c r="E57" s="3">
-        <v>9673600</v>
+        <v>7758000</v>
       </c>
       <c r="F57" s="3">
-        <v>9852000</v>
+        <v>9705200</v>
       </c>
       <c r="G57" s="3">
-        <v>9281900</v>
+        <v>9884300</v>
       </c>
       <c r="H57" s="3">
-        <v>8808300</v>
+        <v>9312300</v>
       </c>
       <c r="I57" s="3">
-        <v>9156200</v>
+        <v>8837200</v>
       </c>
       <c r="J57" s="3">
+        <v>9186200</v>
+      </c>
+      <c r="K57" s="3">
         <v>18367000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8981000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17518500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29755900</v>
+        <v>29295600</v>
       </c>
       <c r="E58" s="3">
-        <v>29209200</v>
+        <v>29853300</v>
       </c>
       <c r="F58" s="3">
-        <v>26722100</v>
+        <v>29304900</v>
       </c>
       <c r="G58" s="3">
-        <v>25528300</v>
+        <v>26809600</v>
       </c>
       <c r="H58" s="3">
-        <v>25552900</v>
+        <v>25611900</v>
       </c>
       <c r="I58" s="3">
-        <v>25955400</v>
+        <v>25636600</v>
       </c>
       <c r="J58" s="3">
+        <v>26040400</v>
+      </c>
+      <c r="K58" s="3">
         <v>48046400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19846600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33922500</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15548600</v>
+        <v>13230200</v>
       </c>
       <c r="E59" s="3">
-        <v>15904300</v>
+        <v>15599500</v>
       </c>
       <c r="F59" s="3">
-        <v>14942600</v>
+        <v>15956400</v>
       </c>
       <c r="G59" s="3">
-        <v>14918000</v>
+        <v>14991600</v>
       </c>
       <c r="H59" s="3">
-        <v>15747200</v>
+        <v>14966900</v>
       </c>
       <c r="I59" s="3">
-        <v>13446000</v>
+        <v>15798800</v>
       </c>
       <c r="J59" s="3">
+        <v>13490000</v>
+      </c>
+      <c r="K59" s="3">
         <v>11605700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8341400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13281100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>53037200</v>
+        <v>52525000</v>
       </c>
       <c r="E60" s="3">
-        <v>54787100</v>
+        <v>53210900</v>
       </c>
       <c r="F60" s="3">
-        <v>51516700</v>
+        <v>54966500</v>
       </c>
       <c r="G60" s="3">
-        <v>49728200</v>
+        <v>51685500</v>
       </c>
       <c r="H60" s="3">
-        <v>50108400</v>
+        <v>49891100</v>
       </c>
       <c r="I60" s="3">
-        <v>48557700</v>
+        <v>50272500</v>
       </c>
       <c r="J60" s="3">
+        <v>48716700</v>
+      </c>
+      <c r="K60" s="3">
         <v>43526500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>37169000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32361000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41447200</v>
+        <v>45914800</v>
       </c>
       <c r="E61" s="3">
-        <v>38527200</v>
+        <v>41582900</v>
       </c>
       <c r="F61" s="3">
-        <v>36106500</v>
+        <v>38653400</v>
       </c>
       <c r="G61" s="3">
-        <v>37276000</v>
+        <v>36224700</v>
       </c>
       <c r="H61" s="3">
-        <v>34664900</v>
+        <v>37398100</v>
       </c>
       <c r="I61" s="3">
-        <v>36524800</v>
+        <v>34778500</v>
       </c>
       <c r="J61" s="3">
+        <v>36644400</v>
+      </c>
+      <c r="K61" s="3">
         <v>30205100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24641600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20204400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17042700</v>
+        <v>16878000</v>
       </c>
       <c r="E62" s="3">
-        <v>15262200</v>
+        <v>17098500</v>
       </c>
       <c r="F62" s="3">
-        <v>14190800</v>
+        <v>15312200</v>
       </c>
       <c r="G62" s="3">
-        <v>17314500</v>
+        <v>14237300</v>
       </c>
       <c r="H62" s="3">
-        <v>17795800</v>
+        <v>17371200</v>
       </c>
       <c r="I62" s="3">
-        <v>16071600</v>
+        <v>17854100</v>
       </c>
       <c r="J62" s="3">
+        <v>16124200</v>
+      </c>
+      <c r="K62" s="3">
         <v>27511500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14817500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26149500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>114035000</v>
+        <v>117988000</v>
       </c>
       <c r="E66" s="3">
-        <v>111307000</v>
+        <v>114408000</v>
       </c>
       <c r="F66" s="3">
-        <v>104567000</v>
+        <v>111671000</v>
       </c>
       <c r="G66" s="3">
-        <v>106832000</v>
+        <v>104910000</v>
       </c>
       <c r="H66" s="3">
-        <v>105046000</v>
+        <v>107181000</v>
       </c>
       <c r="I66" s="3">
-        <v>103666000</v>
+        <v>105390000</v>
       </c>
       <c r="J66" s="3">
+        <v>104005000</v>
+      </c>
+      <c r="K66" s="3">
         <v>88970200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78100000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66854200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>74589400</v>
+        <v>81802600</v>
       </c>
       <c r="E72" s="3">
-        <v>73038500</v>
+        <v>74833700</v>
       </c>
       <c r="F72" s="3">
-        <v>69719800</v>
+        <v>73277700</v>
       </c>
       <c r="G72" s="3">
-        <v>61490100</v>
+        <v>69948100</v>
       </c>
       <c r="H72" s="3">
-        <v>56739900</v>
+        <v>61691500</v>
       </c>
       <c r="I72" s="3">
-        <v>55725500</v>
+        <v>56925700</v>
       </c>
       <c r="J72" s="3">
+        <v>55908000</v>
+      </c>
+      <c r="K72" s="3">
         <v>112779000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54987500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>104637000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73392300</v>
+        <v>83466400</v>
       </c>
       <c r="E76" s="3">
-        <v>75732300</v>
+        <v>73632700</v>
       </c>
       <c r="F76" s="3">
-        <v>72671200</v>
+        <v>75980300</v>
       </c>
       <c r="G76" s="3">
-        <v>66824900</v>
+        <v>72909200</v>
       </c>
       <c r="H76" s="3">
-        <v>61934700</v>
+        <v>67043800</v>
       </c>
       <c r="I76" s="3">
-        <v>65115000</v>
+        <v>62137600</v>
       </c>
       <c r="J76" s="3">
+        <v>65328300</v>
+      </c>
+      <c r="K76" s="3">
         <v>58033500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45845400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39705700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4174600</v>
+        <v>6041700</v>
       </c>
       <c r="E81" s="3">
-        <v>5590500</v>
+        <v>4188300</v>
       </c>
       <c r="F81" s="3">
-        <v>9703500</v>
+        <v>5608800</v>
       </c>
       <c r="G81" s="3">
-        <v>5647800</v>
+        <v>9735300</v>
       </c>
       <c r="H81" s="3">
-        <v>3155900</v>
+        <v>5666300</v>
       </c>
       <c r="I81" s="3">
-        <v>4666400</v>
+        <v>3166200</v>
       </c>
       <c r="J81" s="3">
+        <v>4681700</v>
+      </c>
+      <c r="K81" s="3">
         <v>6935700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3337400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1911800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6410900</v>
+        <v>5736800</v>
       </c>
       <c r="E83" s="3">
-        <v>6610700</v>
+        <v>6431900</v>
       </c>
       <c r="F83" s="3">
-        <v>6531900</v>
+        <v>6632400</v>
       </c>
       <c r="G83" s="3">
-        <v>6176900</v>
+        <v>6553300</v>
       </c>
       <c r="H83" s="3">
-        <v>6052100</v>
+        <v>6197100</v>
       </c>
       <c r="I83" s="3">
-        <v>5727100</v>
+        <v>6072000</v>
       </c>
       <c r="J83" s="3">
+        <v>5745900</v>
+      </c>
+      <c r="K83" s="3">
         <v>5387300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5367400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5016000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8971400</v>
+        <v>9855200</v>
       </c>
       <c r="E89" s="3">
-        <v>7108100</v>
+        <v>9000800</v>
       </c>
       <c r="F89" s="3">
-        <v>9047100</v>
+        <v>7131300</v>
       </c>
       <c r="G89" s="3">
-        <v>8107300</v>
+        <v>9076700</v>
       </c>
       <c r="H89" s="3">
-        <v>12741500</v>
+        <v>8133800</v>
       </c>
       <c r="I89" s="3">
-        <v>9346900</v>
+        <v>12783200</v>
       </c>
       <c r="J89" s="3">
+        <v>9377500</v>
+      </c>
+      <c r="K89" s="3">
         <v>4113800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7278800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6884300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3391000</v>
+        <v>-2926200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3854200</v>
+        <v>-3402100</v>
       </c>
       <c r="F91" s="3">
-        <v>-3806600</v>
+        <v>-3866900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4526200</v>
+        <v>-3819000</v>
       </c>
       <c r="H91" s="3">
-        <v>-5818200</v>
+        <v>-4541100</v>
       </c>
       <c r="I91" s="3">
-        <v>-5937600</v>
+        <v>-5837300</v>
       </c>
       <c r="J91" s="3">
+        <v>-5957000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24001700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12907800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9772100</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5674400</v>
+        <v>-7323300</v>
       </c>
       <c r="E94" s="3">
-        <v>-5290400</v>
+        <v>-5693000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5634400</v>
+        <v>-5307700</v>
       </c>
       <c r="G94" s="3">
-        <v>-5959700</v>
+        <v>-5652900</v>
       </c>
       <c r="H94" s="3">
-        <v>-8015700</v>
+        <v>-5979200</v>
       </c>
       <c r="I94" s="3">
-        <v>-7698900</v>
+        <v>-8042000</v>
       </c>
       <c r="J94" s="3">
+        <v>-7724200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8436600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9724100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1802600</v>
+        <v>-1333400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1779500</v>
+        <v>-1808500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1595900</v>
+        <v>-1785400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1485800</v>
+        <v>-1601100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1452800</v>
+        <v>-1490700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1452800</v>
+        <v>-1457500</v>
       </c>
       <c r="J96" s="3">
+        <v>-1457500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1304200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1179600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-977600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-800700</v>
+        <v>-2609800</v>
       </c>
       <c r="E100" s="3">
-        <v>210000</v>
+        <v>-803300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1596900</v>
+        <v>210700</v>
       </c>
       <c r="G100" s="3">
-        <v>1057300</v>
+        <v>-1602100</v>
       </c>
       <c r="H100" s="3">
-        <v>-872900</v>
+        <v>1060700</v>
       </c>
       <c r="I100" s="3">
-        <v>114400</v>
+        <v>-875800</v>
       </c>
       <c r="J100" s="3">
+        <v>114800</v>
+      </c>
+      <c r="K100" s="3">
         <v>3256000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1086900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-616800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-863700</v>
+        <v>865200</v>
       </c>
       <c r="E101" s="3">
-        <v>149100</v>
+        <v>-866500</v>
       </c>
       <c r="F101" s="3">
-        <v>-437000</v>
+        <v>149600</v>
       </c>
       <c r="G101" s="3">
-        <v>-12400</v>
+        <v>-438500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1235600</v>
+        <v>-12500</v>
       </c>
       <c r="I101" s="3">
-        <v>785500</v>
+        <v>-1239700</v>
       </c>
       <c r="J101" s="3">
+        <v>788000</v>
+      </c>
+      <c r="K101" s="3">
         <v>361200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>985900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-471400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1632600</v>
+        <v>787300</v>
       </c>
       <c r="E102" s="3">
-        <v>2176700</v>
+        <v>1638000</v>
       </c>
       <c r="F102" s="3">
-        <v>1378700</v>
+        <v>2183800</v>
       </c>
       <c r="G102" s="3">
-        <v>3192400</v>
+        <v>1383200</v>
       </c>
       <c r="H102" s="3">
-        <v>2617300</v>
+        <v>3202900</v>
       </c>
       <c r="I102" s="3">
-        <v>2547800</v>
+        <v>2625800</v>
       </c>
       <c r="J102" s="3">
+        <v>2556200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-705600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-372600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-288500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>121037100</v>
+        <v>119983400</v>
       </c>
       <c r="E8" s="3">
-        <v>137216000</v>
+        <v>136021500</v>
       </c>
       <c r="F8" s="3">
-        <v>146016400</v>
+        <v>144745300</v>
       </c>
       <c r="G8" s="3">
-        <v>141168900</v>
+        <v>139940000</v>
       </c>
       <c r="H8" s="3">
-        <v>128652600</v>
+        <v>127532700</v>
       </c>
       <c r="I8" s="3">
-        <v>134184600</v>
+        <v>133016500</v>
       </c>
       <c r="J8" s="3">
-        <v>122485200</v>
+        <v>121419000</v>
       </c>
       <c r="K8" s="3">
         <v>114555800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>95940700</v>
+        <v>95105600</v>
       </c>
       <c r="E9" s="3">
-        <v>108916700</v>
+        <v>107968600</v>
       </c>
       <c r="F9" s="3">
-        <v>115618900</v>
+        <v>114612400</v>
       </c>
       <c r="G9" s="3">
-        <v>110285300</v>
+        <v>109325300</v>
       </c>
       <c r="H9" s="3">
-        <v>99857100</v>
+        <v>98987900</v>
       </c>
       <c r="I9" s="3">
-        <v>104144700</v>
+        <v>103238200</v>
       </c>
       <c r="J9" s="3">
-        <v>94939900</v>
+        <v>94113400</v>
       </c>
       <c r="K9" s="3">
         <v>87849500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25096300</v>
+        <v>24877900</v>
       </c>
       <c r="E10" s="3">
-        <v>28299200</v>
+        <v>28052900</v>
       </c>
       <c r="F10" s="3">
-        <v>30397500</v>
+        <v>30132900</v>
       </c>
       <c r="G10" s="3">
-        <v>30883600</v>
+        <v>30614700</v>
       </c>
       <c r="H10" s="3">
-        <v>28795500</v>
+        <v>28544800</v>
       </c>
       <c r="I10" s="3">
-        <v>30039800</v>
+        <v>29778300</v>
       </c>
       <c r="J10" s="3">
-        <v>27545300</v>
+        <v>27305500</v>
       </c>
       <c r="K10" s="3">
         <v>26706300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6790400</v>
+        <v>6731300</v>
       </c>
       <c r="E12" s="3">
-        <v>7389900</v>
+        <v>7325600</v>
       </c>
       <c r="F12" s="3">
-        <v>7415500</v>
+        <v>7350900</v>
       </c>
       <c r="G12" s="3">
-        <v>6909600</v>
+        <v>6849400</v>
       </c>
       <c r="H12" s="3">
-        <v>6354200</v>
+        <v>6298900</v>
       </c>
       <c r="I12" s="3">
-        <v>6033300</v>
+        <v>5980700</v>
       </c>
       <c r="J12" s="3">
-        <v>5570600</v>
+        <v>5522100</v>
       </c>
       <c r="K12" s="3">
         <v>5481100</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>114969800</v>
+        <v>113968900</v>
       </c>
       <c r="E17" s="3">
-        <v>131392800</v>
+        <v>130249100</v>
       </c>
       <c r="F17" s="3">
-        <v>139341000</v>
+        <v>138128100</v>
       </c>
       <c r="G17" s="3">
-        <v>133508500</v>
+        <v>132346300</v>
       </c>
       <c r="H17" s="3">
-        <v>120926500</v>
+        <v>119873800</v>
       </c>
       <c r="I17" s="3">
-        <v>129558600</v>
+        <v>128430700</v>
       </c>
       <c r="J17" s="3">
-        <v>116322400</v>
+        <v>115309800</v>
       </c>
       <c r="K17" s="3">
         <v>107009200</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6067300</v>
+        <v>6014500</v>
       </c>
       <c r="E18" s="3">
-        <v>5823100</v>
+        <v>5772400</v>
       </c>
       <c r="F18" s="3">
-        <v>6675300</v>
+        <v>6617200</v>
       </c>
       <c r="G18" s="3">
-        <v>7660400</v>
+        <v>7593700</v>
       </c>
       <c r="H18" s="3">
-        <v>7726100</v>
+        <v>7658900</v>
       </c>
       <c r="I18" s="3">
-        <v>4626000</v>
+        <v>4585800</v>
       </c>
       <c r="J18" s="3">
-        <v>6162800</v>
+        <v>6109200</v>
       </c>
       <c r="K18" s="3">
         <v>7546600</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2460400</v>
+        <v>2438900</v>
       </c>
       <c r="E20" s="3">
-        <v>1663100</v>
+        <v>1648600</v>
       </c>
       <c r="F20" s="3">
-        <v>2446600</v>
+        <v>2425300</v>
       </c>
       <c r="G20" s="3">
-        <v>2705400</v>
+        <v>2681800</v>
       </c>
       <c r="H20" s="3">
-        <v>1642700</v>
+        <v>1628400</v>
       </c>
       <c r="I20" s="3">
-        <v>1380500</v>
+        <v>1368500</v>
       </c>
       <c r="J20" s="3">
-        <v>1413700</v>
+        <v>1401400</v>
       </c>
       <c r="K20" s="3">
         <v>1125200</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>14270700</v>
+        <v>14140300</v>
       </c>
       <c r="E21" s="3">
-        <v>13925100</v>
+        <v>13796900</v>
       </c>
       <c r="F21" s="3">
-        <v>15761500</v>
+        <v>15617200</v>
       </c>
       <c r="G21" s="3">
-        <v>16926300</v>
+        <v>16771800</v>
       </c>
       <c r="H21" s="3">
-        <v>15572600</v>
+        <v>15430400</v>
       </c>
       <c r="I21" s="3">
-        <v>12085100</v>
+        <v>11973400</v>
       </c>
       <c r="J21" s="3">
-        <v>13328600</v>
+        <v>13206400</v>
       </c>
       <c r="K21" s="3">
         <v>14082600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>127500</v>
+        <v>126400</v>
       </c>
       <c r="E22" s="3">
-        <v>226900</v>
+        <v>224900</v>
       </c>
       <c r="F22" s="3">
-        <v>121500</v>
+        <v>120400</v>
       </c>
       <c r="G22" s="3">
-        <v>119200</v>
+        <v>118200</v>
       </c>
       <c r="H22" s="3">
-        <v>114600</v>
+        <v>113600</v>
       </c>
       <c r="I22" s="3">
-        <v>166800</v>
+        <v>165300</v>
       </c>
       <c r="J22" s="3">
-        <v>167200</v>
+        <v>165700</v>
       </c>
       <c r="K22" s="3">
         <v>117300</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>8400100</v>
+        <v>8327000</v>
       </c>
       <c r="E23" s="3">
-        <v>7259300</v>
+        <v>7196200</v>
       </c>
       <c r="F23" s="3">
-        <v>9000500</v>
+        <v>8922100</v>
       </c>
       <c r="G23" s="3">
-        <v>10246600</v>
+        <v>10157400</v>
       </c>
       <c r="H23" s="3">
-        <v>9254200</v>
+        <v>9173600</v>
       </c>
       <c r="I23" s="3">
-        <v>5839800</v>
+        <v>5788900</v>
       </c>
       <c r="J23" s="3">
-        <v>7409300</v>
+        <v>7344800</v>
       </c>
       <c r="K23" s="3">
         <v>8554600</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2009000</v>
+        <v>1991500</v>
       </c>
       <c r="E24" s="3">
-        <v>2573100</v>
+        <v>2550700</v>
       </c>
       <c r="F24" s="3">
-        <v>2785400</v>
+        <v>2761100</v>
       </c>
       <c r="G24" s="3">
-        <v>-125600</v>
+        <v>-124500</v>
       </c>
       <c r="H24" s="3">
-        <v>3010600</v>
+        <v>2984400</v>
       </c>
       <c r="I24" s="3">
-        <v>2105400</v>
+        <v>2087000</v>
       </c>
       <c r="J24" s="3">
-        <v>2252800</v>
+        <v>2233200</v>
       </c>
       <c r="K24" s="3">
         <v>2454800</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6391100</v>
+        <v>6335500</v>
       </c>
       <c r="E26" s="3">
-        <v>4686300</v>
+        <v>4645500</v>
       </c>
       <c r="F26" s="3">
-        <v>6215100</v>
+        <v>6161000</v>
       </c>
       <c r="G26" s="3">
-        <v>10372200</v>
+        <v>10281900</v>
       </c>
       <c r="H26" s="3">
-        <v>6243600</v>
+        <v>6189300</v>
       </c>
       <c r="I26" s="3">
-        <v>3734400</v>
+        <v>3701900</v>
       </c>
       <c r="J26" s="3">
-        <v>5156500</v>
+        <v>5111600</v>
       </c>
       <c r="K26" s="3">
         <v>6099700</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>6041700</v>
+        <v>5989100</v>
       </c>
       <c r="E27" s="3">
-        <v>4188300</v>
+        <v>4151800</v>
       </c>
       <c r="F27" s="3">
-        <v>5608800</v>
+        <v>5560000</v>
       </c>
       <c r="G27" s="3">
-        <v>9735300</v>
+        <v>9650600</v>
       </c>
       <c r="H27" s="3">
-        <v>5666300</v>
+        <v>5616900</v>
       </c>
       <c r="I27" s="3">
-        <v>3166200</v>
+        <v>3138700</v>
       </c>
       <c r="J27" s="3">
-        <v>4681700</v>
+        <v>4641000</v>
       </c>
       <c r="K27" s="3">
         <v>6935700</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2460400</v>
+        <v>-2438900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1663100</v>
+        <v>-1648600</v>
       </c>
       <c r="F32" s="3">
-        <v>-2446600</v>
+        <v>-2425300</v>
       </c>
       <c r="G32" s="3">
-        <v>-2705400</v>
+        <v>-2681800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1642700</v>
+        <v>-1628400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1380500</v>
+        <v>-1368500</v>
       </c>
       <c r="J32" s="3">
-        <v>-1413700</v>
+        <v>-1401400</v>
       </c>
       <c r="K32" s="3">
         <v>-1125200</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>6041700</v>
+        <v>5989100</v>
       </c>
       <c r="E33" s="3">
-        <v>4188300</v>
+        <v>4151800</v>
       </c>
       <c r="F33" s="3">
-        <v>5608800</v>
+        <v>5560000</v>
       </c>
       <c r="G33" s="3">
-        <v>9735300</v>
+        <v>9650600</v>
       </c>
       <c r="H33" s="3">
-        <v>5666300</v>
+        <v>5616900</v>
       </c>
       <c r="I33" s="3">
-        <v>3166200</v>
+        <v>3138700</v>
       </c>
       <c r="J33" s="3">
-        <v>4681700</v>
+        <v>4641000</v>
       </c>
       <c r="K33" s="3">
         <v>6935700</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>6041700</v>
+        <v>5989100</v>
       </c>
       <c r="E35" s="3">
-        <v>4188300</v>
+        <v>4151800</v>
       </c>
       <c r="F35" s="3">
-        <v>5608800</v>
+        <v>5560000</v>
       </c>
       <c r="G35" s="3">
-        <v>9735300</v>
+        <v>9650600</v>
       </c>
       <c r="H35" s="3">
-        <v>5666300</v>
+        <v>5616900</v>
       </c>
       <c r="I35" s="3">
-        <v>3166200</v>
+        <v>3138700</v>
       </c>
       <c r="J35" s="3">
-        <v>4681700</v>
+        <v>4641000</v>
       </c>
       <c r="K35" s="3">
         <v>6935700</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>25346200</v>
+        <v>25125600</v>
       </c>
       <c r="E41" s="3">
-        <v>24558900</v>
+        <v>24345100</v>
       </c>
       <c r="F41" s="3">
-        <v>22921000</v>
+        <v>22721400</v>
       </c>
       <c r="G41" s="3">
-        <v>20737100</v>
+        <v>20556600</v>
       </c>
       <c r="H41" s="3">
-        <v>19353900</v>
+        <v>19185400</v>
       </c>
       <c r="I41" s="3">
-        <v>16151000</v>
+        <v>16010400</v>
       </c>
       <c r="J41" s="3">
-        <v>13525200</v>
+        <v>13407500</v>
       </c>
       <c r="K41" s="3">
         <v>10933200</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2713900</v>
+        <v>2690200</v>
       </c>
       <c r="E42" s="3">
-        <v>1746600</v>
+        <v>1731400</v>
       </c>
       <c r="F42" s="3">
-        <v>1500500</v>
+        <v>1487400</v>
       </c>
       <c r="G42" s="3">
-        <v>1959100</v>
+        <v>1942000</v>
       </c>
       <c r="H42" s="3">
-        <v>1373200</v>
+        <v>1361300</v>
       </c>
       <c r="I42" s="3">
-        <v>946900</v>
+        <v>938600</v>
       </c>
       <c r="J42" s="3">
-        <v>852000</v>
+        <v>844600</v>
       </c>
       <c r="K42" s="3">
         <v>934500</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>23861500</v>
+        <v>23653800</v>
       </c>
       <c r="E43" s="3">
-        <v>23087700</v>
+        <v>22886800</v>
       </c>
       <c r="F43" s="3">
-        <v>25225400</v>
+        <v>25005800</v>
       </c>
       <c r="G43" s="3">
-        <v>24272300</v>
+        <v>24061000</v>
       </c>
       <c r="H43" s="3">
-        <v>24288800</v>
+        <v>24077400</v>
       </c>
       <c r="I43" s="3">
-        <v>25297600</v>
+        <v>25077400</v>
       </c>
       <c r="J43" s="3">
-        <v>26831400</v>
+        <v>26597800</v>
       </c>
       <c r="K43" s="3">
         <v>48501300</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14204100</v>
+        <v>14080400</v>
       </c>
       <c r="E44" s="3">
-        <v>14341600</v>
+        <v>14216800</v>
       </c>
       <c r="F44" s="3">
-        <v>14582600</v>
+        <v>14455600</v>
       </c>
       <c r="G44" s="3">
-        <v>14000600</v>
+        <v>13878700</v>
       </c>
       <c r="H44" s="3">
-        <v>12536400</v>
+        <v>12427200</v>
       </c>
       <c r="I44" s="3">
-        <v>12069200</v>
+        <v>11964100</v>
       </c>
       <c r="J44" s="3">
-        <v>13769500</v>
+        <v>13649600</v>
       </c>
       <c r="K44" s="3">
         <v>16569000</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3526200</v>
+        <v>3495500</v>
       </c>
       <c r="E45" s="3">
-        <v>3361400</v>
+        <v>3332200</v>
       </c>
       <c r="F45" s="3">
-        <v>3292200</v>
+        <v>3263500</v>
       </c>
       <c r="G45" s="3">
-        <v>2674300</v>
+        <v>2651100</v>
       </c>
       <c r="H45" s="3">
-        <v>2692400</v>
+        <v>2669000</v>
       </c>
       <c r="I45" s="3">
-        <v>2895900</v>
+        <v>2870700</v>
       </c>
       <c r="J45" s="3">
-        <v>2883400</v>
+        <v>2858300</v>
       </c>
       <c r="K45" s="3">
         <v>4111800</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>69651800</v>
+        <v>69045500</v>
       </c>
       <c r="E46" s="3">
-        <v>67096300</v>
+        <v>66512200</v>
       </c>
       <c r="F46" s="3">
-        <v>67521600</v>
+        <v>66933800</v>
       </c>
       <c r="G46" s="3">
-        <v>63643400</v>
+        <v>63089400</v>
       </c>
       <c r="H46" s="3">
-        <v>60244700</v>
+        <v>59720300</v>
       </c>
       <c r="I46" s="3">
-        <v>57360500</v>
+        <v>56861200</v>
       </c>
       <c r="J46" s="3">
-        <v>57861500</v>
+        <v>57357800</v>
       </c>
       <c r="K46" s="3">
         <v>50830300</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>47231400</v>
+        <v>46820200</v>
       </c>
       <c r="E47" s="3">
-        <v>40252300</v>
+        <v>39901900</v>
       </c>
       <c r="F47" s="3">
-        <v>42125200</v>
+        <v>41758500</v>
       </c>
       <c r="G47" s="3">
-        <v>38905300</v>
+        <v>38566600</v>
       </c>
       <c r="H47" s="3">
-        <v>37058600</v>
+        <v>36736000</v>
       </c>
       <c r="I47" s="3">
-        <v>36854300</v>
+        <v>36533500</v>
       </c>
       <c r="J47" s="3">
-        <v>41816400</v>
+        <v>41452400</v>
       </c>
       <c r="K47" s="3">
         <v>74633600</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>72981700</v>
+        <v>72346400</v>
       </c>
       <c r="E48" s="3">
-        <v>70558700</v>
+        <v>69944500</v>
       </c>
       <c r="F48" s="3">
-        <v>68288000</v>
+        <v>67693600</v>
       </c>
       <c r="G48" s="3">
-        <v>65713700</v>
+        <v>65141700</v>
       </c>
       <c r="H48" s="3">
-        <v>67133300</v>
+        <v>66548900</v>
       </c>
       <c r="I48" s="3">
-        <v>62654400</v>
+        <v>62109000</v>
       </c>
       <c r="J48" s="3">
-        <v>59963600</v>
+        <v>59441600</v>
       </c>
       <c r="K48" s="3">
         <v>94385600</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>7524400</v>
+        <v>7458900</v>
       </c>
       <c r="E49" s="3">
-        <v>6988400</v>
+        <v>6927600</v>
       </c>
       <c r="F49" s="3">
-        <v>6840700</v>
+        <v>6781200</v>
       </c>
       <c r="G49" s="3">
-        <v>6814500</v>
+        <v>6755200</v>
       </c>
       <c r="H49" s="3">
-        <v>7151600</v>
+        <v>7089300</v>
       </c>
       <c r="I49" s="3">
-        <v>7581200</v>
+        <v>7515200</v>
       </c>
       <c r="J49" s="3">
-        <v>6980100</v>
+        <v>6919400</v>
       </c>
       <c r="K49" s="3">
         <v>6135200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4064900</v>
+        <v>4029500</v>
       </c>
       <c r="E52" s="3">
-        <v>3145300</v>
+        <v>3117900</v>
       </c>
       <c r="F52" s="3">
-        <v>2876200</v>
+        <v>2851100</v>
       </c>
       <c r="G52" s="3">
-        <v>2741900</v>
+        <v>2718100</v>
       </c>
       <c r="H52" s="3">
-        <v>2636900</v>
+        <v>2614000</v>
       </c>
       <c r="I52" s="3">
-        <v>3076800</v>
+        <v>3050000</v>
       </c>
       <c r="J52" s="3">
-        <v>2711700</v>
+        <v>2688100</v>
       </c>
       <c r="K52" s="3">
         <v>11252000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>201454000</v>
+        <v>199701000</v>
       </c>
       <c r="E54" s="3">
-        <v>188041000</v>
+        <v>186404000</v>
       </c>
       <c r="F54" s="3">
-        <v>187652000</v>
+        <v>186018000</v>
       </c>
       <c r="G54" s="3">
-        <v>177819000</v>
+        <v>176271000</v>
       </c>
       <c r="H54" s="3">
-        <v>174225000</v>
+        <v>172709000</v>
       </c>
       <c r="I54" s="3">
-        <v>167527000</v>
+        <v>166069000</v>
       </c>
       <c r="J54" s="3">
-        <v>169333000</v>
+        <v>167859000</v>
       </c>
       <c r="K54" s="3">
         <v>147004000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9999300</v>
+        <v>8598300</v>
       </c>
       <c r="E57" s="3">
-        <v>7758000</v>
+        <v>7690500</v>
       </c>
       <c r="F57" s="3">
-        <v>9705200</v>
+        <v>9620800</v>
       </c>
       <c r="G57" s="3">
-        <v>9884300</v>
+        <v>9798200</v>
       </c>
       <c r="H57" s="3">
-        <v>9312300</v>
+        <v>9231200</v>
       </c>
       <c r="I57" s="3">
-        <v>8837200</v>
+        <v>8760200</v>
       </c>
       <c r="J57" s="3">
-        <v>9186200</v>
+        <v>9106200</v>
       </c>
       <c r="K57" s="3">
         <v>18367000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29295600</v>
+        <v>27381200</v>
       </c>
       <c r="E58" s="3">
-        <v>29853300</v>
+        <v>29593400</v>
       </c>
       <c r="F58" s="3">
-        <v>29304900</v>
+        <v>29049800</v>
       </c>
       <c r="G58" s="3">
-        <v>26809600</v>
+        <v>26576200</v>
       </c>
       <c r="H58" s="3">
-        <v>25611900</v>
+        <v>25388900</v>
       </c>
       <c r="I58" s="3">
-        <v>25636600</v>
+        <v>25413400</v>
       </c>
       <c r="J58" s="3">
-        <v>26040400</v>
+        <v>25813800</v>
       </c>
       <c r="K58" s="3">
         <v>48046400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13230200</v>
+        <v>16088300</v>
       </c>
       <c r="E59" s="3">
-        <v>15599500</v>
+        <v>15463800</v>
       </c>
       <c r="F59" s="3">
-        <v>15956400</v>
+        <v>15817500</v>
       </c>
       <c r="G59" s="3">
-        <v>14991600</v>
+        <v>14861100</v>
       </c>
       <c r="H59" s="3">
-        <v>14966900</v>
+        <v>14836600</v>
       </c>
       <c r="I59" s="3">
-        <v>15798800</v>
+        <v>15661200</v>
       </c>
       <c r="J59" s="3">
-        <v>13490000</v>
+        <v>13372600</v>
       </c>
       <c r="K59" s="3">
         <v>11605700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>52525000</v>
+        <v>52067800</v>
       </c>
       <c r="E60" s="3">
-        <v>53210900</v>
+        <v>52747700</v>
       </c>
       <c r="F60" s="3">
-        <v>54966500</v>
+        <v>54488000</v>
       </c>
       <c r="G60" s="3">
-        <v>51685500</v>
+        <v>51235500</v>
       </c>
       <c r="H60" s="3">
-        <v>49891100</v>
+        <v>49456800</v>
       </c>
       <c r="I60" s="3">
-        <v>50272500</v>
+        <v>49834900</v>
       </c>
       <c r="J60" s="3">
-        <v>48716700</v>
+        <v>48292600</v>
       </c>
       <c r="K60" s="3">
         <v>43526500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45914800</v>
+        <v>42956900</v>
       </c>
       <c r="E61" s="3">
-        <v>41582900</v>
+        <v>38455400</v>
       </c>
       <c r="F61" s="3">
-        <v>38653400</v>
+        <v>37736700</v>
       </c>
       <c r="G61" s="3">
-        <v>36224700</v>
+        <v>35362700</v>
       </c>
       <c r="H61" s="3">
-        <v>37398100</v>
+        <v>36642200</v>
       </c>
       <c r="I61" s="3">
-        <v>34778500</v>
+        <v>34040700</v>
       </c>
       <c r="J61" s="3">
-        <v>36644400</v>
+        <v>35768400</v>
       </c>
       <c r="K61" s="3">
         <v>30205100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16878000</v>
+        <v>19289300</v>
       </c>
       <c r="E62" s="3">
-        <v>17098500</v>
+        <v>19715200</v>
       </c>
       <c r="F62" s="3">
-        <v>15312200</v>
+        <v>15759100</v>
       </c>
       <c r="G62" s="3">
-        <v>14237300</v>
+        <v>14660000</v>
       </c>
       <c r="H62" s="3">
-        <v>17371200</v>
+        <v>17650300</v>
       </c>
       <c r="I62" s="3">
-        <v>17854100</v>
+        <v>18133700</v>
       </c>
       <c r="J62" s="3">
-        <v>16124200</v>
+        <v>16540900</v>
       </c>
       <c r="K62" s="3">
         <v>27511500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>117988000</v>
+        <v>116961000</v>
       </c>
       <c r="E66" s="3">
-        <v>114408000</v>
+        <v>113412000</v>
       </c>
       <c r="F66" s="3">
-        <v>111671000</v>
+        <v>110699000</v>
       </c>
       <c r="G66" s="3">
-        <v>104910000</v>
+        <v>103996000</v>
       </c>
       <c r="H66" s="3">
-        <v>107181000</v>
+        <v>106248000</v>
       </c>
       <c r="I66" s="3">
-        <v>105390000</v>
+        <v>104472000</v>
       </c>
       <c r="J66" s="3">
-        <v>104005000</v>
+        <v>103100000</v>
       </c>
       <c r="K66" s="3">
         <v>88970200</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>81802600</v>
+        <v>81090500</v>
       </c>
       <c r="E72" s="3">
-        <v>74833700</v>
+        <v>74182300</v>
       </c>
       <c r="F72" s="3">
-        <v>73277700</v>
+        <v>72639800</v>
       </c>
       <c r="G72" s="3">
-        <v>69948100</v>
+        <v>69339200</v>
       </c>
       <c r="H72" s="3">
-        <v>61691500</v>
+        <v>61154500</v>
       </c>
       <c r="I72" s="3">
-        <v>56925700</v>
+        <v>56430200</v>
       </c>
       <c r="J72" s="3">
-        <v>55908000</v>
+        <v>55421400</v>
       </c>
       <c r="K72" s="3">
         <v>112779000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>83466400</v>
+        <v>82739800</v>
       </c>
       <c r="E76" s="3">
-        <v>73632700</v>
+        <v>72991700</v>
       </c>
       <c r="F76" s="3">
-        <v>75980300</v>
+        <v>75318900</v>
       </c>
       <c r="G76" s="3">
-        <v>72909200</v>
+        <v>72274500</v>
       </c>
       <c r="H76" s="3">
-        <v>67043800</v>
+        <v>66460100</v>
       </c>
       <c r="I76" s="3">
-        <v>62137600</v>
+        <v>61596700</v>
       </c>
       <c r="J76" s="3">
-        <v>65328300</v>
+        <v>64759600</v>
       </c>
       <c r="K76" s="3">
         <v>58033500</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>6041700</v>
+        <v>5989100</v>
       </c>
       <c r="E81" s="3">
-        <v>4188300</v>
+        <v>4151800</v>
       </c>
       <c r="F81" s="3">
-        <v>5608800</v>
+        <v>5560000</v>
       </c>
       <c r="G81" s="3">
-        <v>9735300</v>
+        <v>9650600</v>
       </c>
       <c r="H81" s="3">
-        <v>5666300</v>
+        <v>5616900</v>
       </c>
       <c r="I81" s="3">
-        <v>3166200</v>
+        <v>3138700</v>
       </c>
       <c r="J81" s="3">
-        <v>4681700</v>
+        <v>4641000</v>
       </c>
       <c r="K81" s="3">
         <v>6935700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5736800</v>
+        <v>5686800</v>
       </c>
       <c r="E83" s="3">
-        <v>6431900</v>
+        <v>6375900</v>
       </c>
       <c r="F83" s="3">
-        <v>6632400</v>
+        <v>6574600</v>
       </c>
       <c r="G83" s="3">
-        <v>6553300</v>
+        <v>6496300</v>
       </c>
       <c r="H83" s="3">
-        <v>6197100</v>
+        <v>6143100</v>
       </c>
       <c r="I83" s="3">
-        <v>6072000</v>
+        <v>6019100</v>
       </c>
       <c r="J83" s="3">
-        <v>5745900</v>
+        <v>5695800</v>
       </c>
       <c r="K83" s="3">
         <v>5387300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9855200</v>
+        <v>9769400</v>
       </c>
       <c r="E89" s="3">
-        <v>9000800</v>
+        <v>8922500</v>
       </c>
       <c r="F89" s="3">
-        <v>7131300</v>
+        <v>7069300</v>
       </c>
       <c r="G89" s="3">
-        <v>9076700</v>
+        <v>8997700</v>
       </c>
       <c r="H89" s="3">
-        <v>8133800</v>
+        <v>8063000</v>
       </c>
       <c r="I89" s="3">
-        <v>12783200</v>
+        <v>12672000</v>
       </c>
       <c r="J89" s="3">
-        <v>9377500</v>
+        <v>9295900</v>
       </c>
       <c r="K89" s="3">
         <v>4113800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2926200</v>
+        <v>-2900700</v>
       </c>
       <c r="E91" s="3">
-        <v>-3402100</v>
+        <v>-3372500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3866900</v>
+        <v>-3833200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3819000</v>
+        <v>-3785800</v>
       </c>
       <c r="H91" s="3">
-        <v>-4541100</v>
+        <v>-4501500</v>
       </c>
       <c r="I91" s="3">
-        <v>-5837300</v>
+        <v>-5786500</v>
       </c>
       <c r="J91" s="3">
-        <v>-5957000</v>
+        <v>-5905100</v>
       </c>
       <c r="K91" s="3">
         <v>-24001700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7323300</v>
+        <v>-7259600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5693000</v>
+        <v>-5643500</v>
       </c>
       <c r="F94" s="3">
-        <v>-5307700</v>
+        <v>-5261500</v>
       </c>
       <c r="G94" s="3">
-        <v>-5652900</v>
+        <v>-5603700</v>
       </c>
       <c r="H94" s="3">
-        <v>-5979200</v>
+        <v>-5927100</v>
       </c>
       <c r="I94" s="3">
-        <v>-8042000</v>
+        <v>-7972000</v>
       </c>
       <c r="J94" s="3">
-        <v>-7724200</v>
+        <v>-7656900</v>
       </c>
       <c r="K94" s="3">
         <v>-8436600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1333400</v>
+        <v>-1321800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1808500</v>
+        <v>-1792800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1785400</v>
+        <v>-1769800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1601100</v>
+        <v>-1587200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1490700</v>
+        <v>-1477700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1457500</v>
+        <v>-1444900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1457500</v>
+        <v>-1444900</v>
       </c>
       <c r="K96" s="3">
         <v>-1304200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2609800</v>
+        <v>-2587100</v>
       </c>
       <c r="E100" s="3">
-        <v>-803300</v>
+        <v>-796300</v>
       </c>
       <c r="F100" s="3">
-        <v>210700</v>
+        <v>208800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1602100</v>
+        <v>-1588200</v>
       </c>
       <c r="H100" s="3">
-        <v>1060700</v>
+        <v>1051500</v>
       </c>
       <c r="I100" s="3">
-        <v>-875800</v>
+        <v>-868200</v>
       </c>
       <c r="J100" s="3">
-        <v>114800</v>
+        <v>113800</v>
       </c>
       <c r="K100" s="3">
         <v>3256000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>865200</v>
+        <v>857700</v>
       </c>
       <c r="E101" s="3">
-        <v>-866500</v>
+        <v>-859000</v>
       </c>
       <c r="F101" s="3">
-        <v>149600</v>
+        <v>148300</v>
       </c>
       <c r="G101" s="3">
-        <v>-438500</v>
+        <v>-434700</v>
       </c>
       <c r="H101" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="I101" s="3">
-        <v>-1239700</v>
+        <v>-1228900</v>
       </c>
       <c r="J101" s="3">
-        <v>788000</v>
+        <v>781200</v>
       </c>
       <c r="K101" s="3">
         <v>361200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>787300</v>
+        <v>780400</v>
       </c>
       <c r="E102" s="3">
-        <v>1638000</v>
+        <v>1623700</v>
       </c>
       <c r="F102" s="3">
-        <v>2183800</v>
+        <v>2164800</v>
       </c>
       <c r="G102" s="3">
-        <v>1383200</v>
+        <v>1371200</v>
       </c>
       <c r="H102" s="3">
-        <v>3202900</v>
+        <v>3175000</v>
       </c>
       <c r="I102" s="3">
-        <v>2625800</v>
+        <v>2603000</v>
       </c>
       <c r="J102" s="3">
-        <v>2556200</v>
+        <v>2533900</v>
       </c>
       <c r="K102" s="3">
         <v>-705600</v>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>119983400</v>
+        <v>116032300</v>
       </c>
       <c r="E8" s="3">
-        <v>136021500</v>
+        <v>131542200</v>
       </c>
       <c r="F8" s="3">
-        <v>144745300</v>
+        <v>139978700</v>
       </c>
       <c r="G8" s="3">
-        <v>139940000</v>
+        <v>135331700</v>
       </c>
       <c r="H8" s="3">
-        <v>127532700</v>
+        <v>123333000</v>
       </c>
       <c r="I8" s="3">
-        <v>133016500</v>
+        <v>128636100</v>
       </c>
       <c r="J8" s="3">
-        <v>121419000</v>
+        <v>117420600</v>
       </c>
       <c r="K8" s="3">
         <v>114555800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>95105600</v>
+        <v>91973700</v>
       </c>
       <c r="E9" s="3">
-        <v>107968600</v>
+        <v>104413100</v>
       </c>
       <c r="F9" s="3">
-        <v>114612400</v>
+        <v>110838200</v>
       </c>
       <c r="G9" s="3">
-        <v>109325300</v>
+        <v>105725100</v>
       </c>
       <c r="H9" s="3">
-        <v>98987900</v>
+        <v>95728100</v>
       </c>
       <c r="I9" s="3">
-        <v>103238200</v>
+        <v>99838400</v>
       </c>
       <c r="J9" s="3">
-        <v>94113400</v>
+        <v>91014200</v>
       </c>
       <c r="K9" s="3">
         <v>87849500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24877900</v>
+        <v>24058600</v>
       </c>
       <c r="E10" s="3">
-        <v>28052900</v>
+        <v>27129100</v>
       </c>
       <c r="F10" s="3">
-        <v>30132900</v>
+        <v>29140600</v>
       </c>
       <c r="G10" s="3">
-        <v>30614700</v>
+        <v>29606600</v>
       </c>
       <c r="H10" s="3">
-        <v>28544800</v>
+        <v>27604800</v>
       </c>
       <c r="I10" s="3">
-        <v>29778300</v>
+        <v>28797700</v>
       </c>
       <c r="J10" s="3">
-        <v>27305500</v>
+        <v>26406300</v>
       </c>
       <c r="K10" s="3">
         <v>26706300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6731300</v>
+        <v>6509700</v>
       </c>
       <c r="E12" s="3">
-        <v>7325600</v>
+        <v>7084300</v>
       </c>
       <c r="F12" s="3">
-        <v>7350900</v>
+        <v>7108800</v>
       </c>
       <c r="G12" s="3">
-        <v>6849400</v>
+        <v>6623900</v>
       </c>
       <c r="H12" s="3">
-        <v>6298900</v>
+        <v>6091500</v>
       </c>
       <c r="I12" s="3">
-        <v>5980700</v>
+        <v>5783800</v>
       </c>
       <c r="J12" s="3">
-        <v>5522100</v>
+        <v>5340300</v>
       </c>
       <c r="K12" s="3">
         <v>5481100</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>113968900</v>
+        <v>110215800</v>
       </c>
       <c r="E17" s="3">
-        <v>130249100</v>
+        <v>125959800</v>
       </c>
       <c r="F17" s="3">
-        <v>138128100</v>
+        <v>133579400</v>
       </c>
       <c r="G17" s="3">
-        <v>132346300</v>
+        <v>127988100</v>
       </c>
       <c r="H17" s="3">
-        <v>119873800</v>
+        <v>115926300</v>
       </c>
       <c r="I17" s="3">
-        <v>128430700</v>
+        <v>124201400</v>
       </c>
       <c r="J17" s="3">
-        <v>115309800</v>
+        <v>111512500</v>
       </c>
       <c r="K17" s="3">
         <v>107009200</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6014500</v>
+        <v>5816400</v>
       </c>
       <c r="E18" s="3">
-        <v>5772400</v>
+        <v>5582300</v>
       </c>
       <c r="F18" s="3">
-        <v>6617200</v>
+        <v>6399300</v>
       </c>
       <c r="G18" s="3">
-        <v>7593700</v>
+        <v>7343600</v>
       </c>
       <c r="H18" s="3">
-        <v>7658900</v>
+        <v>7406700</v>
       </c>
       <c r="I18" s="3">
-        <v>4585800</v>
+        <v>4434700</v>
       </c>
       <c r="J18" s="3">
-        <v>6109200</v>
+        <v>5908000</v>
       </c>
       <c r="K18" s="3">
         <v>7546600</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2438900</v>
+        <v>2358600</v>
       </c>
       <c r="E20" s="3">
-        <v>1648600</v>
+        <v>1594300</v>
       </c>
       <c r="F20" s="3">
-        <v>2425300</v>
+        <v>2345400</v>
       </c>
       <c r="G20" s="3">
-        <v>2681800</v>
+        <v>2593500</v>
       </c>
       <c r="H20" s="3">
-        <v>1628400</v>
+        <v>1574800</v>
       </c>
       <c r="I20" s="3">
-        <v>1368500</v>
+        <v>1323400</v>
       </c>
       <c r="J20" s="3">
-        <v>1401400</v>
+        <v>1355200</v>
       </c>
       <c r="K20" s="3">
         <v>1125200</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>14140300</v>
+        <v>13687100</v>
       </c>
       <c r="E21" s="3">
-        <v>13796900</v>
+        <v>13356600</v>
       </c>
       <c r="F21" s="3">
-        <v>15617200</v>
+        <v>15117300</v>
       </c>
       <c r="G21" s="3">
-        <v>16771800</v>
+        <v>16233800</v>
       </c>
       <c r="H21" s="3">
-        <v>15430400</v>
+        <v>14935700</v>
       </c>
       <c r="I21" s="3">
-        <v>11973400</v>
+        <v>11592300</v>
       </c>
       <c r="J21" s="3">
-        <v>13206400</v>
+        <v>12784000</v>
       </c>
       <c r="K21" s="3">
         <v>14082600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>126400</v>
+        <v>122300</v>
       </c>
       <c r="E22" s="3">
-        <v>224900</v>
+        <v>217500</v>
       </c>
       <c r="F22" s="3">
-        <v>120400</v>
+        <v>116400</v>
       </c>
       <c r="G22" s="3">
-        <v>118200</v>
+        <v>114300</v>
       </c>
       <c r="H22" s="3">
-        <v>113600</v>
+        <v>109900</v>
       </c>
       <c r="I22" s="3">
-        <v>165300</v>
+        <v>159900</v>
       </c>
       <c r="J22" s="3">
-        <v>165700</v>
+        <v>160300</v>
       </c>
       <c r="K22" s="3">
         <v>117300</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>8327000</v>
+        <v>8052800</v>
       </c>
       <c r="E23" s="3">
-        <v>7196200</v>
+        <v>6959200</v>
       </c>
       <c r="F23" s="3">
-        <v>8922100</v>
+        <v>8628300</v>
       </c>
       <c r="G23" s="3">
-        <v>10157400</v>
+        <v>9822900</v>
       </c>
       <c r="H23" s="3">
-        <v>9173600</v>
+        <v>8871500</v>
       </c>
       <c r="I23" s="3">
-        <v>5788900</v>
+        <v>5598300</v>
       </c>
       <c r="J23" s="3">
-        <v>7344800</v>
+        <v>7102900</v>
       </c>
       <c r="K23" s="3">
         <v>8554600</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1991500</v>
+        <v>1925900</v>
       </c>
       <c r="E24" s="3">
-        <v>2550700</v>
+        <v>2466700</v>
       </c>
       <c r="F24" s="3">
-        <v>2761100</v>
+        <v>2670200</v>
       </c>
       <c r="G24" s="3">
-        <v>-124500</v>
+        <v>-120400</v>
       </c>
       <c r="H24" s="3">
-        <v>2984400</v>
+        <v>2886100</v>
       </c>
       <c r="I24" s="3">
-        <v>2087000</v>
+        <v>2018300</v>
       </c>
       <c r="J24" s="3">
-        <v>2233200</v>
+        <v>2159700</v>
       </c>
       <c r="K24" s="3">
         <v>2454800</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6335500</v>
+        <v>6126900</v>
       </c>
       <c r="E26" s="3">
-        <v>4645500</v>
+        <v>4492500</v>
       </c>
       <c r="F26" s="3">
-        <v>6161000</v>
+        <v>5958100</v>
       </c>
       <c r="G26" s="3">
-        <v>10281900</v>
+        <v>9943300</v>
       </c>
       <c r="H26" s="3">
-        <v>6189300</v>
+        <v>5985500</v>
       </c>
       <c r="I26" s="3">
-        <v>3701900</v>
+        <v>3580000</v>
       </c>
       <c r="J26" s="3">
-        <v>5111600</v>
+        <v>4943300</v>
       </c>
       <c r="K26" s="3">
         <v>6099700</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5989100</v>
+        <v>5791900</v>
       </c>
       <c r="E27" s="3">
-        <v>4151800</v>
+        <v>4015100</v>
       </c>
       <c r="F27" s="3">
-        <v>5560000</v>
+        <v>5376900</v>
       </c>
       <c r="G27" s="3">
-        <v>9650600</v>
+        <v>9332800</v>
       </c>
       <c r="H27" s="3">
-        <v>5616900</v>
+        <v>5432000</v>
       </c>
       <c r="I27" s="3">
-        <v>3138700</v>
+        <v>3035300</v>
       </c>
       <c r="J27" s="3">
-        <v>4641000</v>
+        <v>4488100</v>
       </c>
       <c r="K27" s="3">
         <v>6935700</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2438900</v>
+        <v>-2358600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1648600</v>
+        <v>-1594300</v>
       </c>
       <c r="F32" s="3">
-        <v>-2425300</v>
+        <v>-2345400</v>
       </c>
       <c r="G32" s="3">
-        <v>-2681800</v>
+        <v>-2593500</v>
       </c>
       <c r="H32" s="3">
-        <v>-1628400</v>
+        <v>-1574800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1368500</v>
+        <v>-1323400</v>
       </c>
       <c r="J32" s="3">
-        <v>-1401400</v>
+        <v>-1355200</v>
       </c>
       <c r="K32" s="3">
         <v>-1125200</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5989100</v>
+        <v>5791900</v>
       </c>
       <c r="E33" s="3">
-        <v>4151800</v>
+        <v>4015100</v>
       </c>
       <c r="F33" s="3">
-        <v>5560000</v>
+        <v>5376900</v>
       </c>
       <c r="G33" s="3">
-        <v>9650600</v>
+        <v>9332800</v>
       </c>
       <c r="H33" s="3">
-        <v>5616900</v>
+        <v>5432000</v>
       </c>
       <c r="I33" s="3">
-        <v>3138700</v>
+        <v>3035300</v>
       </c>
       <c r="J33" s="3">
-        <v>4641000</v>
+        <v>4488100</v>
       </c>
       <c r="K33" s="3">
         <v>6935700</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5989100</v>
+        <v>5791900</v>
       </c>
       <c r="E35" s="3">
-        <v>4151800</v>
+        <v>4015100</v>
       </c>
       <c r="F35" s="3">
-        <v>5560000</v>
+        <v>5376900</v>
       </c>
       <c r="G35" s="3">
-        <v>9650600</v>
+        <v>9332800</v>
       </c>
       <c r="H35" s="3">
-        <v>5616900</v>
+        <v>5432000</v>
       </c>
       <c r="I35" s="3">
-        <v>3138700</v>
+        <v>3035300</v>
       </c>
       <c r="J35" s="3">
-        <v>4641000</v>
+        <v>4488100</v>
       </c>
       <c r="K35" s="3">
         <v>6935700</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>25125600</v>
+        <v>24298200</v>
       </c>
       <c r="E41" s="3">
-        <v>24345100</v>
+        <v>23543400</v>
       </c>
       <c r="F41" s="3">
-        <v>22721400</v>
+        <v>21973200</v>
       </c>
       <c r="G41" s="3">
-        <v>20556600</v>
+        <v>19879700</v>
       </c>
       <c r="H41" s="3">
-        <v>19185400</v>
+        <v>18553600</v>
       </c>
       <c r="I41" s="3">
-        <v>16010400</v>
+        <v>15483200</v>
       </c>
       <c r="J41" s="3">
-        <v>13407500</v>
+        <v>12965900</v>
       </c>
       <c r="K41" s="3">
         <v>10933200</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2690200</v>
+        <v>2601700</v>
       </c>
       <c r="E42" s="3">
-        <v>1731400</v>
+        <v>1674400</v>
       </c>
       <c r="F42" s="3">
-        <v>1487400</v>
+        <v>1438400</v>
       </c>
       <c r="G42" s="3">
-        <v>1942000</v>
+        <v>1878100</v>
       </c>
       <c r="H42" s="3">
-        <v>1361300</v>
+        <v>1316500</v>
       </c>
       <c r="I42" s="3">
-        <v>938600</v>
+        <v>907700</v>
       </c>
       <c r="J42" s="3">
-        <v>844600</v>
+        <v>816800</v>
       </c>
       <c r="K42" s="3">
         <v>934500</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>23653800</v>
+        <v>22874900</v>
       </c>
       <c r="E43" s="3">
-        <v>22886800</v>
+        <v>22133100</v>
       </c>
       <c r="F43" s="3">
-        <v>25005800</v>
+        <v>24182400</v>
       </c>
       <c r="G43" s="3">
-        <v>24061000</v>
+        <v>23268600</v>
       </c>
       <c r="H43" s="3">
-        <v>24077400</v>
+        <v>23284500</v>
       </c>
       <c r="I43" s="3">
-        <v>25077400</v>
+        <v>24251500</v>
       </c>
       <c r="J43" s="3">
-        <v>26597800</v>
+        <v>25722000</v>
       </c>
       <c r="K43" s="3">
         <v>48501300</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14080400</v>
+        <v>13616700</v>
       </c>
       <c r="E44" s="3">
-        <v>14216800</v>
+        <v>13748600</v>
       </c>
       <c r="F44" s="3">
-        <v>14455600</v>
+        <v>13979600</v>
       </c>
       <c r="G44" s="3">
-        <v>13878700</v>
+        <v>13421600</v>
       </c>
       <c r="H44" s="3">
-        <v>12427200</v>
+        <v>12018000</v>
       </c>
       <c r="I44" s="3">
-        <v>11964100</v>
+        <v>11570100</v>
       </c>
       <c r="J44" s="3">
-        <v>13649600</v>
+        <v>13200100</v>
       </c>
       <c r="K44" s="3">
         <v>16569000</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3495500</v>
+        <v>3380400</v>
       </c>
       <c r="E45" s="3">
-        <v>3332200</v>
+        <v>3222400</v>
       </c>
       <c r="F45" s="3">
-        <v>3263500</v>
+        <v>3156000</v>
       </c>
       <c r="G45" s="3">
-        <v>2651100</v>
+        <v>2563800</v>
       </c>
       <c r="H45" s="3">
-        <v>2669000</v>
+        <v>2581100</v>
       </c>
       <c r="I45" s="3">
-        <v>2870700</v>
+        <v>2776200</v>
       </c>
       <c r="J45" s="3">
-        <v>2858300</v>
+        <v>2764200</v>
       </c>
       <c r="K45" s="3">
         <v>4111800</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>69045500</v>
+        <v>66771800</v>
       </c>
       <c r="E46" s="3">
-        <v>66512200</v>
+        <v>64321900</v>
       </c>
       <c r="F46" s="3">
-        <v>66933800</v>
+        <v>64729700</v>
       </c>
       <c r="G46" s="3">
-        <v>63089400</v>
+        <v>61011800</v>
       </c>
       <c r="H46" s="3">
-        <v>59720300</v>
+        <v>57753700</v>
       </c>
       <c r="I46" s="3">
-        <v>56861200</v>
+        <v>54988700</v>
       </c>
       <c r="J46" s="3">
-        <v>57357800</v>
+        <v>55469000</v>
       </c>
       <c r="K46" s="3">
         <v>50830300</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>46820200</v>
+        <v>45278400</v>
       </c>
       <c r="E47" s="3">
-        <v>39901900</v>
+        <v>38587900</v>
       </c>
       <c r="F47" s="3">
-        <v>41758500</v>
+        <v>40383300</v>
       </c>
       <c r="G47" s="3">
-        <v>38566600</v>
+        <v>37296600</v>
       </c>
       <c r="H47" s="3">
-        <v>36736000</v>
+        <v>35526200</v>
       </c>
       <c r="I47" s="3">
-        <v>36533500</v>
+        <v>35330400</v>
       </c>
       <c r="J47" s="3">
-        <v>41452400</v>
+        <v>40087300</v>
       </c>
       <c r="K47" s="3">
         <v>74633600</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>72346400</v>
+        <v>69964000</v>
       </c>
       <c r="E48" s="3">
-        <v>69944500</v>
+        <v>67641100</v>
       </c>
       <c r="F48" s="3">
-        <v>67693600</v>
+        <v>65464400</v>
       </c>
       <c r="G48" s="3">
-        <v>65141700</v>
+        <v>62996500</v>
       </c>
       <c r="H48" s="3">
-        <v>66548900</v>
+        <v>64357400</v>
       </c>
       <c r="I48" s="3">
-        <v>62109000</v>
+        <v>60063700</v>
       </c>
       <c r="J48" s="3">
-        <v>59441600</v>
+        <v>57484200</v>
       </c>
       <c r="K48" s="3">
         <v>94385600</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>7458900</v>
+        <v>7213300</v>
       </c>
       <c r="E49" s="3">
-        <v>6927600</v>
+        <v>6699400</v>
       </c>
       <c r="F49" s="3">
-        <v>6781200</v>
+        <v>6557900</v>
       </c>
       <c r="G49" s="3">
-        <v>6755200</v>
+        <v>6532700</v>
       </c>
       <c r="H49" s="3">
-        <v>7089300</v>
+        <v>6855900</v>
       </c>
       <c r="I49" s="3">
-        <v>7515200</v>
+        <v>7267700</v>
       </c>
       <c r="J49" s="3">
-        <v>6919400</v>
+        <v>6691500</v>
       </c>
       <c r="K49" s="3">
         <v>6135200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4029500</v>
+        <v>3896800</v>
       </c>
       <c r="E52" s="3">
-        <v>3117900</v>
+        <v>3015200</v>
       </c>
       <c r="F52" s="3">
-        <v>2851100</v>
+        <v>2757200</v>
       </c>
       <c r="G52" s="3">
-        <v>2718100</v>
+        <v>2628600</v>
       </c>
       <c r="H52" s="3">
-        <v>2614000</v>
+        <v>2527900</v>
       </c>
       <c r="I52" s="3">
-        <v>3050000</v>
+        <v>2949500</v>
       </c>
       <c r="J52" s="3">
-        <v>2688100</v>
+        <v>2599600</v>
       </c>
       <c r="K52" s="3">
         <v>11252000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>199701000</v>
+        <v>193124000</v>
       </c>
       <c r="E54" s="3">
-        <v>186404000</v>
+        <v>180266000</v>
       </c>
       <c r="F54" s="3">
-        <v>186018000</v>
+        <v>179893000</v>
       </c>
       <c r="G54" s="3">
-        <v>176271000</v>
+        <v>170466000</v>
       </c>
       <c r="H54" s="3">
-        <v>172709000</v>
+        <v>167021000</v>
       </c>
       <c r="I54" s="3">
-        <v>166069000</v>
+        <v>160600000</v>
       </c>
       <c r="J54" s="3">
-        <v>167859000</v>
+        <v>162332000</v>
       </c>
       <c r="K54" s="3">
         <v>147004000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8598300</v>
+        <v>8315200</v>
       </c>
       <c r="E57" s="3">
-        <v>7690500</v>
+        <v>7437300</v>
       </c>
       <c r="F57" s="3">
-        <v>9620800</v>
+        <v>9303900</v>
       </c>
       <c r="G57" s="3">
-        <v>9798200</v>
+        <v>9475600</v>
       </c>
       <c r="H57" s="3">
-        <v>9231200</v>
+        <v>8927200</v>
       </c>
       <c r="I57" s="3">
-        <v>8760200</v>
+        <v>8471700</v>
       </c>
       <c r="J57" s="3">
-        <v>9106200</v>
+        <v>8806400</v>
       </c>
       <c r="K57" s="3">
         <v>18367000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27381200</v>
+        <v>26479500</v>
       </c>
       <c r="E58" s="3">
-        <v>29593400</v>
+        <v>28618900</v>
       </c>
       <c r="F58" s="3">
-        <v>29049800</v>
+        <v>28093200</v>
       </c>
       <c r="G58" s="3">
-        <v>26576200</v>
+        <v>25701100</v>
       </c>
       <c r="H58" s="3">
-        <v>25388900</v>
+        <v>24552800</v>
       </c>
       <c r="I58" s="3">
-        <v>25413400</v>
+        <v>24576600</v>
       </c>
       <c r="J58" s="3">
-        <v>25813800</v>
+        <v>24963700</v>
       </c>
       <c r="K58" s="3">
         <v>48046400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16088300</v>
+        <v>15558500</v>
       </c>
       <c r="E59" s="3">
-        <v>15463800</v>
+        <v>14954500</v>
       </c>
       <c r="F59" s="3">
-        <v>15817500</v>
+        <v>15296600</v>
       </c>
       <c r="G59" s="3">
-        <v>14861100</v>
+        <v>14371700</v>
       </c>
       <c r="H59" s="3">
-        <v>14836600</v>
+        <v>14348000</v>
       </c>
       <c r="I59" s="3">
-        <v>15661200</v>
+        <v>15145500</v>
       </c>
       <c r="J59" s="3">
-        <v>13372600</v>
+        <v>12932200</v>
       </c>
       <c r="K59" s="3">
         <v>11605700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>52067800</v>
+        <v>50353200</v>
       </c>
       <c r="E60" s="3">
-        <v>52747700</v>
+        <v>51010700</v>
       </c>
       <c r="F60" s="3">
-        <v>54488000</v>
+        <v>52693700</v>
       </c>
       <c r="G60" s="3">
-        <v>51235500</v>
+        <v>49548300</v>
       </c>
       <c r="H60" s="3">
-        <v>49456800</v>
+        <v>47828100</v>
       </c>
       <c r="I60" s="3">
-        <v>49834900</v>
+        <v>48193800</v>
       </c>
       <c r="J60" s="3">
-        <v>48292600</v>
+        <v>46702300</v>
       </c>
       <c r="K60" s="3">
         <v>43526500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42956900</v>
+        <v>41542300</v>
       </c>
       <c r="E61" s="3">
-        <v>38455400</v>
+        <v>37189000</v>
       </c>
       <c r="F61" s="3">
-        <v>37736700</v>
+        <v>36494000</v>
       </c>
       <c r="G61" s="3">
-        <v>35362700</v>
+        <v>34198200</v>
       </c>
       <c r="H61" s="3">
-        <v>36642200</v>
+        <v>35435500</v>
       </c>
       <c r="I61" s="3">
-        <v>34040700</v>
+        <v>32919700</v>
       </c>
       <c r="J61" s="3">
-        <v>35768400</v>
+        <v>34590500</v>
       </c>
       <c r="K61" s="3">
         <v>30205100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19289300</v>
+        <v>18654100</v>
       </c>
       <c r="E62" s="3">
-        <v>19715200</v>
+        <v>19065900</v>
       </c>
       <c r="F62" s="3">
-        <v>15759100</v>
+        <v>15240200</v>
       </c>
       <c r="G62" s="3">
-        <v>14660000</v>
+        <v>14177200</v>
       </c>
       <c r="H62" s="3">
-        <v>17650300</v>
+        <v>17069100</v>
       </c>
       <c r="I62" s="3">
-        <v>18133700</v>
+        <v>17536500</v>
       </c>
       <c r="J62" s="3">
-        <v>16540900</v>
+        <v>15996200</v>
       </c>
       <c r="K62" s="3">
         <v>27511500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>116961000</v>
+        <v>113109000</v>
       </c>
       <c r="E66" s="3">
-        <v>113412000</v>
+        <v>109678000</v>
       </c>
       <c r="F66" s="3">
-        <v>110699000</v>
+        <v>107054000</v>
       </c>
       <c r="G66" s="3">
-        <v>103996000</v>
+        <v>100572000</v>
       </c>
       <c r="H66" s="3">
-        <v>106248000</v>
+        <v>102750000</v>
       </c>
       <c r="I66" s="3">
-        <v>104472000</v>
+        <v>101032000</v>
       </c>
       <c r="J66" s="3">
-        <v>103100000</v>
+        <v>99704600</v>
       </c>
       <c r="K66" s="3">
         <v>88970200</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>81090500</v>
+        <v>78420200</v>
       </c>
       <c r="E72" s="3">
-        <v>74182300</v>
+        <v>71739400</v>
       </c>
       <c r="F72" s="3">
-        <v>72639800</v>
+        <v>70247700</v>
       </c>
       <c r="G72" s="3">
-        <v>69339200</v>
+        <v>67055800</v>
       </c>
       <c r="H72" s="3">
-        <v>61154500</v>
+        <v>59140600</v>
       </c>
       <c r="I72" s="3">
-        <v>56430200</v>
+        <v>54571900</v>
       </c>
       <c r="J72" s="3">
-        <v>55421400</v>
+        <v>53596300</v>
       </c>
       <c r="K72" s="3">
         <v>112779000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>82739800</v>
+        <v>80015100</v>
       </c>
       <c r="E76" s="3">
-        <v>72991700</v>
+        <v>70588000</v>
       </c>
       <c r="F76" s="3">
-        <v>75318900</v>
+        <v>72838600</v>
       </c>
       <c r="G76" s="3">
-        <v>72274500</v>
+        <v>69894500</v>
       </c>
       <c r="H76" s="3">
-        <v>66460100</v>
+        <v>64271600</v>
       </c>
       <c r="I76" s="3">
-        <v>61596700</v>
+        <v>59568200</v>
       </c>
       <c r="J76" s="3">
-        <v>64759600</v>
+        <v>62627000</v>
       </c>
       <c r="K76" s="3">
         <v>58033500</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5989100</v>
+        <v>5791900</v>
       </c>
       <c r="E81" s="3">
-        <v>4151800</v>
+        <v>4015100</v>
       </c>
       <c r="F81" s="3">
-        <v>5560000</v>
+        <v>5376900</v>
       </c>
       <c r="G81" s="3">
-        <v>9650600</v>
+        <v>9332800</v>
       </c>
       <c r="H81" s="3">
-        <v>5616900</v>
+        <v>5432000</v>
       </c>
       <c r="I81" s="3">
-        <v>3138700</v>
+        <v>3035300</v>
       </c>
       <c r="J81" s="3">
-        <v>4641000</v>
+        <v>4488100</v>
       </c>
       <c r="K81" s="3">
         <v>6935700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5686800</v>
+        <v>5499500</v>
       </c>
       <c r="E83" s="3">
-        <v>6375900</v>
+        <v>6165900</v>
       </c>
       <c r="F83" s="3">
-        <v>6574600</v>
+        <v>6358100</v>
       </c>
       <c r="G83" s="3">
-        <v>6496300</v>
+        <v>6282300</v>
       </c>
       <c r="H83" s="3">
-        <v>6143100</v>
+        <v>5940800</v>
       </c>
       <c r="I83" s="3">
-        <v>6019100</v>
+        <v>5820900</v>
       </c>
       <c r="J83" s="3">
-        <v>5695800</v>
+        <v>5508300</v>
       </c>
       <c r="K83" s="3">
         <v>5387300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9769400</v>
+        <v>9447700</v>
       </c>
       <c r="E89" s="3">
-        <v>8922500</v>
+        <v>8628600</v>
       </c>
       <c r="F89" s="3">
-        <v>7069300</v>
+        <v>6836500</v>
       </c>
       <c r="G89" s="3">
-        <v>8997700</v>
+        <v>8701400</v>
       </c>
       <c r="H89" s="3">
-        <v>8063000</v>
+        <v>7797500</v>
       </c>
       <c r="I89" s="3">
-        <v>12672000</v>
+        <v>12254700</v>
       </c>
       <c r="J89" s="3">
-        <v>9295900</v>
+        <v>8989800</v>
       </c>
       <c r="K89" s="3">
         <v>4113800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2900700</v>
+        <v>-2805200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3372500</v>
+        <v>-3261400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3833200</v>
+        <v>-3707000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3785800</v>
+        <v>-3661100</v>
       </c>
       <c r="H91" s="3">
-        <v>-4501500</v>
+        <v>-4353300</v>
       </c>
       <c r="I91" s="3">
-        <v>-5786500</v>
+        <v>-5595900</v>
       </c>
       <c r="J91" s="3">
-        <v>-5905100</v>
+        <v>-5710700</v>
       </c>
       <c r="K91" s="3">
         <v>-24001700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7259600</v>
+        <v>-7020500</v>
       </c>
       <c r="E94" s="3">
-        <v>-5643500</v>
+        <v>-5457600</v>
       </c>
       <c r="F94" s="3">
-        <v>-5261500</v>
+        <v>-5088300</v>
       </c>
       <c r="G94" s="3">
-        <v>-5603700</v>
+        <v>-5419100</v>
       </c>
       <c r="H94" s="3">
-        <v>-5927100</v>
+        <v>-5731900</v>
       </c>
       <c r="I94" s="3">
-        <v>-7972000</v>
+        <v>-7709400</v>
       </c>
       <c r="J94" s="3">
-        <v>-7656900</v>
+        <v>-7404800</v>
       </c>
       <c r="K94" s="3">
         <v>-8436600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1321800</v>
+        <v>-1278200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1792800</v>
+        <v>-1733800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1769800</v>
+        <v>-1711500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1587200</v>
+        <v>-1534900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1477700</v>
+        <v>-1429000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1444900</v>
+        <v>-1397300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1444900</v>
+        <v>-1397300</v>
       </c>
       <c r="K96" s="3">
         <v>-1304200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2587100</v>
+        <v>-2501900</v>
       </c>
       <c r="E100" s="3">
-        <v>-796300</v>
+        <v>-770100</v>
       </c>
       <c r="F100" s="3">
-        <v>208800</v>
+        <v>202000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1588200</v>
+        <v>-1535900</v>
       </c>
       <c r="H100" s="3">
-        <v>1051500</v>
+        <v>1016900</v>
       </c>
       <c r="I100" s="3">
-        <v>-868200</v>
+        <v>-839600</v>
       </c>
       <c r="J100" s="3">
-        <v>113800</v>
+        <v>110000</v>
       </c>
       <c r="K100" s="3">
         <v>3256000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>857700</v>
+        <v>829500</v>
       </c>
       <c r="E101" s="3">
-        <v>-859000</v>
+        <v>-830700</v>
       </c>
       <c r="F101" s="3">
-        <v>148300</v>
+        <v>143400</v>
       </c>
       <c r="G101" s="3">
-        <v>-434700</v>
+        <v>-420300</v>
       </c>
       <c r="H101" s="3">
-        <v>-12400</v>
+        <v>-12000</v>
       </c>
       <c r="I101" s="3">
-        <v>-1228900</v>
+        <v>-1188400</v>
       </c>
       <c r="J101" s="3">
-        <v>781200</v>
+        <v>755500</v>
       </c>
       <c r="K101" s="3">
         <v>361200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>780400</v>
+        <v>754700</v>
       </c>
       <c r="E102" s="3">
-        <v>1623700</v>
+        <v>1570200</v>
       </c>
       <c r="F102" s="3">
-        <v>2164800</v>
+        <v>2093500</v>
       </c>
       <c r="G102" s="3">
-        <v>1371200</v>
+        <v>1326000</v>
       </c>
       <c r="H102" s="3">
-        <v>3175000</v>
+        <v>3070500</v>
       </c>
       <c r="I102" s="3">
-        <v>2603000</v>
+        <v>2517200</v>
       </c>
       <c r="J102" s="3">
-        <v>2533900</v>
+        <v>2450500</v>
       </c>
       <c r="K102" s="3">
         <v>-705600</v>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>116032300</v>
+        <v>112344500</v>
       </c>
       <c r="E8" s="3">
-        <v>131542200</v>
+        <v>127361500</v>
       </c>
       <c r="F8" s="3">
-        <v>139978700</v>
+        <v>135529900</v>
       </c>
       <c r="G8" s="3">
-        <v>135331700</v>
+        <v>131030600</v>
       </c>
       <c r="H8" s="3">
-        <v>123333000</v>
+        <v>119413200</v>
       </c>
       <c r="I8" s="3">
-        <v>128636100</v>
+        <v>124547800</v>
       </c>
       <c r="J8" s="3">
-        <v>117420600</v>
+        <v>113688700</v>
       </c>
       <c r="K8" s="3">
         <v>114555800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>91973700</v>
+        <v>89050500</v>
       </c>
       <c r="E9" s="3">
-        <v>104413100</v>
+        <v>101094700</v>
       </c>
       <c r="F9" s="3">
-        <v>110838200</v>
+        <v>107315500</v>
       </c>
       <c r="G9" s="3">
-        <v>105725100</v>
+        <v>102365000</v>
       </c>
       <c r="H9" s="3">
-        <v>95728100</v>
+        <v>92685700</v>
       </c>
       <c r="I9" s="3">
-        <v>99838400</v>
+        <v>96665400</v>
       </c>
       <c r="J9" s="3">
-        <v>91014200</v>
+        <v>88121600</v>
       </c>
       <c r="K9" s="3">
         <v>87849500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24058600</v>
+        <v>23294000</v>
       </c>
       <c r="E10" s="3">
-        <v>27129100</v>
+        <v>26266900</v>
       </c>
       <c r="F10" s="3">
-        <v>29140600</v>
+        <v>28214400</v>
       </c>
       <c r="G10" s="3">
-        <v>29606600</v>
+        <v>28665600</v>
       </c>
       <c r="H10" s="3">
-        <v>27604800</v>
+        <v>26727500</v>
       </c>
       <c r="I10" s="3">
-        <v>28797700</v>
+        <v>27882500</v>
       </c>
       <c r="J10" s="3">
-        <v>26406300</v>
+        <v>25567100</v>
       </c>
       <c r="K10" s="3">
         <v>26706300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6509700</v>
+        <v>6302800</v>
       </c>
       <c r="E12" s="3">
-        <v>7084300</v>
+        <v>6859200</v>
       </c>
       <c r="F12" s="3">
-        <v>7108800</v>
+        <v>6882900</v>
       </c>
       <c r="G12" s="3">
-        <v>6623900</v>
+        <v>6413300</v>
       </c>
       <c r="H12" s="3">
-        <v>6091500</v>
+        <v>5897900</v>
       </c>
       <c r="I12" s="3">
-        <v>5783800</v>
+        <v>5600000</v>
       </c>
       <c r="J12" s="3">
-        <v>5340300</v>
+        <v>5170600</v>
       </c>
       <c r="K12" s="3">
         <v>5481100</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>110215800</v>
+        <v>106713000</v>
       </c>
       <c r="E17" s="3">
-        <v>125959800</v>
+        <v>121956600</v>
       </c>
       <c r="F17" s="3">
-        <v>133579400</v>
+        <v>129334000</v>
       </c>
       <c r="G17" s="3">
-        <v>127988100</v>
+        <v>123920300</v>
       </c>
       <c r="H17" s="3">
-        <v>115926300</v>
+        <v>112241900</v>
       </c>
       <c r="I17" s="3">
-        <v>124201400</v>
+        <v>120254000</v>
       </c>
       <c r="J17" s="3">
-        <v>111512500</v>
+        <v>107968400</v>
       </c>
       <c r="K17" s="3">
         <v>107009200</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5816400</v>
+        <v>5631600</v>
       </c>
       <c r="E18" s="3">
-        <v>5582300</v>
+        <v>5404900</v>
       </c>
       <c r="F18" s="3">
-        <v>6399300</v>
+        <v>6195900</v>
       </c>
       <c r="G18" s="3">
-        <v>7343600</v>
+        <v>7110200</v>
       </c>
       <c r="H18" s="3">
-        <v>7406700</v>
+        <v>7171300</v>
       </c>
       <c r="I18" s="3">
-        <v>4434700</v>
+        <v>4293800</v>
       </c>
       <c r="J18" s="3">
-        <v>5908000</v>
+        <v>5720200</v>
       </c>
       <c r="K18" s="3">
         <v>7546600</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2358600</v>
+        <v>2283700</v>
       </c>
       <c r="E20" s="3">
-        <v>1594300</v>
+        <v>1543700</v>
       </c>
       <c r="F20" s="3">
-        <v>2345400</v>
+        <v>2270900</v>
       </c>
       <c r="G20" s="3">
-        <v>2593500</v>
+        <v>2511100</v>
       </c>
       <c r="H20" s="3">
-        <v>1574800</v>
+        <v>1524700</v>
       </c>
       <c r="I20" s="3">
-        <v>1323400</v>
+        <v>1281400</v>
       </c>
       <c r="J20" s="3">
-        <v>1355200</v>
+        <v>1312200</v>
       </c>
       <c r="K20" s="3">
         <v>1125200</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>13687100</v>
+        <v>13302400</v>
       </c>
       <c r="E21" s="3">
-        <v>13356600</v>
+        <v>12988500</v>
       </c>
       <c r="F21" s="3">
-        <v>15117300</v>
+        <v>14695000</v>
       </c>
       <c r="G21" s="3">
-        <v>16233800</v>
+        <v>15775300</v>
       </c>
       <c r="H21" s="3">
-        <v>14935700</v>
+        <v>14515400</v>
       </c>
       <c r="I21" s="3">
-        <v>11592300</v>
+        <v>11277100</v>
       </c>
       <c r="J21" s="3">
-        <v>12784000</v>
+        <v>12428100</v>
       </c>
       <c r="K21" s="3">
         <v>14082600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>122300</v>
+        <v>118400</v>
       </c>
       <c r="E22" s="3">
-        <v>217500</v>
+        <v>210600</v>
       </c>
       <c r="F22" s="3">
-        <v>116400</v>
+        <v>112700</v>
       </c>
       <c r="G22" s="3">
-        <v>114300</v>
+        <v>110600</v>
       </c>
       <c r="H22" s="3">
-        <v>109900</v>
+        <v>106400</v>
       </c>
       <c r="I22" s="3">
-        <v>159900</v>
+        <v>154800</v>
       </c>
       <c r="J22" s="3">
-        <v>160300</v>
+        <v>155200</v>
       </c>
       <c r="K22" s="3">
         <v>117300</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>8052800</v>
+        <v>7796900</v>
       </c>
       <c r="E23" s="3">
-        <v>6959200</v>
+        <v>6738000</v>
       </c>
       <c r="F23" s="3">
-        <v>8628300</v>
+        <v>8354100</v>
       </c>
       <c r="G23" s="3">
-        <v>9822900</v>
+        <v>9510700</v>
       </c>
       <c r="H23" s="3">
-        <v>8871500</v>
+        <v>8589600</v>
       </c>
       <c r="I23" s="3">
-        <v>5598300</v>
+        <v>5420400</v>
       </c>
       <c r="J23" s="3">
-        <v>7102900</v>
+        <v>6877200</v>
       </c>
       <c r="K23" s="3">
         <v>8554600</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1925900</v>
+        <v>1864700</v>
       </c>
       <c r="E24" s="3">
-        <v>2466700</v>
+        <v>2388300</v>
       </c>
       <c r="F24" s="3">
-        <v>2670200</v>
+        <v>2585300</v>
       </c>
       <c r="G24" s="3">
-        <v>-120400</v>
+        <v>-116600</v>
       </c>
       <c r="H24" s="3">
-        <v>2886100</v>
+        <v>2794400</v>
       </c>
       <c r="I24" s="3">
-        <v>2018300</v>
+        <v>1954200</v>
       </c>
       <c r="J24" s="3">
-        <v>2159700</v>
+        <v>2091000</v>
       </c>
       <c r="K24" s="3">
         <v>2454800</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6126900</v>
+        <v>5932100</v>
       </c>
       <c r="E26" s="3">
-        <v>4492500</v>
+        <v>4349700</v>
       </c>
       <c r="F26" s="3">
-        <v>5958100</v>
+        <v>5768700</v>
       </c>
       <c r="G26" s="3">
-        <v>9943300</v>
+        <v>9627300</v>
       </c>
       <c r="H26" s="3">
-        <v>5985500</v>
+        <v>5795200</v>
       </c>
       <c r="I26" s="3">
-        <v>3580000</v>
+        <v>3466200</v>
       </c>
       <c r="J26" s="3">
-        <v>4943300</v>
+        <v>4786200</v>
       </c>
       <c r="K26" s="3">
         <v>6099700</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5791900</v>
+        <v>5607800</v>
       </c>
       <c r="E27" s="3">
-        <v>4015100</v>
+        <v>3887500</v>
       </c>
       <c r="F27" s="3">
-        <v>5376900</v>
+        <v>5206000</v>
       </c>
       <c r="G27" s="3">
-        <v>9332800</v>
+        <v>9036100</v>
       </c>
       <c r="H27" s="3">
-        <v>5432000</v>
+        <v>5259300</v>
       </c>
       <c r="I27" s="3">
-        <v>3035300</v>
+        <v>2938800</v>
       </c>
       <c r="J27" s="3">
-        <v>4488100</v>
+        <v>4345500</v>
       </c>
       <c r="K27" s="3">
         <v>6935700</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2358600</v>
+        <v>-2283700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1594300</v>
+        <v>-1543700</v>
       </c>
       <c r="F32" s="3">
-        <v>-2345400</v>
+        <v>-2270900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2593500</v>
+        <v>-2511100</v>
       </c>
       <c r="H32" s="3">
-        <v>-1574800</v>
+        <v>-1524700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1323400</v>
+        <v>-1281400</v>
       </c>
       <c r="J32" s="3">
-        <v>-1355200</v>
+        <v>-1312200</v>
       </c>
       <c r="K32" s="3">
         <v>-1125200</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5791900</v>
+        <v>5607800</v>
       </c>
       <c r="E33" s="3">
-        <v>4015100</v>
+        <v>3887500</v>
       </c>
       <c r="F33" s="3">
-        <v>5376900</v>
+        <v>5206000</v>
       </c>
       <c r="G33" s="3">
-        <v>9332800</v>
+        <v>9036100</v>
       </c>
       <c r="H33" s="3">
-        <v>5432000</v>
+        <v>5259300</v>
       </c>
       <c r="I33" s="3">
-        <v>3035300</v>
+        <v>2938800</v>
       </c>
       <c r="J33" s="3">
-        <v>4488100</v>
+        <v>4345500</v>
       </c>
       <c r="K33" s="3">
         <v>6935700</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5791900</v>
+        <v>5607800</v>
       </c>
       <c r="E35" s="3">
-        <v>4015100</v>
+        <v>3887500</v>
       </c>
       <c r="F35" s="3">
-        <v>5376900</v>
+        <v>5206000</v>
       </c>
       <c r="G35" s="3">
-        <v>9332800</v>
+        <v>9036100</v>
       </c>
       <c r="H35" s="3">
-        <v>5432000</v>
+        <v>5259300</v>
       </c>
       <c r="I35" s="3">
-        <v>3035300</v>
+        <v>2938800</v>
       </c>
       <c r="J35" s="3">
-        <v>4488100</v>
+        <v>4345500</v>
       </c>
       <c r="K35" s="3">
         <v>6935700</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>24298200</v>
+        <v>23525900</v>
       </c>
       <c r="E41" s="3">
-        <v>23543400</v>
+        <v>22795200</v>
       </c>
       <c r="F41" s="3">
-        <v>21973200</v>
+        <v>21274900</v>
       </c>
       <c r="G41" s="3">
-        <v>19879700</v>
+        <v>19247800</v>
       </c>
       <c r="H41" s="3">
-        <v>18553600</v>
+        <v>17964000</v>
       </c>
       <c r="I41" s="3">
-        <v>15483200</v>
+        <v>14991100</v>
       </c>
       <c r="J41" s="3">
-        <v>12965900</v>
+        <v>12553900</v>
       </c>
       <c r="K41" s="3">
         <v>10933200</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2601700</v>
+        <v>2519000</v>
       </c>
       <c r="E42" s="3">
-        <v>1674400</v>
+        <v>1621200</v>
       </c>
       <c r="F42" s="3">
-        <v>1438400</v>
+        <v>1392700</v>
       </c>
       <c r="G42" s="3">
-        <v>1878100</v>
+        <v>1818400</v>
       </c>
       <c r="H42" s="3">
-        <v>1316500</v>
+        <v>1274600</v>
       </c>
       <c r="I42" s="3">
-        <v>907700</v>
+        <v>878900</v>
       </c>
       <c r="J42" s="3">
-        <v>816800</v>
+        <v>790800</v>
       </c>
       <c r="K42" s="3">
         <v>934500</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>22874900</v>
+        <v>22147900</v>
       </c>
       <c r="E43" s="3">
-        <v>22133100</v>
+        <v>21429600</v>
       </c>
       <c r="F43" s="3">
-        <v>24182400</v>
+        <v>23413800</v>
       </c>
       <c r="G43" s="3">
-        <v>23268600</v>
+        <v>22529100</v>
       </c>
       <c r="H43" s="3">
-        <v>23284500</v>
+        <v>22544500</v>
       </c>
       <c r="I43" s="3">
-        <v>24251500</v>
+        <v>23480800</v>
       </c>
       <c r="J43" s="3">
-        <v>25722000</v>
+        <v>24904500</v>
       </c>
       <c r="K43" s="3">
         <v>48501300</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>13616700</v>
+        <v>13184000</v>
       </c>
       <c r="E44" s="3">
-        <v>13748600</v>
+        <v>13311600</v>
       </c>
       <c r="F44" s="3">
-        <v>13979600</v>
+        <v>13535300</v>
       </c>
       <c r="G44" s="3">
-        <v>13421600</v>
+        <v>12995100</v>
       </c>
       <c r="H44" s="3">
-        <v>12018000</v>
+        <v>11636000</v>
       </c>
       <c r="I44" s="3">
-        <v>11570100</v>
+        <v>11202400</v>
       </c>
       <c r="J44" s="3">
-        <v>13200100</v>
+        <v>12780600</v>
       </c>
       <c r="K44" s="3">
         <v>16569000</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3380400</v>
+        <v>3272900</v>
       </c>
       <c r="E45" s="3">
-        <v>3222400</v>
+        <v>3120000</v>
       </c>
       <c r="F45" s="3">
-        <v>3156000</v>
+        <v>3055700</v>
       </c>
       <c r="G45" s="3">
-        <v>2563800</v>
+        <v>2482300</v>
       </c>
       <c r="H45" s="3">
-        <v>2581100</v>
+        <v>2499000</v>
       </c>
       <c r="I45" s="3">
-        <v>2776200</v>
+        <v>2687900</v>
       </c>
       <c r="J45" s="3">
-        <v>2764200</v>
+        <v>2676400</v>
       </c>
       <c r="K45" s="3">
         <v>4111800</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>66771800</v>
+        <v>64649600</v>
       </c>
       <c r="E46" s="3">
-        <v>64321900</v>
+        <v>62277600</v>
       </c>
       <c r="F46" s="3">
-        <v>64729700</v>
+        <v>62672400</v>
       </c>
       <c r="G46" s="3">
-        <v>61011800</v>
+        <v>59072700</v>
       </c>
       <c r="H46" s="3">
-        <v>57753700</v>
+        <v>55918100</v>
       </c>
       <c r="I46" s="3">
-        <v>54988700</v>
+        <v>53241100</v>
       </c>
       <c r="J46" s="3">
-        <v>55469000</v>
+        <v>53706100</v>
       </c>
       <c r="K46" s="3">
         <v>50830300</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>45278400</v>
+        <v>43839300</v>
       </c>
       <c r="E47" s="3">
-        <v>38587900</v>
+        <v>37361500</v>
       </c>
       <c r="F47" s="3">
-        <v>40383300</v>
+        <v>39099900</v>
       </c>
       <c r="G47" s="3">
-        <v>37296600</v>
+        <v>36111200</v>
       </c>
       <c r="H47" s="3">
-        <v>35526200</v>
+        <v>34397100</v>
       </c>
       <c r="I47" s="3">
-        <v>35330400</v>
+        <v>34207500</v>
       </c>
       <c r="J47" s="3">
-        <v>40087300</v>
+        <v>38813300</v>
       </c>
       <c r="K47" s="3">
         <v>74633600</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>69964000</v>
+        <v>67740400</v>
       </c>
       <c r="E48" s="3">
-        <v>67641100</v>
+        <v>65491400</v>
       </c>
       <c r="F48" s="3">
-        <v>65464400</v>
+        <v>63383800</v>
       </c>
       <c r="G48" s="3">
-        <v>62996500</v>
+        <v>60994300</v>
       </c>
       <c r="H48" s="3">
-        <v>64357400</v>
+        <v>62312000</v>
       </c>
       <c r="I48" s="3">
-        <v>60063700</v>
+        <v>58154800</v>
       </c>
       <c r="J48" s="3">
-        <v>57484200</v>
+        <v>55657200</v>
       </c>
       <c r="K48" s="3">
         <v>94385600</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>7213300</v>
+        <v>6984000</v>
       </c>
       <c r="E49" s="3">
-        <v>6699400</v>
+        <v>6486500</v>
       </c>
       <c r="F49" s="3">
-        <v>6557900</v>
+        <v>6349500</v>
       </c>
       <c r="G49" s="3">
-        <v>6532700</v>
+        <v>6325100</v>
       </c>
       <c r="H49" s="3">
-        <v>6855900</v>
+        <v>6638000</v>
       </c>
       <c r="I49" s="3">
-        <v>7267700</v>
+        <v>7036700</v>
       </c>
       <c r="J49" s="3">
-        <v>6691500</v>
+        <v>6478800</v>
       </c>
       <c r="K49" s="3">
         <v>6135200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3896800</v>
+        <v>3772900</v>
       </c>
       <c r="E52" s="3">
-        <v>3015200</v>
+        <v>2919400</v>
       </c>
       <c r="F52" s="3">
-        <v>2757200</v>
+        <v>2669600</v>
       </c>
       <c r="G52" s="3">
-        <v>2628600</v>
+        <v>2545000</v>
       </c>
       <c r="H52" s="3">
-        <v>2527900</v>
+        <v>2447500</v>
       </c>
       <c r="I52" s="3">
-        <v>2949500</v>
+        <v>2855800</v>
       </c>
       <c r="J52" s="3">
-        <v>2599600</v>
+        <v>2517000</v>
       </c>
       <c r="K52" s="3">
         <v>11252000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>193124000</v>
+        <v>186986000</v>
       </c>
       <c r="E54" s="3">
-        <v>180266000</v>
+        <v>174536000</v>
       </c>
       <c r="F54" s="3">
-        <v>179893000</v>
+        <v>174175000</v>
       </c>
       <c r="G54" s="3">
-        <v>170466000</v>
+        <v>165048000</v>
       </c>
       <c r="H54" s="3">
-        <v>167021000</v>
+        <v>161713000</v>
       </c>
       <c r="I54" s="3">
-        <v>160600000</v>
+        <v>155496000</v>
       </c>
       <c r="J54" s="3">
-        <v>162332000</v>
+        <v>157172000</v>
       </c>
       <c r="K54" s="3">
         <v>147004000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8315200</v>
+        <v>8050900</v>
       </c>
       <c r="E57" s="3">
-        <v>7437300</v>
+        <v>7200900</v>
       </c>
       <c r="F57" s="3">
-        <v>9303900</v>
+        <v>9008200</v>
       </c>
       <c r="G57" s="3">
-        <v>9475600</v>
+        <v>9174400</v>
       </c>
       <c r="H57" s="3">
-        <v>8927200</v>
+        <v>8643500</v>
       </c>
       <c r="I57" s="3">
-        <v>8471700</v>
+        <v>8202500</v>
       </c>
       <c r="J57" s="3">
-        <v>8806400</v>
+        <v>8526500</v>
       </c>
       <c r="K57" s="3">
         <v>18367000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26479500</v>
+        <v>25638000</v>
       </c>
       <c r="E58" s="3">
-        <v>28618900</v>
+        <v>27709300</v>
       </c>
       <c r="F58" s="3">
-        <v>28093200</v>
+        <v>27200300</v>
       </c>
       <c r="G58" s="3">
-        <v>25701100</v>
+        <v>24884200</v>
       </c>
       <c r="H58" s="3">
-        <v>24552800</v>
+        <v>23772500</v>
       </c>
       <c r="I58" s="3">
-        <v>24576600</v>
+        <v>23795500</v>
       </c>
       <c r="J58" s="3">
-        <v>24963700</v>
+        <v>24170300</v>
       </c>
       <c r="K58" s="3">
         <v>48046400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15558500</v>
+        <v>15064000</v>
       </c>
       <c r="E59" s="3">
-        <v>14954500</v>
+        <v>14479200</v>
       </c>
       <c r="F59" s="3">
-        <v>15296600</v>
+        <v>14810400</v>
       </c>
       <c r="G59" s="3">
-        <v>14371700</v>
+        <v>13914900</v>
       </c>
       <c r="H59" s="3">
-        <v>14348000</v>
+        <v>13892000</v>
       </c>
       <c r="I59" s="3">
-        <v>15145500</v>
+        <v>14664100</v>
       </c>
       <c r="J59" s="3">
-        <v>12932200</v>
+        <v>12521200</v>
       </c>
       <c r="K59" s="3">
         <v>11605700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50353200</v>
+        <v>48752800</v>
       </c>
       <c r="E60" s="3">
-        <v>51010700</v>
+        <v>49389500</v>
       </c>
       <c r="F60" s="3">
-        <v>52693700</v>
+        <v>51019000</v>
       </c>
       <c r="G60" s="3">
-        <v>49548300</v>
+        <v>47973600</v>
       </c>
       <c r="H60" s="3">
-        <v>47828100</v>
+        <v>46308000</v>
       </c>
       <c r="I60" s="3">
-        <v>48193800</v>
+        <v>46662100</v>
       </c>
       <c r="J60" s="3">
-        <v>46702300</v>
+        <v>45218000</v>
       </c>
       <c r="K60" s="3">
         <v>43526500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41542300</v>
+        <v>40222000</v>
       </c>
       <c r="E61" s="3">
-        <v>37189000</v>
+        <v>36007100</v>
       </c>
       <c r="F61" s="3">
-        <v>36494000</v>
+        <v>35334100</v>
       </c>
       <c r="G61" s="3">
-        <v>34198200</v>
+        <v>33111300</v>
       </c>
       <c r="H61" s="3">
-        <v>35435500</v>
+        <v>34309300</v>
       </c>
       <c r="I61" s="3">
-        <v>32919700</v>
+        <v>31873400</v>
       </c>
       <c r="J61" s="3">
-        <v>34590500</v>
+        <v>33491100</v>
       </c>
       <c r="K61" s="3">
         <v>30205100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18654100</v>
+        <v>18061200</v>
       </c>
       <c r="E62" s="3">
-        <v>19065900</v>
+        <v>18460000</v>
       </c>
       <c r="F62" s="3">
-        <v>15240200</v>
+        <v>14755800</v>
       </c>
       <c r="G62" s="3">
-        <v>14177200</v>
+        <v>13726700</v>
       </c>
       <c r="H62" s="3">
-        <v>17069100</v>
+        <v>16526600</v>
       </c>
       <c r="I62" s="3">
-        <v>17536500</v>
+        <v>16979200</v>
       </c>
       <c r="J62" s="3">
-        <v>15996200</v>
+        <v>15487800</v>
       </c>
       <c r="K62" s="3">
         <v>27511500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>113109000</v>
+        <v>109514000</v>
       </c>
       <c r="E66" s="3">
-        <v>109678000</v>
+        <v>106192000</v>
       </c>
       <c r="F66" s="3">
-        <v>107054000</v>
+        <v>103652000</v>
       </c>
       <c r="G66" s="3">
-        <v>100572000</v>
+        <v>97375300</v>
       </c>
       <c r="H66" s="3">
-        <v>102750000</v>
+        <v>99483900</v>
       </c>
       <c r="I66" s="3">
-        <v>101032000</v>
+        <v>97820900</v>
       </c>
       <c r="J66" s="3">
-        <v>99704600</v>
+        <v>96535800</v>
       </c>
       <c r="K66" s="3">
         <v>88970200</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>78420200</v>
+        <v>75927800</v>
       </c>
       <c r="E72" s="3">
-        <v>71739400</v>
+        <v>69459300</v>
       </c>
       <c r="F72" s="3">
-        <v>70247700</v>
+        <v>68015100</v>
       </c>
       <c r="G72" s="3">
-        <v>67055800</v>
+        <v>64924700</v>
       </c>
       <c r="H72" s="3">
-        <v>59140600</v>
+        <v>57261000</v>
       </c>
       <c r="I72" s="3">
-        <v>54571900</v>
+        <v>52837500</v>
       </c>
       <c r="J72" s="3">
-        <v>53596300</v>
+        <v>51892900</v>
       </c>
       <c r="K72" s="3">
         <v>112779000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>80015100</v>
+        <v>77472100</v>
       </c>
       <c r="E76" s="3">
-        <v>70588000</v>
+        <v>68344600</v>
       </c>
       <c r="F76" s="3">
-        <v>72838600</v>
+        <v>70523700</v>
       </c>
       <c r="G76" s="3">
-        <v>69894500</v>
+        <v>67673100</v>
       </c>
       <c r="H76" s="3">
-        <v>64271600</v>
+        <v>62228900</v>
       </c>
       <c r="I76" s="3">
-        <v>59568200</v>
+        <v>57675000</v>
       </c>
       <c r="J76" s="3">
-        <v>62627000</v>
+        <v>60636600</v>
       </c>
       <c r="K76" s="3">
         <v>58033500</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5791900</v>
+        <v>5607800</v>
       </c>
       <c r="E81" s="3">
-        <v>4015100</v>
+        <v>3887500</v>
       </c>
       <c r="F81" s="3">
-        <v>5376900</v>
+        <v>5206000</v>
       </c>
       <c r="G81" s="3">
-        <v>9332800</v>
+        <v>9036100</v>
       </c>
       <c r="H81" s="3">
-        <v>5432000</v>
+        <v>5259300</v>
       </c>
       <c r="I81" s="3">
-        <v>3035300</v>
+        <v>2938800</v>
       </c>
       <c r="J81" s="3">
-        <v>4488100</v>
+        <v>4345500</v>
       </c>
       <c r="K81" s="3">
         <v>6935700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5499500</v>
+        <v>5324800</v>
       </c>
       <c r="E83" s="3">
-        <v>6165900</v>
+        <v>5970000</v>
       </c>
       <c r="F83" s="3">
-        <v>6358100</v>
+        <v>6156100</v>
       </c>
       <c r="G83" s="3">
-        <v>6282300</v>
+        <v>6082700</v>
       </c>
       <c r="H83" s="3">
-        <v>5940800</v>
+        <v>5752000</v>
       </c>
       <c r="I83" s="3">
-        <v>5820900</v>
+        <v>5635900</v>
       </c>
       <c r="J83" s="3">
-        <v>5508300</v>
+        <v>5333200</v>
       </c>
       <c r="K83" s="3">
         <v>5387300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9447700</v>
+        <v>9147400</v>
       </c>
       <c r="E89" s="3">
-        <v>8628600</v>
+        <v>8354400</v>
       </c>
       <c r="F89" s="3">
-        <v>6836500</v>
+        <v>6619200</v>
       </c>
       <c r="G89" s="3">
-        <v>8701400</v>
+        <v>8424800</v>
       </c>
       <c r="H89" s="3">
-        <v>7797500</v>
+        <v>7549700</v>
       </c>
       <c r="I89" s="3">
-        <v>12254700</v>
+        <v>11865200</v>
       </c>
       <c r="J89" s="3">
-        <v>8989800</v>
+        <v>8704000</v>
       </c>
       <c r="K89" s="3">
         <v>4113800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2805200</v>
+        <v>-2716000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3261400</v>
+        <v>-3157800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3707000</v>
+        <v>-3589200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3661100</v>
+        <v>-3544800</v>
       </c>
       <c r="H91" s="3">
-        <v>-4353300</v>
+        <v>-4214900</v>
       </c>
       <c r="I91" s="3">
-        <v>-5595900</v>
+        <v>-5418100</v>
       </c>
       <c r="J91" s="3">
-        <v>-5710700</v>
+        <v>-5529200</v>
       </c>
       <c r="K91" s="3">
         <v>-24001700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7020500</v>
+        <v>-6797400</v>
       </c>
       <c r="E94" s="3">
-        <v>-5457600</v>
+        <v>-5284200</v>
       </c>
       <c r="F94" s="3">
-        <v>-5088300</v>
+        <v>-4926500</v>
       </c>
       <c r="G94" s="3">
-        <v>-5419100</v>
+        <v>-5246900</v>
       </c>
       <c r="H94" s="3">
-        <v>-5731900</v>
+        <v>-5549800</v>
       </c>
       <c r="I94" s="3">
-        <v>-7709400</v>
+        <v>-7464400</v>
       </c>
       <c r="J94" s="3">
-        <v>-7404800</v>
+        <v>-7169400</v>
       </c>
       <c r="K94" s="3">
         <v>-8436600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1278200</v>
+        <v>-1237600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1733800</v>
+        <v>-1678700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1711500</v>
+        <v>-1657100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1534900</v>
+        <v>-1486100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1429000</v>
+        <v>-1383600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1397300</v>
+        <v>-1352900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1397300</v>
+        <v>-1352900</v>
       </c>
       <c r="K96" s="3">
         <v>-1304200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2501900</v>
+        <v>-2422300</v>
       </c>
       <c r="E100" s="3">
-        <v>-770100</v>
+        <v>-745600</v>
       </c>
       <c r="F100" s="3">
-        <v>202000</v>
+        <v>195500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1535900</v>
+        <v>-1487100</v>
       </c>
       <c r="H100" s="3">
-        <v>1016900</v>
+        <v>984600</v>
       </c>
       <c r="I100" s="3">
-        <v>-839600</v>
+        <v>-812900</v>
       </c>
       <c r="J100" s="3">
-        <v>110000</v>
+        <v>106500</v>
       </c>
       <c r="K100" s="3">
         <v>3256000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>829500</v>
+        <v>803100</v>
       </c>
       <c r="E101" s="3">
-        <v>-830700</v>
+        <v>-804300</v>
       </c>
       <c r="F101" s="3">
-        <v>143400</v>
+        <v>138800</v>
       </c>
       <c r="G101" s="3">
-        <v>-420300</v>
+        <v>-407000</v>
       </c>
       <c r="H101" s="3">
-        <v>-12000</v>
+        <v>-11600</v>
       </c>
       <c r="I101" s="3">
-        <v>-1188400</v>
+        <v>-1150600</v>
       </c>
       <c r="J101" s="3">
-        <v>755500</v>
+        <v>731400</v>
       </c>
       <c r="K101" s="3">
         <v>361200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>754700</v>
+        <v>730700</v>
       </c>
       <c r="E102" s="3">
-        <v>1570200</v>
+        <v>1520300</v>
       </c>
       <c r="F102" s="3">
-        <v>2093500</v>
+        <v>2027000</v>
       </c>
       <c r="G102" s="3">
-        <v>1326000</v>
+        <v>1283900</v>
       </c>
       <c r="H102" s="3">
-        <v>3070500</v>
+        <v>2972900</v>
       </c>
       <c r="I102" s="3">
-        <v>2517200</v>
+        <v>2437200</v>
       </c>
       <c r="J102" s="3">
-        <v>2450500</v>
+        <v>2372600</v>
       </c>
       <c r="K102" s="3">
         <v>-705600</v>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>112344500</v>
+        <v>113365500</v>
       </c>
       <c r="E8" s="3">
-        <v>127361500</v>
+        <v>102598300</v>
       </c>
       <c r="F8" s="3">
-        <v>135529900</v>
+        <v>116312600</v>
       </c>
       <c r="G8" s="3">
-        <v>131030600</v>
+        <v>123772300</v>
       </c>
       <c r="H8" s="3">
-        <v>119413200</v>
+        <v>119663300</v>
       </c>
       <c r="I8" s="3">
-        <v>124547800</v>
+        <v>109053800</v>
       </c>
       <c r="J8" s="3">
+        <v>113743000</v>
+      </c>
+      <c r="K8" s="3">
         <v>113688700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>114555800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>89790500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71850800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>89050500</v>
+        <v>90114100</v>
       </c>
       <c r="E9" s="3">
-        <v>101094700</v>
+        <v>81325200</v>
       </c>
       <c r="F9" s="3">
-        <v>107315500</v>
+        <v>92324400</v>
       </c>
       <c r="G9" s="3">
-        <v>102365000</v>
+        <v>98005600</v>
       </c>
       <c r="H9" s="3">
-        <v>92685700</v>
+        <v>93484500</v>
       </c>
       <c r="I9" s="3">
-        <v>96665400</v>
+        <v>84645000</v>
       </c>
       <c r="J9" s="3">
+        <v>88279400</v>
+      </c>
+      <c r="K9" s="3">
         <v>88121600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>87849500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>66767500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53513500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23294000</v>
+        <v>23251400</v>
       </c>
       <c r="E10" s="3">
-        <v>26266900</v>
+        <v>21273200</v>
       </c>
       <c r="F10" s="3">
-        <v>28214400</v>
+        <v>23988100</v>
       </c>
       <c r="G10" s="3">
-        <v>28665600</v>
+        <v>25766700</v>
       </c>
       <c r="H10" s="3">
-        <v>26727500</v>
+        <v>26178800</v>
       </c>
       <c r="I10" s="3">
-        <v>27882500</v>
+        <v>24408800</v>
       </c>
       <c r="J10" s="3">
+        <v>25463600</v>
+      </c>
+      <c r="K10" s="3">
         <v>25567100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26706300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23023000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18337300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6302800</v>
+        <v>6131200</v>
       </c>
       <c r="E12" s="3">
-        <v>6859200</v>
+        <v>5756000</v>
       </c>
       <c r="F12" s="3">
-        <v>6882900</v>
+        <v>6264100</v>
       </c>
       <c r="G12" s="3">
-        <v>6413300</v>
+        <v>6285800</v>
       </c>
       <c r="H12" s="3">
-        <v>5897900</v>
+        <v>5857000</v>
       </c>
       <c r="I12" s="3">
-        <v>5600000</v>
+        <v>5386200</v>
       </c>
       <c r="J12" s="3">
+        <v>5114200</v>
+      </c>
+      <c r="K12" s="3">
         <v>5170600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5481100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5092900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4699200</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,9 +964,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>106713000</v>
+        <v>106578600</v>
       </c>
       <c r="E17" s="3">
-        <v>121956600</v>
+        <v>97455300</v>
       </c>
       <c r="F17" s="3">
-        <v>129334000</v>
+        <v>111376500</v>
       </c>
       <c r="G17" s="3">
-        <v>123920300</v>
+        <v>118113900</v>
       </c>
       <c r="H17" s="3">
-        <v>112241900</v>
+        <v>113169900</v>
       </c>
       <c r="I17" s="3">
-        <v>120254000</v>
+        <v>102504600</v>
       </c>
       <c r="J17" s="3">
+        <v>109821700</v>
+      </c>
+      <c r="K17" s="3">
         <v>107968400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>107009200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>84838200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>69759200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5631600</v>
+        <v>6786900</v>
       </c>
       <c r="E18" s="3">
-        <v>5404900</v>
+        <v>5143000</v>
       </c>
       <c r="F18" s="3">
-        <v>6195900</v>
+        <v>4936000</v>
       </c>
       <c r="G18" s="3">
-        <v>7110200</v>
+        <v>5658400</v>
       </c>
       <c r="H18" s="3">
-        <v>7171300</v>
+        <v>6493400</v>
       </c>
       <c r="I18" s="3">
-        <v>4293800</v>
+        <v>6549100</v>
       </c>
       <c r="J18" s="3">
+        <v>3921300</v>
+      </c>
+      <c r="K18" s="3">
         <v>5720200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7546600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4952300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2091500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2283700</v>
+        <v>1681300</v>
       </c>
       <c r="E20" s="3">
-        <v>1543700</v>
+        <v>2085600</v>
       </c>
       <c r="F20" s="3">
-        <v>2270900</v>
+        <v>1409800</v>
       </c>
       <c r="G20" s="3">
-        <v>2511100</v>
+        <v>2073900</v>
       </c>
       <c r="H20" s="3">
-        <v>1524700</v>
+        <v>2293300</v>
       </c>
       <c r="I20" s="3">
-        <v>1281400</v>
+        <v>1392400</v>
       </c>
       <c r="J20" s="3">
+        <v>1170200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1312200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1125200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-397800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>329200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>13302400</v>
+        <v>13268600</v>
       </c>
       <c r="E21" s="3">
-        <v>12988500</v>
+        <v>12610600</v>
       </c>
       <c r="F21" s="3">
-        <v>14695000</v>
+        <v>11895600</v>
       </c>
       <c r="G21" s="3">
-        <v>15775300</v>
+        <v>13216000</v>
       </c>
       <c r="H21" s="3">
-        <v>14515400</v>
+        <v>13972300</v>
       </c>
       <c r="I21" s="3">
-        <v>11277100</v>
+        <v>13022500</v>
       </c>
       <c r="J21" s="3">
+        <v>9899500</v>
+      </c>
+      <c r="K21" s="3">
         <v>12428100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14082600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9933700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7442300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>118400</v>
+        <v>131400</v>
       </c>
       <c r="E22" s="3">
-        <v>210600</v>
+        <v>108100</v>
       </c>
       <c r="F22" s="3">
-        <v>112700</v>
+        <v>192300</v>
       </c>
       <c r="G22" s="3">
-        <v>110600</v>
+        <v>103000</v>
       </c>
       <c r="H22" s="3">
-        <v>106400</v>
+        <v>101000</v>
       </c>
       <c r="I22" s="3">
-        <v>154800</v>
+        <v>97100</v>
       </c>
       <c r="J22" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K22" s="3">
         <v>155200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>117300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>110500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>93800</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7796900</v>
+        <v>8336800</v>
       </c>
       <c r="E23" s="3">
-        <v>6738000</v>
+        <v>7120500</v>
       </c>
       <c r="F23" s="3">
-        <v>8354100</v>
+        <v>6153500</v>
       </c>
       <c r="G23" s="3">
-        <v>9510700</v>
+        <v>7629300</v>
       </c>
       <c r="H23" s="3">
-        <v>8589600</v>
+        <v>8685600</v>
       </c>
       <c r="I23" s="3">
-        <v>5420400</v>
+        <v>7844400</v>
       </c>
       <c r="J23" s="3">
+        <v>4950200</v>
+      </c>
+      <c r="K23" s="3">
         <v>6877200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8554600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4444000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2326900</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1864700</v>
+        <v>2410900</v>
       </c>
       <c r="E24" s="3">
-        <v>2388300</v>
+        <v>1703000</v>
       </c>
       <c r="F24" s="3">
-        <v>2585300</v>
+        <v>2181100</v>
       </c>
       <c r="G24" s="3">
-        <v>-116600</v>
+        <v>2361100</v>
       </c>
       <c r="H24" s="3">
-        <v>2794400</v>
+        <v>-106500</v>
       </c>
       <c r="I24" s="3">
-        <v>1954200</v>
+        <v>2551900</v>
       </c>
       <c r="J24" s="3">
+        <v>1784600</v>
+      </c>
+      <c r="K24" s="3">
         <v>2091000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2454800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1626900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1227000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5932100</v>
+        <v>5925900</v>
       </c>
       <c r="E26" s="3">
-        <v>4349700</v>
+        <v>5417500</v>
       </c>
       <c r="F26" s="3">
-        <v>5768700</v>
+        <v>3972400</v>
       </c>
       <c r="G26" s="3">
-        <v>9627300</v>
+        <v>5268300</v>
       </c>
       <c r="H26" s="3">
-        <v>5795200</v>
+        <v>8792100</v>
       </c>
       <c r="I26" s="3">
-        <v>3466200</v>
+        <v>5292500</v>
       </c>
       <c r="J26" s="3">
+        <v>3165500</v>
+      </c>
+      <c r="K26" s="3">
         <v>4786200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6099700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2817100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1099900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5607800</v>
+        <v>5508100</v>
       </c>
       <c r="E27" s="3">
-        <v>3887500</v>
+        <v>5121300</v>
       </c>
       <c r="F27" s="3">
-        <v>5206000</v>
+        <v>3550300</v>
       </c>
       <c r="G27" s="3">
-        <v>9036100</v>
+        <v>4754400</v>
       </c>
       <c r="H27" s="3">
-        <v>5259300</v>
+        <v>8252200</v>
       </c>
       <c r="I27" s="3">
-        <v>2938800</v>
+        <v>4803100</v>
       </c>
       <c r="J27" s="3">
+        <v>2683900</v>
+      </c>
+      <c r="K27" s="3">
         <v>4345500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6935700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3337400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1911800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2283700</v>
+        <v>-1681300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1543700</v>
+        <v>-2085600</v>
       </c>
       <c r="F32" s="3">
-        <v>-2270900</v>
+        <v>-1409800</v>
       </c>
       <c r="G32" s="3">
-        <v>-2511100</v>
+        <v>-2073900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1524700</v>
+        <v>-2293300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1281400</v>
+        <v>-1392400</v>
       </c>
       <c r="J32" s="3">
+        <v>-1170200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1312200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1125200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>397800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-329200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5607800</v>
+        <v>5508100</v>
       </c>
       <c r="E33" s="3">
-        <v>3887500</v>
+        <v>5121300</v>
       </c>
       <c r="F33" s="3">
-        <v>5206000</v>
+        <v>3550300</v>
       </c>
       <c r="G33" s="3">
-        <v>9036100</v>
+        <v>4754400</v>
       </c>
       <c r="H33" s="3">
-        <v>5259300</v>
+        <v>8252200</v>
       </c>
       <c r="I33" s="3">
-        <v>2938800</v>
+        <v>4803100</v>
       </c>
       <c r="J33" s="3">
+        <v>2683900</v>
+      </c>
+      <c r="K33" s="3">
         <v>4345500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6935700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3337400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1911800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5607800</v>
+        <v>5508100</v>
       </c>
       <c r="E35" s="3">
-        <v>3887500</v>
+        <v>5121300</v>
       </c>
       <c r="F35" s="3">
-        <v>5206000</v>
+        <v>3550300</v>
       </c>
       <c r="G35" s="3">
-        <v>9036100</v>
+        <v>4754400</v>
       </c>
       <c r="H35" s="3">
-        <v>5259300</v>
+        <v>8252200</v>
       </c>
       <c r="I35" s="3">
-        <v>2938800</v>
+        <v>4803100</v>
       </c>
       <c r="J35" s="3">
+        <v>2683900</v>
+      </c>
+      <c r="K35" s="3">
         <v>4345500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6935700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3337400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1911800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>23525900</v>
+        <v>28627700</v>
       </c>
       <c r="E41" s="3">
-        <v>22795200</v>
+        <v>21485000</v>
       </c>
       <c r="F41" s="3">
-        <v>21274900</v>
+        <v>20817600</v>
       </c>
       <c r="G41" s="3">
-        <v>19247800</v>
+        <v>19429200</v>
       </c>
       <c r="H41" s="3">
-        <v>17964000</v>
+        <v>17578000</v>
       </c>
       <c r="I41" s="3">
-        <v>14991100</v>
+        <v>16405600</v>
       </c>
       <c r="J41" s="3">
+        <v>13690600</v>
+      </c>
+      <c r="K41" s="3">
         <v>12553900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10933200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10963700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22547800</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2519000</v>
+        <v>1696200</v>
       </c>
       <c r="E42" s="3">
-        <v>1621200</v>
+        <v>2300400</v>
       </c>
       <c r="F42" s="3">
-        <v>1392700</v>
+        <v>1480500</v>
       </c>
       <c r="G42" s="3">
-        <v>1818400</v>
+        <v>1271900</v>
       </c>
       <c r="H42" s="3">
-        <v>1274600</v>
+        <v>1660600</v>
       </c>
       <c r="I42" s="3">
-        <v>878900</v>
+        <v>1164000</v>
       </c>
       <c r="J42" s="3">
+        <v>802600</v>
+      </c>
+      <c r="K42" s="3">
         <v>790800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>934500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3803700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3377000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>22147900</v>
+        <v>20183000</v>
       </c>
       <c r="E43" s="3">
-        <v>21429600</v>
+        <v>20226500</v>
       </c>
       <c r="F43" s="3">
-        <v>23413800</v>
+        <v>19570600</v>
       </c>
       <c r="G43" s="3">
-        <v>22529100</v>
+        <v>21382600</v>
       </c>
       <c r="H43" s="3">
-        <v>22544500</v>
+        <v>20574700</v>
       </c>
       <c r="I43" s="3">
-        <v>23480800</v>
+        <v>20588700</v>
       </c>
       <c r="J43" s="3">
+        <v>21443800</v>
+      </c>
+      <c r="K43" s="3">
         <v>24904500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48501300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20443300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34241300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>13184000</v>
+        <v>14945500</v>
       </c>
       <c r="E44" s="3">
-        <v>13311600</v>
+        <v>12040200</v>
       </c>
       <c r="F44" s="3">
-        <v>13535300</v>
+        <v>12156800</v>
       </c>
       <c r="G44" s="3">
-        <v>12995100</v>
+        <v>12361100</v>
       </c>
       <c r="H44" s="3">
-        <v>11636000</v>
+        <v>11867700</v>
       </c>
       <c r="I44" s="3">
-        <v>11202400</v>
+        <v>10626600</v>
       </c>
       <c r="J44" s="3">
+        <v>10230500</v>
+      </c>
+      <c r="K44" s="3">
         <v>12780600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16569000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11048200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18726900</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3272900</v>
+        <v>3422300</v>
       </c>
       <c r="E45" s="3">
-        <v>3120000</v>
+        <v>2989000</v>
       </c>
       <c r="F45" s="3">
-        <v>3055700</v>
+        <v>2849300</v>
       </c>
       <c r="G45" s="3">
-        <v>2482300</v>
+        <v>2790600</v>
       </c>
       <c r="H45" s="3">
-        <v>2499000</v>
+        <v>2266900</v>
       </c>
       <c r="I45" s="3">
-        <v>2687900</v>
+        <v>2282200</v>
       </c>
       <c r="J45" s="3">
+        <v>2454700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2676400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4111800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2127700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6789700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>64649600</v>
+        <v>68874700</v>
       </c>
       <c r="E46" s="3">
-        <v>62277600</v>
+        <v>59041100</v>
       </c>
       <c r="F46" s="3">
-        <v>62672400</v>
+        <v>56874900</v>
       </c>
       <c r="G46" s="3">
-        <v>59072700</v>
+        <v>57235400</v>
       </c>
       <c r="H46" s="3">
-        <v>55918100</v>
+        <v>53948000</v>
       </c>
       <c r="I46" s="3">
-        <v>53241100</v>
+        <v>51067100</v>
       </c>
       <c r="J46" s="3">
+        <v>48622300</v>
+      </c>
+      <c r="K46" s="3">
         <v>53706100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>50830300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>48386600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42841300</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>43839300</v>
+        <v>43058800</v>
       </c>
       <c r="E47" s="3">
-        <v>37361500</v>
+        <v>40036200</v>
       </c>
       <c r="F47" s="3">
-        <v>39099900</v>
+        <v>34120200</v>
       </c>
       <c r="G47" s="3">
-        <v>36111200</v>
+        <v>35707800</v>
       </c>
       <c r="H47" s="3">
-        <v>34397100</v>
+        <v>32978500</v>
       </c>
       <c r="I47" s="3">
-        <v>34207500</v>
+        <v>31413100</v>
       </c>
       <c r="J47" s="3">
+        <v>31239900</v>
+      </c>
+      <c r="K47" s="3">
         <v>38813300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>74633600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29517500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50608400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>67740400</v>
+        <v>64178200</v>
       </c>
       <c r="E48" s="3">
-        <v>65491400</v>
+        <v>61863700</v>
       </c>
       <c r="F48" s="3">
-        <v>63383800</v>
+        <v>59809800</v>
       </c>
       <c r="G48" s="3">
-        <v>60994300</v>
+        <v>57885100</v>
       </c>
       <c r="H48" s="3">
-        <v>62312000</v>
+        <v>55702900</v>
       </c>
       <c r="I48" s="3">
-        <v>58154800</v>
+        <v>56906300</v>
       </c>
       <c r="J48" s="3">
+        <v>53109700</v>
+      </c>
+      <c r="K48" s="3">
         <v>55657200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>94385600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38565800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>65025200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6984000</v>
+        <v>6617700</v>
       </c>
       <c r="E49" s="3">
-        <v>6486500</v>
+        <v>6378200</v>
       </c>
       <c r="F49" s="3">
-        <v>6349500</v>
+        <v>5923800</v>
       </c>
       <c r="G49" s="3">
-        <v>6325100</v>
+        <v>5798600</v>
       </c>
       <c r="H49" s="3">
-        <v>6638000</v>
+        <v>5776400</v>
       </c>
       <c r="I49" s="3">
-        <v>7036700</v>
+        <v>6062100</v>
       </c>
       <c r="J49" s="3">
+        <v>6426300</v>
+      </c>
+      <c r="K49" s="3">
         <v>6478800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6135200</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3772900</v>
+        <v>4021500</v>
       </c>
       <c r="E52" s="3">
-        <v>2919400</v>
+        <v>3445600</v>
       </c>
       <c r="F52" s="3">
-        <v>2669600</v>
+        <v>2666100</v>
       </c>
       <c r="G52" s="3">
-        <v>2545000</v>
+        <v>2438000</v>
       </c>
       <c r="H52" s="3">
-        <v>2447500</v>
+        <v>2324200</v>
       </c>
       <c r="I52" s="3">
-        <v>2855800</v>
+        <v>2235200</v>
       </c>
       <c r="J52" s="3">
+        <v>2608100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2517000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11252000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7475600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8759700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>186986000</v>
+        <v>186751000</v>
       </c>
       <c r="E54" s="3">
-        <v>174536000</v>
+        <v>170765000</v>
       </c>
       <c r="F54" s="3">
-        <v>174175000</v>
+        <v>159395000</v>
       </c>
       <c r="G54" s="3">
-        <v>165048000</v>
+        <v>159065000</v>
       </c>
       <c r="H54" s="3">
-        <v>161713000</v>
+        <v>150730000</v>
       </c>
       <c r="I54" s="3">
-        <v>155496000</v>
+        <v>147684000</v>
       </c>
       <c r="J54" s="3">
+        <v>142006000</v>
+      </c>
+      <c r="K54" s="3">
         <v>157172000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>147004000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>123945000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>106560000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8050900</v>
+        <v>9630300</v>
       </c>
       <c r="E57" s="3">
-        <v>7200900</v>
+        <v>7352500</v>
       </c>
       <c r="F57" s="3">
-        <v>9008200</v>
+        <v>6576200</v>
       </c>
       <c r="G57" s="3">
-        <v>9174400</v>
+        <v>8226700</v>
       </c>
       <c r="H57" s="3">
-        <v>8643500</v>
+        <v>8378500</v>
       </c>
       <c r="I57" s="3">
-        <v>8202500</v>
+        <v>7893700</v>
       </c>
       <c r="J57" s="3">
+        <v>7490900</v>
+      </c>
+      <c r="K57" s="3">
         <v>8526500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18367000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8981000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17518500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25638000</v>
+        <v>24291600</v>
       </c>
       <c r="E58" s="3">
-        <v>27709300</v>
+        <v>23413800</v>
       </c>
       <c r="F58" s="3">
-        <v>27200300</v>
+        <v>25305500</v>
       </c>
       <c r="G58" s="3">
-        <v>24884200</v>
+        <v>24840600</v>
       </c>
       <c r="H58" s="3">
-        <v>23772500</v>
+        <v>22725500</v>
       </c>
       <c r="I58" s="3">
-        <v>23795500</v>
+        <v>21710200</v>
       </c>
       <c r="J58" s="3">
+        <v>21731100</v>
+      </c>
+      <c r="K58" s="3">
         <v>24170300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48046400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19846600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33922500</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15064000</v>
+        <v>12852400</v>
       </c>
       <c r="E59" s="3">
-        <v>14479200</v>
+        <v>13757100</v>
       </c>
       <c r="F59" s="3">
-        <v>14810400</v>
+        <v>13223100</v>
       </c>
       <c r="G59" s="3">
-        <v>13914900</v>
+        <v>13525600</v>
       </c>
       <c r="H59" s="3">
-        <v>13892000</v>
+        <v>12707800</v>
       </c>
       <c r="I59" s="3">
-        <v>14664100</v>
+        <v>12686800</v>
       </c>
       <c r="J59" s="3">
+        <v>13392000</v>
+      </c>
+      <c r="K59" s="3">
         <v>12521200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11605700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8341400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13281100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48752800</v>
+        <v>46774300</v>
       </c>
       <c r="E60" s="3">
-        <v>49389500</v>
+        <v>44523400</v>
       </c>
       <c r="F60" s="3">
-        <v>51019000</v>
+        <v>45104800</v>
       </c>
       <c r="G60" s="3">
-        <v>47973600</v>
+        <v>46593000</v>
       </c>
       <c r="H60" s="3">
-        <v>46308000</v>
+        <v>43811700</v>
       </c>
       <c r="I60" s="3">
-        <v>46662100</v>
+        <v>42290700</v>
       </c>
       <c r="J60" s="3">
+        <v>42614000</v>
+      </c>
+      <c r="K60" s="3">
         <v>45218000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43526500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>37169000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32361000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40222000</v>
+        <v>38827300</v>
       </c>
       <c r="E61" s="3">
-        <v>36007100</v>
+        <v>36732700</v>
       </c>
       <c r="F61" s="3">
-        <v>35334100</v>
+        <v>32883400</v>
       </c>
       <c r="G61" s="3">
-        <v>33111300</v>
+        <v>32268800</v>
       </c>
       <c r="H61" s="3">
-        <v>34309300</v>
+        <v>30238800</v>
       </c>
       <c r="I61" s="3">
-        <v>31873400</v>
+        <v>31332900</v>
       </c>
       <c r="J61" s="3">
+        <v>29108300</v>
+      </c>
+      <c r="K61" s="3">
         <v>33491100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30205100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24641600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20204400</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18061200</v>
+        <v>17231100</v>
       </c>
       <c r="E62" s="3">
-        <v>18460000</v>
+        <v>16494300</v>
       </c>
       <c r="F62" s="3">
-        <v>14755800</v>
+        <v>16858500</v>
       </c>
       <c r="G62" s="3">
-        <v>13726700</v>
+        <v>13475700</v>
       </c>
       <c r="H62" s="3">
-        <v>16526600</v>
+        <v>12535800</v>
       </c>
       <c r="I62" s="3">
-        <v>16979200</v>
+        <v>15092900</v>
       </c>
       <c r="J62" s="3">
+        <v>15506200</v>
+      </c>
+      <c r="K62" s="3">
         <v>15487800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27511500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14817500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26149500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>109514000</v>
+        <v>105168000</v>
       </c>
       <c r="E66" s="3">
-        <v>106192000</v>
+        <v>100014000</v>
       </c>
       <c r="F66" s="3">
-        <v>103652000</v>
+        <v>96979300</v>
       </c>
       <c r="G66" s="3">
-        <v>97375300</v>
+        <v>94659400</v>
       </c>
       <c r="H66" s="3">
-        <v>99483900</v>
+        <v>88927700</v>
       </c>
       <c r="I66" s="3">
-        <v>97820900</v>
+        <v>90853400</v>
       </c>
       <c r="J66" s="3">
+        <v>89334600</v>
+      </c>
+      <c r="K66" s="3">
         <v>96535800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88970200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78100000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66854200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>75927800</v>
+        <v>74309800</v>
       </c>
       <c r="E72" s="3">
-        <v>69459300</v>
+        <v>69340900</v>
       </c>
       <c r="F72" s="3">
-        <v>68015100</v>
+        <v>63433600</v>
       </c>
       <c r="G72" s="3">
-        <v>64924700</v>
+        <v>62114600</v>
       </c>
       <c r="H72" s="3">
-        <v>57261000</v>
+        <v>59292300</v>
       </c>
       <c r="I72" s="3">
-        <v>52837500</v>
+        <v>52293400</v>
       </c>
       <c r="J72" s="3">
+        <v>48253700</v>
+      </c>
+      <c r="K72" s="3">
         <v>51892900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>112779000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54987500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>104637000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77472100</v>
+        <v>81583300</v>
       </c>
       <c r="E76" s="3">
-        <v>68344600</v>
+        <v>70751200</v>
       </c>
       <c r="F76" s="3">
-        <v>70523700</v>
+        <v>62415500</v>
       </c>
       <c r="G76" s="3">
-        <v>67673100</v>
+        <v>64405500</v>
       </c>
       <c r="H76" s="3">
-        <v>62228900</v>
+        <v>61802300</v>
       </c>
       <c r="I76" s="3">
-        <v>57675000</v>
+        <v>56830400</v>
       </c>
       <c r="J76" s="3">
+        <v>52671600</v>
+      </c>
+      <c r="K76" s="3">
         <v>60636600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58033500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>45845400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39705700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5607800</v>
+        <v>5508100</v>
       </c>
       <c r="E81" s="3">
-        <v>3887500</v>
+        <v>5121300</v>
       </c>
       <c r="F81" s="3">
-        <v>5206000</v>
+        <v>3550300</v>
       </c>
       <c r="G81" s="3">
-        <v>9036100</v>
+        <v>4754400</v>
       </c>
       <c r="H81" s="3">
-        <v>5259300</v>
+        <v>8252200</v>
       </c>
       <c r="I81" s="3">
-        <v>2938800</v>
+        <v>4803100</v>
       </c>
       <c r="J81" s="3">
+        <v>2683900</v>
+      </c>
+      <c r="K81" s="3">
         <v>4345500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6935700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3337400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1911800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5324800</v>
+        <v>4760200</v>
       </c>
       <c r="E83" s="3">
-        <v>5970000</v>
+        <v>4862800</v>
       </c>
       <c r="F83" s="3">
-        <v>6156100</v>
+        <v>5452000</v>
       </c>
       <c r="G83" s="3">
-        <v>6082700</v>
+        <v>5622000</v>
       </c>
       <c r="H83" s="3">
-        <v>5752000</v>
+        <v>5555000</v>
       </c>
       <c r="I83" s="3">
-        <v>5635900</v>
+        <v>5253000</v>
       </c>
       <c r="J83" s="3">
+        <v>5147000</v>
+      </c>
+      <c r="K83" s="3">
         <v>5333200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5387300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5367400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5016000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9147400</v>
+        <v>13084300</v>
       </c>
       <c r="E89" s="3">
-        <v>8354400</v>
+        <v>8353800</v>
       </c>
       <c r="F89" s="3">
-        <v>6619200</v>
+        <v>7629600</v>
       </c>
       <c r="G89" s="3">
-        <v>8424800</v>
+        <v>6044900</v>
       </c>
       <c r="H89" s="3">
-        <v>7549700</v>
+        <v>7694000</v>
       </c>
       <c r="I89" s="3">
-        <v>11865200</v>
+        <v>6894700</v>
       </c>
       <c r="J89" s="3">
+        <v>10835900</v>
+      </c>
+      <c r="K89" s="3">
         <v>8704000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4113800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7278800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6884300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2716000</v>
+        <v>-2088800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3157800</v>
+        <v>-2480400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3589200</v>
+        <v>-2883800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3544800</v>
+        <v>-3277800</v>
       </c>
       <c r="H91" s="3">
-        <v>-4214900</v>
+        <v>-3237200</v>
       </c>
       <c r="I91" s="3">
-        <v>-5418100</v>
+        <v>-3849300</v>
       </c>
       <c r="J91" s="3">
+        <v>-4948000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5529200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24001700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12907800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9772100</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6797400</v>
+        <v>-2929500</v>
       </c>
       <c r="E94" s="3">
-        <v>-5284200</v>
+        <v>-6207700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4926500</v>
+        <v>-4825800</v>
       </c>
       <c r="G94" s="3">
-        <v>-5246900</v>
+        <v>-4499200</v>
       </c>
       <c r="H94" s="3">
-        <v>-5549800</v>
+        <v>-4791700</v>
       </c>
       <c r="I94" s="3">
-        <v>-7464400</v>
+        <v>-5068300</v>
       </c>
       <c r="J94" s="3">
+        <v>-6816800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7169400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8436600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9724100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1237600</v>
+        <v>-1467700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1678700</v>
+        <v>-1130300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1657100</v>
+        <v>-1533000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1486100</v>
+        <v>-1513400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1383600</v>
+        <v>-1357200</v>
       </c>
       <c r="I96" s="3">
+        <v>-1263600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1235500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1352900</v>
       </c>
-      <c r="J96" s="3">
-        <v>-1352900</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1304200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1179600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-977600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2422300</v>
+        <v>-4796400</v>
       </c>
       <c r="E100" s="3">
-        <v>-745600</v>
+        <v>-2212200</v>
       </c>
       <c r="F100" s="3">
-        <v>195500</v>
+        <v>-680900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1487100</v>
+        <v>178600</v>
       </c>
       <c r="H100" s="3">
-        <v>984600</v>
+        <v>-1358100</v>
       </c>
       <c r="I100" s="3">
-        <v>-812900</v>
+        <v>899100</v>
       </c>
       <c r="J100" s="3">
+        <v>-742400</v>
+      </c>
+      <c r="K100" s="3">
         <v>106500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3256000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1086900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-616800</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>803100</v>
+        <v>1784400</v>
       </c>
       <c r="E101" s="3">
-        <v>-804300</v>
+        <v>733400</v>
       </c>
       <c r="F101" s="3">
-        <v>138800</v>
+        <v>-734500</v>
       </c>
       <c r="G101" s="3">
-        <v>-407000</v>
+        <v>126800</v>
       </c>
       <c r="H101" s="3">
-        <v>-11600</v>
+        <v>-371700</v>
       </c>
       <c r="I101" s="3">
-        <v>-1150600</v>
+        <v>-10600</v>
       </c>
       <c r="J101" s="3">
+        <v>-1050800</v>
+      </c>
+      <c r="K101" s="3">
         <v>731400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>361200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>985900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-471400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>730700</v>
+        <v>7142700</v>
       </c>
       <c r="E102" s="3">
-        <v>1520300</v>
+        <v>667300</v>
       </c>
       <c r="F102" s="3">
-        <v>2027000</v>
+        <v>1388400</v>
       </c>
       <c r="G102" s="3">
-        <v>1283900</v>
+        <v>1851200</v>
       </c>
       <c r="H102" s="3">
-        <v>2972900</v>
+        <v>1172500</v>
       </c>
       <c r="I102" s="3">
-        <v>2437200</v>
+        <v>2715000</v>
       </c>
       <c r="J102" s="3">
+        <v>2225800</v>
+      </c>
+      <c r="K102" s="3">
         <v>2372600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-705600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-372600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-288500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>113365500</v>
+        <v>106671300</v>
       </c>
       <c r="E8" s="3">
-        <v>102598300</v>
+        <v>96539900</v>
       </c>
       <c r="F8" s="3">
-        <v>116312600</v>
+        <v>109444300</v>
       </c>
       <c r="G8" s="3">
-        <v>123772300</v>
+        <v>116463600</v>
       </c>
       <c r="H8" s="3">
-        <v>119663300</v>
+        <v>112597200</v>
       </c>
       <c r="I8" s="3">
-        <v>109053800</v>
+        <v>102614100</v>
       </c>
       <c r="J8" s="3">
-        <v>113743000</v>
+        <v>107026400</v>
       </c>
       <c r="K8" s="3">
         <v>113688700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>90114100</v>
+        <v>84792900</v>
       </c>
       <c r="E9" s="3">
-        <v>81325200</v>
+        <v>76522900</v>
       </c>
       <c r="F9" s="3">
-        <v>92324400</v>
+        <v>86872700</v>
       </c>
       <c r="G9" s="3">
-        <v>98005600</v>
+        <v>92218400</v>
       </c>
       <c r="H9" s="3">
-        <v>93484500</v>
+        <v>87964300</v>
       </c>
       <c r="I9" s="3">
-        <v>84645000</v>
+        <v>79646700</v>
       </c>
       <c r="J9" s="3">
-        <v>88279400</v>
+        <v>83066500</v>
       </c>
       <c r="K9" s="3">
         <v>88121600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23251400</v>
+        <v>21878400</v>
       </c>
       <c r="E10" s="3">
-        <v>21273200</v>
+        <v>20017000</v>
       </c>
       <c r="F10" s="3">
-        <v>23988100</v>
+        <v>22571600</v>
       </c>
       <c r="G10" s="3">
-        <v>25766700</v>
+        <v>24245200</v>
       </c>
       <c r="H10" s="3">
-        <v>26178800</v>
+        <v>24632900</v>
       </c>
       <c r="I10" s="3">
-        <v>24408800</v>
+        <v>22967500</v>
       </c>
       <c r="J10" s="3">
-        <v>25463600</v>
+        <v>23960000</v>
       </c>
       <c r="K10" s="3">
         <v>25567100</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6131200</v>
+        <v>5769100</v>
       </c>
       <c r="E12" s="3">
-        <v>5756000</v>
+        <v>5416100</v>
       </c>
       <c r="F12" s="3">
-        <v>6264100</v>
+        <v>5894200</v>
       </c>
       <c r="G12" s="3">
-        <v>6285800</v>
+        <v>5914600</v>
       </c>
       <c r="H12" s="3">
-        <v>5857000</v>
+        <v>5511100</v>
       </c>
       <c r="I12" s="3">
-        <v>5386200</v>
+        <v>5068200</v>
       </c>
       <c r="J12" s="3">
-        <v>5114200</v>
+        <v>4812200</v>
       </c>
       <c r="K12" s="3">
         <v>5170600</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>106578600</v>
+        <v>100285100</v>
       </c>
       <c r="E17" s="3">
-        <v>97455300</v>
+        <v>91700600</v>
       </c>
       <c r="F17" s="3">
-        <v>111376500</v>
+        <v>104799700</v>
       </c>
       <c r="G17" s="3">
-        <v>118113900</v>
+        <v>111139300</v>
       </c>
       <c r="H17" s="3">
-        <v>113169900</v>
+        <v>106487200</v>
       </c>
       <c r="I17" s="3">
-        <v>102504600</v>
+        <v>96451700</v>
       </c>
       <c r="J17" s="3">
-        <v>109821700</v>
+        <v>103336700</v>
       </c>
       <c r="K17" s="3">
         <v>107968400</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6786900</v>
+        <v>6386100</v>
       </c>
       <c r="E18" s="3">
-        <v>5143000</v>
+        <v>4839300</v>
       </c>
       <c r="F18" s="3">
-        <v>4936000</v>
+        <v>4644600</v>
       </c>
       <c r="G18" s="3">
-        <v>5658400</v>
+        <v>5324300</v>
       </c>
       <c r="H18" s="3">
-        <v>6493400</v>
+        <v>6110000</v>
       </c>
       <c r="I18" s="3">
-        <v>6549100</v>
+        <v>6162400</v>
       </c>
       <c r="J18" s="3">
-        <v>3921300</v>
+        <v>3689700</v>
       </c>
       <c r="K18" s="3">
         <v>5720200</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1681300</v>
+        <v>1582000</v>
       </c>
       <c r="E20" s="3">
-        <v>2085600</v>
+        <v>1962400</v>
       </c>
       <c r="F20" s="3">
-        <v>1409800</v>
+        <v>1326500</v>
       </c>
       <c r="G20" s="3">
-        <v>2073900</v>
+        <v>1951400</v>
       </c>
       <c r="H20" s="3">
-        <v>2293300</v>
+        <v>2157800</v>
       </c>
       <c r="I20" s="3">
-        <v>1392400</v>
+        <v>1310200</v>
       </c>
       <c r="J20" s="3">
-        <v>1170200</v>
+        <v>1101100</v>
       </c>
       <c r="K20" s="3">
         <v>1312200</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>13268600</v>
+        <v>12422800</v>
       </c>
       <c r="E21" s="3">
-        <v>12610600</v>
+        <v>11352400</v>
       </c>
       <c r="F21" s="3">
-        <v>11895600</v>
+        <v>11073200</v>
       </c>
       <c r="G21" s="3">
-        <v>13216000</v>
+        <v>12536900</v>
       </c>
       <c r="H21" s="3">
-        <v>13972300</v>
+        <v>13466300</v>
       </c>
       <c r="I21" s="3">
-        <v>13022500</v>
+        <v>12388500</v>
       </c>
       <c r="J21" s="3">
-        <v>9899500</v>
+        <v>9607500</v>
       </c>
       <c r="K21" s="3">
         <v>12428100</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>131400</v>
+        <v>123600</v>
       </c>
       <c r="E22" s="3">
-        <v>108100</v>
+        <v>101700</v>
       </c>
       <c r="F22" s="3">
-        <v>192300</v>
+        <v>181000</v>
       </c>
       <c r="G22" s="3">
-        <v>103000</v>
+        <v>96900</v>
       </c>
       <c r="H22" s="3">
-        <v>101000</v>
+        <v>95100</v>
       </c>
       <c r="I22" s="3">
-        <v>97100</v>
+        <v>91400</v>
       </c>
       <c r="J22" s="3">
-        <v>141400</v>
+        <v>133000</v>
       </c>
       <c r="K22" s="3">
         <v>155200</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>8336800</v>
+        <v>7844500</v>
       </c>
       <c r="E23" s="3">
-        <v>7120500</v>
+        <v>6700000</v>
       </c>
       <c r="F23" s="3">
-        <v>6153500</v>
+        <v>5790100</v>
       </c>
       <c r="G23" s="3">
-        <v>7629300</v>
+        <v>7178800</v>
       </c>
       <c r="H23" s="3">
-        <v>8685600</v>
+        <v>8172800</v>
       </c>
       <c r="I23" s="3">
-        <v>7844400</v>
+        <v>7381200</v>
       </c>
       <c r="J23" s="3">
-        <v>4950200</v>
+        <v>4657800</v>
       </c>
       <c r="K23" s="3">
         <v>6877200</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2410900</v>
+        <v>2268600</v>
       </c>
       <c r="E24" s="3">
-        <v>1703000</v>
+        <v>1602400</v>
       </c>
       <c r="F24" s="3">
-        <v>2181100</v>
+        <v>2052300</v>
       </c>
       <c r="G24" s="3">
-        <v>2361100</v>
+        <v>2221600</v>
       </c>
       <c r="H24" s="3">
-        <v>-106500</v>
+        <v>-100200</v>
       </c>
       <c r="I24" s="3">
-        <v>2551900</v>
+        <v>2401200</v>
       </c>
       <c r="J24" s="3">
-        <v>1784600</v>
+        <v>1679200</v>
       </c>
       <c r="K24" s="3">
         <v>2091000</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5925900</v>
+        <v>5575900</v>
       </c>
       <c r="E26" s="3">
-        <v>5417500</v>
+        <v>5097600</v>
       </c>
       <c r="F26" s="3">
-        <v>3972400</v>
+        <v>3737800</v>
       </c>
       <c r="G26" s="3">
-        <v>5268300</v>
+        <v>4957200</v>
       </c>
       <c r="H26" s="3">
-        <v>8792100</v>
+        <v>8272900</v>
       </c>
       <c r="I26" s="3">
-        <v>5292500</v>
+        <v>4980000</v>
       </c>
       <c r="J26" s="3">
-        <v>3165500</v>
+        <v>2978600</v>
       </c>
       <c r="K26" s="3">
         <v>4786200</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5508100</v>
+        <v>5182800</v>
       </c>
       <c r="E27" s="3">
-        <v>5121300</v>
+        <v>4818900</v>
       </c>
       <c r="F27" s="3">
-        <v>3550300</v>
+        <v>3340600</v>
       </c>
       <c r="G27" s="3">
-        <v>4754400</v>
+        <v>4473600</v>
       </c>
       <c r="H27" s="3">
-        <v>8252200</v>
+        <v>7764900</v>
       </c>
       <c r="I27" s="3">
-        <v>4803100</v>
+        <v>4519500</v>
       </c>
       <c r="J27" s="3">
-        <v>2683900</v>
+        <v>2525400</v>
       </c>
       <c r="K27" s="3">
         <v>4345500</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1681300</v>
+        <v>-1582000</v>
       </c>
       <c r="E32" s="3">
-        <v>-2085600</v>
+        <v>-1962400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1409800</v>
+        <v>-1326500</v>
       </c>
       <c r="G32" s="3">
-        <v>-2073900</v>
+        <v>-1951400</v>
       </c>
       <c r="H32" s="3">
-        <v>-2293300</v>
+        <v>-2157800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1392400</v>
+        <v>-1310200</v>
       </c>
       <c r="J32" s="3">
-        <v>-1170200</v>
+        <v>-1101100</v>
       </c>
       <c r="K32" s="3">
         <v>-1312200</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5508100</v>
+        <v>5182800</v>
       </c>
       <c r="E33" s="3">
-        <v>5121300</v>
+        <v>4818900</v>
       </c>
       <c r="F33" s="3">
-        <v>3550300</v>
+        <v>3340600</v>
       </c>
       <c r="G33" s="3">
-        <v>4754400</v>
+        <v>4473600</v>
       </c>
       <c r="H33" s="3">
-        <v>8252200</v>
+        <v>7764900</v>
       </c>
       <c r="I33" s="3">
-        <v>4803100</v>
+        <v>4519500</v>
       </c>
       <c r="J33" s="3">
-        <v>2683900</v>
+        <v>2525400</v>
       </c>
       <c r="K33" s="3">
         <v>4345500</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5508100</v>
+        <v>5182800</v>
       </c>
       <c r="E35" s="3">
-        <v>5121300</v>
+        <v>4818900</v>
       </c>
       <c r="F35" s="3">
-        <v>3550300</v>
+        <v>3340600</v>
       </c>
       <c r="G35" s="3">
-        <v>4754400</v>
+        <v>4473600</v>
       </c>
       <c r="H35" s="3">
-        <v>8252200</v>
+        <v>7764900</v>
       </c>
       <c r="I35" s="3">
-        <v>4803100</v>
+        <v>4519500</v>
       </c>
       <c r="J35" s="3">
-        <v>2683900</v>
+        <v>2525400</v>
       </c>
       <c r="K35" s="3">
         <v>4345500</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>28627700</v>
+        <v>26937200</v>
       </c>
       <c r="E41" s="3">
-        <v>21485000</v>
+        <v>20216300</v>
       </c>
       <c r="F41" s="3">
-        <v>20817600</v>
+        <v>19588300</v>
       </c>
       <c r="G41" s="3">
-        <v>19429200</v>
+        <v>18281900</v>
       </c>
       <c r="H41" s="3">
-        <v>17578000</v>
+        <v>16540100</v>
       </c>
       <c r="I41" s="3">
-        <v>16405600</v>
+        <v>15436800</v>
       </c>
       <c r="J41" s="3">
-        <v>13690600</v>
+        <v>12882200</v>
       </c>
       <c r="K41" s="3">
         <v>12553900</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1696200</v>
+        <v>1596100</v>
       </c>
       <c r="E42" s="3">
-        <v>2300400</v>
+        <v>2164600</v>
       </c>
       <c r="F42" s="3">
-        <v>1480500</v>
+        <v>1393100</v>
       </c>
       <c r="G42" s="3">
-        <v>1271900</v>
+        <v>1196800</v>
       </c>
       <c r="H42" s="3">
-        <v>1660600</v>
+        <v>1562600</v>
       </c>
       <c r="I42" s="3">
-        <v>1164000</v>
+        <v>1095300</v>
       </c>
       <c r="J42" s="3">
-        <v>802600</v>
+        <v>755200</v>
       </c>
       <c r="K42" s="3">
         <v>790800</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>20183000</v>
+        <v>18991200</v>
       </c>
       <c r="E43" s="3">
-        <v>20226500</v>
+        <v>19032100</v>
       </c>
       <c r="F43" s="3">
-        <v>19570600</v>
+        <v>18414900</v>
       </c>
       <c r="G43" s="3">
-        <v>21382600</v>
+        <v>20120000</v>
       </c>
       <c r="H43" s="3">
-        <v>20574700</v>
+        <v>19359700</v>
       </c>
       <c r="I43" s="3">
-        <v>20588700</v>
+        <v>19372900</v>
       </c>
       <c r="J43" s="3">
-        <v>21443800</v>
+        <v>20177500</v>
       </c>
       <c r="K43" s="3">
         <v>24904500</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14945500</v>
+        <v>14063000</v>
       </c>
       <c r="E44" s="3">
-        <v>12040200</v>
+        <v>11329200</v>
       </c>
       <c r="F44" s="3">
-        <v>12156800</v>
+        <v>11439000</v>
       </c>
       <c r="G44" s="3">
-        <v>12361100</v>
+        <v>11631100</v>
       </c>
       <c r="H44" s="3">
-        <v>11867700</v>
+        <v>11166900</v>
       </c>
       <c r="I44" s="3">
-        <v>10626600</v>
+        <v>9999100</v>
       </c>
       <c r="J44" s="3">
-        <v>10230500</v>
+        <v>9626400</v>
       </c>
       <c r="K44" s="3">
         <v>12780600</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3422300</v>
+        <v>3220200</v>
       </c>
       <c r="E45" s="3">
-        <v>2989000</v>
+        <v>2812500</v>
       </c>
       <c r="F45" s="3">
-        <v>2849300</v>
+        <v>2681100</v>
       </c>
       <c r="G45" s="3">
-        <v>2790600</v>
+        <v>2625900</v>
       </c>
       <c r="H45" s="3">
-        <v>2266900</v>
+        <v>2133100</v>
       </c>
       <c r="I45" s="3">
-        <v>2282200</v>
+        <v>2147500</v>
       </c>
       <c r="J45" s="3">
-        <v>2454700</v>
+        <v>2309800</v>
       </c>
       <c r="K45" s="3">
         <v>2676400</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>68874700</v>
+        <v>64807600</v>
       </c>
       <c r="E46" s="3">
-        <v>59041100</v>
+        <v>55554700</v>
       </c>
       <c r="F46" s="3">
-        <v>56874900</v>
+        <v>53516400</v>
       </c>
       <c r="G46" s="3">
-        <v>57235400</v>
+        <v>53855700</v>
       </c>
       <c r="H46" s="3">
-        <v>53948000</v>
+        <v>50762400</v>
       </c>
       <c r="I46" s="3">
-        <v>51067100</v>
+        <v>48051600</v>
       </c>
       <c r="J46" s="3">
-        <v>48622300</v>
+        <v>45751100</v>
       </c>
       <c r="K46" s="3">
         <v>53706100</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>43058800</v>
+        <v>40516100</v>
       </c>
       <c r="E47" s="3">
-        <v>40036200</v>
+        <v>37672000</v>
       </c>
       <c r="F47" s="3">
-        <v>34120200</v>
+        <v>32105400</v>
       </c>
       <c r="G47" s="3">
-        <v>35707800</v>
+        <v>33599300</v>
       </c>
       <c r="H47" s="3">
-        <v>32978500</v>
+        <v>31031100</v>
       </c>
       <c r="I47" s="3">
-        <v>31413100</v>
+        <v>29558100</v>
       </c>
       <c r="J47" s="3">
-        <v>31239900</v>
+        <v>29395200</v>
       </c>
       <c r="K47" s="3">
         <v>38813300</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>64178200</v>
+        <v>60388500</v>
       </c>
       <c r="E48" s="3">
-        <v>61863700</v>
+        <v>58210700</v>
       </c>
       <c r="F48" s="3">
-        <v>59809800</v>
+        <v>56278000</v>
       </c>
       <c r="G48" s="3">
-        <v>57885100</v>
+        <v>54467000</v>
       </c>
       <c r="H48" s="3">
-        <v>55702900</v>
+        <v>52413600</v>
       </c>
       <c r="I48" s="3">
-        <v>56906300</v>
+        <v>53546000</v>
       </c>
       <c r="J48" s="3">
-        <v>53109700</v>
+        <v>49973600</v>
       </c>
       <c r="K48" s="3">
         <v>55657200</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6617700</v>
+        <v>6226900</v>
       </c>
       <c r="E49" s="3">
-        <v>6378200</v>
+        <v>6001500</v>
       </c>
       <c r="F49" s="3">
-        <v>5923800</v>
+        <v>5574000</v>
       </c>
       <c r="G49" s="3">
-        <v>5798600</v>
+        <v>5456200</v>
       </c>
       <c r="H49" s="3">
-        <v>5776400</v>
+        <v>5435300</v>
       </c>
       <c r="I49" s="3">
-        <v>6062100</v>
+        <v>5704100</v>
       </c>
       <c r="J49" s="3">
-        <v>6426300</v>
+        <v>6046800</v>
       </c>
       <c r="K49" s="3">
         <v>6478800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4021500</v>
+        <v>3784100</v>
       </c>
       <c r="E52" s="3">
-        <v>3445600</v>
+        <v>3242200</v>
       </c>
       <c r="F52" s="3">
-        <v>2666100</v>
+        <v>2508700</v>
       </c>
       <c r="G52" s="3">
-        <v>2438000</v>
+        <v>2294000</v>
       </c>
       <c r="H52" s="3">
-        <v>2324200</v>
+        <v>2187000</v>
       </c>
       <c r="I52" s="3">
-        <v>2235200</v>
+        <v>2103200</v>
       </c>
       <c r="J52" s="3">
-        <v>2608100</v>
+        <v>2454000</v>
       </c>
       <c r="K52" s="3">
         <v>2517000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>186751000</v>
+        <v>175723000</v>
       </c>
       <c r="E54" s="3">
-        <v>170765000</v>
+        <v>160681000</v>
       </c>
       <c r="F54" s="3">
-        <v>159395000</v>
+        <v>149983000</v>
       </c>
       <c r="G54" s="3">
-        <v>159065000</v>
+        <v>149672000</v>
       </c>
       <c r="H54" s="3">
-        <v>150730000</v>
+        <v>141829000</v>
       </c>
       <c r="I54" s="3">
-        <v>147684000</v>
+        <v>138963000</v>
       </c>
       <c r="J54" s="3">
-        <v>142006000</v>
+        <v>133621000</v>
       </c>
       <c r="K54" s="3">
         <v>157172000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9630300</v>
+        <v>7679100</v>
       </c>
       <c r="E57" s="3">
-        <v>7352500</v>
+        <v>6918300</v>
       </c>
       <c r="F57" s="3">
-        <v>6576200</v>
+        <v>6187900</v>
       </c>
       <c r="G57" s="3">
-        <v>8226700</v>
+        <v>7741000</v>
       </c>
       <c r="H57" s="3">
-        <v>8378500</v>
+        <v>7883700</v>
       </c>
       <c r="I57" s="3">
-        <v>7893700</v>
+        <v>7427500</v>
       </c>
       <c r="J57" s="3">
-        <v>7490900</v>
+        <v>7048600</v>
       </c>
       <c r="K57" s="3">
         <v>8526500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24291600</v>
+        <v>22857200</v>
       </c>
       <c r="E58" s="3">
-        <v>23413800</v>
+        <v>22031200</v>
       </c>
       <c r="F58" s="3">
-        <v>25305500</v>
+        <v>23811200</v>
       </c>
       <c r="G58" s="3">
-        <v>24840600</v>
+        <v>23373800</v>
       </c>
       <c r="H58" s="3">
-        <v>22725500</v>
+        <v>21383500</v>
       </c>
       <c r="I58" s="3">
-        <v>21710200</v>
+        <v>20428200</v>
       </c>
       <c r="J58" s="3">
-        <v>21731100</v>
+        <v>20447900</v>
       </c>
       <c r="K58" s="3">
         <v>24170300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12852400</v>
+        <v>13476000</v>
       </c>
       <c r="E59" s="3">
-        <v>13757100</v>
+        <v>12944800</v>
       </c>
       <c r="F59" s="3">
-        <v>13223100</v>
+        <v>12442300</v>
       </c>
       <c r="G59" s="3">
-        <v>13525600</v>
+        <v>12726900</v>
       </c>
       <c r="H59" s="3">
-        <v>12707800</v>
+        <v>11957400</v>
       </c>
       <c r="I59" s="3">
-        <v>12686800</v>
+        <v>11937700</v>
       </c>
       <c r="J59" s="3">
-        <v>13392000</v>
+        <v>12601200</v>
       </c>
       <c r="K59" s="3">
         <v>12521200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46774300</v>
+        <v>44012200</v>
       </c>
       <c r="E60" s="3">
-        <v>44523400</v>
+        <v>41894300</v>
       </c>
       <c r="F60" s="3">
-        <v>45104800</v>
+        <v>42441300</v>
       </c>
       <c r="G60" s="3">
-        <v>46593000</v>
+        <v>43841600</v>
       </c>
       <c r="H60" s="3">
-        <v>43811700</v>
+        <v>41224600</v>
       </c>
       <c r="I60" s="3">
-        <v>42290700</v>
+        <v>39793400</v>
       </c>
       <c r="J60" s="3">
-        <v>42614000</v>
+        <v>40097700</v>
       </c>
       <c r="K60" s="3">
         <v>45218000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38827300</v>
+        <v>36534600</v>
       </c>
       <c r="E61" s="3">
-        <v>36732700</v>
+        <v>34563600</v>
       </c>
       <c r="F61" s="3">
-        <v>32883400</v>
+        <v>30941600</v>
       </c>
       <c r="G61" s="3">
-        <v>32268800</v>
+        <v>30363300</v>
       </c>
       <c r="H61" s="3">
-        <v>30238800</v>
+        <v>28453200</v>
       </c>
       <c r="I61" s="3">
-        <v>31332900</v>
+        <v>29482700</v>
       </c>
       <c r="J61" s="3">
-        <v>29108300</v>
+        <v>27389500</v>
       </c>
       <c r="K61" s="3">
         <v>33491100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17231100</v>
+        <v>16213600</v>
       </c>
       <c r="E62" s="3">
-        <v>16494300</v>
+        <v>15520300</v>
       </c>
       <c r="F62" s="3">
-        <v>16858500</v>
+        <v>15863000</v>
       </c>
       <c r="G62" s="3">
-        <v>13475700</v>
+        <v>12679900</v>
       </c>
       <c r="H62" s="3">
-        <v>12535800</v>
+        <v>11795600</v>
       </c>
       <c r="I62" s="3">
-        <v>15092900</v>
+        <v>14201600</v>
       </c>
       <c r="J62" s="3">
-        <v>15506200</v>
+        <v>14590600</v>
       </c>
       <c r="K62" s="3">
         <v>15487800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105168000</v>
+        <v>98957400</v>
       </c>
       <c r="E66" s="3">
-        <v>100014000</v>
+        <v>94107800</v>
       </c>
       <c r="F66" s="3">
-        <v>96979300</v>
+        <v>91252700</v>
       </c>
       <c r="G66" s="3">
-        <v>94659400</v>
+        <v>89069800</v>
       </c>
       <c r="H66" s="3">
-        <v>88927700</v>
+        <v>83676500</v>
       </c>
       <c r="I66" s="3">
-        <v>90853400</v>
+        <v>85488500</v>
       </c>
       <c r="J66" s="3">
-        <v>89334600</v>
+        <v>84059400</v>
       </c>
       <c r="K66" s="3">
         <v>96535800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>74309800</v>
+        <v>69921800</v>
       </c>
       <c r="E72" s="3">
-        <v>69340900</v>
+        <v>65246300</v>
       </c>
       <c r="F72" s="3">
-        <v>63433600</v>
+        <v>59687800</v>
       </c>
       <c r="G72" s="3">
-        <v>62114600</v>
+        <v>58446800</v>
       </c>
       <c r="H72" s="3">
-        <v>59292300</v>
+        <v>55791100</v>
       </c>
       <c r="I72" s="3">
-        <v>52293400</v>
+        <v>49205500</v>
       </c>
       <c r="J72" s="3">
-        <v>48253700</v>
+        <v>45404300</v>
       </c>
       <c r="K72" s="3">
         <v>51892900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>81583300</v>
+        <v>76765800</v>
       </c>
       <c r="E76" s="3">
-        <v>70751200</v>
+        <v>66573300</v>
       </c>
       <c r="F76" s="3">
-        <v>62415500</v>
+        <v>58729900</v>
       </c>
       <c r="G76" s="3">
-        <v>64405500</v>
+        <v>60602400</v>
       </c>
       <c r="H76" s="3">
-        <v>61802300</v>
+        <v>58152800</v>
       </c>
       <c r="I76" s="3">
-        <v>56830400</v>
+        <v>53474500</v>
       </c>
       <c r="J76" s="3">
-        <v>52671600</v>
+        <v>49561300</v>
       </c>
       <c r="K76" s="3">
         <v>60636600</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5508100</v>
+        <v>5182800</v>
       </c>
       <c r="E81" s="3">
-        <v>5121300</v>
+        <v>4818900</v>
       </c>
       <c r="F81" s="3">
-        <v>3550300</v>
+        <v>3340600</v>
       </c>
       <c r="G81" s="3">
-        <v>4754400</v>
+        <v>4473600</v>
       </c>
       <c r="H81" s="3">
-        <v>8252200</v>
+        <v>7764900</v>
       </c>
       <c r="I81" s="3">
-        <v>4803100</v>
+        <v>4519500</v>
       </c>
       <c r="J81" s="3">
-        <v>2683900</v>
+        <v>2525400</v>
       </c>
       <c r="K81" s="3">
         <v>4345500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4760200</v>
+        <v>4479100</v>
       </c>
       <c r="E83" s="3">
-        <v>4862800</v>
+        <v>4575700</v>
       </c>
       <c r="F83" s="3">
-        <v>5452000</v>
+        <v>5130100</v>
       </c>
       <c r="G83" s="3">
-        <v>5622000</v>
+        <v>5290000</v>
       </c>
       <c r="H83" s="3">
-        <v>5555000</v>
+        <v>5227000</v>
       </c>
       <c r="I83" s="3">
-        <v>5253000</v>
+        <v>4942800</v>
       </c>
       <c r="J83" s="3">
-        <v>5147000</v>
+        <v>4843000</v>
       </c>
       <c r="K83" s="3">
         <v>5333200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13084300</v>
+        <v>12311600</v>
       </c>
       <c r="E89" s="3">
-        <v>8353800</v>
+        <v>7860500</v>
       </c>
       <c r="F89" s="3">
-        <v>7629600</v>
+        <v>7179100</v>
       </c>
       <c r="G89" s="3">
-        <v>6044900</v>
+        <v>5688000</v>
       </c>
       <c r="H89" s="3">
-        <v>7694000</v>
+        <v>7239600</v>
       </c>
       <c r="I89" s="3">
-        <v>6894700</v>
+        <v>6487600</v>
       </c>
       <c r="J89" s="3">
-        <v>10835900</v>
+        <v>10196000</v>
       </c>
       <c r="K89" s="3">
         <v>8704000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2088800</v>
+        <v>-1965500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2480400</v>
+        <v>-2333900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2883800</v>
+        <v>-2713500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3277800</v>
+        <v>-3084200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3237200</v>
+        <v>-3046100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3849300</v>
+        <v>-3622000</v>
       </c>
       <c r="J91" s="3">
-        <v>-4948000</v>
+        <v>-4655800</v>
       </c>
       <c r="K91" s="3">
         <v>-5529200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2929500</v>
+        <v>-2756500</v>
       </c>
       <c r="E94" s="3">
-        <v>-6207700</v>
+        <v>-5841100</v>
       </c>
       <c r="F94" s="3">
-        <v>-4825800</v>
+        <v>-4540800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4499200</v>
+        <v>-4233500</v>
       </c>
       <c r="H94" s="3">
-        <v>-4791700</v>
+        <v>-4508800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5068300</v>
+        <v>-4769000</v>
       </c>
       <c r="J94" s="3">
-        <v>-6816800</v>
+        <v>-6414300</v>
       </c>
       <c r="K94" s="3">
         <v>-7169400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1467700</v>
+        <v>-1381000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1130300</v>
+        <v>-1063500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1533000</v>
+        <v>-1442500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1513400</v>
+        <v>-1424000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1357200</v>
+        <v>-1277000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1263600</v>
+        <v>-1189000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1235500</v>
+        <v>-1162500</v>
       </c>
       <c r="K96" s="3">
         <v>-1352900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4796400</v>
+        <v>-4513200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2212200</v>
+        <v>-2081600</v>
       </c>
       <c r="F100" s="3">
-        <v>-680900</v>
+        <v>-640700</v>
       </c>
       <c r="G100" s="3">
-        <v>178600</v>
+        <v>168000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1358100</v>
+        <v>-1277900</v>
       </c>
       <c r="I100" s="3">
-        <v>899100</v>
+        <v>846100</v>
       </c>
       <c r="J100" s="3">
-        <v>-742400</v>
+        <v>-698500</v>
       </c>
       <c r="K100" s="3">
         <v>106500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1784400</v>
+        <v>1679000</v>
       </c>
       <c r="E101" s="3">
-        <v>733400</v>
+        <v>690100</v>
       </c>
       <c r="F101" s="3">
-        <v>-734500</v>
+        <v>-691200</v>
       </c>
       <c r="G101" s="3">
-        <v>126800</v>
+        <v>119300</v>
       </c>
       <c r="H101" s="3">
-        <v>-371700</v>
+        <v>-349700</v>
       </c>
       <c r="I101" s="3">
-        <v>-10600</v>
+        <v>-10000</v>
       </c>
       <c r="J101" s="3">
-        <v>-1050800</v>
+        <v>-988800</v>
       </c>
       <c r="K101" s="3">
         <v>731400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7142700</v>
+        <v>6721000</v>
       </c>
       <c r="E102" s="3">
-        <v>667300</v>
+        <v>627900</v>
       </c>
       <c r="F102" s="3">
-        <v>1388400</v>
+        <v>1306400</v>
       </c>
       <c r="G102" s="3">
-        <v>1851200</v>
+        <v>1741800</v>
       </c>
       <c r="H102" s="3">
-        <v>1172500</v>
+        <v>1103300</v>
       </c>
       <c r="I102" s="3">
-        <v>2715000</v>
+        <v>2554700</v>
       </c>
       <c r="J102" s="3">
-        <v>2225800</v>
+        <v>2094400</v>
       </c>
       <c r="K102" s="3">
         <v>2372600</v>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>106671300</v>
+        <v>103178600</v>
       </c>
       <c r="E8" s="3">
-        <v>96539900</v>
+        <v>93379000</v>
       </c>
       <c r="F8" s="3">
-        <v>109444300</v>
+        <v>105860900</v>
       </c>
       <c r="G8" s="3">
-        <v>116463600</v>
+        <v>112650300</v>
       </c>
       <c r="H8" s="3">
-        <v>112597200</v>
+        <v>108910500</v>
       </c>
       <c r="I8" s="3">
-        <v>102614100</v>
+        <v>99254300</v>
       </c>
       <c r="J8" s="3">
-        <v>107026400</v>
+        <v>103522200</v>
       </c>
       <c r="K8" s="3">
         <v>113688700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>84792900</v>
+        <v>82016600</v>
       </c>
       <c r="E9" s="3">
-        <v>76522900</v>
+        <v>74017400</v>
       </c>
       <c r="F9" s="3">
-        <v>86872700</v>
+        <v>84028300</v>
       </c>
       <c r="G9" s="3">
-        <v>92218400</v>
+        <v>89198900</v>
       </c>
       <c r="H9" s="3">
-        <v>87964300</v>
+        <v>85084100</v>
       </c>
       <c r="I9" s="3">
-        <v>79646700</v>
+        <v>77038900</v>
       </c>
       <c r="J9" s="3">
-        <v>83066500</v>
+        <v>80346700</v>
       </c>
       <c r="K9" s="3">
         <v>88121600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21878400</v>
+        <v>21162000</v>
       </c>
       <c r="E10" s="3">
-        <v>20017000</v>
+        <v>19361600</v>
       </c>
       <c r="F10" s="3">
-        <v>22571600</v>
+        <v>21832600</v>
       </c>
       <c r="G10" s="3">
-        <v>24245200</v>
+        <v>23451400</v>
       </c>
       <c r="H10" s="3">
-        <v>24632900</v>
+        <v>23826400</v>
       </c>
       <c r="I10" s="3">
-        <v>22967500</v>
+        <v>22215500</v>
       </c>
       <c r="J10" s="3">
-        <v>23960000</v>
+        <v>23175500</v>
       </c>
       <c r="K10" s="3">
         <v>25567100</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5769100</v>
+        <v>5580200</v>
       </c>
       <c r="E12" s="3">
-        <v>5416100</v>
+        <v>5238800</v>
       </c>
       <c r="F12" s="3">
-        <v>5894200</v>
+        <v>5701200</v>
       </c>
       <c r="G12" s="3">
-        <v>5914600</v>
+        <v>5721000</v>
       </c>
       <c r="H12" s="3">
-        <v>5511100</v>
+        <v>5330700</v>
       </c>
       <c r="I12" s="3">
-        <v>5068200</v>
+        <v>4902200</v>
       </c>
       <c r="J12" s="3">
-        <v>4812200</v>
+        <v>4654600</v>
       </c>
       <c r="K12" s="3">
         <v>5170600</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>100285100</v>
+        <v>97001600</v>
       </c>
       <c r="E17" s="3">
-        <v>91700600</v>
+        <v>88698100</v>
       </c>
       <c r="F17" s="3">
-        <v>104799700</v>
+        <v>101368400</v>
       </c>
       <c r="G17" s="3">
-        <v>111139300</v>
+        <v>107500300</v>
       </c>
       <c r="H17" s="3">
-        <v>106487200</v>
+        <v>103000600</v>
       </c>
       <c r="I17" s="3">
-        <v>96451700</v>
+        <v>93293700</v>
       </c>
       <c r="J17" s="3">
-        <v>103336700</v>
+        <v>99953200</v>
       </c>
       <c r="K17" s="3">
         <v>107968400</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6386100</v>
+        <v>6177000</v>
       </c>
       <c r="E18" s="3">
-        <v>4839300</v>
+        <v>4680900</v>
       </c>
       <c r="F18" s="3">
-        <v>4644600</v>
+        <v>4492500</v>
       </c>
       <c r="G18" s="3">
-        <v>5324300</v>
+        <v>5150000</v>
       </c>
       <c r="H18" s="3">
-        <v>6110000</v>
+        <v>5909900</v>
       </c>
       <c r="I18" s="3">
-        <v>6162400</v>
+        <v>5960600</v>
       </c>
       <c r="J18" s="3">
-        <v>3689700</v>
+        <v>3568900</v>
       </c>
       <c r="K18" s="3">
         <v>5720200</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1582000</v>
+        <v>1530200</v>
       </c>
       <c r="E20" s="3">
-        <v>1962400</v>
+        <v>1898100</v>
       </c>
       <c r="F20" s="3">
-        <v>1326500</v>
+        <v>1283100</v>
       </c>
       <c r="G20" s="3">
-        <v>1951400</v>
+        <v>1887500</v>
       </c>
       <c r="H20" s="3">
-        <v>2157800</v>
+        <v>2087200</v>
       </c>
       <c r="I20" s="3">
-        <v>1310200</v>
+        <v>1267300</v>
       </c>
       <c r="J20" s="3">
-        <v>1101100</v>
+        <v>1065100</v>
       </c>
       <c r="K20" s="3">
         <v>1312200</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>12422800</v>
+        <v>11880800</v>
       </c>
       <c r="E21" s="3">
-        <v>11352400</v>
+        <v>10842600</v>
       </c>
       <c r="F21" s="3">
-        <v>11073200</v>
+        <v>10555700</v>
       </c>
       <c r="G21" s="3">
-        <v>12536900</v>
+        <v>11966700</v>
       </c>
       <c r="H21" s="3">
-        <v>13466300</v>
+        <v>12867500</v>
       </c>
       <c r="I21" s="3">
-        <v>12388500</v>
+        <v>11833600</v>
       </c>
       <c r="J21" s="3">
-        <v>9607500</v>
+        <v>9146700</v>
       </c>
       <c r="K21" s="3">
         <v>12428100</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>123600</v>
+        <v>119600</v>
       </c>
       <c r="E22" s="3">
-        <v>101700</v>
+        <v>98400</v>
       </c>
       <c r="F22" s="3">
-        <v>181000</v>
+        <v>175000</v>
       </c>
       <c r="G22" s="3">
-        <v>96900</v>
+        <v>93700</v>
       </c>
       <c r="H22" s="3">
-        <v>95100</v>
+        <v>92000</v>
       </c>
       <c r="I22" s="3">
-        <v>91400</v>
+        <v>88400</v>
       </c>
       <c r="J22" s="3">
-        <v>133000</v>
+        <v>128700</v>
       </c>
       <c r="K22" s="3">
         <v>155200</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7844500</v>
+        <v>7587600</v>
       </c>
       <c r="E23" s="3">
-        <v>6700000</v>
+        <v>6480600</v>
       </c>
       <c r="F23" s="3">
-        <v>5790100</v>
+        <v>5600500</v>
       </c>
       <c r="G23" s="3">
-        <v>7178800</v>
+        <v>6943800</v>
       </c>
       <c r="H23" s="3">
-        <v>8172800</v>
+        <v>7905200</v>
       </c>
       <c r="I23" s="3">
-        <v>7381200</v>
+        <v>7139500</v>
       </c>
       <c r="J23" s="3">
-        <v>4657800</v>
+        <v>4505300</v>
       </c>
       <c r="K23" s="3">
         <v>6877200</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2268600</v>
+        <v>2194300</v>
       </c>
       <c r="E24" s="3">
-        <v>1602400</v>
+        <v>1549900</v>
       </c>
       <c r="F24" s="3">
-        <v>2052300</v>
+        <v>1985100</v>
       </c>
       <c r="G24" s="3">
-        <v>2221600</v>
+        <v>2148900</v>
       </c>
       <c r="H24" s="3">
-        <v>-100200</v>
+        <v>-96900</v>
       </c>
       <c r="I24" s="3">
-        <v>2401200</v>
+        <v>2322600</v>
       </c>
       <c r="J24" s="3">
-        <v>1679200</v>
+        <v>1624300</v>
       </c>
       <c r="K24" s="3">
         <v>2091000</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5575900</v>
+        <v>5393400</v>
       </c>
       <c r="E26" s="3">
-        <v>5097600</v>
+        <v>4930700</v>
       </c>
       <c r="F26" s="3">
-        <v>3737800</v>
+        <v>3615400</v>
       </c>
       <c r="G26" s="3">
-        <v>4957200</v>
+        <v>4794900</v>
       </c>
       <c r="H26" s="3">
-        <v>8272900</v>
+        <v>8002100</v>
       </c>
       <c r="I26" s="3">
-        <v>4980000</v>
+        <v>4816900</v>
       </c>
       <c r="J26" s="3">
-        <v>2978600</v>
+        <v>2881100</v>
       </c>
       <c r="K26" s="3">
         <v>4786200</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5182800</v>
+        <v>5013100</v>
       </c>
       <c r="E27" s="3">
-        <v>4818900</v>
+        <v>4661100</v>
       </c>
       <c r="F27" s="3">
-        <v>3340600</v>
+        <v>3231200</v>
       </c>
       <c r="G27" s="3">
-        <v>4473600</v>
+        <v>4327100</v>
       </c>
       <c r="H27" s="3">
-        <v>7764900</v>
+        <v>7510700</v>
       </c>
       <c r="I27" s="3">
-        <v>4519500</v>
+        <v>4371500</v>
       </c>
       <c r="J27" s="3">
-        <v>2525400</v>
+        <v>2442700</v>
       </c>
       <c r="K27" s="3">
         <v>4345500</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1582000</v>
+        <v>-1530200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1962400</v>
+        <v>-1898100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1326500</v>
+        <v>-1283100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1951400</v>
+        <v>-1887500</v>
       </c>
       <c r="H32" s="3">
-        <v>-2157800</v>
+        <v>-2087200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1310200</v>
+        <v>-1267300</v>
       </c>
       <c r="J32" s="3">
-        <v>-1101100</v>
+        <v>-1065100</v>
       </c>
       <c r="K32" s="3">
         <v>-1312200</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5182800</v>
+        <v>5013100</v>
       </c>
       <c r="E33" s="3">
-        <v>4818900</v>
+        <v>4661100</v>
       </c>
       <c r="F33" s="3">
-        <v>3340600</v>
+        <v>3231200</v>
       </c>
       <c r="G33" s="3">
-        <v>4473600</v>
+        <v>4327100</v>
       </c>
       <c r="H33" s="3">
-        <v>7764900</v>
+        <v>7510700</v>
       </c>
       <c r="I33" s="3">
-        <v>4519500</v>
+        <v>4371500</v>
       </c>
       <c r="J33" s="3">
-        <v>2525400</v>
+        <v>2442700</v>
       </c>
       <c r="K33" s="3">
         <v>4345500</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5182800</v>
+        <v>5013100</v>
       </c>
       <c r="E35" s="3">
-        <v>4818900</v>
+        <v>4661100</v>
       </c>
       <c r="F35" s="3">
-        <v>3340600</v>
+        <v>3231200</v>
       </c>
       <c r="G35" s="3">
-        <v>4473600</v>
+        <v>4327100</v>
       </c>
       <c r="H35" s="3">
-        <v>7764900</v>
+        <v>7510700</v>
       </c>
       <c r="I35" s="3">
-        <v>4519500</v>
+        <v>4371500</v>
       </c>
       <c r="J35" s="3">
-        <v>2525400</v>
+        <v>2442700</v>
       </c>
       <c r="K35" s="3">
         <v>4345500</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>26937200</v>
+        <v>26055300</v>
       </c>
       <c r="E41" s="3">
-        <v>20216300</v>
+        <v>19554400</v>
       </c>
       <c r="F41" s="3">
-        <v>19588300</v>
+        <v>18947000</v>
       </c>
       <c r="G41" s="3">
-        <v>18281900</v>
+        <v>17683300</v>
       </c>
       <c r="H41" s="3">
-        <v>16540100</v>
+        <v>15998500</v>
       </c>
       <c r="I41" s="3">
-        <v>15436800</v>
+        <v>14931400</v>
       </c>
       <c r="J41" s="3">
-        <v>12882200</v>
+        <v>12460400</v>
       </c>
       <c r="K41" s="3">
         <v>12553900</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1596100</v>
+        <v>1543800</v>
       </c>
       <c r="E42" s="3">
-        <v>2164600</v>
+        <v>2093700</v>
       </c>
       <c r="F42" s="3">
-        <v>1393100</v>
+        <v>1347500</v>
       </c>
       <c r="G42" s="3">
-        <v>1196800</v>
+        <v>1157600</v>
       </c>
       <c r="H42" s="3">
-        <v>1562600</v>
+        <v>1511400</v>
       </c>
       <c r="I42" s="3">
-        <v>1095300</v>
+        <v>1059400</v>
       </c>
       <c r="J42" s="3">
-        <v>755200</v>
+        <v>730500</v>
       </c>
       <c r="K42" s="3">
         <v>790800</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18991200</v>
+        <v>18369300</v>
       </c>
       <c r="E43" s="3">
-        <v>19032100</v>
+        <v>18409000</v>
       </c>
       <c r="F43" s="3">
-        <v>18414900</v>
+        <v>17812000</v>
       </c>
       <c r="G43" s="3">
-        <v>20120000</v>
+        <v>19461200</v>
       </c>
       <c r="H43" s="3">
-        <v>19359700</v>
+        <v>18725800</v>
       </c>
       <c r="I43" s="3">
-        <v>19372900</v>
+        <v>18738600</v>
       </c>
       <c r="J43" s="3">
-        <v>20177500</v>
+        <v>19516800</v>
       </c>
       <c r="K43" s="3">
         <v>24904500</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14063000</v>
+        <v>13602500</v>
       </c>
       <c r="E44" s="3">
-        <v>11329200</v>
+        <v>10958300</v>
       </c>
       <c r="F44" s="3">
-        <v>11439000</v>
+        <v>11064400</v>
       </c>
       <c r="G44" s="3">
-        <v>11631100</v>
+        <v>11250300</v>
       </c>
       <c r="H44" s="3">
-        <v>11166900</v>
+        <v>10801300</v>
       </c>
       <c r="I44" s="3">
-        <v>9999100</v>
+        <v>9671700</v>
       </c>
       <c r="J44" s="3">
-        <v>9626400</v>
+        <v>9311200</v>
       </c>
       <c r="K44" s="3">
         <v>12780600</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3220200</v>
+        <v>3114800</v>
       </c>
       <c r="E45" s="3">
-        <v>2812500</v>
+        <v>2720400</v>
       </c>
       <c r="F45" s="3">
-        <v>2681100</v>
+        <v>2593300</v>
       </c>
       <c r="G45" s="3">
-        <v>2625900</v>
+        <v>2539900</v>
       </c>
       <c r="H45" s="3">
-        <v>2133100</v>
+        <v>2063200</v>
       </c>
       <c r="I45" s="3">
-        <v>2147500</v>
+        <v>2077200</v>
       </c>
       <c r="J45" s="3">
-        <v>2309800</v>
+        <v>2234200</v>
       </c>
       <c r="K45" s="3">
         <v>2676400</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>64807600</v>
+        <v>62685700</v>
       </c>
       <c r="E46" s="3">
-        <v>55554700</v>
+        <v>53735800</v>
       </c>
       <c r="F46" s="3">
-        <v>53516400</v>
+        <v>51764200</v>
       </c>
       <c r="G46" s="3">
-        <v>53855700</v>
+        <v>52092300</v>
       </c>
       <c r="H46" s="3">
-        <v>50762400</v>
+        <v>49100300</v>
       </c>
       <c r="I46" s="3">
-        <v>48051600</v>
+        <v>46478300</v>
       </c>
       <c r="J46" s="3">
-        <v>45751100</v>
+        <v>44253100</v>
       </c>
       <c r="K46" s="3">
         <v>53706100</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>40516100</v>
+        <v>39189600</v>
       </c>
       <c r="E47" s="3">
-        <v>37672000</v>
+        <v>36438600</v>
       </c>
       <c r="F47" s="3">
-        <v>32105400</v>
+        <v>31054200</v>
       </c>
       <c r="G47" s="3">
-        <v>33599300</v>
+        <v>32499200</v>
       </c>
       <c r="H47" s="3">
-        <v>31031100</v>
+        <v>30015100</v>
       </c>
       <c r="I47" s="3">
-        <v>29558100</v>
+        <v>28590300</v>
       </c>
       <c r="J47" s="3">
-        <v>29395200</v>
+        <v>28432700</v>
       </c>
       <c r="K47" s="3">
         <v>38813300</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>60388500</v>
+        <v>58411200</v>
       </c>
       <c r="E48" s="3">
-        <v>58210700</v>
+        <v>56304700</v>
       </c>
       <c r="F48" s="3">
-        <v>56278000</v>
+        <v>54435400</v>
       </c>
       <c r="G48" s="3">
-        <v>54467000</v>
+        <v>52683600</v>
       </c>
       <c r="H48" s="3">
-        <v>52413600</v>
+        <v>50697500</v>
       </c>
       <c r="I48" s="3">
-        <v>53546000</v>
+        <v>51792700</v>
       </c>
       <c r="J48" s="3">
-        <v>49973600</v>
+        <v>48337300</v>
       </c>
       <c r="K48" s="3">
         <v>55657200</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6226900</v>
+        <v>6023000</v>
       </c>
       <c r="E49" s="3">
-        <v>6001500</v>
+        <v>5805000</v>
       </c>
       <c r="F49" s="3">
-        <v>5574000</v>
+        <v>5391500</v>
       </c>
       <c r="G49" s="3">
-        <v>5456200</v>
+        <v>5277600</v>
       </c>
       <c r="H49" s="3">
-        <v>5435300</v>
+        <v>5257300</v>
       </c>
       <c r="I49" s="3">
-        <v>5704100</v>
+        <v>5517400</v>
       </c>
       <c r="J49" s="3">
-        <v>6046800</v>
+        <v>5848800</v>
       </c>
       <c r="K49" s="3">
         <v>6478800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3784100</v>
+        <v>3660200</v>
       </c>
       <c r="E52" s="3">
-        <v>3242200</v>
+        <v>3136000</v>
       </c>
       <c r="F52" s="3">
-        <v>2508700</v>
+        <v>2426500</v>
       </c>
       <c r="G52" s="3">
-        <v>2294000</v>
+        <v>2218900</v>
       </c>
       <c r="H52" s="3">
-        <v>2187000</v>
+        <v>2115400</v>
       </c>
       <c r="I52" s="3">
-        <v>2103200</v>
+        <v>2034400</v>
       </c>
       <c r="J52" s="3">
-        <v>2454000</v>
+        <v>2373700</v>
       </c>
       <c r="K52" s="3">
         <v>2517000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>175723000</v>
+        <v>169970000</v>
       </c>
       <c r="E54" s="3">
-        <v>160681000</v>
+        <v>155420000</v>
       </c>
       <c r="F54" s="3">
-        <v>149983000</v>
+        <v>145072000</v>
       </c>
       <c r="G54" s="3">
-        <v>149672000</v>
+        <v>144772000</v>
       </c>
       <c r="H54" s="3">
-        <v>141829000</v>
+        <v>137186000</v>
       </c>
       <c r="I54" s="3">
-        <v>138963000</v>
+        <v>134413000</v>
       </c>
       <c r="J54" s="3">
-        <v>133621000</v>
+        <v>129246000</v>
       </c>
       <c r="K54" s="3">
         <v>157172000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7679100</v>
+        <v>7427600</v>
       </c>
       <c r="E57" s="3">
-        <v>6918300</v>
+        <v>6691800</v>
       </c>
       <c r="F57" s="3">
-        <v>6187900</v>
+        <v>5985300</v>
       </c>
       <c r="G57" s="3">
-        <v>7741000</v>
+        <v>7487500</v>
       </c>
       <c r="H57" s="3">
-        <v>7883700</v>
+        <v>7625600</v>
       </c>
       <c r="I57" s="3">
-        <v>7427500</v>
+        <v>7184300</v>
       </c>
       <c r="J57" s="3">
-        <v>7048600</v>
+        <v>6817800</v>
       </c>
       <c r="K57" s="3">
         <v>8526500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22857200</v>
+        <v>22108800</v>
       </c>
       <c r="E58" s="3">
-        <v>22031200</v>
+        <v>21309900</v>
       </c>
       <c r="F58" s="3">
-        <v>23811200</v>
+        <v>23031600</v>
       </c>
       <c r="G58" s="3">
-        <v>23373800</v>
+        <v>22608500</v>
       </c>
       <c r="H58" s="3">
-        <v>21383500</v>
+        <v>20683400</v>
       </c>
       <c r="I58" s="3">
-        <v>20428200</v>
+        <v>19759300</v>
       </c>
       <c r="J58" s="3">
-        <v>20447900</v>
+        <v>19778400</v>
       </c>
       <c r="K58" s="3">
         <v>24170300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13476000</v>
+        <v>13034800</v>
       </c>
       <c r="E59" s="3">
-        <v>12944800</v>
+        <v>12520900</v>
       </c>
       <c r="F59" s="3">
-        <v>12442300</v>
+        <v>12034900</v>
       </c>
       <c r="G59" s="3">
-        <v>12726900</v>
+        <v>12310200</v>
       </c>
       <c r="H59" s="3">
-        <v>11957400</v>
+        <v>11565900</v>
       </c>
       <c r="I59" s="3">
-        <v>11937700</v>
+        <v>11546800</v>
       </c>
       <c r="J59" s="3">
-        <v>12601200</v>
+        <v>12188600</v>
       </c>
       <c r="K59" s="3">
         <v>12521200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44012200</v>
+        <v>42571200</v>
       </c>
       <c r="E60" s="3">
-        <v>41894300</v>
+        <v>40522600</v>
       </c>
       <c r="F60" s="3">
-        <v>42441300</v>
+        <v>41051700</v>
       </c>
       <c r="G60" s="3">
-        <v>43841600</v>
+        <v>42406200</v>
       </c>
       <c r="H60" s="3">
-        <v>41224600</v>
+        <v>39874900</v>
       </c>
       <c r="I60" s="3">
-        <v>39793400</v>
+        <v>38490500</v>
       </c>
       <c r="J60" s="3">
-        <v>40097700</v>
+        <v>38784800</v>
       </c>
       <c r="K60" s="3">
         <v>45218000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36534600</v>
+        <v>35338300</v>
       </c>
       <c r="E61" s="3">
-        <v>34563600</v>
+        <v>33431900</v>
       </c>
       <c r="F61" s="3">
-        <v>30941600</v>
+        <v>29928500</v>
       </c>
       <c r="G61" s="3">
-        <v>30363300</v>
+        <v>29369200</v>
       </c>
       <c r="H61" s="3">
-        <v>28453200</v>
+        <v>27521600</v>
       </c>
       <c r="I61" s="3">
-        <v>29482700</v>
+        <v>28517300</v>
       </c>
       <c r="J61" s="3">
-        <v>27389500</v>
+        <v>26492700</v>
       </c>
       <c r="K61" s="3">
         <v>33491100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16213600</v>
+        <v>15682800</v>
       </c>
       <c r="E62" s="3">
-        <v>15520300</v>
+        <v>15012200</v>
       </c>
       <c r="F62" s="3">
-        <v>15863000</v>
+        <v>15343600</v>
       </c>
       <c r="G62" s="3">
-        <v>12679900</v>
+        <v>12264800</v>
       </c>
       <c r="H62" s="3">
-        <v>11795600</v>
+        <v>11409400</v>
       </c>
       <c r="I62" s="3">
-        <v>14201600</v>
+        <v>13736600</v>
       </c>
       <c r="J62" s="3">
-        <v>14590600</v>
+        <v>14112800</v>
       </c>
       <c r="K62" s="3">
         <v>15487800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>98957400</v>
+        <v>95717300</v>
       </c>
       <c r="E66" s="3">
-        <v>94107800</v>
+        <v>91026600</v>
       </c>
       <c r="F66" s="3">
-        <v>91252700</v>
+        <v>88264900</v>
       </c>
       <c r="G66" s="3">
-        <v>89069800</v>
+        <v>86153400</v>
       </c>
       <c r="H66" s="3">
-        <v>83676500</v>
+        <v>80936800</v>
       </c>
       <c r="I66" s="3">
-        <v>85488500</v>
+        <v>82689400</v>
       </c>
       <c r="J66" s="3">
-        <v>84059400</v>
+        <v>81307100</v>
       </c>
       <c r="K66" s="3">
         <v>96535800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>69921800</v>
+        <v>67632500</v>
       </c>
       <c r="E72" s="3">
-        <v>65246300</v>
+        <v>63110000</v>
       </c>
       <c r="F72" s="3">
-        <v>59687800</v>
+        <v>57733500</v>
       </c>
       <c r="G72" s="3">
-        <v>58446800</v>
+        <v>56533100</v>
       </c>
       <c r="H72" s="3">
-        <v>55791100</v>
+        <v>53964300</v>
       </c>
       <c r="I72" s="3">
-        <v>49205500</v>
+        <v>47594400</v>
       </c>
       <c r="J72" s="3">
-        <v>45404300</v>
+        <v>43917700</v>
       </c>
       <c r="K72" s="3">
         <v>51892900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>76765800</v>
+        <v>74252300</v>
       </c>
       <c r="E76" s="3">
-        <v>66573300</v>
+        <v>64393500</v>
       </c>
       <c r="F76" s="3">
-        <v>58729900</v>
+        <v>56806900</v>
       </c>
       <c r="G76" s="3">
-        <v>60602400</v>
+        <v>58618100</v>
       </c>
       <c r="H76" s="3">
-        <v>58152800</v>
+        <v>56248800</v>
       </c>
       <c r="I76" s="3">
-        <v>53474500</v>
+        <v>51723600</v>
       </c>
       <c r="J76" s="3">
-        <v>49561300</v>
+        <v>47938600</v>
       </c>
       <c r="K76" s="3">
         <v>60636600</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5182800</v>
+        <v>5013100</v>
       </c>
       <c r="E81" s="3">
-        <v>4818900</v>
+        <v>4661100</v>
       </c>
       <c r="F81" s="3">
-        <v>3340600</v>
+        <v>3231200</v>
       </c>
       <c r="G81" s="3">
-        <v>4473600</v>
+        <v>4327100</v>
       </c>
       <c r="H81" s="3">
-        <v>7764900</v>
+        <v>7510700</v>
       </c>
       <c r="I81" s="3">
-        <v>4519500</v>
+        <v>4371500</v>
       </c>
       <c r="J81" s="3">
-        <v>2525400</v>
+        <v>2442700</v>
       </c>
       <c r="K81" s="3">
         <v>4345500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4479100</v>
+        <v>4332400</v>
       </c>
       <c r="E83" s="3">
-        <v>4575700</v>
+        <v>4425900</v>
       </c>
       <c r="F83" s="3">
-        <v>5130100</v>
+        <v>4962100</v>
       </c>
       <c r="G83" s="3">
-        <v>5290000</v>
+        <v>5116800</v>
       </c>
       <c r="H83" s="3">
-        <v>5227000</v>
+        <v>5055800</v>
       </c>
       <c r="I83" s="3">
-        <v>4942800</v>
+        <v>4781000</v>
       </c>
       <c r="J83" s="3">
-        <v>4843000</v>
+        <v>4684500</v>
       </c>
       <c r="K83" s="3">
         <v>5333200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12311600</v>
+        <v>11908500</v>
       </c>
       <c r="E89" s="3">
-        <v>7860500</v>
+        <v>7603200</v>
       </c>
       <c r="F89" s="3">
-        <v>7179100</v>
+        <v>6944100</v>
       </c>
       <c r="G89" s="3">
-        <v>5688000</v>
+        <v>5501800</v>
       </c>
       <c r="H89" s="3">
-        <v>7239600</v>
+        <v>7002600</v>
       </c>
       <c r="I89" s="3">
-        <v>6487600</v>
+        <v>6275200</v>
       </c>
       <c r="J89" s="3">
-        <v>10196000</v>
+        <v>9862200</v>
       </c>
       <c r="K89" s="3">
         <v>8704000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1965500</v>
+        <v>-1901100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2333900</v>
+        <v>-2257500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2713500</v>
+        <v>-2624700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3084200</v>
+        <v>-2983200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3046100</v>
+        <v>-2946300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3622000</v>
+        <v>-3503400</v>
       </c>
       <c r="J91" s="3">
-        <v>-4655800</v>
+        <v>-4503400</v>
       </c>
       <c r="K91" s="3">
         <v>-5529200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2756500</v>
+        <v>-2666200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5841100</v>
+        <v>-5649900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4540800</v>
+        <v>-4392100</v>
       </c>
       <c r="G94" s="3">
-        <v>-4233500</v>
+        <v>-4094900</v>
       </c>
       <c r="H94" s="3">
-        <v>-4508800</v>
+        <v>-4361200</v>
       </c>
       <c r="I94" s="3">
-        <v>-4769000</v>
+        <v>-4612900</v>
       </c>
       <c r="J94" s="3">
-        <v>-6414300</v>
+        <v>-6204300</v>
       </c>
       <c r="K94" s="3">
         <v>-7169400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1381000</v>
+        <v>-1335800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1063500</v>
+        <v>-1028700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1442500</v>
+        <v>-1395300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1424000</v>
+        <v>-1377400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1277000</v>
+        <v>-1235200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1189000</v>
+        <v>-1150000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1162500</v>
+        <v>-1124500</v>
       </c>
       <c r="K96" s="3">
         <v>-1352900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4513200</v>
+        <v>-4365400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2081600</v>
+        <v>-2013400</v>
       </c>
       <c r="F100" s="3">
-        <v>-640700</v>
+        <v>-619700</v>
       </c>
       <c r="G100" s="3">
-        <v>168000</v>
+        <v>162500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1277900</v>
+        <v>-1236000</v>
       </c>
       <c r="I100" s="3">
-        <v>846100</v>
+        <v>818300</v>
       </c>
       <c r="J100" s="3">
-        <v>-698500</v>
+        <v>-675700</v>
       </c>
       <c r="K100" s="3">
         <v>106500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1679000</v>
+        <v>1624100</v>
       </c>
       <c r="E101" s="3">
-        <v>690100</v>
+        <v>667500</v>
       </c>
       <c r="F101" s="3">
-        <v>-691200</v>
+        <v>-668500</v>
       </c>
       <c r="G101" s="3">
-        <v>119300</v>
+        <v>115400</v>
       </c>
       <c r="H101" s="3">
-        <v>-349700</v>
+        <v>-338300</v>
       </c>
       <c r="I101" s="3">
-        <v>-10000</v>
+        <v>-9600</v>
       </c>
       <c r="J101" s="3">
-        <v>-988800</v>
+        <v>-956400</v>
       </c>
       <c r="K101" s="3">
         <v>731400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6721000</v>
+        <v>6500900</v>
       </c>
       <c r="E102" s="3">
-        <v>627900</v>
+        <v>607400</v>
       </c>
       <c r="F102" s="3">
-        <v>1306400</v>
+        <v>1263700</v>
       </c>
       <c r="G102" s="3">
-        <v>1741800</v>
+        <v>1684800</v>
       </c>
       <c r="H102" s="3">
-        <v>1103300</v>
+        <v>1067100</v>
       </c>
       <c r="I102" s="3">
-        <v>2554700</v>
+        <v>2471000</v>
       </c>
       <c r="J102" s="3">
-        <v>2094400</v>
+        <v>2025800</v>
       </c>
       <c r="K102" s="3">
         <v>2372600</v>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>103178600</v>
+        <v>106962300</v>
       </c>
       <c r="E8" s="3">
-        <v>93379000</v>
+        <v>96803300</v>
       </c>
       <c r="F8" s="3">
-        <v>105860900</v>
+        <v>109742900</v>
       </c>
       <c r="G8" s="3">
-        <v>112650300</v>
+        <v>116781300</v>
       </c>
       <c r="H8" s="3">
-        <v>108910500</v>
+        <v>112904400</v>
       </c>
       <c r="I8" s="3">
-        <v>99254300</v>
+        <v>102894100</v>
       </c>
       <c r="J8" s="3">
-        <v>103522200</v>
+        <v>107318500</v>
       </c>
       <c r="K8" s="3">
         <v>113688700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>82016600</v>
+        <v>85024200</v>
       </c>
       <c r="E9" s="3">
-        <v>74017400</v>
+        <v>76731700</v>
       </c>
       <c r="F9" s="3">
-        <v>84028300</v>
+        <v>87109700</v>
       </c>
       <c r="G9" s="3">
-        <v>89198900</v>
+        <v>92470000</v>
       </c>
       <c r="H9" s="3">
-        <v>85084100</v>
+        <v>88204300</v>
       </c>
       <c r="I9" s="3">
-        <v>77038900</v>
+        <v>79864000</v>
       </c>
       <c r="J9" s="3">
-        <v>80346700</v>
+        <v>83293100</v>
       </c>
       <c r="K9" s="3">
         <v>88121600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21162000</v>
+        <v>21938100</v>
       </c>
       <c r="E10" s="3">
-        <v>19361600</v>
+        <v>20071600</v>
       </c>
       <c r="F10" s="3">
-        <v>21832600</v>
+        <v>22633200</v>
       </c>
       <c r="G10" s="3">
-        <v>23451400</v>
+        <v>24311400</v>
       </c>
       <c r="H10" s="3">
-        <v>23826400</v>
+        <v>24700200</v>
       </c>
       <c r="I10" s="3">
-        <v>22215500</v>
+        <v>23030100</v>
       </c>
       <c r="J10" s="3">
-        <v>23175500</v>
+        <v>24025300</v>
       </c>
       <c r="K10" s="3">
         <v>25567100</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5580200</v>
+        <v>5784900</v>
       </c>
       <c r="E12" s="3">
-        <v>5238800</v>
+        <v>5430900</v>
       </c>
       <c r="F12" s="3">
-        <v>5701200</v>
+        <v>5910300</v>
       </c>
       <c r="G12" s="3">
-        <v>5721000</v>
+        <v>5930800</v>
       </c>
       <c r="H12" s="3">
-        <v>5330700</v>
+        <v>5526100</v>
       </c>
       <c r="I12" s="3">
-        <v>4902200</v>
+        <v>5082000</v>
       </c>
       <c r="J12" s="3">
-        <v>4654600</v>
+        <v>4825300</v>
       </c>
       <c r="K12" s="3">
         <v>5170600</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>97001600</v>
+        <v>100558800</v>
       </c>
       <c r="E17" s="3">
-        <v>88698100</v>
+        <v>91950800</v>
       </c>
       <c r="F17" s="3">
-        <v>101368400</v>
+        <v>105085700</v>
       </c>
       <c r="G17" s="3">
-        <v>107500300</v>
+        <v>111442500</v>
       </c>
       <c r="H17" s="3">
-        <v>103000600</v>
+        <v>106777800</v>
       </c>
       <c r="I17" s="3">
-        <v>93293700</v>
+        <v>96714900</v>
       </c>
       <c r="J17" s="3">
-        <v>99953200</v>
+        <v>103618600</v>
       </c>
       <c r="K17" s="3">
         <v>107968400</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6177000</v>
+        <v>6403600</v>
       </c>
       <c r="E18" s="3">
-        <v>4680900</v>
+        <v>4852500</v>
       </c>
       <c r="F18" s="3">
-        <v>4492500</v>
+        <v>4657200</v>
       </c>
       <c r="G18" s="3">
-        <v>5150000</v>
+        <v>5338800</v>
       </c>
       <c r="H18" s="3">
-        <v>5909900</v>
+        <v>6126700</v>
       </c>
       <c r="I18" s="3">
-        <v>5960600</v>
+        <v>6179200</v>
       </c>
       <c r="J18" s="3">
-        <v>3568900</v>
+        <v>3699800</v>
       </c>
       <c r="K18" s="3">
         <v>5720200</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1530200</v>
+        <v>1586300</v>
       </c>
       <c r="E20" s="3">
-        <v>1898100</v>
+        <v>1967800</v>
       </c>
       <c r="F20" s="3">
-        <v>1283100</v>
+        <v>1330100</v>
       </c>
       <c r="G20" s="3">
-        <v>1887500</v>
+        <v>1956700</v>
       </c>
       <c r="H20" s="3">
-        <v>2087200</v>
+        <v>2163700</v>
       </c>
       <c r="I20" s="3">
-        <v>1267300</v>
+        <v>1313800</v>
       </c>
       <c r="J20" s="3">
-        <v>1065100</v>
+        <v>1104100</v>
       </c>
       <c r="K20" s="3">
         <v>1312200</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>11880800</v>
+        <v>12438400</v>
       </c>
       <c r="E21" s="3">
-        <v>10842600</v>
+        <v>11364700</v>
       </c>
       <c r="F21" s="3">
-        <v>10555700</v>
+        <v>11082500</v>
       </c>
       <c r="G21" s="3">
-        <v>11966700</v>
+        <v>12549500</v>
       </c>
       <c r="H21" s="3">
-        <v>12867500</v>
+        <v>13481700</v>
       </c>
       <c r="I21" s="3">
-        <v>11833600</v>
+        <v>12402100</v>
       </c>
       <c r="J21" s="3">
-        <v>9146700</v>
+        <v>9613900</v>
       </c>
       <c r="K21" s="3">
         <v>12428100</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>119600</v>
+        <v>124000</v>
       </c>
       <c r="E22" s="3">
-        <v>98400</v>
+        <v>102000</v>
       </c>
       <c r="F22" s="3">
-        <v>175000</v>
+        <v>181500</v>
       </c>
       <c r="G22" s="3">
-        <v>93700</v>
+        <v>97100</v>
       </c>
       <c r="H22" s="3">
-        <v>92000</v>
+        <v>95300</v>
       </c>
       <c r="I22" s="3">
-        <v>88400</v>
+        <v>91700</v>
       </c>
       <c r="J22" s="3">
-        <v>128700</v>
+        <v>133400</v>
       </c>
       <c r="K22" s="3">
         <v>155200</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7587600</v>
+        <v>7865900</v>
       </c>
       <c r="E23" s="3">
-        <v>6480600</v>
+        <v>6718300</v>
       </c>
       <c r="F23" s="3">
-        <v>5600500</v>
+        <v>5805900</v>
       </c>
       <c r="G23" s="3">
-        <v>6943800</v>
+        <v>7198400</v>
       </c>
       <c r="H23" s="3">
-        <v>7905200</v>
+        <v>8195100</v>
       </c>
       <c r="I23" s="3">
-        <v>7139500</v>
+        <v>7401300</v>
       </c>
       <c r="J23" s="3">
-        <v>4505300</v>
+        <v>4670600</v>
       </c>
       <c r="K23" s="3">
         <v>6877200</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2194300</v>
+        <v>2274700</v>
       </c>
       <c r="E24" s="3">
-        <v>1549900</v>
+        <v>1606800</v>
       </c>
       <c r="F24" s="3">
-        <v>1985100</v>
+        <v>2057900</v>
       </c>
       <c r="G24" s="3">
-        <v>2148900</v>
+        <v>2227700</v>
       </c>
       <c r="H24" s="3">
-        <v>-96900</v>
+        <v>-100400</v>
       </c>
       <c r="I24" s="3">
-        <v>2322600</v>
+        <v>2407800</v>
       </c>
       <c r="J24" s="3">
-        <v>1624300</v>
+        <v>1683800</v>
       </c>
       <c r="K24" s="3">
         <v>2091000</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5393400</v>
+        <v>5591200</v>
       </c>
       <c r="E26" s="3">
-        <v>4930700</v>
+        <v>5111500</v>
       </c>
       <c r="F26" s="3">
-        <v>3615400</v>
+        <v>3748000</v>
       </c>
       <c r="G26" s="3">
-        <v>4794900</v>
+        <v>4970700</v>
       </c>
       <c r="H26" s="3">
-        <v>8002100</v>
+        <v>8295500</v>
       </c>
       <c r="I26" s="3">
-        <v>4816900</v>
+        <v>4993500</v>
       </c>
       <c r="J26" s="3">
-        <v>2881100</v>
+        <v>2986700</v>
       </c>
       <c r="K26" s="3">
         <v>4786200</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5013100</v>
+        <v>5196900</v>
       </c>
       <c r="E27" s="3">
-        <v>4661100</v>
+        <v>4832100</v>
       </c>
       <c r="F27" s="3">
-        <v>3231200</v>
+        <v>3349700</v>
       </c>
       <c r="G27" s="3">
-        <v>4327100</v>
+        <v>4485800</v>
       </c>
       <c r="H27" s="3">
-        <v>7510700</v>
+        <v>7786100</v>
       </c>
       <c r="I27" s="3">
-        <v>4371500</v>
+        <v>4531800</v>
       </c>
       <c r="J27" s="3">
-        <v>2442700</v>
+        <v>2532300</v>
       </c>
       <c r="K27" s="3">
         <v>4345500</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1530200</v>
+        <v>-1586300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1898100</v>
+        <v>-1967800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1283100</v>
+        <v>-1330100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1887500</v>
+        <v>-1956700</v>
       </c>
       <c r="H32" s="3">
-        <v>-2087200</v>
+        <v>-2163700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1267300</v>
+        <v>-1313800</v>
       </c>
       <c r="J32" s="3">
-        <v>-1065100</v>
+        <v>-1104100</v>
       </c>
       <c r="K32" s="3">
         <v>-1312200</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5013100</v>
+        <v>5196900</v>
       </c>
       <c r="E33" s="3">
-        <v>4661100</v>
+        <v>4832100</v>
       </c>
       <c r="F33" s="3">
-        <v>3231200</v>
+        <v>3349700</v>
       </c>
       <c r="G33" s="3">
-        <v>4327100</v>
+        <v>4485800</v>
       </c>
       <c r="H33" s="3">
-        <v>7510700</v>
+        <v>7786100</v>
       </c>
       <c r="I33" s="3">
-        <v>4371500</v>
+        <v>4531800</v>
       </c>
       <c r="J33" s="3">
-        <v>2442700</v>
+        <v>2532300</v>
       </c>
       <c r="K33" s="3">
         <v>4345500</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5013100</v>
+        <v>5196900</v>
       </c>
       <c r="E35" s="3">
-        <v>4661100</v>
+        <v>4832100</v>
       </c>
       <c r="F35" s="3">
-        <v>3231200</v>
+        <v>3349700</v>
       </c>
       <c r="G35" s="3">
-        <v>4327100</v>
+        <v>4485800</v>
       </c>
       <c r="H35" s="3">
-        <v>7510700</v>
+        <v>7786100</v>
       </c>
       <c r="I35" s="3">
-        <v>4371500</v>
+        <v>4531800</v>
       </c>
       <c r="J35" s="3">
-        <v>2442700</v>
+        <v>2532300</v>
       </c>
       <c r="K35" s="3">
         <v>4345500</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>26055300</v>
+        <v>27010700</v>
       </c>
       <c r="E41" s="3">
-        <v>19554400</v>
+        <v>20271400</v>
       </c>
       <c r="F41" s="3">
-        <v>18947000</v>
+        <v>19641800</v>
       </c>
       <c r="G41" s="3">
-        <v>17683300</v>
+        <v>18331800</v>
       </c>
       <c r="H41" s="3">
-        <v>15998500</v>
+        <v>16585200</v>
       </c>
       <c r="I41" s="3">
-        <v>14931400</v>
+        <v>15478900</v>
       </c>
       <c r="J41" s="3">
-        <v>12460400</v>
+        <v>12917300</v>
       </c>
       <c r="K41" s="3">
         <v>12553900</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1543800</v>
+        <v>1600400</v>
       </c>
       <c r="E42" s="3">
-        <v>2093700</v>
+        <v>2170500</v>
       </c>
       <c r="F42" s="3">
-        <v>1347500</v>
+        <v>1396900</v>
       </c>
       <c r="G42" s="3">
-        <v>1157600</v>
+        <v>1200100</v>
       </c>
       <c r="H42" s="3">
-        <v>1511400</v>
+        <v>1566900</v>
       </c>
       <c r="I42" s="3">
-        <v>1059400</v>
+        <v>1098300</v>
       </c>
       <c r="J42" s="3">
-        <v>730500</v>
+        <v>757300</v>
       </c>
       <c r="K42" s="3">
         <v>790800</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18369300</v>
+        <v>19043000</v>
       </c>
       <c r="E43" s="3">
-        <v>18409000</v>
+        <v>19084000</v>
       </c>
       <c r="F43" s="3">
-        <v>17812000</v>
+        <v>18465200</v>
       </c>
       <c r="G43" s="3">
-        <v>19461200</v>
+        <v>20174900</v>
       </c>
       <c r="H43" s="3">
-        <v>18725800</v>
+        <v>19412500</v>
       </c>
       <c r="I43" s="3">
-        <v>18738600</v>
+        <v>19425800</v>
       </c>
       <c r="J43" s="3">
-        <v>19516800</v>
+        <v>20232600</v>
       </c>
       <c r="K43" s="3">
         <v>24904500</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>13602500</v>
+        <v>14101300</v>
       </c>
       <c r="E44" s="3">
-        <v>10958300</v>
+        <v>11360200</v>
       </c>
       <c r="F44" s="3">
-        <v>11064400</v>
+        <v>11470200</v>
       </c>
       <c r="G44" s="3">
-        <v>11250300</v>
+        <v>11662900</v>
       </c>
       <c r="H44" s="3">
-        <v>10801300</v>
+        <v>11197400</v>
       </c>
       <c r="I44" s="3">
-        <v>9671700</v>
+        <v>10026400</v>
       </c>
       <c r="J44" s="3">
-        <v>9311200</v>
+        <v>9652700</v>
       </c>
       <c r="K44" s="3">
         <v>12780600</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3114800</v>
+        <v>3229000</v>
       </c>
       <c r="E45" s="3">
-        <v>2720400</v>
+        <v>2820200</v>
       </c>
       <c r="F45" s="3">
-        <v>2593300</v>
+        <v>2688400</v>
       </c>
       <c r="G45" s="3">
-        <v>2539900</v>
+        <v>2633000</v>
       </c>
       <c r="H45" s="3">
-        <v>2063200</v>
+        <v>2138900</v>
       </c>
       <c r="I45" s="3">
-        <v>2077200</v>
+        <v>2153300</v>
       </c>
       <c r="J45" s="3">
-        <v>2234200</v>
+        <v>2316100</v>
       </c>
       <c r="K45" s="3">
         <v>2676400</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>62685700</v>
+        <v>64984500</v>
       </c>
       <c r="E46" s="3">
-        <v>53735800</v>
+        <v>55706300</v>
       </c>
       <c r="F46" s="3">
-        <v>51764200</v>
+        <v>53662400</v>
       </c>
       <c r="G46" s="3">
-        <v>52092300</v>
+        <v>54002600</v>
       </c>
       <c r="H46" s="3">
-        <v>49100300</v>
+        <v>50900900</v>
       </c>
       <c r="I46" s="3">
-        <v>46478300</v>
+        <v>48182700</v>
       </c>
       <c r="J46" s="3">
-        <v>44253100</v>
+        <v>45876000</v>
       </c>
       <c r="K46" s="3">
         <v>53706100</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>39189600</v>
+        <v>40626700</v>
       </c>
       <c r="E47" s="3">
-        <v>36438600</v>
+        <v>37774800</v>
       </c>
       <c r="F47" s="3">
-        <v>31054200</v>
+        <v>32193000</v>
       </c>
       <c r="G47" s="3">
-        <v>32499200</v>
+        <v>33691000</v>
       </c>
       <c r="H47" s="3">
-        <v>30015100</v>
+        <v>31115800</v>
       </c>
       <c r="I47" s="3">
-        <v>28590300</v>
+        <v>29638800</v>
       </c>
       <c r="J47" s="3">
-        <v>28432700</v>
+        <v>29475400</v>
       </c>
       <c r="K47" s="3">
         <v>38813300</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>58411200</v>
+        <v>60553200</v>
       </c>
       <c r="E48" s="3">
-        <v>56304700</v>
+        <v>58369500</v>
       </c>
       <c r="F48" s="3">
-        <v>54435400</v>
+        <v>56431600</v>
       </c>
       <c r="G48" s="3">
-        <v>52683600</v>
+        <v>54615600</v>
       </c>
       <c r="H48" s="3">
-        <v>50697500</v>
+        <v>52556700</v>
       </c>
       <c r="I48" s="3">
-        <v>51792700</v>
+        <v>53692100</v>
       </c>
       <c r="J48" s="3">
-        <v>48337300</v>
+        <v>50109900</v>
       </c>
       <c r="K48" s="3">
         <v>55657200</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6023000</v>
+        <v>6243900</v>
       </c>
       <c r="E49" s="3">
-        <v>5805000</v>
+        <v>6017900</v>
       </c>
       <c r="F49" s="3">
-        <v>5391500</v>
+        <v>5589200</v>
       </c>
       <c r="G49" s="3">
-        <v>5277600</v>
+        <v>5471100</v>
       </c>
       <c r="H49" s="3">
-        <v>5257300</v>
+        <v>5450100</v>
       </c>
       <c r="I49" s="3">
-        <v>5517400</v>
+        <v>5719700</v>
       </c>
       <c r="J49" s="3">
-        <v>5848800</v>
+        <v>6063300</v>
       </c>
       <c r="K49" s="3">
         <v>6478800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3660200</v>
+        <v>3794400</v>
       </c>
       <c r="E52" s="3">
-        <v>3136000</v>
+        <v>3251000</v>
       </c>
       <c r="F52" s="3">
-        <v>2426500</v>
+        <v>2515500</v>
       </c>
       <c r="G52" s="3">
-        <v>2218900</v>
+        <v>2300300</v>
       </c>
       <c r="H52" s="3">
-        <v>2115400</v>
+        <v>2192900</v>
       </c>
       <c r="I52" s="3">
-        <v>2034400</v>
+        <v>2109000</v>
       </c>
       <c r="J52" s="3">
-        <v>2373700</v>
+        <v>2460700</v>
       </c>
       <c r="K52" s="3">
         <v>2517000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>169970000</v>
+        <v>176203000</v>
       </c>
       <c r="E54" s="3">
-        <v>155420000</v>
+        <v>161120000</v>
       </c>
       <c r="F54" s="3">
-        <v>145072000</v>
+        <v>150392000</v>
       </c>
       <c r="G54" s="3">
-        <v>144772000</v>
+        <v>150081000</v>
       </c>
       <c r="H54" s="3">
-        <v>137186000</v>
+        <v>142216000</v>
       </c>
       <c r="I54" s="3">
-        <v>134413000</v>
+        <v>139342000</v>
       </c>
       <c r="J54" s="3">
-        <v>129246000</v>
+        <v>133985000</v>
       </c>
       <c r="K54" s="3">
         <v>157172000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7427600</v>
+        <v>7700000</v>
       </c>
       <c r="E57" s="3">
-        <v>6691800</v>
+        <v>6937200</v>
       </c>
       <c r="F57" s="3">
-        <v>5985300</v>
+        <v>6204700</v>
       </c>
       <c r="G57" s="3">
-        <v>7487500</v>
+        <v>7762100</v>
       </c>
       <c r="H57" s="3">
-        <v>7625600</v>
+        <v>7905300</v>
       </c>
       <c r="I57" s="3">
-        <v>7184300</v>
+        <v>7447800</v>
       </c>
       <c r="J57" s="3">
-        <v>6817800</v>
+        <v>7067800</v>
       </c>
       <c r="K57" s="3">
         <v>8526500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22108800</v>
+        <v>22919500</v>
       </c>
       <c r="E58" s="3">
-        <v>21309900</v>
+        <v>22091300</v>
       </c>
       <c r="F58" s="3">
-        <v>23031600</v>
+        <v>23876200</v>
       </c>
       <c r="G58" s="3">
-        <v>22608500</v>
+        <v>23437500</v>
       </c>
       <c r="H58" s="3">
-        <v>20683400</v>
+        <v>21441900</v>
       </c>
       <c r="I58" s="3">
-        <v>19759300</v>
+        <v>20483900</v>
       </c>
       <c r="J58" s="3">
-        <v>19778400</v>
+        <v>20503700</v>
       </c>
       <c r="K58" s="3">
         <v>24170300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13034800</v>
+        <v>13512800</v>
       </c>
       <c r="E59" s="3">
-        <v>12520900</v>
+        <v>12980100</v>
       </c>
       <c r="F59" s="3">
-        <v>12034900</v>
+        <v>12476200</v>
       </c>
       <c r="G59" s="3">
-        <v>12310200</v>
+        <v>12761600</v>
       </c>
       <c r="H59" s="3">
-        <v>11565900</v>
+        <v>11990000</v>
       </c>
       <c r="I59" s="3">
-        <v>11546800</v>
+        <v>11970300</v>
       </c>
       <c r="J59" s="3">
-        <v>12188600</v>
+        <v>12635600</v>
       </c>
       <c r="K59" s="3">
         <v>12521200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42571200</v>
+        <v>44132300</v>
       </c>
       <c r="E60" s="3">
-        <v>40522600</v>
+        <v>42008600</v>
       </c>
       <c r="F60" s="3">
-        <v>41051700</v>
+        <v>42557100</v>
       </c>
       <c r="G60" s="3">
-        <v>42406200</v>
+        <v>43961300</v>
       </c>
       <c r="H60" s="3">
-        <v>39874900</v>
+        <v>41337100</v>
       </c>
       <c r="I60" s="3">
-        <v>38490500</v>
+        <v>39902000</v>
       </c>
       <c r="J60" s="3">
-        <v>38784800</v>
+        <v>40207100</v>
       </c>
       <c r="K60" s="3">
         <v>45218000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35338300</v>
+        <v>36634300</v>
       </c>
       <c r="E61" s="3">
-        <v>33431900</v>
+        <v>34657900</v>
       </c>
       <c r="F61" s="3">
-        <v>29928500</v>
+        <v>31026000</v>
       </c>
       <c r="G61" s="3">
-        <v>29369200</v>
+        <v>30446200</v>
       </c>
       <c r="H61" s="3">
-        <v>27521600</v>
+        <v>28530900</v>
       </c>
       <c r="I61" s="3">
-        <v>28517300</v>
+        <v>29563100</v>
       </c>
       <c r="J61" s="3">
-        <v>26492700</v>
+        <v>27464200</v>
       </c>
       <c r="K61" s="3">
         <v>33491100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15682800</v>
+        <v>16257900</v>
       </c>
       <c r="E62" s="3">
-        <v>15012200</v>
+        <v>15562700</v>
       </c>
       <c r="F62" s="3">
-        <v>15343600</v>
+        <v>15906300</v>
       </c>
       <c r="G62" s="3">
-        <v>12264800</v>
+        <v>12714500</v>
       </c>
       <c r="H62" s="3">
-        <v>11409400</v>
+        <v>11827800</v>
       </c>
       <c r="I62" s="3">
-        <v>13736600</v>
+        <v>14240400</v>
       </c>
       <c r="J62" s="3">
-        <v>14112800</v>
+        <v>14630400</v>
       </c>
       <c r="K62" s="3">
         <v>15487800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>95717300</v>
+        <v>99227400</v>
       </c>
       <c r="E66" s="3">
-        <v>91026600</v>
+        <v>94364600</v>
       </c>
       <c r="F66" s="3">
-        <v>88264900</v>
+        <v>91501700</v>
       </c>
       <c r="G66" s="3">
-        <v>86153400</v>
+        <v>89312800</v>
       </c>
       <c r="H66" s="3">
-        <v>80936800</v>
+        <v>83904900</v>
       </c>
       <c r="I66" s="3">
-        <v>82689400</v>
+        <v>85721800</v>
       </c>
       <c r="J66" s="3">
-        <v>81307100</v>
+        <v>84288800</v>
       </c>
       <c r="K66" s="3">
         <v>96535800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>67632500</v>
+        <v>70112600</v>
       </c>
       <c r="E72" s="3">
-        <v>63110000</v>
+        <v>65424300</v>
       </c>
       <c r="F72" s="3">
-        <v>57733500</v>
+        <v>59850700</v>
       </c>
       <c r="G72" s="3">
-        <v>56533100</v>
+        <v>58606200</v>
       </c>
       <c r="H72" s="3">
-        <v>53964300</v>
+        <v>55943300</v>
       </c>
       <c r="I72" s="3">
-        <v>47594400</v>
+        <v>49339800</v>
       </c>
       <c r="J72" s="3">
-        <v>43917700</v>
+        <v>45528200</v>
       </c>
       <c r="K72" s="3">
         <v>51892900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>74252300</v>
+        <v>76975300</v>
       </c>
       <c r="E76" s="3">
-        <v>64393500</v>
+        <v>66754900</v>
       </c>
       <c r="F76" s="3">
-        <v>56806900</v>
+        <v>58890100</v>
       </c>
       <c r="G76" s="3">
-        <v>58618100</v>
+        <v>60767700</v>
       </c>
       <c r="H76" s="3">
-        <v>56248800</v>
+        <v>58311500</v>
       </c>
       <c r="I76" s="3">
-        <v>51723600</v>
+        <v>53620400</v>
       </c>
       <c r="J76" s="3">
-        <v>47938600</v>
+        <v>49696500</v>
       </c>
       <c r="K76" s="3">
         <v>60636600</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5013100</v>
+        <v>5196900</v>
       </c>
       <c r="E81" s="3">
-        <v>4661100</v>
+        <v>4832100</v>
       </c>
       <c r="F81" s="3">
-        <v>3231200</v>
+        <v>3349700</v>
       </c>
       <c r="G81" s="3">
-        <v>4327100</v>
+        <v>4485800</v>
       </c>
       <c r="H81" s="3">
-        <v>7510700</v>
+        <v>7786100</v>
       </c>
       <c r="I81" s="3">
-        <v>4371500</v>
+        <v>4531800</v>
       </c>
       <c r="J81" s="3">
-        <v>2442700</v>
+        <v>2532300</v>
       </c>
       <c r="K81" s="3">
         <v>4345500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4332400</v>
+        <v>4491300</v>
       </c>
       <c r="E83" s="3">
-        <v>4425900</v>
+        <v>4588200</v>
       </c>
       <c r="F83" s="3">
-        <v>4962100</v>
+        <v>5144100</v>
       </c>
       <c r="G83" s="3">
-        <v>5116800</v>
+        <v>5304500</v>
       </c>
       <c r="H83" s="3">
-        <v>5055800</v>
+        <v>5241200</v>
       </c>
       <c r="I83" s="3">
-        <v>4781000</v>
+        <v>4956300</v>
       </c>
       <c r="J83" s="3">
-        <v>4684500</v>
+        <v>4856200</v>
       </c>
       <c r="K83" s="3">
         <v>5333200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11908500</v>
+        <v>12345200</v>
       </c>
       <c r="E89" s="3">
-        <v>7603200</v>
+        <v>7882000</v>
       </c>
       <c r="F89" s="3">
-        <v>6944100</v>
+        <v>7198700</v>
       </c>
       <c r="G89" s="3">
-        <v>5501800</v>
+        <v>5703500</v>
       </c>
       <c r="H89" s="3">
-        <v>7002600</v>
+        <v>7259400</v>
       </c>
       <c r="I89" s="3">
-        <v>6275200</v>
+        <v>6505300</v>
       </c>
       <c r="J89" s="3">
-        <v>9862200</v>
+        <v>10223800</v>
       </c>
       <c r="K89" s="3">
         <v>8704000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1901100</v>
+        <v>-1970900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2257500</v>
+        <v>-2340300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2624700</v>
+        <v>-2720900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2983200</v>
+        <v>-3092600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2946300</v>
+        <v>-3054400</v>
       </c>
       <c r="I91" s="3">
-        <v>-3503400</v>
+        <v>-3631900</v>
       </c>
       <c r="J91" s="3">
-        <v>-4503400</v>
+        <v>-4668500</v>
       </c>
       <c r="K91" s="3">
         <v>-5529200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2666200</v>
+        <v>-2764000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5649900</v>
+        <v>-5857100</v>
       </c>
       <c r="F94" s="3">
-        <v>-4392100</v>
+        <v>-4553200</v>
       </c>
       <c r="G94" s="3">
-        <v>-4094900</v>
+        <v>-4245000</v>
       </c>
       <c r="H94" s="3">
-        <v>-4361200</v>
+        <v>-4521100</v>
       </c>
       <c r="I94" s="3">
-        <v>-4612900</v>
+        <v>-4782000</v>
       </c>
       <c r="J94" s="3">
-        <v>-6204300</v>
+        <v>-6431800</v>
       </c>
       <c r="K94" s="3">
         <v>-7169400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1335800</v>
+        <v>-1384800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1028700</v>
+        <v>-1066400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1395300</v>
+        <v>-1446400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1377400</v>
+        <v>-1427900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1235200</v>
+        <v>-1280500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1150000</v>
+        <v>-1192200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1124500</v>
+        <v>-1165700</v>
       </c>
       <c r="K96" s="3">
         <v>-1352900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4365400</v>
+        <v>-4525500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2013400</v>
+        <v>-2087300</v>
       </c>
       <c r="F100" s="3">
-        <v>-619700</v>
+        <v>-642500</v>
       </c>
       <c r="G100" s="3">
-        <v>162500</v>
+        <v>168500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1236000</v>
+        <v>-1281400</v>
       </c>
       <c r="I100" s="3">
-        <v>818300</v>
+        <v>848400</v>
       </c>
       <c r="J100" s="3">
-        <v>-675700</v>
+        <v>-700400</v>
       </c>
       <c r="K100" s="3">
         <v>106500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1624100</v>
+        <v>1683600</v>
       </c>
       <c r="E101" s="3">
-        <v>667500</v>
+        <v>692000</v>
       </c>
       <c r="F101" s="3">
-        <v>-668500</v>
+        <v>-693000</v>
       </c>
       <c r="G101" s="3">
-        <v>115400</v>
+        <v>119600</v>
       </c>
       <c r="H101" s="3">
-        <v>-338300</v>
+        <v>-350700</v>
       </c>
       <c r="I101" s="3">
-        <v>-9600</v>
+        <v>-10000</v>
       </c>
       <c r="J101" s="3">
-        <v>-956400</v>
+        <v>-991500</v>
       </c>
       <c r="K101" s="3">
         <v>731400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6500900</v>
+        <v>6739300</v>
       </c>
       <c r="E102" s="3">
-        <v>607400</v>
+        <v>629700</v>
       </c>
       <c r="F102" s="3">
-        <v>1263700</v>
+        <v>1310000</v>
       </c>
       <c r="G102" s="3">
-        <v>1684800</v>
+        <v>1746600</v>
       </c>
       <c r="H102" s="3">
-        <v>1067100</v>
+        <v>1106300</v>
       </c>
       <c r="I102" s="3">
-        <v>2471000</v>
+        <v>2561600</v>
       </c>
       <c r="J102" s="3">
-        <v>2025800</v>
+        <v>2100100</v>
       </c>
       <c r="K102" s="3">
         <v>2372600</v>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>106962300</v>
+        <v>121904700</v>
       </c>
       <c r="E8" s="3">
-        <v>96803300</v>
+        <v>104924900</v>
       </c>
       <c r="F8" s="3">
-        <v>109742900</v>
+        <v>94959400</v>
       </c>
       <c r="G8" s="3">
-        <v>116781300</v>
+        <v>107652600</v>
       </c>
       <c r="H8" s="3">
-        <v>112904400</v>
+        <v>114556900</v>
       </c>
       <c r="I8" s="3">
-        <v>102894100</v>
+        <v>110753900</v>
       </c>
       <c r="J8" s="3">
+        <v>100934200</v>
+      </c>
+      <c r="K8" s="3">
         <v>107318500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>113688700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>114555800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>89790500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71850800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>85024200</v>
+        <v>97883900</v>
       </c>
       <c r="E9" s="3">
-        <v>76731700</v>
+        <v>83404700</v>
       </c>
       <c r="F9" s="3">
-        <v>87109700</v>
+        <v>75270200</v>
       </c>
       <c r="G9" s="3">
-        <v>92470000</v>
+        <v>85450500</v>
       </c>
       <c r="H9" s="3">
-        <v>88204300</v>
+        <v>90708600</v>
       </c>
       <c r="I9" s="3">
-        <v>79864000</v>
+        <v>86524200</v>
       </c>
       <c r="J9" s="3">
+        <v>78342800</v>
+      </c>
+      <c r="K9" s="3">
         <v>83293100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>88121600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>87849500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>66767500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53513500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21938100</v>
+        <v>24020800</v>
       </c>
       <c r="E10" s="3">
-        <v>20071600</v>
+        <v>21520200</v>
       </c>
       <c r="F10" s="3">
-        <v>22633200</v>
+        <v>19689300</v>
       </c>
       <c r="G10" s="3">
-        <v>24311400</v>
+        <v>22202100</v>
       </c>
       <c r="H10" s="3">
-        <v>24700200</v>
+        <v>23848300</v>
       </c>
       <c r="I10" s="3">
-        <v>23030100</v>
+        <v>24229700</v>
       </c>
       <c r="J10" s="3">
+        <v>22591500</v>
+      </c>
+      <c r="K10" s="3">
         <v>24025300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25567100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26706300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23023000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18337300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5784900</v>
+        <v>6351400</v>
       </c>
       <c r="E12" s="3">
-        <v>5430900</v>
+        <v>5674700</v>
       </c>
       <c r="F12" s="3">
-        <v>5910300</v>
+        <v>5327400</v>
       </c>
       <c r="G12" s="3">
-        <v>5930800</v>
+        <v>5797700</v>
       </c>
       <c r="H12" s="3">
-        <v>5526100</v>
+        <v>5817800</v>
       </c>
       <c r="I12" s="3">
-        <v>5082000</v>
+        <v>5420900</v>
       </c>
       <c r="J12" s="3">
+        <v>4985200</v>
+      </c>
+      <c r="K12" s="3">
         <v>4825300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5170600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5481100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5092900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4699200</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,9 +986,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>100558800</v>
+        <v>115852600</v>
       </c>
       <c r="E17" s="3">
-        <v>91950800</v>
+        <v>98643400</v>
       </c>
       <c r="F17" s="3">
-        <v>105085700</v>
+        <v>90199300</v>
       </c>
       <c r="G17" s="3">
-        <v>111442500</v>
+        <v>103084100</v>
       </c>
       <c r="H17" s="3">
-        <v>106777800</v>
+        <v>109319800</v>
       </c>
       <c r="I17" s="3">
-        <v>96714900</v>
+        <v>104743900</v>
       </c>
       <c r="J17" s="3">
+        <v>94872700</v>
+      </c>
+      <c r="K17" s="3">
         <v>103618600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>107968400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>107009200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>84838200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>69759200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6403600</v>
+        <v>6052100</v>
       </c>
       <c r="E18" s="3">
-        <v>4852500</v>
+        <v>6281600</v>
       </c>
       <c r="F18" s="3">
-        <v>4657200</v>
+        <v>4760100</v>
       </c>
       <c r="G18" s="3">
-        <v>5338800</v>
+        <v>4568500</v>
       </c>
       <c r="H18" s="3">
-        <v>6126700</v>
+        <v>5237100</v>
       </c>
       <c r="I18" s="3">
-        <v>6179200</v>
+        <v>6010000</v>
       </c>
       <c r="J18" s="3">
+        <v>6061500</v>
+      </c>
+      <c r="K18" s="3">
         <v>3699800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5720200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7546600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4952300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2091500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1586300</v>
+        <v>972700</v>
       </c>
       <c r="E20" s="3">
-        <v>1967800</v>
+        <v>1556100</v>
       </c>
       <c r="F20" s="3">
-        <v>1330100</v>
+        <v>1930300</v>
       </c>
       <c r="G20" s="3">
-        <v>1956700</v>
+        <v>1304800</v>
       </c>
       <c r="H20" s="3">
-        <v>2163700</v>
+        <v>1919500</v>
       </c>
       <c r="I20" s="3">
-        <v>1313800</v>
+        <v>2122500</v>
       </c>
       <c r="J20" s="3">
+        <v>1288800</v>
+      </c>
+      <c r="K20" s="3">
         <v>1104100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1312200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1125200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-397800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>329200</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>12438400</v>
+        <v>12263800</v>
       </c>
       <c r="E21" s="3">
-        <v>11364700</v>
+        <v>12274000</v>
       </c>
       <c r="F21" s="3">
-        <v>11082500</v>
+        <v>11222400</v>
       </c>
       <c r="G21" s="3">
-        <v>12549500</v>
+        <v>10954400</v>
       </c>
       <c r="H21" s="3">
-        <v>13481700</v>
+        <v>12396100</v>
       </c>
       <c r="I21" s="3">
-        <v>12402100</v>
+        <v>13309500</v>
       </c>
       <c r="J21" s="3">
+        <v>12245900</v>
+      </c>
+      <c r="K21" s="3">
         <v>9613900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12428100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14082600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9933700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7442300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>124000</v>
+        <v>260400</v>
       </c>
       <c r="E22" s="3">
-        <v>102000</v>
+        <v>121600</v>
       </c>
       <c r="F22" s="3">
-        <v>181500</v>
+        <v>100100</v>
       </c>
       <c r="G22" s="3">
-        <v>97100</v>
+        <v>178000</v>
       </c>
       <c r="H22" s="3">
         <v>95300</v>
       </c>
       <c r="I22" s="3">
-        <v>91700</v>
+        <v>93500</v>
       </c>
       <c r="J22" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K22" s="3">
         <v>133400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>155200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>117300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>110500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>93800</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7865900</v>
+        <v>6764400</v>
       </c>
       <c r="E23" s="3">
-        <v>6718300</v>
+        <v>7716100</v>
       </c>
       <c r="F23" s="3">
-        <v>5805900</v>
+        <v>6590300</v>
       </c>
       <c r="G23" s="3">
-        <v>7198400</v>
+        <v>5695300</v>
       </c>
       <c r="H23" s="3">
-        <v>8195100</v>
+        <v>7061300</v>
       </c>
       <c r="I23" s="3">
-        <v>7401300</v>
+        <v>8039000</v>
       </c>
       <c r="J23" s="3">
+        <v>7260400</v>
+      </c>
+      <c r="K23" s="3">
         <v>4670600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6877200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8554600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4444000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2326900</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2274700</v>
+        <v>1276400</v>
       </c>
       <c r="E24" s="3">
-        <v>1606800</v>
+        <v>2231400</v>
       </c>
       <c r="F24" s="3">
-        <v>2057900</v>
+        <v>1576200</v>
       </c>
       <c r="G24" s="3">
-        <v>2227700</v>
+        <v>2018700</v>
       </c>
       <c r="H24" s="3">
-        <v>-100400</v>
+        <v>2185300</v>
       </c>
       <c r="I24" s="3">
-        <v>2407800</v>
+        <v>-98500</v>
       </c>
       <c r="J24" s="3">
+        <v>2361900</v>
+      </c>
+      <c r="K24" s="3">
         <v>1683800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2091000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2454800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1626900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1227000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5591200</v>
+        <v>5488000</v>
       </c>
       <c r="E26" s="3">
-        <v>5111500</v>
+        <v>5484700</v>
       </c>
       <c r="F26" s="3">
-        <v>3748000</v>
+        <v>5014200</v>
       </c>
       <c r="G26" s="3">
-        <v>4970700</v>
+        <v>3676600</v>
       </c>
       <c r="H26" s="3">
-        <v>8295500</v>
+        <v>4876000</v>
       </c>
       <c r="I26" s="3">
-        <v>4993500</v>
+        <v>8137500</v>
       </c>
       <c r="J26" s="3">
+        <v>4898400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2986700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4786200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6099700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2817100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1099900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5196900</v>
+        <v>5012900</v>
       </c>
       <c r="E27" s="3">
-        <v>4832100</v>
+        <v>5098000</v>
       </c>
       <c r="F27" s="3">
-        <v>3349700</v>
+        <v>4740000</v>
       </c>
       <c r="G27" s="3">
-        <v>4485800</v>
+        <v>3285900</v>
       </c>
       <c r="H27" s="3">
-        <v>7786100</v>
+        <v>4400400</v>
       </c>
       <c r="I27" s="3">
-        <v>4531800</v>
+        <v>7637800</v>
       </c>
       <c r="J27" s="3">
+        <v>4445500</v>
+      </c>
+      <c r="K27" s="3">
         <v>2532300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4345500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6935700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3337400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1911800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1586300</v>
+        <v>-972700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1967800</v>
+        <v>-1556100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1330100</v>
+        <v>-1930300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1956700</v>
+        <v>-1304800</v>
       </c>
       <c r="H32" s="3">
-        <v>-2163700</v>
+        <v>-1919500</v>
       </c>
       <c r="I32" s="3">
-        <v>-1313800</v>
+        <v>-2122500</v>
       </c>
       <c r="J32" s="3">
+        <v>-1288800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1104100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1312200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1125200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>397800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-329200</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5196900</v>
+        <v>5012900</v>
       </c>
       <c r="E33" s="3">
-        <v>4832100</v>
+        <v>5098000</v>
       </c>
       <c r="F33" s="3">
-        <v>3349700</v>
+        <v>4740000</v>
       </c>
       <c r="G33" s="3">
-        <v>4485800</v>
+        <v>3285900</v>
       </c>
       <c r="H33" s="3">
-        <v>7786100</v>
+        <v>4400400</v>
       </c>
       <c r="I33" s="3">
-        <v>4531800</v>
+        <v>7637800</v>
       </c>
       <c r="J33" s="3">
+        <v>4445500</v>
+      </c>
+      <c r="K33" s="3">
         <v>2532300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4345500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6935700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3337400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1911800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5196900</v>
+        <v>5012900</v>
       </c>
       <c r="E35" s="3">
-        <v>4832100</v>
+        <v>5098000</v>
       </c>
       <c r="F35" s="3">
-        <v>3349700</v>
+        <v>4740000</v>
       </c>
       <c r="G35" s="3">
-        <v>4485800</v>
+        <v>3285900</v>
       </c>
       <c r="H35" s="3">
-        <v>7786100</v>
+        <v>4400400</v>
       </c>
       <c r="I35" s="3">
-        <v>4531800</v>
+        <v>7637800</v>
       </c>
       <c r="J35" s="3">
+        <v>4445500</v>
+      </c>
+      <c r="K35" s="3">
         <v>2532300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4345500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6935700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3337400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1911800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>27010700</v>
+        <v>27419700</v>
       </c>
       <c r="E41" s="3">
-        <v>20271400</v>
+        <v>26496300</v>
       </c>
       <c r="F41" s="3">
-        <v>19641800</v>
+        <v>19885300</v>
       </c>
       <c r="G41" s="3">
-        <v>18331800</v>
+        <v>19267700</v>
       </c>
       <c r="H41" s="3">
-        <v>16585200</v>
+        <v>17982600</v>
       </c>
       <c r="I41" s="3">
-        <v>15478900</v>
+        <v>16269300</v>
       </c>
       <c r="J41" s="3">
+        <v>15184100</v>
+      </c>
+      <c r="K41" s="3">
         <v>12917300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12553900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10933200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10963700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22547800</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1600400</v>
+        <v>1902700</v>
       </c>
       <c r="E42" s="3">
-        <v>2170500</v>
+        <v>1569900</v>
       </c>
       <c r="F42" s="3">
-        <v>1396900</v>
+        <v>2129200</v>
       </c>
       <c r="G42" s="3">
-        <v>1200100</v>
+        <v>1370300</v>
       </c>
       <c r="H42" s="3">
-        <v>1566900</v>
+        <v>1177200</v>
       </c>
       <c r="I42" s="3">
-        <v>1098300</v>
+        <v>1537000</v>
       </c>
       <c r="J42" s="3">
+        <v>1077400</v>
+      </c>
+      <c r="K42" s="3">
         <v>757300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>790800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>934500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3803700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3377000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>19043000</v>
+        <v>21339900</v>
       </c>
       <c r="E43" s="3">
-        <v>19084000</v>
+        <v>18680300</v>
       </c>
       <c r="F43" s="3">
-        <v>18465200</v>
+        <v>18720500</v>
       </c>
       <c r="G43" s="3">
-        <v>20174900</v>
+        <v>18113400</v>
       </c>
       <c r="H43" s="3">
-        <v>19412500</v>
+        <v>19790600</v>
       </c>
       <c r="I43" s="3">
-        <v>19425800</v>
+        <v>19042800</v>
       </c>
       <c r="J43" s="3">
+        <v>19055800</v>
+      </c>
+      <c r="K43" s="3">
         <v>20232600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24904500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>48501300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20443300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34241300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14101300</v>
+        <v>15625400</v>
       </c>
       <c r="E44" s="3">
-        <v>11360200</v>
+        <v>13832700</v>
       </c>
       <c r="F44" s="3">
-        <v>11470200</v>
+        <v>11143800</v>
       </c>
       <c r="G44" s="3">
-        <v>11662900</v>
+        <v>11251700</v>
       </c>
       <c r="H44" s="3">
-        <v>11197400</v>
+        <v>11440700</v>
       </c>
       <c r="I44" s="3">
-        <v>10026400</v>
+        <v>10984100</v>
       </c>
       <c r="J44" s="3">
+        <v>9835400</v>
+      </c>
+      <c r="K44" s="3">
         <v>9652700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12780600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16569000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11048200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18726900</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3229000</v>
+        <v>2772200</v>
       </c>
       <c r="E45" s="3">
-        <v>2820200</v>
+        <v>3167500</v>
       </c>
       <c r="F45" s="3">
-        <v>2688400</v>
+        <v>2766400</v>
       </c>
       <c r="G45" s="3">
-        <v>2633000</v>
+        <v>2637200</v>
       </c>
       <c r="H45" s="3">
-        <v>2138900</v>
+        <v>2582900</v>
       </c>
       <c r="I45" s="3">
-        <v>2153300</v>
+        <v>2098200</v>
       </c>
       <c r="J45" s="3">
+        <v>2112300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2316100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2676400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4111800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2127700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6789700</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>64984500</v>
+        <v>69059900</v>
       </c>
       <c r="E46" s="3">
-        <v>55706300</v>
+        <v>63746700</v>
       </c>
       <c r="F46" s="3">
-        <v>53662400</v>
+        <v>54645200</v>
       </c>
       <c r="G46" s="3">
-        <v>54002600</v>
+        <v>52640300</v>
       </c>
       <c r="H46" s="3">
-        <v>50900900</v>
+        <v>52974000</v>
       </c>
       <c r="I46" s="3">
-        <v>48182700</v>
+        <v>49931300</v>
       </c>
       <c r="J46" s="3">
+        <v>47264900</v>
+      </c>
+      <c r="K46" s="3">
         <v>45876000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53706100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>50830300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>48386600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42841300</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>40626700</v>
+        <v>41574800</v>
       </c>
       <c r="E47" s="3">
-        <v>37774800</v>
+        <v>39852800</v>
       </c>
       <c r="F47" s="3">
-        <v>32193000</v>
+        <v>37055300</v>
       </c>
       <c r="G47" s="3">
-        <v>33691000</v>
+        <v>31579800</v>
       </c>
       <c r="H47" s="3">
-        <v>31115800</v>
+        <v>33049200</v>
       </c>
       <c r="I47" s="3">
-        <v>29638800</v>
+        <v>30523100</v>
       </c>
       <c r="J47" s="3">
+        <v>29074200</v>
+      </c>
+      <c r="K47" s="3">
         <v>29475400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>38813300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>74633600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29517500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>50608400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>60553200</v>
+        <v>56918600</v>
       </c>
       <c r="E48" s="3">
-        <v>58369500</v>
+        <v>59399800</v>
       </c>
       <c r="F48" s="3">
-        <v>56431600</v>
+        <v>57257700</v>
       </c>
       <c r="G48" s="3">
-        <v>54615600</v>
+        <v>55356700</v>
       </c>
       <c r="H48" s="3">
-        <v>52556700</v>
+        <v>53575300</v>
       </c>
       <c r="I48" s="3">
-        <v>53692100</v>
+        <v>51555600</v>
       </c>
       <c r="J48" s="3">
+        <v>52669300</v>
+      </c>
+      <c r="K48" s="3">
         <v>50109900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>55657200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>94385600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38565800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>65025200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6243900</v>
+        <v>6279200</v>
       </c>
       <c r="E49" s="3">
-        <v>6017900</v>
+        <v>6124900</v>
       </c>
       <c r="F49" s="3">
-        <v>5589200</v>
+        <v>5903300</v>
       </c>
       <c r="G49" s="3">
-        <v>5471100</v>
+        <v>5482700</v>
       </c>
       <c r="H49" s="3">
-        <v>5450100</v>
+        <v>5366900</v>
       </c>
       <c r="I49" s="3">
-        <v>5719700</v>
+        <v>5346300</v>
       </c>
       <c r="J49" s="3">
+        <v>5610800</v>
+      </c>
+      <c r="K49" s="3">
         <v>6063300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6478800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6135200</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3794400</v>
+        <v>4038600</v>
       </c>
       <c r="E52" s="3">
-        <v>3251000</v>
+        <v>3722100</v>
       </c>
       <c r="F52" s="3">
-        <v>2515500</v>
+        <v>3189100</v>
       </c>
       <c r="G52" s="3">
-        <v>2300300</v>
+        <v>2467600</v>
       </c>
       <c r="H52" s="3">
-        <v>2192900</v>
+        <v>2256500</v>
       </c>
       <c r="I52" s="3">
-        <v>2109000</v>
+        <v>2151200</v>
       </c>
       <c r="J52" s="3">
+        <v>2068800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2460700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2517000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11252000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7475600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8759700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>176203000</v>
+        <v>177871000</v>
       </c>
       <c r="E54" s="3">
-        <v>161120000</v>
+        <v>172846000</v>
       </c>
       <c r="F54" s="3">
-        <v>150392000</v>
+        <v>158051000</v>
       </c>
       <c r="G54" s="3">
-        <v>150081000</v>
+        <v>147527000</v>
       </c>
       <c r="H54" s="3">
-        <v>142216000</v>
+        <v>147222000</v>
       </c>
       <c r="I54" s="3">
-        <v>139342000</v>
+        <v>139508000</v>
       </c>
       <c r="J54" s="3">
+        <v>136688000</v>
+      </c>
+      <c r="K54" s="3">
         <v>133985000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>157172000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>147004000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123945000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>106560000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7700000</v>
+        <v>10283900</v>
       </c>
       <c r="E57" s="3">
-        <v>6937200</v>
+        <v>7553400</v>
       </c>
       <c r="F57" s="3">
-        <v>6204700</v>
+        <v>6805000</v>
       </c>
       <c r="G57" s="3">
-        <v>7762100</v>
+        <v>6086600</v>
       </c>
       <c r="H57" s="3">
-        <v>7905300</v>
+        <v>7614200</v>
       </c>
       <c r="I57" s="3">
-        <v>7447800</v>
+        <v>7754700</v>
       </c>
       <c r="J57" s="3">
+        <v>7305900</v>
+      </c>
+      <c r="K57" s="3">
         <v>7067800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8526500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18367000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8981000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17518500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22919500</v>
+        <v>23729500</v>
       </c>
       <c r="E58" s="3">
-        <v>22091300</v>
+        <v>22483000</v>
       </c>
       <c r="F58" s="3">
-        <v>23876200</v>
+        <v>21670500</v>
       </c>
       <c r="G58" s="3">
-        <v>23437500</v>
+        <v>23421400</v>
       </c>
       <c r="H58" s="3">
-        <v>21441900</v>
+        <v>22991100</v>
       </c>
       <c r="I58" s="3">
-        <v>20483900</v>
+        <v>21033500</v>
       </c>
       <c r="J58" s="3">
+        <v>20093800</v>
+      </c>
+      <c r="K58" s="3">
         <v>20503700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24170300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>48046400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19846600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33922500</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13512800</v>
+        <v>13616500</v>
       </c>
       <c r="E59" s="3">
-        <v>12980100</v>
+        <v>13255400</v>
       </c>
       <c r="F59" s="3">
-        <v>12476200</v>
+        <v>12732900</v>
       </c>
       <c r="G59" s="3">
-        <v>12761600</v>
+        <v>12238600</v>
       </c>
       <c r="H59" s="3">
-        <v>11990000</v>
+        <v>12518600</v>
       </c>
       <c r="I59" s="3">
-        <v>11970300</v>
+        <v>11761600</v>
       </c>
       <c r="J59" s="3">
+        <v>11742300</v>
+      </c>
+      <c r="K59" s="3">
         <v>12635600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12521200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11605700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8341400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13281100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44132300</v>
+        <v>47629900</v>
       </c>
       <c r="E60" s="3">
-        <v>42008600</v>
+        <v>43291700</v>
       </c>
       <c r="F60" s="3">
-        <v>42557100</v>
+        <v>41208400</v>
       </c>
       <c r="G60" s="3">
-        <v>43961300</v>
+        <v>41746500</v>
       </c>
       <c r="H60" s="3">
-        <v>41337100</v>
+        <v>43123900</v>
       </c>
       <c r="I60" s="3">
-        <v>39902000</v>
+        <v>40549800</v>
       </c>
       <c r="J60" s="3">
+        <v>39142000</v>
+      </c>
+      <c r="K60" s="3">
         <v>40207100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45218000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43526500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>37169000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32361000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36634300</v>
+        <v>31536300</v>
       </c>
       <c r="E61" s="3">
-        <v>34657900</v>
+        <v>35936500</v>
       </c>
       <c r="F61" s="3">
-        <v>31026000</v>
+        <v>33997800</v>
       </c>
       <c r="G61" s="3">
-        <v>30446200</v>
+        <v>30435100</v>
       </c>
       <c r="H61" s="3">
-        <v>28530900</v>
+        <v>29866300</v>
       </c>
       <c r="I61" s="3">
-        <v>29563100</v>
+        <v>27987400</v>
       </c>
       <c r="J61" s="3">
+        <v>29000000</v>
+      </c>
+      <c r="K61" s="3">
         <v>27464200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33491100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30205100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24641600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20204400</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16257900</v>
+        <v>15457300</v>
       </c>
       <c r="E62" s="3">
-        <v>15562700</v>
+        <v>15948200</v>
       </c>
       <c r="F62" s="3">
-        <v>15906300</v>
+        <v>15266300</v>
       </c>
       <c r="G62" s="3">
-        <v>12714500</v>
+        <v>15603300</v>
       </c>
       <c r="H62" s="3">
-        <v>11827800</v>
+        <v>12472400</v>
       </c>
       <c r="I62" s="3">
-        <v>14240400</v>
+        <v>11602500</v>
       </c>
       <c r="J62" s="3">
+        <v>13969100</v>
+      </c>
+      <c r="K62" s="3">
         <v>14630400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15487800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27511500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14817500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26149500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99227400</v>
+        <v>96916600</v>
       </c>
       <c r="E66" s="3">
-        <v>94364600</v>
+        <v>97337400</v>
       </c>
       <c r="F66" s="3">
-        <v>91501700</v>
+        <v>92567200</v>
       </c>
       <c r="G66" s="3">
-        <v>89312800</v>
+        <v>89758800</v>
       </c>
       <c r="H66" s="3">
-        <v>83904900</v>
+        <v>87611600</v>
       </c>
       <c r="I66" s="3">
-        <v>85721800</v>
+        <v>82306700</v>
       </c>
       <c r="J66" s="3">
+        <v>84089000</v>
+      </c>
+      <c r="K66" s="3">
         <v>84288800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>96535800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88970200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78100000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66854200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>70112600</v>
+        <v>72272900</v>
       </c>
       <c r="E72" s="3">
-        <v>65424300</v>
+        <v>68777100</v>
       </c>
       <c r="F72" s="3">
-        <v>59850700</v>
+        <v>64178100</v>
       </c>
       <c r="G72" s="3">
-        <v>58606200</v>
+        <v>58710700</v>
       </c>
       <c r="H72" s="3">
-        <v>55943300</v>
+        <v>57489900</v>
       </c>
       <c r="I72" s="3">
-        <v>49339800</v>
+        <v>54877700</v>
       </c>
       <c r="J72" s="3">
+        <v>48400000</v>
+      </c>
+      <c r="K72" s="3">
         <v>45528200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>51892900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>112779000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54987500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>104637000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>76975300</v>
+        <v>80954600</v>
       </c>
       <c r="E76" s="3">
-        <v>66754900</v>
+        <v>75509100</v>
       </c>
       <c r="F76" s="3">
-        <v>58890100</v>
+        <v>65483400</v>
       </c>
       <c r="G76" s="3">
-        <v>60767700</v>
+        <v>57768400</v>
       </c>
       <c r="H76" s="3">
-        <v>58311500</v>
+        <v>59610300</v>
       </c>
       <c r="I76" s="3">
-        <v>53620400</v>
+        <v>57200800</v>
       </c>
       <c r="J76" s="3">
+        <v>52599100</v>
+      </c>
+      <c r="K76" s="3">
         <v>49696500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>60636600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>58033500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>45845400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39705700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5196900</v>
+        <v>5012900</v>
       </c>
       <c r="E81" s="3">
-        <v>4832100</v>
+        <v>5098000</v>
       </c>
       <c r="F81" s="3">
-        <v>3349700</v>
+        <v>4740000</v>
       </c>
       <c r="G81" s="3">
-        <v>4485800</v>
+        <v>3285900</v>
       </c>
       <c r="H81" s="3">
-        <v>7786100</v>
+        <v>4400400</v>
       </c>
       <c r="I81" s="3">
-        <v>4531800</v>
+        <v>7637800</v>
       </c>
       <c r="J81" s="3">
+        <v>4445500</v>
+      </c>
+      <c r="K81" s="3">
         <v>2532300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4345500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6935700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3337400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1911800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4491300</v>
+        <v>5203000</v>
       </c>
       <c r="E83" s="3">
-        <v>4588200</v>
+        <v>4405800</v>
       </c>
       <c r="F83" s="3">
-        <v>5144100</v>
+        <v>4500800</v>
       </c>
       <c r="G83" s="3">
-        <v>5304500</v>
+        <v>5046100</v>
       </c>
       <c r="H83" s="3">
-        <v>5241200</v>
+        <v>5203400</v>
       </c>
       <c r="I83" s="3">
-        <v>4956300</v>
+        <v>5141400</v>
       </c>
       <c r="J83" s="3">
+        <v>4861900</v>
+      </c>
+      <c r="K83" s="3">
         <v>4856200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5333200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5387300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5367400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5016000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12345200</v>
+        <v>15350200</v>
       </c>
       <c r="E89" s="3">
-        <v>7882000</v>
+        <v>12110100</v>
       </c>
       <c r="F89" s="3">
-        <v>7198700</v>
+        <v>7731900</v>
       </c>
       <c r="G89" s="3">
-        <v>5703500</v>
+        <v>7061600</v>
       </c>
       <c r="H89" s="3">
-        <v>7259400</v>
+        <v>5594900</v>
       </c>
       <c r="I89" s="3">
-        <v>6505300</v>
+        <v>7121100</v>
       </c>
       <c r="J89" s="3">
+        <v>6381400</v>
+      </c>
+      <c r="K89" s="3">
         <v>10223800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8704000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4113800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7278800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6884300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1970900</v>
+        <v>-3425100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2340300</v>
+        <v>-1933300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2720900</v>
+        <v>-2295700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3092600</v>
+        <v>-2669100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3054400</v>
+        <v>-3033700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3631900</v>
+        <v>-2996200</v>
       </c>
       <c r="J91" s="3">
+        <v>-3562700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4668500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5529200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24001700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12907800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9772100</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2764000</v>
+        <v>-4888800</v>
       </c>
       <c r="E94" s="3">
-        <v>-5857100</v>
+        <v>-2711400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4553200</v>
+        <v>-5745500</v>
       </c>
       <c r="G94" s="3">
-        <v>-4245000</v>
+        <v>-4466500</v>
       </c>
       <c r="H94" s="3">
-        <v>-4521100</v>
+        <v>-4164200</v>
       </c>
       <c r="I94" s="3">
-        <v>-4782000</v>
+        <v>-4435000</v>
       </c>
       <c r="J94" s="3">
+        <v>-4691000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6431800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7169400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8436600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9724100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1384800</v>
+        <v>-1539200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1066400</v>
+        <v>-1358400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1446400</v>
+        <v>-1046100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1427900</v>
+        <v>-1418900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1280500</v>
+        <v>-1400700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1192200</v>
+        <v>-1256100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1169500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1165700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1352900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1304200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1179600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-977600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4525500</v>
+        <v>-10586900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2087300</v>
+        <v>-4439300</v>
       </c>
       <c r="F100" s="3">
-        <v>-642500</v>
+        <v>-2047500</v>
       </c>
       <c r="G100" s="3">
-        <v>168500</v>
+        <v>-630200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1281400</v>
+        <v>165300</v>
       </c>
       <c r="I100" s="3">
-        <v>848400</v>
+        <v>-1256900</v>
       </c>
       <c r="J100" s="3">
+        <v>832200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-700400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>106500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3256000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1086900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-616800</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1683600</v>
+        <v>1048900</v>
       </c>
       <c r="E101" s="3">
-        <v>692000</v>
+        <v>1651500</v>
       </c>
       <c r="F101" s="3">
-        <v>-693000</v>
+        <v>678800</v>
       </c>
       <c r="G101" s="3">
-        <v>119600</v>
+        <v>-679800</v>
       </c>
       <c r="H101" s="3">
-        <v>-350700</v>
+        <v>117300</v>
       </c>
       <c r="I101" s="3">
-        <v>-10000</v>
+        <v>-344000</v>
       </c>
       <c r="J101" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-991500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>731400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>361200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>985900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-471400</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6739300</v>
+        <v>923500</v>
       </c>
       <c r="E102" s="3">
-        <v>629700</v>
+        <v>6610900</v>
       </c>
       <c r="F102" s="3">
-        <v>1310000</v>
+        <v>617700</v>
       </c>
       <c r="G102" s="3">
-        <v>1746600</v>
+        <v>1285100</v>
       </c>
       <c r="H102" s="3">
-        <v>1106300</v>
+        <v>1713300</v>
       </c>
       <c r="I102" s="3">
-        <v>2561600</v>
+        <v>1085200</v>
       </c>
       <c r="J102" s="3">
+        <v>2512800</v>
+      </c>
+      <c r="K102" s="3">
         <v>2100100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2372600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-705600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-372600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-288500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>121904700</v>
+        <v>116156100</v>
       </c>
       <c r="E8" s="3">
-        <v>104924900</v>
+        <v>99977000</v>
       </c>
       <c r="F8" s="3">
-        <v>94959400</v>
+        <v>90481500</v>
       </c>
       <c r="G8" s="3">
-        <v>107652600</v>
+        <v>102576000</v>
       </c>
       <c r="H8" s="3">
-        <v>114556900</v>
+        <v>109154800</v>
       </c>
       <c r="I8" s="3">
-        <v>110753900</v>
+        <v>105531100</v>
       </c>
       <c r="J8" s="3">
-        <v>100934200</v>
+        <v>96174500</v>
       </c>
       <c r="K8" s="3">
         <v>107318500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>97883900</v>
+        <v>93268000</v>
       </c>
       <c r="E9" s="3">
-        <v>83404700</v>
+        <v>79471600</v>
       </c>
       <c r="F9" s="3">
-        <v>75270200</v>
+        <v>71720700</v>
       </c>
       <c r="G9" s="3">
-        <v>85450500</v>
+        <v>81420900</v>
       </c>
       <c r="H9" s="3">
-        <v>90708600</v>
+        <v>86431100</v>
       </c>
       <c r="I9" s="3">
-        <v>86524200</v>
+        <v>82444000</v>
       </c>
       <c r="J9" s="3">
-        <v>78342800</v>
+        <v>74648400</v>
       </c>
       <c r="K9" s="3">
         <v>83293100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24020800</v>
+        <v>22888000</v>
       </c>
       <c r="E10" s="3">
-        <v>21520200</v>
+        <v>20505400</v>
       </c>
       <c r="F10" s="3">
-        <v>19689300</v>
+        <v>18760800</v>
       </c>
       <c r="G10" s="3">
-        <v>22202100</v>
+        <v>21155100</v>
       </c>
       <c r="H10" s="3">
-        <v>23848300</v>
+        <v>22723700</v>
       </c>
       <c r="I10" s="3">
-        <v>24229700</v>
+        <v>23087100</v>
       </c>
       <c r="J10" s="3">
-        <v>22591500</v>
+        <v>21526100</v>
       </c>
       <c r="K10" s="3">
         <v>24025300</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6351400</v>
+        <v>6051900</v>
       </c>
       <c r="E12" s="3">
-        <v>5674700</v>
+        <v>5407100</v>
       </c>
       <c r="F12" s="3">
-        <v>5327400</v>
+        <v>5076200</v>
       </c>
       <c r="G12" s="3">
-        <v>5797700</v>
+        <v>5524300</v>
       </c>
       <c r="H12" s="3">
-        <v>5817800</v>
+        <v>5543400</v>
       </c>
       <c r="I12" s="3">
-        <v>5420900</v>
+        <v>5165300</v>
       </c>
       <c r="J12" s="3">
-        <v>4985200</v>
+        <v>4750100</v>
       </c>
       <c r="K12" s="3">
         <v>4825300</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>115852600</v>
+        <v>110792200</v>
       </c>
       <c r="E17" s="3">
-        <v>98643400</v>
+        <v>93991700</v>
       </c>
       <c r="F17" s="3">
-        <v>90199300</v>
+        <v>85945800</v>
       </c>
       <c r="G17" s="3">
-        <v>103084100</v>
+        <v>98222900</v>
       </c>
       <c r="H17" s="3">
-        <v>109319800</v>
+        <v>104164600</v>
       </c>
       <c r="I17" s="3">
-        <v>104743900</v>
+        <v>99804500</v>
       </c>
       <c r="J17" s="3">
-        <v>94872700</v>
+        <v>90398800</v>
       </c>
       <c r="K17" s="3">
         <v>103618600</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6052100</v>
+        <v>5363900</v>
       </c>
       <c r="E18" s="3">
-        <v>6281600</v>
+        <v>5985400</v>
       </c>
       <c r="F18" s="3">
-        <v>4760100</v>
+        <v>4535600</v>
       </c>
       <c r="G18" s="3">
-        <v>4568500</v>
+        <v>4353100</v>
       </c>
       <c r="H18" s="3">
-        <v>5237100</v>
+        <v>4990200</v>
       </c>
       <c r="I18" s="3">
-        <v>6010000</v>
+        <v>5726500</v>
       </c>
       <c r="J18" s="3">
-        <v>6061500</v>
+        <v>5775700</v>
       </c>
       <c r="K18" s="3">
         <v>3699800</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>972700</v>
+        <v>926800</v>
       </c>
       <c r="E20" s="3">
-        <v>1556100</v>
+        <v>1482700</v>
       </c>
       <c r="F20" s="3">
-        <v>1930300</v>
+        <v>1839300</v>
       </c>
       <c r="G20" s="3">
-        <v>1304800</v>
+        <v>1243300</v>
       </c>
       <c r="H20" s="3">
-        <v>1919500</v>
+        <v>1828900</v>
       </c>
       <c r="I20" s="3">
-        <v>2122500</v>
+        <v>2022400</v>
       </c>
       <c r="J20" s="3">
-        <v>1288800</v>
+        <v>1228000</v>
       </c>
       <c r="K20" s="3">
         <v>1104100</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>12263800</v>
+        <v>11248300</v>
       </c>
       <c r="E21" s="3">
-        <v>12274000</v>
+        <v>11666100</v>
       </c>
       <c r="F21" s="3">
-        <v>11222400</v>
+        <v>10663400</v>
       </c>
       <c r="G21" s="3">
-        <v>10954400</v>
+        <v>10404500</v>
       </c>
       <c r="H21" s="3">
-        <v>12396100</v>
+        <v>11777200</v>
       </c>
       <c r="I21" s="3">
-        <v>13309500</v>
+        <v>12647900</v>
       </c>
       <c r="J21" s="3">
-        <v>12245900</v>
+        <v>11636300</v>
       </c>
       <c r="K21" s="3">
         <v>9613900</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>260400</v>
+        <v>248100</v>
       </c>
       <c r="E22" s="3">
-        <v>121600</v>
+        <v>115900</v>
       </c>
       <c r="F22" s="3">
-        <v>100100</v>
+        <v>95300</v>
       </c>
       <c r="G22" s="3">
-        <v>178000</v>
+        <v>169600</v>
       </c>
       <c r="H22" s="3">
-        <v>95300</v>
+        <v>90800</v>
       </c>
       <c r="I22" s="3">
-        <v>93500</v>
+        <v>89100</v>
       </c>
       <c r="J22" s="3">
-        <v>89900</v>
+        <v>85700</v>
       </c>
       <c r="K22" s="3">
         <v>133400</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>6764400</v>
+        <v>6042600</v>
       </c>
       <c r="E23" s="3">
-        <v>7716100</v>
+        <v>7352200</v>
       </c>
       <c r="F23" s="3">
-        <v>6590300</v>
+        <v>6279500</v>
       </c>
       <c r="G23" s="3">
-        <v>5695300</v>
+        <v>5426700</v>
       </c>
       <c r="H23" s="3">
-        <v>7061300</v>
+        <v>6728300</v>
       </c>
       <c r="I23" s="3">
-        <v>8039000</v>
+        <v>7659900</v>
       </c>
       <c r="J23" s="3">
-        <v>7260400</v>
+        <v>6918000</v>
       </c>
       <c r="K23" s="3">
         <v>4670600</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1276400</v>
+        <v>1114700</v>
       </c>
       <c r="E24" s="3">
-        <v>2231400</v>
+        <v>2126200</v>
       </c>
       <c r="F24" s="3">
-        <v>1576200</v>
+        <v>1501800</v>
       </c>
       <c r="G24" s="3">
-        <v>2018700</v>
+        <v>1923500</v>
       </c>
       <c r="H24" s="3">
-        <v>2185300</v>
+        <v>2082200</v>
       </c>
       <c r="I24" s="3">
-        <v>-98500</v>
+        <v>-93900</v>
       </c>
       <c r="J24" s="3">
-        <v>2361900</v>
+        <v>2250600</v>
       </c>
       <c r="K24" s="3">
         <v>1683800</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5488000</v>
+        <v>4927900</v>
       </c>
       <c r="E26" s="3">
-        <v>5484700</v>
+        <v>5226000</v>
       </c>
       <c r="F26" s="3">
-        <v>5014200</v>
+        <v>4777700</v>
       </c>
       <c r="G26" s="3">
-        <v>3676600</v>
+        <v>3503200</v>
       </c>
       <c r="H26" s="3">
-        <v>4876000</v>
+        <v>4646100</v>
       </c>
       <c r="I26" s="3">
-        <v>8137500</v>
+        <v>7753700</v>
       </c>
       <c r="J26" s="3">
-        <v>4898400</v>
+        <v>4667400</v>
       </c>
       <c r="K26" s="3">
         <v>2986700</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5012900</v>
+        <v>4475200</v>
       </c>
       <c r="E27" s="3">
-        <v>5098000</v>
+        <v>4857600</v>
       </c>
       <c r="F27" s="3">
-        <v>4740000</v>
+        <v>4516500</v>
       </c>
       <c r="G27" s="3">
-        <v>3285900</v>
+        <v>3131000</v>
       </c>
       <c r="H27" s="3">
-        <v>4400400</v>
+        <v>4192900</v>
       </c>
       <c r="I27" s="3">
-        <v>7637800</v>
+        <v>7277600</v>
       </c>
       <c r="J27" s="3">
-        <v>4445500</v>
+        <v>4235800</v>
       </c>
       <c r="K27" s="3">
         <v>2532300</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-972700</v>
+        <v>-926800</v>
       </c>
       <c r="E32" s="3">
-        <v>-1556100</v>
+        <v>-1482700</v>
       </c>
       <c r="F32" s="3">
-        <v>-1930300</v>
+        <v>-1839300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1304800</v>
+        <v>-1243300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1919500</v>
+        <v>-1828900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2122500</v>
+        <v>-2022400</v>
       </c>
       <c r="J32" s="3">
-        <v>-1288800</v>
+        <v>-1228000</v>
       </c>
       <c r="K32" s="3">
         <v>-1104100</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5012900</v>
+        <v>4475200</v>
       </c>
       <c r="E33" s="3">
-        <v>5098000</v>
+        <v>4857600</v>
       </c>
       <c r="F33" s="3">
-        <v>4740000</v>
+        <v>4516500</v>
       </c>
       <c r="G33" s="3">
-        <v>3285900</v>
+        <v>3131000</v>
       </c>
       <c r="H33" s="3">
-        <v>4400400</v>
+        <v>4192900</v>
       </c>
       <c r="I33" s="3">
-        <v>7637800</v>
+        <v>7277600</v>
       </c>
       <c r="J33" s="3">
-        <v>4445500</v>
+        <v>4235800</v>
       </c>
       <c r="K33" s="3">
         <v>2532300</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5012900</v>
+        <v>4475200</v>
       </c>
       <c r="E35" s="3">
-        <v>5098000</v>
+        <v>4857600</v>
       </c>
       <c r="F35" s="3">
-        <v>4740000</v>
+        <v>4516500</v>
       </c>
       <c r="G35" s="3">
-        <v>3285900</v>
+        <v>3131000</v>
       </c>
       <c r="H35" s="3">
-        <v>4400400</v>
+        <v>4192900</v>
       </c>
       <c r="I35" s="3">
-        <v>7637800</v>
+        <v>7277600</v>
       </c>
       <c r="J35" s="3">
-        <v>4445500</v>
+        <v>4235800</v>
       </c>
       <c r="K35" s="3">
         <v>2532300</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>27419700</v>
+        <v>26126700</v>
       </c>
       <c r="E41" s="3">
-        <v>26496300</v>
+        <v>25246800</v>
       </c>
       <c r="F41" s="3">
-        <v>19885300</v>
+        <v>18947600</v>
       </c>
       <c r="G41" s="3">
-        <v>19267700</v>
+        <v>18359100</v>
       </c>
       <c r="H41" s="3">
-        <v>17982600</v>
+        <v>17134600</v>
       </c>
       <c r="I41" s="3">
-        <v>16269300</v>
+        <v>15502100</v>
       </c>
       <c r="J41" s="3">
-        <v>15184100</v>
+        <v>14468100</v>
       </c>
       <c r="K41" s="3">
         <v>12917300</v>
@@ -1952,25 +1952,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1902700</v>
+        <v>1812900</v>
       </c>
       <c r="E42" s="3">
-        <v>1569900</v>
+        <v>1495900</v>
       </c>
       <c r="F42" s="3">
-        <v>2129200</v>
+        <v>2028800</v>
       </c>
       <c r="G42" s="3">
-        <v>1370300</v>
+        <v>1305700</v>
       </c>
       <c r="H42" s="3">
-        <v>1177200</v>
+        <v>1121700</v>
       </c>
       <c r="I42" s="3">
-        <v>1537000</v>
+        <v>1464500</v>
       </c>
       <c r="J42" s="3">
-        <v>1077400</v>
+        <v>1026600</v>
       </c>
       <c r="K42" s="3">
         <v>757300</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>21339900</v>
+        <v>20333600</v>
       </c>
       <c r="E43" s="3">
-        <v>18680300</v>
+        <v>17799400</v>
       </c>
       <c r="F43" s="3">
-        <v>18720500</v>
+        <v>17837700</v>
       </c>
       <c r="G43" s="3">
-        <v>18113400</v>
+        <v>17259300</v>
       </c>
       <c r="H43" s="3">
-        <v>19790600</v>
+        <v>18857300</v>
       </c>
       <c r="I43" s="3">
-        <v>19042800</v>
+        <v>18144800</v>
       </c>
       <c r="J43" s="3">
-        <v>19055800</v>
+        <v>18157200</v>
       </c>
       <c r="K43" s="3">
         <v>20232600</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>15625400</v>
+        <v>14888600</v>
       </c>
       <c r="E44" s="3">
-        <v>13832700</v>
+        <v>13180400</v>
       </c>
       <c r="F44" s="3">
-        <v>11143800</v>
+        <v>10618300</v>
       </c>
       <c r="G44" s="3">
-        <v>11251700</v>
+        <v>10721100</v>
       </c>
       <c r="H44" s="3">
-        <v>11440700</v>
+        <v>10901200</v>
       </c>
       <c r="I44" s="3">
-        <v>10984100</v>
+        <v>10466100</v>
       </c>
       <c r="J44" s="3">
-        <v>9835400</v>
+        <v>9371600</v>
       </c>
       <c r="K44" s="3">
         <v>9652700</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2772200</v>
+        <v>2641500</v>
       </c>
       <c r="E45" s="3">
-        <v>3167500</v>
+        <v>3018100</v>
       </c>
       <c r="F45" s="3">
-        <v>2766400</v>
+        <v>2636000</v>
       </c>
       <c r="G45" s="3">
-        <v>2637200</v>
+        <v>2512800</v>
       </c>
       <c r="H45" s="3">
-        <v>2582900</v>
+        <v>2461100</v>
       </c>
       <c r="I45" s="3">
-        <v>2098200</v>
+        <v>1999200</v>
       </c>
       <c r="J45" s="3">
-        <v>2112300</v>
+        <v>2012700</v>
       </c>
       <c r="K45" s="3">
         <v>2316100</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>69059900</v>
+        <v>65803300</v>
       </c>
       <c r="E46" s="3">
-        <v>63746700</v>
+        <v>60740600</v>
       </c>
       <c r="F46" s="3">
-        <v>54645200</v>
+        <v>52068400</v>
       </c>
       <c r="G46" s="3">
-        <v>52640300</v>
+        <v>50157900</v>
       </c>
       <c r="H46" s="3">
-        <v>52974000</v>
+        <v>50475900</v>
       </c>
       <c r="I46" s="3">
-        <v>49931300</v>
+        <v>47576700</v>
       </c>
       <c r="J46" s="3">
-        <v>47264900</v>
+        <v>45036100</v>
       </c>
       <c r="K46" s="3">
         <v>45876000</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>41574800</v>
+        <v>39614300</v>
       </c>
       <c r="E47" s="3">
-        <v>39852800</v>
+        <v>37973500</v>
       </c>
       <c r="F47" s="3">
-        <v>37055300</v>
+        <v>35307900</v>
       </c>
       <c r="G47" s="3">
-        <v>31579800</v>
+        <v>30090600</v>
       </c>
       <c r="H47" s="3">
-        <v>33049200</v>
+        <v>31490700</v>
       </c>
       <c r="I47" s="3">
-        <v>30523100</v>
+        <v>29083700</v>
       </c>
       <c r="J47" s="3">
-        <v>29074200</v>
+        <v>27703200</v>
       </c>
       <c r="K47" s="3">
         <v>29475400</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>56918600</v>
+        <v>54234500</v>
       </c>
       <c r="E48" s="3">
-        <v>59399800</v>
+        <v>56598700</v>
       </c>
       <c r="F48" s="3">
-        <v>57257700</v>
+        <v>54557600</v>
       </c>
       <c r="G48" s="3">
-        <v>55356700</v>
+        <v>52746300</v>
       </c>
       <c r="H48" s="3">
-        <v>53575300</v>
+        <v>51048800</v>
       </c>
       <c r="I48" s="3">
-        <v>51555600</v>
+        <v>49124400</v>
       </c>
       <c r="J48" s="3">
-        <v>52669300</v>
+        <v>50185600</v>
       </c>
       <c r="K48" s="3">
         <v>50109900</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6279200</v>
+        <v>5983100</v>
       </c>
       <c r="E49" s="3">
-        <v>6124900</v>
+        <v>5836100</v>
       </c>
       <c r="F49" s="3">
-        <v>5903300</v>
+        <v>5624900</v>
       </c>
       <c r="G49" s="3">
-        <v>5482700</v>
+        <v>5224200</v>
       </c>
       <c r="H49" s="3">
-        <v>5366900</v>
+        <v>5113800</v>
       </c>
       <c r="I49" s="3">
-        <v>5346300</v>
+        <v>5094200</v>
       </c>
       <c r="J49" s="3">
-        <v>5610800</v>
+        <v>5346200</v>
       </c>
       <c r="K49" s="3">
         <v>6063300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4038600</v>
+        <v>3848200</v>
       </c>
       <c r="E52" s="3">
-        <v>3722100</v>
+        <v>3546600</v>
       </c>
       <c r="F52" s="3">
-        <v>3189100</v>
+        <v>3038700</v>
       </c>
       <c r="G52" s="3">
-        <v>2467600</v>
+        <v>2351200</v>
       </c>
       <c r="H52" s="3">
-        <v>2256500</v>
+        <v>2150100</v>
       </c>
       <c r="I52" s="3">
-        <v>2151200</v>
+        <v>2049700</v>
       </c>
       <c r="J52" s="3">
-        <v>2068800</v>
+        <v>1971200</v>
       </c>
       <c r="K52" s="3">
         <v>2460700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>177871000</v>
+        <v>169483000</v>
       </c>
       <c r="E54" s="3">
-        <v>172846000</v>
+        <v>164696000</v>
       </c>
       <c r="F54" s="3">
-        <v>158051000</v>
+        <v>150598000</v>
       </c>
       <c r="G54" s="3">
-        <v>147527000</v>
+        <v>140570000</v>
       </c>
       <c r="H54" s="3">
-        <v>147222000</v>
+        <v>140279000</v>
       </c>
       <c r="I54" s="3">
-        <v>139508000</v>
+        <v>132929000</v>
       </c>
       <c r="J54" s="3">
-        <v>136688000</v>
+        <v>130242000</v>
       </c>
       <c r="K54" s="3">
         <v>133985000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10283900</v>
+        <v>8119600</v>
       </c>
       <c r="E57" s="3">
-        <v>7553400</v>
+        <v>7197200</v>
       </c>
       <c r="F57" s="3">
-        <v>6805000</v>
+        <v>6484100</v>
       </c>
       <c r="G57" s="3">
-        <v>6086600</v>
+        <v>5799500</v>
       </c>
       <c r="H57" s="3">
-        <v>7614200</v>
+        <v>7255200</v>
       </c>
       <c r="I57" s="3">
-        <v>7754700</v>
+        <v>7389000</v>
       </c>
       <c r="J57" s="3">
-        <v>7305900</v>
+        <v>6961400</v>
       </c>
       <c r="K57" s="3">
         <v>7067800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23729500</v>
+        <v>22610500</v>
       </c>
       <c r="E58" s="3">
-        <v>22483000</v>
+        <v>21422700</v>
       </c>
       <c r="F58" s="3">
-        <v>21670500</v>
+        <v>20648600</v>
       </c>
       <c r="G58" s="3">
-        <v>23421400</v>
+        <v>22316900</v>
       </c>
       <c r="H58" s="3">
-        <v>22991100</v>
+        <v>21906900</v>
       </c>
       <c r="I58" s="3">
-        <v>21033500</v>
+        <v>20041600</v>
       </c>
       <c r="J58" s="3">
-        <v>20093800</v>
+        <v>19146200</v>
       </c>
       <c r="K58" s="3">
         <v>20503700</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13616500</v>
+        <v>14970000</v>
       </c>
       <c r="E59" s="3">
-        <v>13255400</v>
+        <v>12630300</v>
       </c>
       <c r="F59" s="3">
-        <v>12732900</v>
+        <v>12132400</v>
       </c>
       <c r="G59" s="3">
-        <v>12238600</v>
+        <v>11661500</v>
       </c>
       <c r="H59" s="3">
-        <v>12518600</v>
+        <v>11928200</v>
       </c>
       <c r="I59" s="3">
-        <v>11761600</v>
+        <v>11207000</v>
       </c>
       <c r="J59" s="3">
-        <v>11742300</v>
+        <v>11188500</v>
       </c>
       <c r="K59" s="3">
         <v>12635600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47629900</v>
+        <v>45700100</v>
       </c>
       <c r="E60" s="3">
-        <v>43291700</v>
+        <v>41250200</v>
       </c>
       <c r="F60" s="3">
-        <v>41208400</v>
+        <v>39265200</v>
       </c>
       <c r="G60" s="3">
-        <v>41746500</v>
+        <v>39777900</v>
       </c>
       <c r="H60" s="3">
-        <v>43123900</v>
+        <v>41090300</v>
       </c>
       <c r="I60" s="3">
-        <v>40549800</v>
+        <v>38637600</v>
       </c>
       <c r="J60" s="3">
-        <v>39142000</v>
+        <v>37296100</v>
       </c>
       <c r="K60" s="3">
         <v>40207100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31536300</v>
+        <v>30049200</v>
       </c>
       <c r="E61" s="3">
-        <v>35936500</v>
+        <v>34241800</v>
       </c>
       <c r="F61" s="3">
-        <v>33997800</v>
+        <v>32394500</v>
       </c>
       <c r="G61" s="3">
-        <v>30435100</v>
+        <v>28999800</v>
       </c>
       <c r="H61" s="3">
-        <v>29866300</v>
+        <v>28457900</v>
       </c>
       <c r="I61" s="3">
-        <v>27987400</v>
+        <v>26667600</v>
       </c>
       <c r="J61" s="3">
-        <v>29000000</v>
+        <v>27632400</v>
       </c>
       <c r="K61" s="3">
         <v>27464200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15457300</v>
+        <v>14713300</v>
       </c>
       <c r="E62" s="3">
-        <v>15948200</v>
+        <v>15196100</v>
       </c>
       <c r="F62" s="3">
-        <v>15266300</v>
+        <v>14546400</v>
       </c>
       <c r="G62" s="3">
-        <v>15603300</v>
+        <v>14867500</v>
       </c>
       <c r="H62" s="3">
-        <v>12472400</v>
+        <v>11884200</v>
       </c>
       <c r="I62" s="3">
-        <v>11602500</v>
+        <v>11055300</v>
       </c>
       <c r="J62" s="3">
-        <v>13969100</v>
+        <v>13310400</v>
       </c>
       <c r="K62" s="3">
         <v>14630400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>96916600</v>
+        <v>92647600</v>
       </c>
       <c r="E66" s="3">
-        <v>97337400</v>
+        <v>92747300</v>
       </c>
       <c r="F66" s="3">
-        <v>92567200</v>
+        <v>88202000</v>
       </c>
       <c r="G66" s="3">
-        <v>89758800</v>
+        <v>85526000</v>
       </c>
       <c r="H66" s="3">
-        <v>87611600</v>
+        <v>83480100</v>
       </c>
       <c r="I66" s="3">
-        <v>82306700</v>
+        <v>78425400</v>
       </c>
       <c r="J66" s="3">
-        <v>84089000</v>
+        <v>80123600</v>
       </c>
       <c r="K66" s="3">
         <v>84288800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>72272900</v>
+        <v>68563500</v>
       </c>
       <c r="E72" s="3">
-        <v>68777100</v>
+        <v>65533800</v>
       </c>
       <c r="F72" s="3">
-        <v>64178100</v>
+        <v>61151700</v>
       </c>
       <c r="G72" s="3">
-        <v>58710700</v>
+        <v>55942100</v>
       </c>
       <c r="H72" s="3">
-        <v>57489900</v>
+        <v>54778900</v>
       </c>
       <c r="I72" s="3">
-        <v>54877700</v>
+        <v>52289900</v>
       </c>
       <c r="J72" s="3">
-        <v>48400000</v>
+        <v>46117600</v>
       </c>
       <c r="K72" s="3">
         <v>45528200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>80954600</v>
+        <v>76835800</v>
       </c>
       <c r="E76" s="3">
-        <v>75509100</v>
+        <v>71948300</v>
       </c>
       <c r="F76" s="3">
-        <v>65483400</v>
+        <v>62395400</v>
       </c>
       <c r="G76" s="3">
-        <v>57768400</v>
+        <v>55044200</v>
       </c>
       <c r="H76" s="3">
-        <v>59610300</v>
+        <v>56799200</v>
       </c>
       <c r="I76" s="3">
-        <v>57200800</v>
+        <v>54503400</v>
       </c>
       <c r="J76" s="3">
-        <v>52599100</v>
+        <v>50118700</v>
       </c>
       <c r="K76" s="3">
         <v>49696500</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5012900</v>
+        <v>4475200</v>
       </c>
       <c r="E81" s="3">
-        <v>5098000</v>
+        <v>4857600</v>
       </c>
       <c r="F81" s="3">
-        <v>4740000</v>
+        <v>4516500</v>
       </c>
       <c r="G81" s="3">
-        <v>3285900</v>
+        <v>3131000</v>
       </c>
       <c r="H81" s="3">
-        <v>4400400</v>
+        <v>4192900</v>
       </c>
       <c r="I81" s="3">
-        <v>7637800</v>
+        <v>7277600</v>
       </c>
       <c r="J81" s="3">
-        <v>4445500</v>
+        <v>4235800</v>
       </c>
       <c r="K81" s="3">
         <v>2532300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5203000</v>
+        <v>4957600</v>
       </c>
       <c r="E83" s="3">
-        <v>4405800</v>
+        <v>4198000</v>
       </c>
       <c r="F83" s="3">
-        <v>4500800</v>
+        <v>4288500</v>
       </c>
       <c r="G83" s="3">
-        <v>5046100</v>
+        <v>4808200</v>
       </c>
       <c r="H83" s="3">
-        <v>5203400</v>
+        <v>4958000</v>
       </c>
       <c r="I83" s="3">
-        <v>5141400</v>
+        <v>4898900</v>
       </c>
       <c r="J83" s="3">
-        <v>4861900</v>
+        <v>4632600</v>
       </c>
       <c r="K83" s="3">
         <v>4856200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15350200</v>
+        <v>14626400</v>
       </c>
       <c r="E89" s="3">
-        <v>12110100</v>
+        <v>11539000</v>
       </c>
       <c r="F89" s="3">
-        <v>7731900</v>
+        <v>7367200</v>
       </c>
       <c r="G89" s="3">
-        <v>7061600</v>
+        <v>6728600</v>
       </c>
       <c r="H89" s="3">
-        <v>5594900</v>
+        <v>5331000</v>
       </c>
       <c r="I89" s="3">
-        <v>7121100</v>
+        <v>6785300</v>
       </c>
       <c r="J89" s="3">
-        <v>6381400</v>
+        <v>6080500</v>
       </c>
       <c r="K89" s="3">
         <v>10223800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3425100</v>
+        <v>-3263600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1933300</v>
+        <v>-1842100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2295700</v>
+        <v>-2187500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2669100</v>
+        <v>-2543200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3033700</v>
+        <v>-2890700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2996200</v>
+        <v>-2854900</v>
       </c>
       <c r="J91" s="3">
-        <v>-3562700</v>
+        <v>-3394700</v>
       </c>
       <c r="K91" s="3">
         <v>-4668500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4888800</v>
+        <v>-4658300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2711400</v>
+        <v>-2583500</v>
       </c>
       <c r="F94" s="3">
-        <v>-5745500</v>
+        <v>-5474600</v>
       </c>
       <c r="G94" s="3">
-        <v>-4466500</v>
+        <v>-4255800</v>
       </c>
       <c r="H94" s="3">
-        <v>-4164200</v>
+        <v>-3967800</v>
       </c>
       <c r="I94" s="3">
-        <v>-4435000</v>
+        <v>-4225800</v>
       </c>
       <c r="J94" s="3">
-        <v>-4691000</v>
+        <v>-4469700</v>
       </c>
       <c r="K94" s="3">
         <v>-6431800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1539200</v>
+        <v>-1466600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1358400</v>
+        <v>-1294300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1046100</v>
+        <v>-996800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1418900</v>
+        <v>-1352000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1400700</v>
+        <v>-1334600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1256100</v>
+        <v>-1196900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1169500</v>
+        <v>-1114300</v>
       </c>
       <c r="K96" s="3">
         <v>-1165700</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10586900</v>
+        <v>-10087600</v>
       </c>
       <c r="E100" s="3">
-        <v>-4439300</v>
+        <v>-4230000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2047500</v>
+        <v>-1950900</v>
       </c>
       <c r="G100" s="3">
-        <v>-630200</v>
+        <v>-600500</v>
       </c>
       <c r="H100" s="3">
-        <v>165300</v>
+        <v>157500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1256900</v>
+        <v>-1197700</v>
       </c>
       <c r="J100" s="3">
-        <v>832200</v>
+        <v>793000</v>
       </c>
       <c r="K100" s="3">
         <v>-700400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1048900</v>
+        <v>999400</v>
       </c>
       <c r="E101" s="3">
-        <v>1651500</v>
+        <v>1573700</v>
       </c>
       <c r="F101" s="3">
-        <v>678800</v>
+        <v>646800</v>
       </c>
       <c r="G101" s="3">
-        <v>-679800</v>
+        <v>-647800</v>
       </c>
       <c r="H101" s="3">
-        <v>117300</v>
+        <v>111800</v>
       </c>
       <c r="I101" s="3">
-        <v>-344000</v>
+        <v>-327800</v>
       </c>
       <c r="J101" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="K101" s="3">
         <v>-991500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>923500</v>
+        <v>879900</v>
       </c>
       <c r="E102" s="3">
-        <v>6610900</v>
+        <v>6299200</v>
       </c>
       <c r="F102" s="3">
-        <v>617700</v>
+        <v>588500</v>
       </c>
       <c r="G102" s="3">
-        <v>1285100</v>
+        <v>1224500</v>
       </c>
       <c r="H102" s="3">
-        <v>1713300</v>
+        <v>1632500</v>
       </c>
       <c r="I102" s="3">
-        <v>1085200</v>
+        <v>1034000</v>
       </c>
       <c r="J102" s="3">
-        <v>2512800</v>
+        <v>2394300</v>
       </c>
       <c r="K102" s="3">
         <v>2100100</v>

--- a/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>116156100</v>
+        <v>112267300</v>
       </c>
       <c r="E8" s="3">
-        <v>99977000</v>
+        <v>96629900</v>
       </c>
       <c r="F8" s="3">
-        <v>90481500</v>
+        <v>87452200</v>
       </c>
       <c r="G8" s="3">
-        <v>102576000</v>
+        <v>99141900</v>
       </c>
       <c r="H8" s="3">
-        <v>109154800</v>
+        <v>105500400</v>
       </c>
       <c r="I8" s="3">
-        <v>105531100</v>
+        <v>101998000</v>
       </c>
       <c r="J8" s="3">
-        <v>96174500</v>
+        <v>92954700</v>
       </c>
       <c r="K8" s="3">
         <v>107318500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>93268000</v>
+        <v>90145500</v>
       </c>
       <c r="E9" s="3">
-        <v>79471600</v>
+        <v>76811000</v>
       </c>
       <c r="F9" s="3">
-        <v>71720700</v>
+        <v>69319500</v>
       </c>
       <c r="G9" s="3">
-        <v>81420900</v>
+        <v>78695000</v>
       </c>
       <c r="H9" s="3">
-        <v>86431100</v>
+        <v>83537500</v>
       </c>
       <c r="I9" s="3">
-        <v>82444000</v>
+        <v>79683900</v>
       </c>
       <c r="J9" s="3">
-        <v>74648400</v>
+        <v>72149200</v>
       </c>
       <c r="K9" s="3">
         <v>83293100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22888000</v>
+        <v>22121800</v>
       </c>
       <c r="E10" s="3">
-        <v>20505400</v>
+        <v>19818900</v>
       </c>
       <c r="F10" s="3">
-        <v>18760800</v>
+        <v>18132700</v>
       </c>
       <c r="G10" s="3">
-        <v>21155100</v>
+        <v>20446900</v>
       </c>
       <c r="H10" s="3">
-        <v>22723700</v>
+        <v>21962900</v>
       </c>
       <c r="I10" s="3">
-        <v>23087100</v>
+        <v>22314200</v>
       </c>
       <c r="J10" s="3">
-        <v>21526100</v>
+        <v>20805500</v>
       </c>
       <c r="K10" s="3">
         <v>24025300</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6051900</v>
+        <v>5849300</v>
       </c>
       <c r="E12" s="3">
-        <v>5407100</v>
+        <v>5226100</v>
       </c>
       <c r="F12" s="3">
-        <v>5076200</v>
+        <v>4906300</v>
       </c>
       <c r="G12" s="3">
-        <v>5524300</v>
+        <v>5339400</v>
       </c>
       <c r="H12" s="3">
-        <v>5543400</v>
+        <v>5357800</v>
       </c>
       <c r="I12" s="3">
-        <v>5165300</v>
+        <v>4992300</v>
       </c>
       <c r="J12" s="3">
-        <v>4750100</v>
+        <v>4591100</v>
       </c>
       <c r="K12" s="3">
         <v>4825300</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>110792200</v>
+        <v>107083000</v>
       </c>
       <c r="E17" s="3">
-        <v>93991700</v>
+        <v>90844900</v>
       </c>
       <c r="F17" s="3">
-        <v>85945800</v>
+        <v>83068500</v>
       </c>
       <c r="G17" s="3">
-        <v>98222900</v>
+        <v>94934600</v>
       </c>
       <c r="H17" s="3">
-        <v>104164600</v>
+        <v>100677300</v>
       </c>
       <c r="I17" s="3">
-        <v>99804500</v>
+        <v>96463200</v>
       </c>
       <c r="J17" s="3">
-        <v>90398800</v>
+        <v>87372400</v>
       </c>
       <c r="K17" s="3">
         <v>103618600</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5363900</v>
+        <v>5184300</v>
       </c>
       <c r="E18" s="3">
-        <v>5985400</v>
+        <v>5785000</v>
       </c>
       <c r="F18" s="3">
-        <v>4535600</v>
+        <v>4383800</v>
       </c>
       <c r="G18" s="3">
-        <v>4353100</v>
+        <v>4207300</v>
       </c>
       <c r="H18" s="3">
-        <v>4990200</v>
+        <v>4823100</v>
       </c>
       <c r="I18" s="3">
-        <v>5726500</v>
+        <v>5534800</v>
       </c>
       <c r="J18" s="3">
-        <v>5775700</v>
+        <v>5582300</v>
       </c>
       <c r="K18" s="3">
         <v>3699800</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>926800</v>
+        <v>895800</v>
       </c>
       <c r="E20" s="3">
-        <v>1482700</v>
+        <v>1433100</v>
       </c>
       <c r="F20" s="3">
-        <v>1839300</v>
+        <v>1777700</v>
       </c>
       <c r="G20" s="3">
-        <v>1243300</v>
+        <v>1201600</v>
       </c>
       <c r="H20" s="3">
-        <v>1828900</v>
+        <v>1767700</v>
       </c>
       <c r="I20" s="3">
-        <v>2022400</v>
+        <v>1954700</v>
       </c>
       <c r="J20" s="3">
-        <v>1228000</v>
+        <v>1186900</v>
       </c>
       <c r="K20" s="3">
         <v>1104100</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>11248300</v>
+        <v>10850100</v>
       </c>
       <c r="E21" s="3">
-        <v>11666100</v>
+        <v>11257200</v>
       </c>
       <c r="F21" s="3">
-        <v>10663400</v>
+        <v>10287700</v>
       </c>
       <c r="G21" s="3">
-        <v>10404500</v>
+        <v>10035200</v>
       </c>
       <c r="H21" s="3">
-        <v>11777200</v>
+        <v>11361200</v>
       </c>
       <c r="I21" s="3">
-        <v>12647900</v>
+        <v>12203100</v>
       </c>
       <c r="J21" s="3">
-        <v>11636300</v>
+        <v>11226500</v>
       </c>
       <c r="K21" s="3">
         <v>9613900</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>248100</v>
+        <v>239800</v>
       </c>
       <c r="E22" s="3">
-        <v>115900</v>
+        <v>112000</v>
       </c>
       <c r="F22" s="3">
-        <v>95300</v>
+        <v>92100</v>
       </c>
       <c r="G22" s="3">
-        <v>169600</v>
+        <v>163900</v>
       </c>
       <c r="H22" s="3">
-        <v>90800</v>
+        <v>87800</v>
       </c>
       <c r="I22" s="3">
-        <v>89100</v>
+        <v>86100</v>
       </c>
       <c r="J22" s="3">
-        <v>85700</v>
+        <v>82800</v>
       </c>
       <c r="K22" s="3">
         <v>133400</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>6042600</v>
+        <v>5840300</v>
       </c>
       <c r="E23" s="3">
-        <v>7352200</v>
+        <v>7106100</v>
       </c>
       <c r="F23" s="3">
-        <v>6279500</v>
+        <v>6069300</v>
       </c>
       <c r="G23" s="3">
-        <v>5426700</v>
+        <v>5245100</v>
       </c>
       <c r="H23" s="3">
-        <v>6728300</v>
+        <v>6503100</v>
       </c>
       <c r="I23" s="3">
-        <v>7659900</v>
+        <v>7403400</v>
       </c>
       <c r="J23" s="3">
-        <v>6918000</v>
+        <v>6686400</v>
       </c>
       <c r="K23" s="3">
         <v>4670600</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1114700</v>
+        <v>1077400</v>
       </c>
       <c r="E24" s="3">
-        <v>2126200</v>
+        <v>2055000</v>
       </c>
       <c r="F24" s="3">
-        <v>1501800</v>
+        <v>1451600</v>
       </c>
       <c r="G24" s="3">
-        <v>1923500</v>
+        <v>1859100</v>
       </c>
       <c r="H24" s="3">
-        <v>2082200</v>
+        <v>2012500</v>
       </c>
       <c r="I24" s="3">
-        <v>-93900</v>
+        <v>-90700</v>
       </c>
       <c r="J24" s="3">
-        <v>2250600</v>
+        <v>2175200</v>
       </c>
       <c r="K24" s="3">
         <v>1683800</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4927900</v>
+        <v>4762900</v>
       </c>
       <c r="E26" s="3">
-        <v>5226000</v>
+        <v>5051100</v>
       </c>
       <c r="F26" s="3">
-        <v>4777700</v>
+        <v>4617700</v>
       </c>
       <c r="G26" s="3">
-        <v>3503200</v>
+        <v>3385900</v>
       </c>
       <c r="H26" s="3">
-        <v>4646100</v>
+        <v>4490500</v>
       </c>
       <c r="I26" s="3">
-        <v>7753700</v>
+        <v>7494200</v>
       </c>
       <c r="J26" s="3">
-        <v>4667400</v>
+        <v>4511200</v>
       </c>
       <c r="K26" s="3">
         <v>2986700</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4475200</v>
+        <v>4325400</v>
       </c>
       <c r="E27" s="3">
-        <v>4857600</v>
+        <v>4694900</v>
       </c>
       <c r="F27" s="3">
-        <v>4516500</v>
+        <v>4365300</v>
       </c>
       <c r="G27" s="3">
-        <v>3131000</v>
+        <v>3026200</v>
       </c>
       <c r="H27" s="3">
-        <v>4192900</v>
+        <v>4052500</v>
       </c>
       <c r="I27" s="3">
-        <v>7277600</v>
+        <v>7034000</v>
       </c>
       <c r="J27" s="3">
-        <v>4235800</v>
+        <v>4094000</v>
       </c>
       <c r="K27" s="3">
         <v>2532300</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-926800</v>
+        <v>-895800</v>
       </c>
       <c r="E32" s="3">
-        <v>-1482700</v>
+        <v>-1433100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1839300</v>
+        <v>-1777700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1243300</v>
+        <v>-1201600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1828900</v>
+        <v>-1767700</v>
       </c>
       <c r="I32" s="3">
-        <v>-2022400</v>
+        <v>-1954700</v>
       </c>
       <c r="J32" s="3">
-        <v>-1228000</v>
+        <v>-1186900</v>
       </c>
       <c r="K32" s="3">
         <v>-1104100</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4475200</v>
+        <v>4325400</v>
       </c>
       <c r="E33" s="3">
-        <v>4857600</v>
+        <v>4694900</v>
       </c>
       <c r="F33" s="3">
-        <v>4516500</v>
+        <v>4365300</v>
       </c>
       <c r="G33" s="3">
-        <v>3131000</v>
+        <v>3026200</v>
       </c>
       <c r="H33" s="3">
-        <v>4192900</v>
+        <v>4052500</v>
       </c>
       <c r="I33" s="3">
-        <v>7277600</v>
+        <v>7034000</v>
       </c>
       <c r="J33" s="3">
-        <v>4235800</v>
+        <v>4094000</v>
       </c>
       <c r="K33" s="3">
         <v>2532300</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4475200</v>
+        <v>4325400</v>
       </c>
       <c r="E35" s="3">
-        <v>4857600</v>
+        <v>4694900</v>
       </c>
       <c r="F35" s="3">
-        <v>4516500</v>
+        <v>4365300</v>
       </c>
       <c r="G35" s="3">
-        <v>3131000</v>
+        <v>3026200</v>
       </c>
       <c r="H35" s="3">
-        <v>4192900</v>
+        <v>4052500</v>
       </c>
       <c r="I35" s="3">
-        <v>7277600</v>
+        <v>7034000</v>
       </c>
       <c r="J35" s="3">
-        <v>4235800</v>
+        <v>4094000</v>
       </c>
       <c r="K35" s="3">
         <v>2532300</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>26126700</v>
+        <v>25252000</v>
       </c>
       <c r="E41" s="3">
-        <v>25246800</v>
+        <v>24401500</v>
       </c>
       <c r="F41" s="3">
-        <v>18947600</v>
+        <v>18313300</v>
       </c>
       <c r="G41" s="3">
-        <v>18359100</v>
+        <v>17744400</v>
       </c>
       <c r="H41" s="3">
-        <v>17134600</v>
+        <v>16561000</v>
       </c>
       <c r="I41" s="3">
-        <v>15502100</v>
+        <v>14983100</v>
       </c>
       <c r="J41" s="3">
-        <v>14468100</v>
+        <v>13983700</v>
       </c>
       <c r="K41" s="3">
         <v>12917300</v>
@@ -1952,25 +1952,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1812900</v>
+        <v>1752200</v>
       </c>
       <c r="E42" s="3">
-        <v>1495900</v>
+        <v>1445800</v>
       </c>
       <c r="F42" s="3">
-        <v>2028800</v>
+        <v>1960800</v>
       </c>
       <c r="G42" s="3">
-        <v>1305700</v>
+        <v>1262000</v>
       </c>
       <c r="H42" s="3">
-        <v>1121700</v>
+        <v>1084100</v>
       </c>
       <c r="I42" s="3">
-        <v>1464500</v>
+        <v>1415500</v>
       </c>
       <c r="J42" s="3">
-        <v>1026600</v>
+        <v>992200</v>
       </c>
       <c r="K42" s="3">
         <v>757300</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>20333600</v>
+        <v>19652800</v>
       </c>
       <c r="E43" s="3">
-        <v>17799400</v>
+        <v>17203400</v>
       </c>
       <c r="F43" s="3">
-        <v>17837700</v>
+        <v>17240500</v>
       </c>
       <c r="G43" s="3">
-        <v>17259300</v>
+        <v>16681500</v>
       </c>
       <c r="H43" s="3">
-        <v>18857300</v>
+        <v>18226000</v>
       </c>
       <c r="I43" s="3">
-        <v>18144800</v>
+        <v>17537300</v>
       </c>
       <c r="J43" s="3">
-        <v>18157200</v>
+        <v>17549300</v>
       </c>
       <c r="K43" s="3">
         <v>20232600</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14888600</v>
+        <v>14390100</v>
       </c>
       <c r="E44" s="3">
-        <v>13180400</v>
+        <v>12739200</v>
       </c>
       <c r="F44" s="3">
-        <v>10618300</v>
+        <v>10262800</v>
       </c>
       <c r="G44" s="3">
-        <v>10721100</v>
+        <v>10362200</v>
       </c>
       <c r="H44" s="3">
-        <v>10901200</v>
+        <v>10536300</v>
       </c>
       <c r="I44" s="3">
-        <v>10466100</v>
+        <v>10115700</v>
       </c>
       <c r="J44" s="3">
-        <v>9371600</v>
+        <v>9057800</v>
       </c>
       <c r="K44" s="3">
         <v>9652700</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2641500</v>
+        <v>2553000</v>
       </c>
       <c r="E45" s="3">
-        <v>3018100</v>
+        <v>2917100</v>
       </c>
       <c r="F45" s="3">
-        <v>2636000</v>
+        <v>2547700</v>
       </c>
       <c r="G45" s="3">
-        <v>2512800</v>
+        <v>2428700</v>
       </c>
       <c r="H45" s="3">
-        <v>2461100</v>
+        <v>2378700</v>
       </c>
       <c r="I45" s="3">
-        <v>1999200</v>
+        <v>1932300</v>
       </c>
       <c r="J45" s="3">
-        <v>2012700</v>
+        <v>1945300</v>
       </c>
       <c r="K45" s="3">
         <v>2316100</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>65803300</v>
+        <v>63600200</v>
       </c>
       <c r="E46" s="3">
-        <v>60740600</v>
+        <v>58707100</v>
       </c>
       <c r="F46" s="3">
-        <v>52068400</v>
+        <v>50325200</v>
       </c>
       <c r="G46" s="3">
-        <v>50157900</v>
+        <v>48478700</v>
       </c>
       <c r="H46" s="3">
-        <v>50475900</v>
+        <v>48786000</v>
       </c>
       <c r="I46" s="3">
-        <v>47576700</v>
+        <v>45983900</v>
       </c>
       <c r="J46" s="3">
-        <v>45036100</v>
+        <v>43528300</v>
       </c>
       <c r="K46" s="3">
         <v>45876000</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>39614300</v>
+        <v>38288100</v>
       </c>
       <c r="E47" s="3">
-        <v>37973500</v>
+        <v>36702200</v>
       </c>
       <c r="F47" s="3">
-        <v>35307900</v>
+        <v>34125800</v>
       </c>
       <c r="G47" s="3">
-        <v>30090600</v>
+        <v>29083200</v>
       </c>
       <c r="H47" s="3">
-        <v>31490700</v>
+        <v>30436500</v>
       </c>
       <c r="I47" s="3">
-        <v>29083700</v>
+        <v>28110000</v>
       </c>
       <c r="J47" s="3">
-        <v>27703200</v>
+        <v>26775700</v>
       </c>
       <c r="K47" s="3">
         <v>29475400</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>54234500</v>
+        <v>52418800</v>
       </c>
       <c r="E48" s="3">
-        <v>56598700</v>
+        <v>54703900</v>
       </c>
       <c r="F48" s="3">
-        <v>54557600</v>
+        <v>52731100</v>
       </c>
       <c r="G48" s="3">
-        <v>52746300</v>
+        <v>50980400</v>
       </c>
       <c r="H48" s="3">
-        <v>51048800</v>
+        <v>49339800</v>
       </c>
       <c r="I48" s="3">
-        <v>49124400</v>
+        <v>47479800</v>
       </c>
       <c r="J48" s="3">
-        <v>50185600</v>
+        <v>48505500</v>
       </c>
       <c r="K48" s="3">
         <v>50109900</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>5983100</v>
+        <v>5782800</v>
       </c>
       <c r="E49" s="3">
-        <v>5836100</v>
+        <v>5640700</v>
       </c>
       <c r="F49" s="3">
-        <v>5624900</v>
+        <v>5436600</v>
       </c>
       <c r="G49" s="3">
-        <v>5224200</v>
+        <v>5049300</v>
       </c>
       <c r="H49" s="3">
-        <v>5113800</v>
+        <v>4942600</v>
       </c>
       <c r="I49" s="3">
-        <v>5094200</v>
+        <v>4923700</v>
       </c>
       <c r="J49" s="3">
-        <v>5346200</v>
+        <v>5167200</v>
       </c>
       <c r="K49" s="3">
         <v>6063300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3848200</v>
+        <v>3719300</v>
       </c>
       <c r="E52" s="3">
-        <v>3546600</v>
+        <v>3427900</v>
       </c>
       <c r="F52" s="3">
-        <v>3038700</v>
+        <v>2937000</v>
       </c>
       <c r="G52" s="3">
-        <v>2351200</v>
+        <v>2272500</v>
       </c>
       <c r="H52" s="3">
-        <v>2150100</v>
+        <v>2078100</v>
       </c>
       <c r="I52" s="3">
-        <v>2049700</v>
+        <v>1981100</v>
       </c>
       <c r="J52" s="3">
-        <v>1971200</v>
+        <v>1905200</v>
       </c>
       <c r="K52" s="3">
         <v>2460700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>169483000</v>
+        <v>163809000</v>
       </c>
       <c r="E54" s="3">
-        <v>164696000</v>
+        <v>159182000</v>
       </c>
       <c r="F54" s="3">
-        <v>150598000</v>
+        <v>145556000</v>
       </c>
       <c r="G54" s="3">
-        <v>140570000</v>
+        <v>135864000</v>
       </c>
       <c r="H54" s="3">
-        <v>140279000</v>
+        <v>135583000</v>
       </c>
       <c r="I54" s="3">
-        <v>132929000</v>
+        <v>128478000</v>
       </c>
       <c r="J54" s="3">
-        <v>130242000</v>
+        <v>125882000</v>
       </c>
       <c r="K54" s="3">
         <v>133985000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8119600</v>
+        <v>7847800</v>
       </c>
       <c r="E57" s="3">
-        <v>7197200</v>
+        <v>6956200</v>
       </c>
       <c r="F57" s="3">
-        <v>6484100</v>
+        <v>6267100</v>
       </c>
       <c r="G57" s="3">
-        <v>5799500</v>
+        <v>5605400</v>
       </c>
       <c r="H57" s="3">
-        <v>7255200</v>
+        <v>7012300</v>
       </c>
       <c r="I57" s="3">
-        <v>7389000</v>
+        <v>7141600</v>
       </c>
       <c r="J57" s="3">
-        <v>6961400</v>
+        <v>6728400</v>
       </c>
       <c r="K57" s="3">
         <v>7067800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22610500</v>
+        <v>21853500</v>
       </c>
       <c r="E58" s="3">
-        <v>21422700</v>
+        <v>20705500</v>
       </c>
       <c r="F58" s="3">
-        <v>20648600</v>
+        <v>19957300</v>
       </c>
       <c r="G58" s="3">
-        <v>22316900</v>
+        <v>21569800</v>
       </c>
       <c r="H58" s="3">
-        <v>21906900</v>
+        <v>21173500</v>
       </c>
       <c r="I58" s="3">
-        <v>20041600</v>
+        <v>19370600</v>
       </c>
       <c r="J58" s="3">
-        <v>19146200</v>
+        <v>18505200</v>
       </c>
       <c r="K58" s="3">
         <v>20503700</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14970000</v>
+        <v>14468800</v>
       </c>
       <c r="E59" s="3">
-        <v>12630300</v>
+        <v>12207500</v>
       </c>
       <c r="F59" s="3">
-        <v>12132400</v>
+        <v>11726200</v>
       </c>
       <c r="G59" s="3">
-        <v>11661500</v>
+        <v>11271100</v>
       </c>
       <c r="H59" s="3">
-        <v>11928200</v>
+        <v>11528900</v>
       </c>
       <c r="I59" s="3">
-        <v>11207000</v>
+        <v>10831800</v>
       </c>
       <c r="J59" s="3">
-        <v>11188500</v>
+        <v>10814000</v>
       </c>
       <c r="K59" s="3">
         <v>12635600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45700100</v>
+        <v>44170100</v>
       </c>
       <c r="E60" s="3">
-        <v>41250200</v>
+        <v>39869200</v>
       </c>
       <c r="F60" s="3">
-        <v>39265200</v>
+        <v>37950600</v>
       </c>
       <c r="G60" s="3">
-        <v>39777900</v>
+        <v>38446200</v>
       </c>
       <c r="H60" s="3">
-        <v>41090300</v>
+        <v>39714700</v>
       </c>
       <c r="I60" s="3">
-        <v>38637600</v>
+        <v>37344000</v>
       </c>
       <c r="J60" s="3">
-        <v>37296100</v>
+        <v>36047500</v>
       </c>
       <c r="K60" s="3">
         <v>40207100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30049200</v>
+        <v>29043200</v>
       </c>
       <c r="E61" s="3">
-        <v>34241800</v>
+        <v>33095400</v>
       </c>
       <c r="F61" s="3">
-        <v>32394500</v>
+        <v>31310000</v>
       </c>
       <c r="G61" s="3">
-        <v>28999800</v>
+        <v>28029000</v>
       </c>
       <c r="H61" s="3">
-        <v>28457900</v>
+        <v>27505100</v>
       </c>
       <c r="I61" s="3">
-        <v>26667600</v>
+        <v>25774800</v>
       </c>
       <c r="J61" s="3">
-        <v>27632400</v>
+        <v>26707300</v>
       </c>
       <c r="K61" s="3">
         <v>27464200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14713300</v>
+        <v>14220700</v>
       </c>
       <c r="E62" s="3">
-        <v>15196100</v>
+        <v>14687400</v>
       </c>
       <c r="F62" s="3">
-        <v>14546400</v>
+        <v>14059400</v>
       </c>
       <c r="G62" s="3">
-        <v>14867500</v>
+        <v>14369800</v>
       </c>
       <c r="H62" s="3">
-        <v>11884200</v>
+        <v>11486300</v>
       </c>
       <c r="I62" s="3">
-        <v>11055300</v>
+        <v>10685200</v>
       </c>
       <c r="J62" s="3">
-        <v>13310400</v>
+        <v>12864800</v>
       </c>
       <c r="K62" s="3">
         <v>14630400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>92647600</v>
+        <v>89545800</v>
       </c>
       <c r="E66" s="3">
-        <v>92747300</v>
+        <v>89642200</v>
       </c>
       <c r="F66" s="3">
-        <v>88202000</v>
+        <v>85249100</v>
       </c>
       <c r="G66" s="3">
-        <v>85526000</v>
+        <v>82662700</v>
       </c>
       <c r="H66" s="3">
-        <v>83480100</v>
+        <v>80685300</v>
       </c>
       <c r="I66" s="3">
-        <v>78425400</v>
+        <v>75799800</v>
       </c>
       <c r="J66" s="3">
-        <v>80123600</v>
+        <v>77441200</v>
       </c>
       <c r="K66" s="3">
         <v>84288800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>68563500</v>
+        <v>66268000</v>
       </c>
       <c r="E72" s="3">
-        <v>65533800</v>
+        <v>63339800</v>
       </c>
       <c r="F72" s="3">
-        <v>61151700</v>
+        <v>59104400</v>
       </c>
       <c r="G72" s="3">
-        <v>55942100</v>
+        <v>54069200</v>
       </c>
       <c r="H72" s="3">
-        <v>54778900</v>
+        <v>52944900</v>
       </c>
       <c r="I72" s="3">
-        <v>52289900</v>
+        <v>50539200</v>
       </c>
       <c r="J72" s="3">
-        <v>46117600</v>
+        <v>44573600</v>
       </c>
       <c r="K72" s="3">
         <v>45528200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>76835800</v>
+        <v>74263400</v>
       </c>
       <c r="E76" s="3">
-        <v>71948300</v>
+        <v>69539600</v>
       </c>
       <c r="F76" s="3">
-        <v>62395400</v>
+        <v>60306500</v>
       </c>
       <c r="G76" s="3">
-        <v>55044200</v>
+        <v>53201400</v>
       </c>
       <c r="H76" s="3">
-        <v>56799200</v>
+        <v>54897700</v>
       </c>
       <c r="I76" s="3">
-        <v>54503400</v>
+        <v>52678700</v>
       </c>
       <c r="J76" s="3">
-        <v>50118700</v>
+        <v>48440800</v>
       </c>
       <c r="K76" s="3">
         <v>49696500</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4475200</v>
+        <v>4325400</v>
       </c>
       <c r="E81" s="3">
-        <v>4857600</v>
+        <v>4694900</v>
       </c>
       <c r="F81" s="3">
-        <v>4516500</v>
+        <v>4365300</v>
       </c>
       <c r="G81" s="3">
-        <v>3131000</v>
+        <v>3026200</v>
       </c>
       <c r="H81" s="3">
-        <v>4192900</v>
+        <v>4052500</v>
       </c>
       <c r="I81" s="3">
-        <v>7277600</v>
+        <v>7034000</v>
       </c>
       <c r="J81" s="3">
-        <v>4235800</v>
+        <v>4094000</v>
       </c>
       <c r="K81" s="3">
         <v>2532300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4957600</v>
+        <v>4791600</v>
       </c>
       <c r="E83" s="3">
-        <v>4198000</v>
+        <v>4057500</v>
       </c>
       <c r="F83" s="3">
-        <v>4288500</v>
+        <v>4144900</v>
       </c>
       <c r="G83" s="3">
-        <v>4808200</v>
+        <v>4647200</v>
       </c>
       <c r="H83" s="3">
-        <v>4958000</v>
+        <v>4792100</v>
       </c>
       <c r="I83" s="3">
-        <v>4898900</v>
+        <v>4734900</v>
       </c>
       <c r="J83" s="3">
-        <v>4632600</v>
+        <v>4477500</v>
       </c>
       <c r="K83" s="3">
         <v>4856200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14626400</v>
+        <v>14136700</v>
       </c>
       <c r="E89" s="3">
-        <v>11539000</v>
+        <v>11152700</v>
       </c>
       <c r="F89" s="3">
-        <v>7367200</v>
+        <v>7120600</v>
       </c>
       <c r="G89" s="3">
-        <v>6728600</v>
+        <v>6503300</v>
       </c>
       <c r="H89" s="3">
-        <v>5331000</v>
+        <v>5152600</v>
       </c>
       <c r="I89" s="3">
-        <v>6785300</v>
+        <v>6558100</v>
       </c>
       <c r="J89" s="3">
-        <v>6080500</v>
+        <v>5876900</v>
       </c>
       <c r="K89" s="3">
         <v>10223800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3263600</v>
+        <v>-3154300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1842100</v>
+        <v>-1780500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2187500</v>
+        <v>-2114200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2543200</v>
+        <v>-2458100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2890700</v>
+        <v>-2793900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2854900</v>
+        <v>-2759300</v>
       </c>
       <c r="J91" s="3">
-        <v>-3394700</v>
+        <v>-3281000</v>
       </c>
       <c r="K91" s="3">
         <v>-4668500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4658300</v>
+        <v>-4502300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2583500</v>
+        <v>-2497000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5474600</v>
+        <v>-5291300</v>
       </c>
       <c r="G94" s="3">
-        <v>-4255800</v>
+        <v>-4113400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3967800</v>
+        <v>-3835000</v>
       </c>
       <c r="I94" s="3">
-        <v>-4225800</v>
+        <v>-4084400</v>
       </c>
       <c r="J94" s="3">
-        <v>-4469700</v>
+        <v>-4320100</v>
       </c>
       <c r="K94" s="3">
         <v>-6431800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1466600</v>
+        <v>-1417500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1294300</v>
+        <v>-1251000</v>
       </c>
       <c r="F96" s="3">
-        <v>-996800</v>
+        <v>-963400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1352000</v>
+        <v>-1306700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1334600</v>
+        <v>-1290000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1196900</v>
+        <v>-1156800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1114300</v>
+        <v>-1077000</v>
       </c>
       <c r="K96" s="3">
         <v>-1165700</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10087600</v>
+        <v>-9749900</v>
       </c>
       <c r="E100" s="3">
-        <v>-4230000</v>
+        <v>-4088400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1950900</v>
+        <v>-1885600</v>
       </c>
       <c r="G100" s="3">
-        <v>-600500</v>
+        <v>-580400</v>
       </c>
       <c r="H100" s="3">
-        <v>157500</v>
+        <v>152200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1197700</v>
+        <v>-1157600</v>
       </c>
       <c r="J100" s="3">
-        <v>793000</v>
+        <v>766400</v>
       </c>
       <c r="K100" s="3">
         <v>-700400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>999400</v>
+        <v>966000</v>
       </c>
       <c r="E101" s="3">
-        <v>1573700</v>
+        <v>1521000</v>
       </c>
       <c r="F101" s="3">
-        <v>646800</v>
+        <v>625100</v>
       </c>
       <c r="G101" s="3">
-        <v>-647800</v>
+        <v>-626100</v>
       </c>
       <c r="H101" s="3">
-        <v>111800</v>
+        <v>108100</v>
       </c>
       <c r="I101" s="3">
-        <v>-327800</v>
+        <v>-316800</v>
       </c>
       <c r="J101" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K101" s="3">
         <v>-991500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>879900</v>
+        <v>850500</v>
       </c>
       <c r="E102" s="3">
-        <v>6299200</v>
+        <v>6088300</v>
       </c>
       <c r="F102" s="3">
-        <v>588500</v>
+        <v>568800</v>
       </c>
       <c r="G102" s="3">
-        <v>1224500</v>
+        <v>1183500</v>
       </c>
       <c r="H102" s="3">
-        <v>1632500</v>
+        <v>1577900</v>
       </c>
       <c r="I102" s="3">
-        <v>1034000</v>
+        <v>999400</v>
       </c>
       <c r="J102" s="3">
-        <v>2394300</v>
+        <v>2314200</v>
       </c>
       <c r="K102" s="3">
         <v>2100100</v>
